--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6729442D-04DD-40AC-9D8B-7C83DBEED42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C5BD5F-3976-4C8C-A73F-352EE5D553B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
@@ -2277,6 +2277,36 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2303,36 +2333,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2388,6 +2388,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2405,12 +2411,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5115,20 +5115,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="169"/>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="169"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
-      <c r="AV1" s="169"/>
-      <c r="AW1" s="169"/>
-      <c r="AX1" s="169"/>
-      <c r="AY1" s="169"/>
-      <c r="AZ1" s="169"/>
-      <c r="BA1" s="169"/>
+      <c r="AN1" s="151"/>
+      <c r="AO1" s="151"/>
+      <c r="AP1" s="151"/>
+      <c r="AQ1" s="151"/>
+      <c r="AR1" s="151"/>
+      <c r="AS1" s="151"/>
+      <c r="AT1" s="151"/>
+      <c r="AU1" s="151"/>
+      <c r="AV1" s="151"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="151"/>
+      <c r="AY1" s="151"/>
+      <c r="AZ1" s="151"/>
+      <c r="BA1" s="151"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -5147,7 +5147,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="H2" s="194" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -5169,7 +5169,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="192" t="s">
+      <c r="P2" s="194" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -5200,10 +5200,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="195" t="s">
+      <c r="AC2" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="198" t="s">
+      <c r="AD2" s="192" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -5215,26 +5215,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="169"/>
-      <c r="AK2" s="169"/>
-      <c r="AL2" s="169"/>
-      <c r="AM2" s="169"/>
-      <c r="AN2" s="169"/>
-      <c r="AO2" s="169"/>
-      <c r="AP2" s="169"/>
-      <c r="AQ2" s="169"/>
-      <c r="AR2" s="169"/>
-      <c r="AS2" s="169"/>
-      <c r="AT2" s="169"/>
-      <c r="AU2" s="169"/>
-      <c r="AV2" s="169"/>
-      <c r="AW2" s="169"/>
-      <c r="AX2" s="169"/>
-      <c r="AY2" s="169"/>
-      <c r="AZ2" s="169"/>
-      <c r="BA2" s="169"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="151"/>
+      <c r="AO2" s="151"/>
+      <c r="AP2" s="151"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="151"/>
+      <c r="AS2" s="151"/>
+      <c r="AT2" s="151"/>
+      <c r="AU2" s="151"/>
+      <c r="AV2" s="151"/>
+      <c r="AW2" s="151"/>
+      <c r="AX2" s="151"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="151"/>
+      <c r="BA2" s="151"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -5255,7 +5255,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="193"/>
+      <c r="H3" s="195"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="193"/>
+      <c r="P3" s="195"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -5296,8 +5296,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="161"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="155"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="193"/>
+      <c r="H4" s="195"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="194"/>
+      <c r="P4" s="196"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -5382,8 +5382,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="196"/>
-      <c r="AD4" s="161"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="155"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -5431,7 +5431,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="193"/>
+      <c r="H5" s="195"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -5456,8 +5456,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="196"/>
-      <c r="AD5" s="161"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="155"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="193"/>
+      <c r="H6" s="195"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -5517,8 +5517,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="161"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="155"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="193"/>
+      <c r="H7" s="195"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -5583,8 +5583,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="196"/>
-      <c r="AD7" s="161"/>
+      <c r="AC7" s="198"/>
+      <c r="AD7" s="155"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="193"/>
+      <c r="H8" s="195"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -5646,8 +5646,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="161"/>
+      <c r="AC8" s="198"/>
+      <c r="AD8" s="155"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -5682,7 +5682,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="194"/>
+      <c r="H9" s="196"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -5709,8 +5709,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="196"/>
-      <c r="AD9" s="161" t="s">
+      <c r="AC9" s="198"/>
+      <c r="AD9" s="155" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -5753,8 +5753,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="196"/>
-      <c r="AD10" s="161"/>
+      <c r="AC10" s="198"/>
+      <c r="AD10" s="155"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="195" t="s">
+      <c r="H11" s="197" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -5808,8 +5808,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="196"/>
-      <c r="AD11" s="161"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="155"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="196"/>
+      <c r="H12" s="198"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -5847,8 +5847,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="196"/>
-      <c r="AD12" s="161"/>
+      <c r="AC12" s="198"/>
+      <c r="AD12" s="155"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="196"/>
+      <c r="H13" s="198"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -5886,8 +5886,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="196"/>
-      <c r="AD13" s="161"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="155"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="196"/>
+      <c r="H14" s="198"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -5925,8 +5925,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="196"/>
-      <c r="AD14" s="161"/>
+      <c r="AC14" s="198"/>
+      <c r="AD14" s="155"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="196"/>
+      <c r="H15" s="198"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -5964,8 +5964,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="196"/>
-      <c r="AD15" s="161" t="s">
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="155" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -5983,7 +5983,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="196"/>
+      <c r="H16" s="198"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -6002,8 +6002,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="196"/>
-      <c r="AD16" s="161"/>
+      <c r="AC16" s="198"/>
+      <c r="AD16" s="155"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="196"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -6041,8 +6041,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="196"/>
-      <c r="AD17" s="161"/>
+      <c r="AC17" s="198"/>
+      <c r="AD17" s="155"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="197"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -6080,8 +6080,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="196"/>
-      <c r="AD18" s="161"/>
+      <c r="AC18" s="198"/>
+      <c r="AD18" s="155"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -6100,8 +6100,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="196"/>
-      <c r="AD19" s="161"/>
+      <c r="AC19" s="198"/>
+      <c r="AD19" s="155"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -6120,8 +6120,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="196"/>
-      <c r="AD20" s="161" t="s">
+      <c r="AC20" s="198"/>
+      <c r="AD20" s="155" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -6142,8 +6142,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="196"/>
-      <c r="AD21" s="161"/>
+      <c r="AC21" s="198"/>
+      <c r="AD21" s="155"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -6162,8 +6162,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="196"/>
-      <c r="AD22" s="161"/>
+      <c r="AC22" s="198"/>
+      <c r="AD22" s="155"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -6182,8 +6182,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="196"/>
-      <c r="AD23" s="161" t="s">
+      <c r="AC23" s="198"/>
+      <c r="AD23" s="155" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -6204,8 +6204,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="196"/>
-      <c r="AD24" s="161"/>
+      <c r="AC24" s="198"/>
+      <c r="AD24" s="155"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -6218,8 +6218,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="197"/>
-      <c r="AD25" s="199"/>
+      <c r="AC25" s="199"/>
+      <c r="AD25" s="193"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -6236,10 +6236,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="195" t="s">
+      <c r="AC27" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="198" t="s">
+      <c r="AD27" s="192" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -6256,8 +6256,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="196"/>
-      <c r="AD28" s="161"/>
+      <c r="AC28" s="198"/>
+      <c r="AD28" s="155"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -6272,8 +6272,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="196"/>
-      <c r="AD29" s="161"/>
+      <c r="AC29" s="198"/>
+      <c r="AD29" s="155"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -6285,8 +6285,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="196"/>
-      <c r="AD30" s="161"/>
+      <c r="AC30" s="198"/>
+      <c r="AD30" s="155"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -6300,8 +6300,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="196"/>
-      <c r="AD31" s="161"/>
+      <c r="AC31" s="198"/>
+      <c r="AD31" s="155"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -6313,8 +6313,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="196"/>
-      <c r="AD32" s="161"/>
+      <c r="AC32" s="198"/>
+      <c r="AD32" s="155"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -6327,8 +6327,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="196"/>
-      <c r="AD33" s="161"/>
+      <c r="AC33" s="198"/>
+      <c r="AD33" s="155"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -6345,8 +6345,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="196"/>
-      <c r="AD34" s="161" t="s">
+      <c r="AC34" s="198"/>
+      <c r="AD34" s="155" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -6365,8 +6365,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="196"/>
-      <c r="AD35" s="161"/>
+      <c r="AC35" s="198"/>
+      <c r="AD35" s="155"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -6383,8 +6383,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="196"/>
-      <c r="AD36" s="161"/>
+      <c r="AC36" s="198"/>
+      <c r="AD36" s="155"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -6401,8 +6401,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="196"/>
-      <c r="AD37" s="161"/>
+      <c r="AC37" s="198"/>
+      <c r="AD37" s="155"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -6419,8 +6419,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="196"/>
-      <c r="AD38" s="161"/>
+      <c r="AC38" s="198"/>
+      <c r="AD38" s="155"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -6437,8 +6437,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="196"/>
-      <c r="AD39" s="161"/>
+      <c r="AC39" s="198"/>
+      <c r="AD39" s="155"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -6455,8 +6455,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="196"/>
-      <c r="AD40" s="161"/>
+      <c r="AC40" s="198"/>
+      <c r="AD40" s="155"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -6473,8 +6473,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="196"/>
-      <c r="AD41" s="161" t="s">
+      <c r="AC41" s="198"/>
+      <c r="AD41" s="155" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -6493,8 +6493,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="196"/>
-      <c r="AD42" s="161"/>
+      <c r="AC42" s="198"/>
+      <c r="AD42" s="155"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -6511,8 +6511,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="196"/>
-      <c r="AD43" s="161"/>
+      <c r="AC43" s="198"/>
+      <c r="AD43" s="155"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -6529,8 +6529,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="196"/>
-      <c r="AD44" s="161"/>
+      <c r="AC44" s="198"/>
+      <c r="AD44" s="155"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -6547,8 +6547,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="196"/>
-      <c r="AD45" s="161"/>
+      <c r="AC45" s="198"/>
+      <c r="AD45" s="155"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -6565,8 +6565,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="196"/>
-      <c r="AD46" s="161"/>
+      <c r="AC46" s="198"/>
+      <c r="AD46" s="155"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -6583,8 +6583,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="196"/>
-      <c r="AD47" s="161"/>
+      <c r="AC47" s="198"/>
+      <c r="AD47" s="155"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -6601,8 +6601,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="196"/>
-      <c r="AD48" s="161" t="s">
+      <c r="AC48" s="198"/>
+      <c r="AD48" s="155" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -6621,8 +6621,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="196"/>
-      <c r="AD49" s="161"/>
+      <c r="AC49" s="198"/>
+      <c r="AD49" s="155"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -6639,8 +6639,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="196"/>
-      <c r="AD50" s="161"/>
+      <c r="AC50" s="198"/>
+      <c r="AD50" s="155"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -6657,8 +6657,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="196"/>
-      <c r="AD51" s="161" t="s">
+      <c r="AC51" s="198"/>
+      <c r="AD51" s="155" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -6677,8 +6677,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="196"/>
-      <c r="AD52" s="161"/>
+      <c r="AC52" s="198"/>
+      <c r="AD52" s="155"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -6695,8 +6695,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="196"/>
-      <c r="AD53" s="161"/>
+      <c r="AC53" s="198"/>
+      <c r="AD53" s="155"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -6713,7 +6713,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="196"/>
+      <c r="AC54" s="198"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="197"/>
+      <c r="AC55" s="199"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -6966,11 +6966,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -6987,11 +6987,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7036,7 +7036,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="194" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -7056,7 +7056,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="193"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -7074,7 +7074,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="193"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -7092,7 +7092,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="194"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -7160,7 +7160,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="194" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -7183,7 +7183,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="193"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="193"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -7225,7 +7225,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -7246,7 +7246,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="193"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -7267,7 +7267,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="193"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="193"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="194"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -7330,7 +7330,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="194" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -7353,7 +7353,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="193"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -7374,7 +7374,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="193"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -7395,7 +7395,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="193"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -7416,7 +7416,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="193"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -7437,7 +7437,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="193"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -7458,7 +7458,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="193"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="194"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -7549,7 +7549,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="194" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7568,7 +7568,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="193"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -7585,7 +7585,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="194"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -7675,10 +7675,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="194" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -7692,8 +7692,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="193"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -7705,8 +7705,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="193"/>
-      <c r="B3" s="164"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -7718,8 +7718,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="193"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="195"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -7731,8 +7731,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
-      <c r="B5" s="164"/>
+      <c r="A5" s="195"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -7744,8 +7744,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="193"/>
-      <c r="B6" s="164"/>
+      <c r="A6" s="195"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -7757,8 +7757,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="193"/>
-      <c r="B7" s="164"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -7770,8 +7770,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="193"/>
-      <c r="B8" s="164" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="158" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -7785,8 +7785,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="193"/>
-      <c r="B9" s="164"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -7798,8 +7798,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="193"/>
-      <c r="B10" s="164"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -7811,8 +7811,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="193"/>
-      <c r="B11" s="164"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -7824,8 +7824,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="193"/>
-      <c r="B12" s="164"/>
+      <c r="A12" s="195"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -7837,8 +7837,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="193"/>
-      <c r="B13" s="164"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -7850,8 +7850,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="193"/>
-      <c r="B14" s="164" t="s">
+      <c r="A14" s="195"/>
+      <c r="B14" s="158" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -7865,8 +7865,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="193"/>
-      <c r="B15" s="164"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -7878,8 +7878,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="193"/>
-      <c r="B16" s="164"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -7891,8 +7891,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="193"/>
-      <c r="B17" s="164"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -7904,8 +7904,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="193"/>
-      <c r="B18" s="164"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -7917,8 +7917,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="193"/>
-      <c r="B19" s="164" t="s">
+      <c r="A19" s="195"/>
+      <c r="B19" s="158" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -7932,8 +7932,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="193"/>
-      <c r="B20" s="164"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -7945,8 +7945,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="193"/>
-      <c r="B21" s="164"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -7958,8 +7958,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="193"/>
-      <c r="B22" s="164" t="s">
+      <c r="A22" s="195"/>
+      <c r="B22" s="158" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -7973,8 +7973,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="193"/>
-      <c r="B23" s="164"/>
+      <c r="A23" s="195"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -7986,8 +7986,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="194"/>
-      <c r="B24" s="165"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -7999,10 +7999,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="195" t="s">
+      <c r="A25" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="157" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -8016,8 +8016,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
-      <c r="B26" s="164"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -8029,8 +8029,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
-      <c r="B27" s="164"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -8042,8 +8042,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
-      <c r="B28" s="164"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -8055,8 +8055,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="164"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -8068,8 +8068,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="196"/>
-      <c r="B30" s="164"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -8081,8 +8081,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="196"/>
-      <c r="B31" s="164"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -8094,8 +8094,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
-      <c r="B32" s="164" t="s">
+      <c r="A32" s="198"/>
+      <c r="B32" s="158" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -8109,8 +8109,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="164"/>
+      <c r="A33" s="198"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -8122,8 +8122,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="164"/>
+      <c r="A34" s="198"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -8135,8 +8135,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
-      <c r="B35" s="164"/>
+      <c r="A35" s="198"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -8148,8 +8148,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="196"/>
-      <c r="B36" s="164"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -8161,8 +8161,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="164"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -8174,8 +8174,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="196"/>
-      <c r="B38" s="164"/>
+      <c r="A38" s="198"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -8187,8 +8187,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="196"/>
-      <c r="B39" s="164" t="s">
+      <c r="A39" s="198"/>
+      <c r="B39" s="158" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -8202,8 +8202,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="196"/>
-      <c r="B40" s="164"/>
+      <c r="A40" s="198"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -8215,8 +8215,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="196"/>
-      <c r="B41" s="164"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="158"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -8228,8 +8228,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="196"/>
-      <c r="B42" s="164"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -8241,8 +8241,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="196"/>
-      <c r="B43" s="164"/>
+      <c r="A43" s="198"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -8254,8 +8254,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="196"/>
-      <c r="B44" s="164"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -8267,8 +8267,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="196"/>
-      <c r="B45" s="164"/>
+      <c r="A45" s="198"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -8280,8 +8280,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="196"/>
-      <c r="B46" s="164" t="s">
+      <c r="A46" s="198"/>
+      <c r="B46" s="158" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -8295,8 +8295,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="196"/>
-      <c r="B47" s="164"/>
+      <c r="A47" s="198"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -8308,8 +8308,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="196"/>
-      <c r="B48" s="164"/>
+      <c r="A48" s="198"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -8321,8 +8321,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="196"/>
-      <c r="B49" s="164" t="s">
+      <c r="A49" s="198"/>
+      <c r="B49" s="158" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -8336,8 +8336,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="196"/>
-      <c r="B50" s="164"/>
+      <c r="A50" s="198"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -8349,8 +8349,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="196"/>
-      <c r="B51" s="164"/>
+      <c r="A51" s="198"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -8362,7 +8362,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="196"/>
+      <c r="A52" s="198"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -8377,7 +8377,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="197"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -8415,7 +8415,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8462,7 +8462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD098515-21DA-4E34-8208-57D76FDC375B}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -8538,50 +8538,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="169"/>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="169"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
-      <c r="AV1" s="169"/>
-      <c r="AW1" s="169"/>
-      <c r="AX1" s="169"/>
-      <c r="AY1" s="169"/>
-      <c r="AZ1" s="169"/>
-      <c r="BA1" s="169"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="154"/>
+      <c r="AN1" s="151"/>
+      <c r="AO1" s="151"/>
+      <c r="AP1" s="151"/>
+      <c r="AQ1" s="151"/>
+      <c r="AR1" s="151"/>
+      <c r="AS1" s="151"/>
+      <c r="AT1" s="151"/>
+      <c r="AU1" s="151"/>
+      <c r="AV1" s="151"/>
+      <c r="AW1" s="151"/>
+      <c r="AX1" s="151"/>
+      <c r="AY1" s="151"/>
+      <c r="AZ1" s="151"/>
+      <c r="BA1" s="151"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="164" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -8618,33 +8618,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="167"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="169"/>
-      <c r="AK2" s="169"/>
-      <c r="AL2" s="169"/>
-      <c r="AM2" s="169"/>
-      <c r="AN2" s="169"/>
-      <c r="AO2" s="169"/>
-      <c r="AP2" s="169"/>
-      <c r="AQ2" s="169"/>
-      <c r="AR2" s="169"/>
-      <c r="AS2" s="169"/>
-      <c r="AT2" s="169"/>
-      <c r="AU2" s="169"/>
-      <c r="AV2" s="169"/>
-      <c r="AW2" s="169"/>
-      <c r="AX2" s="169"/>
-      <c r="AY2" s="169"/>
-      <c r="AZ2" s="169"/>
-      <c r="BA2" s="169"/>
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="153"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="151"/>
+      <c r="AO2" s="151"/>
+      <c r="AP2" s="151"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="151"/>
+      <c r="AS2" s="151"/>
+      <c r="AT2" s="151"/>
+      <c r="AU2" s="151"/>
+      <c r="AV2" s="151"/>
+      <c r="AW2" s="151"/>
+      <c r="AX2" s="151"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="151"/>
+      <c r="BA2" s="151"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
+      <c r="A3" s="165"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="155"/>
+      <c r="A4" s="165"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="156"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -8913,7 +8913,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="164" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -8968,7 +8968,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="155"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -9090,7 +9090,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="155"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -9138,7 +9138,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="155"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -9162,7 +9162,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -9195,7 +9195,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="161" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -9221,7 +9221,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -9245,7 +9245,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -9293,7 +9293,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -9317,7 +9317,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -9341,7 +9341,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -9365,7 +9365,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="153"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="164" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -9432,7 +9432,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="155"/>
+      <c r="A28" s="165"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -9453,7 +9453,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="156"/>
+      <c r="A29" s="166"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -9503,10 +9503,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="151" t="s">
+      <c r="A34" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="163" t="str">
+      <c r="B34" s="157" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -9527,8 +9527,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="164"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -9543,8 +9543,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="152"/>
-      <c r="B36" s="164"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -9559,8 +9559,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
-      <c r="B37" s="164"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -9575,8 +9575,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="152"/>
-      <c r="B38" s="164"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -9591,8 +9591,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="152"/>
-      <c r="B39" s="164"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -9604,8 +9604,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="152"/>
-      <c r="B40" s="164"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -9617,8 +9617,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="152"/>
-      <c r="B41" s="164" t="str">
+      <c r="A41" s="162"/>
+      <c r="B41" s="158" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -9633,8 +9633,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="152"/>
-      <c r="B42" s="164"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="158"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -9646,8 +9646,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="152"/>
-      <c r="B43" s="164"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -9659,8 +9659,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
-      <c r="B44" s="164"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -9672,8 +9672,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="152"/>
-      <c r="B45" s="164"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -9685,8 +9685,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="152"/>
-      <c r="B46" s="164"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -9698,8 +9698,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="152"/>
-      <c r="B47" s="164" t="str">
+      <c r="A47" s="162"/>
+      <c r="B47" s="158" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -9714,8 +9714,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="152"/>
-      <c r="B48" s="164"/>
+      <c r="A48" s="162"/>
+      <c r="B48" s="158"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -9727,8 +9727,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="152"/>
-      <c r="B49" s="164"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -9740,8 +9740,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="152"/>
-      <c r="B50" s="164"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -9753,8 +9753,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="152"/>
-      <c r="B51" s="164"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="158"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -9766,8 +9766,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="152"/>
-      <c r="B52" s="164" t="str">
+      <c r="A52" s="162"/>
+      <c r="B52" s="158" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -9782,8 +9782,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="152"/>
-      <c r="B53" s="164"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -9795,8 +9795,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="152"/>
-      <c r="B54" s="164"/>
+      <c r="A54" s="162"/>
+      <c r="B54" s="158"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -9808,8 +9808,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="152"/>
-      <c r="B55" s="164" t="str">
+      <c r="A55" s="162"/>
+      <c r="B55" s="158" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -9824,8 +9824,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="152"/>
-      <c r="B56" s="164"/>
+      <c r="A56" s="162"/>
+      <c r="B56" s="158"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -9837,8 +9837,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="153"/>
-      <c r="B57" s="165"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="159"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -9853,10 +9853,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="157" t="s">
+      <c r="A59" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="160" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -9873,8 +9873,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="158"/>
-      <c r="B60" s="161"/>
+      <c r="A60" s="168"/>
+      <c r="B60" s="155"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -9892,8 +9892,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="158"/>
-      <c r="B61" s="161"/>
+      <c r="A61" s="168"/>
+      <c r="B61" s="155"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -9908,8 +9908,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="158"/>
-      <c r="B62" s="161"/>
+      <c r="A62" s="168"/>
+      <c r="B62" s="155"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -9924,8 +9924,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="158"/>
-      <c r="B63" s="161"/>
+      <c r="A63" s="168"/>
+      <c r="B63" s="155"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -9940,8 +9940,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="158"/>
-      <c r="B64" s="161"/>
+      <c r="A64" s="168"/>
+      <c r="B64" s="155"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -9956,8 +9956,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="158"/>
-      <c r="B65" s="161"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="155"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -9970,8 +9970,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="158"/>
-      <c r="B66" s="161" t="str">
+      <c r="A66" s="168"/>
+      <c r="B66" s="155" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -9987,8 +9987,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="158"/>
-      <c r="B67" s="161"/>
+      <c r="A67" s="168"/>
+      <c r="B67" s="155"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -10000,8 +10000,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="158"/>
-      <c r="B68" s="161"/>
+      <c r="A68" s="168"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -10013,8 +10013,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="158"/>
-      <c r="B69" s="161"/>
+      <c r="A69" s="168"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -10026,8 +10026,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="158"/>
-      <c r="B70" s="161"/>
+      <c r="A70" s="168"/>
+      <c r="B70" s="155"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -10039,8 +10039,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="158"/>
-      <c r="B71" s="161"/>
+      <c r="A71" s="168"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -10052,8 +10052,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="158"/>
-      <c r="B72" s="161"/>
+      <c r="A72" s="168"/>
+      <c r="B72" s="155"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -10065,8 +10065,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="158"/>
-      <c r="B73" s="161" t="str">
+      <c r="A73" s="168"/>
+      <c r="B73" s="155" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -10081,8 +10081,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="158"/>
-      <c r="B74" s="161"/>
+      <c r="A74" s="168"/>
+      <c r="B74" s="155"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -10094,8 +10094,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="158"/>
-      <c r="B75" s="161"/>
+      <c r="A75" s="168"/>
+      <c r="B75" s="155"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -10107,8 +10107,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="158"/>
-      <c r="B76" s="161"/>
+      <c r="A76" s="168"/>
+      <c r="B76" s="155"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -10120,8 +10120,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="158"/>
-      <c r="B77" s="161"/>
+      <c r="A77" s="168"/>
+      <c r="B77" s="155"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -10133,8 +10133,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="158"/>
-      <c r="B78" s="161"/>
+      <c r="A78" s="168"/>
+      <c r="B78" s="155"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -10146,8 +10146,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="158"/>
-      <c r="B79" s="161"/>
+      <c r="A79" s="168"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -10159,8 +10159,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="158"/>
-      <c r="B80" s="161" t="str">
+      <c r="A80" s="168"/>
+      <c r="B80" s="155" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -10175,8 +10175,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="158"/>
-      <c r="B81" s="161"/>
+      <c r="A81" s="168"/>
+      <c r="B81" s="155"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -10188,8 +10188,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="158"/>
-      <c r="B82" s="161"/>
+      <c r="A82" s="168"/>
+      <c r="B82" s="155"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -10201,8 +10201,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="158"/>
-      <c r="B83" s="161" t="str">
+      <c r="A83" s="168"/>
+      <c r="B83" s="155" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -10217,8 +10217,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="158"/>
-      <c r="B84" s="161"/>
+      <c r="A84" s="168"/>
+      <c r="B84" s="155"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -10230,8 +10230,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="159"/>
-      <c r="B85" s="162"/>
+      <c r="A85" s="169"/>
+      <c r="B85" s="156"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -10258,21 +10258,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -10285,13 +10277,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11005,7 +11005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125FD3FB-F912-42B3-B605-31DC335FC9DA}">
   <dimension ref="A1:L258"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -15998,6 +15998,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -16218,14 +16226,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16236,6 +16236,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16254,16 +16264,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>

--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htoom\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2D037-A0DA-4D85-9815-C92197B651BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1C751F-43FB-4812-9787-C7B80AD29671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="13" activeTab="20" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Freight Flight" sheetId="8" r:id="rId18"/>
     <sheet name="Rail" sheetId="9" r:id="rId19"/>
     <sheet name="Ship" sheetId="10" r:id="rId20"/>
+    <sheet name="Saved Emissions" sheetId="23" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
@@ -3981,20 +3982,20 @@
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="I1" s="92"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5140,7 +5141,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -5348,7 +5349,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -6022,7 +6023,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -6152,20 +6153,20 @@
         <v>34.782600000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B84" s="15"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B85" s="15"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B86" s="15"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -6186,49 +6187,49 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -6244,9 +6245,9 @@
       <selection activeCell="A203" sqref="A203:XFD409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A1" s="156" t="s">
         <v>248</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A2" s="159" t="s">
         <v>317</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A3" s="159" t="s">
         <v>317</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A4" s="159" t="s">
         <v>317</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A5" s="159" t="s">
         <v>317</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A6" s="159" t="s">
         <v>317</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A7" s="159" t="s">
         <v>317</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A8" s="159" t="s">
         <v>317</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A9" s="159" t="s">
         <v>317</v>
       </c>
@@ -6345,7 +6346,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="81" x14ac:dyDescent="0.45">
       <c r="A10" s="159" t="s">
         <v>317</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="50.65" x14ac:dyDescent="0.45">
       <c r="A11" s="159" t="s">
         <v>317</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A12" s="159" t="s">
         <v>317</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A13" s="159" t="s">
         <v>317</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A14" s="159" t="s">
         <v>317</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A15" s="159" t="s">
         <v>317</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A16" s="159" t="s">
         <v>317</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A17" s="159" t="s">
         <v>317</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A18" s="159" t="s">
         <v>317</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A19" s="159" t="s">
         <v>317</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A20" s="159" t="s">
         <v>317</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A21" s="159" t="s">
         <v>317</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A22" s="159" t="s">
         <v>317</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A23" s="159" t="s">
         <v>317</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A24" s="159" t="s">
         <v>317</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A25" s="159" t="s">
         <v>317</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A26" s="159" t="s">
         <v>317</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A27" s="159" t="s">
         <v>317</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A28" s="159" t="s">
         <v>317</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A29" s="159" t="s">
         <v>317</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A30" s="159" t="s">
         <v>317</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="50.65" x14ac:dyDescent="0.45">
       <c r="A31" s="159" t="s">
         <v>317</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A32" s="159" t="s">
         <v>317</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A33" s="159" t="s">
         <v>317</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A34" s="159" t="s">
         <v>317</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A35" s="159" t="s">
         <v>317</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A36" s="159" t="s">
         <v>317</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A37" s="159" t="s">
         <v>317</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="91.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="81" x14ac:dyDescent="0.45">
       <c r="A38" s="159" t="s">
         <v>317</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A39" s="159" t="s">
         <v>317</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A40" s="159" t="s">
         <v>317</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A41" s="159" t="s">
         <v>317</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A42" s="159" t="s">
         <v>317</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A43" s="159" t="s">
         <v>317</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="50.65" x14ac:dyDescent="0.45">
       <c r="A44" s="159" t="s">
         <v>317</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A45" s="159" t="s">
         <v>317</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="60.75" x14ac:dyDescent="0.45">
       <c r="A46" s="159" t="s">
         <v>317</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A47" s="159" t="s">
         <v>317</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A48" s="159" t="s">
         <v>317</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A49" s="159" t="s">
         <v>317</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A50" s="159" t="s">
         <v>317</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="159" t="s">
         <v>317</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="159" t="s">
         <v>317</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="159" t="s">
         <v>317</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="159" t="s">
         <v>317</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="159" t="s">
         <v>317</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="159" t="s">
         <v>317</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A57" s="159" t="s">
         <v>317</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A58" s="159" t="s">
         <v>317</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A59" s="159" t="s">
         <v>317</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A60" s="159" t="s">
         <v>317</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="159" t="s">
         <v>317</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A62" s="159" t="s">
         <v>317</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A63" s="159" t="s">
         <v>317</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A64" s="159" t="s">
         <v>317</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A65" s="159" t="s">
         <v>317</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A66" s="159" t="s">
         <v>317</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A67" s="159" t="s">
         <v>317</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A68" s="159" t="s">
         <v>317</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="159" t="s">
         <v>317</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A70" s="159" t="s">
         <v>317</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A71" s="159" t="s">
         <v>317</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A72" s="159" t="s">
         <v>317</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A73" s="159" t="s">
         <v>317</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A74" s="159" t="s">
         <v>317</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A75" s="159" t="s">
         <v>317</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A76" s="159" t="s">
         <v>317</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A77" s="159" t="s">
         <v>317</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A78" s="159" t="s">
         <v>317</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="50.65" x14ac:dyDescent="0.45">
       <c r="A79" s="159" t="s">
         <v>317</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A80" s="159" t="s">
         <v>317</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A81" s="159" t="s">
         <v>317</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A82" s="159" t="s">
         <v>317</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A83" s="159" t="s">
         <v>317</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A84" s="159" t="s">
         <v>317</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A85" s="159" t="s">
         <v>317</v>
       </c>
@@ -7181,7 +7182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A86" s="159" t="s">
         <v>317</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="159" t="s">
         <v>317</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="159" t="s">
         <v>317</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="159" t="s">
         <v>317</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="159" t="s">
         <v>317</v>
       </c>
@@ -7236,7 +7237,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="159" t="s">
         <v>317</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="159" t="s">
         <v>317</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="159" t="s">
         <v>317</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="159" t="s">
         <v>317</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="159" t="s">
         <v>317</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="159" t="s">
         <v>317</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="159" t="s">
         <v>317</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A98" s="159" t="s">
         <v>317</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="159" t="s">
         <v>317</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="159" t="s">
         <v>317</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="159" t="s">
         <v>317</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="159" t="s">
         <v>317</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="159" t="s">
         <v>317</v>
       </c>
@@ -7379,7 +7380,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="159" t="s">
         <v>317</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="159" t="s">
         <v>317</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="159" t="s">
         <v>317</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="159" t="s">
         <v>317</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="159" t="s">
         <v>317</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="159" t="s">
         <v>317</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="159" t="s">
         <v>317</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="159" t="s">
         <v>317</v>
       </c>
@@ -7467,7 +7468,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="159" t="s">
         <v>317</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="159" t="s">
         <v>317</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="159" t="s">
         <v>317</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="159" t="s">
         <v>317</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="159" t="s">
         <v>317</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="159" t="s">
         <v>317</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="159" t="s">
         <v>317</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="159" t="s">
         <v>317</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="159" t="s">
         <v>317</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="159" t="s">
         <v>317</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A122" s="159" t="s">
         <v>317</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A123" s="159" t="s">
         <v>317</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="159" t="s">
         <v>317</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A125" s="159" t="s">
         <v>317</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A126" s="159" t="s">
         <v>317</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A127" s="159" t="s">
         <v>317</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A128" s="159" t="s">
         <v>317</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A129" s="159" t="s">
         <v>317</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="159" t="s">
         <v>317</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A131" s="159" t="s">
         <v>317</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="159" t="s">
         <v>317</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A133" s="159" t="s">
         <v>317</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="159" t="s">
         <v>317</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="159" t="s">
         <v>317</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="159" t="s">
         <v>317</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A137" s="159" t="s">
         <v>317</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A138" s="159" t="s">
         <v>317</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="159" t="s">
         <v>317</v>
       </c>
@@ -7775,7 +7776,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="159" t="s">
         <v>317</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="159" t="s">
         <v>317</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="159" t="s">
         <v>317</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="159" t="s">
         <v>317</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="159" t="s">
         <v>317</v>
       </c>
@@ -7830,7 +7831,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="159" t="s">
         <v>317</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="159" t="s">
         <v>317</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="159" t="s">
         <v>317</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="159" t="s">
         <v>317</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="159" t="s">
         <v>317</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="159" t="s">
         <v>317</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="159" t="s">
         <v>317</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A152" s="159" t="s">
         <v>317</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A153" s="159" t="s">
         <v>317</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A154" s="159" t="s">
         <v>317</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A155" s="159" t="s">
         <v>317</v>
       </c>
@@ -7951,7 +7952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A156" s="159" t="s">
         <v>317</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="159" t="s">
         <v>317</v>
       </c>
@@ -7973,7 +7974,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="159" t="s">
         <v>317</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A159" s="159" t="s">
         <v>317</v>
       </c>
@@ -7995,7 +7996,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A160" s="159" t="s">
         <v>317</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A161" s="159" t="s">
         <v>317</v>
       </c>
@@ -8017,7 +8018,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A162" s="159" t="s">
         <v>317</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A163" s="159" t="s">
         <v>317</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A164" s="159" t="s">
         <v>317</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A165" s="159" t="s">
         <v>317</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A166" s="159" t="s">
         <v>317</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A167" s="159" t="s">
         <v>317</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="159" t="s">
         <v>317</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A169" s="159" t="s">
         <v>317</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A170" s="159" t="s">
         <v>317</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A171" s="159" t="s">
         <v>317</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A172" s="159" t="s">
         <v>317</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A173" s="159" t="s">
         <v>317</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A174" s="159" t="s">
         <v>317</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A175" s="159" t="s">
         <v>317</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A176" s="159" t="s">
         <v>317</v>
       </c>
@@ -8182,7 +8183,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A177" s="159" t="s">
         <v>317</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A178" s="159" t="s">
         <v>317</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A179" s="159" t="s">
         <v>317</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A180" s="159" t="s">
         <v>317</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A181" s="159" t="s">
         <v>317</v>
       </c>
@@ -8237,7 +8238,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A182" s="159" t="s">
         <v>317</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A183" s="159" t="s">
         <v>317</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A184" s="159" t="s">
         <v>317</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A185" s="159" t="s">
         <v>317</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A186" s="159" t="s">
         <v>317</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A187" s="159" t="s">
         <v>317</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A188" s="159" t="s">
         <v>317</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="60.75" x14ac:dyDescent="0.45">
       <c r="A189" s="159" t="s">
         <v>317</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A190" s="159" t="s">
         <v>317</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A191" s="159" t="s">
         <v>317</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="159" t="s">
         <v>317</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A193" s="159" t="s">
         <v>317</v>
       </c>
@@ -8369,7 +8370,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A194" s="159" t="s">
         <v>317</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A195" s="159" t="s">
         <v>317</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A196" s="159" t="s">
         <v>317</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A197" s="159" t="s">
         <v>317</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A198" s="159" t="s">
         <v>317</v>
       </c>
@@ -8424,7 +8425,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A199" s="159" t="s">
         <v>317</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A200" s="159" t="s">
         <v>317</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="159" t="s">
         <v>317</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A202" s="159" t="s">
         <v>317</v>
       </c>
@@ -8486,13 +8487,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="142" t="s">
         <v>221</v>
       </c>
@@ -8500,7 +8501,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="127" t="s">
         <v>222</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="127" t="s">
         <v>223</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="127" t="s">
         <v>224</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>2.5059999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="127" t="s">
         <v>225</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="127" t="s">
         <v>226</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>3.198</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="127" t="s">
         <v>227</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="127" t="s">
         <v>228</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="127" t="s">
         <v>205</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="127" t="s">
         <v>220</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="127" t="s">
         <v>229</v>
       </c>
@@ -8580,7 +8581,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="127" t="s">
         <v>230</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="127" t="s">
         <v>231</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="127" t="s">
         <v>232</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="127" t="s">
         <v>233</v>
       </c>
@@ -8625,13 +8626,13 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="66" x14ac:dyDescent="0.45">
       <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
@@ -8651,7 +8652,7 @@
       <c r="K1" s="113"/>
       <c r="L1" s="113"/>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="135" t="s">
         <v>8</v>
       </c>
@@ -8671,7 +8672,7 @@
       <c r="K2" s="113"/>
       <c r="L2" s="113"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="135" t="s">
         <v>9</v>
       </c>
@@ -8691,7 +8692,7 @@
       <c r="K3" s="113"/>
       <c r="L3" s="113"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="135" t="s">
         <v>10</v>
       </c>
@@ -8711,7 +8712,7 @@
       <c r="K4" s="113"/>
       <c r="L4" s="113"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="135" t="s">
         <v>11</v>
       </c>
@@ -8731,7 +8732,7 @@
       <c r="K5" s="113"/>
       <c r="L5" s="113"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="135" t="s">
         <v>12</v>
       </c>
@@ -8751,7 +8752,7 @@
       <c r="K6" s="113"/>
       <c r="L6" s="113"/>
     </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A7" s="135" t="s">
         <v>13</v>
       </c>
@@ -8771,7 +8772,7 @@
       <c r="K7" s="113"/>
       <c r="L7" s="113"/>
     </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A8" s="135" t="s">
         <v>14</v>
       </c>
@@ -8789,7 +8790,7 @@
       <c r="K8" s="113"/>
       <c r="L8" s="113"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="135" t="s">
         <v>15</v>
       </c>
@@ -8807,7 +8808,7 @@
       <c r="K9" s="113"/>
       <c r="L9" s="113"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="135" t="s">
         <v>16</v>
       </c>
@@ -8825,7 +8826,7 @@
       <c r="K10" s="113"/>
       <c r="L10" s="113"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="135" t="s">
         <v>17</v>
       </c>
@@ -8843,7 +8844,7 @@
       <c r="K11" s="113"/>
       <c r="L11" s="113"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="135" t="s">
         <v>18</v>
       </c>
@@ -8861,7 +8862,7 @@
       <c r="K12" s="113"/>
       <c r="L12" s="113"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="135" t="s">
         <v>19</v>
       </c>
@@ -8879,7 +8880,7 @@
       <c r="K13" s="113"/>
       <c r="L13" s="113"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="135" t="s">
         <v>20</v>
       </c>
@@ -8897,7 +8898,7 @@
       <c r="K14" s="113"/>
       <c r="L14" s="113"/>
     </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A15" s="135" t="s">
         <v>21</v>
       </c>
@@ -8915,7 +8916,7 @@
       <c r="K15" s="113"/>
       <c r="L15" s="113"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="135" t="s">
         <v>22</v>
       </c>
@@ -8933,7 +8934,7 @@
       <c r="K16" s="113"/>
       <c r="L16" s="113"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="135" t="s">
         <v>23</v>
       </c>
@@ -8951,7 +8952,7 @@
       <c r="K17" s="113"/>
       <c r="L17" s="113"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="135" t="s">
         <v>24</v>
       </c>
@@ -8969,7 +8970,7 @@
       <c r="K18" s="113"/>
       <c r="L18" s="113"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="135" t="s">
         <v>25</v>
       </c>
@@ -8987,7 +8988,7 @@
       <c r="K19" s="113"/>
       <c r="L19" s="113"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="135" t="s">
         <v>26</v>
       </c>
@@ -9005,7 +9006,7 @@
       <c r="K20" s="113"/>
       <c r="L20" s="113"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="135" t="s">
         <v>27</v>
       </c>
@@ -9023,7 +9024,7 @@
       <c r="K21" s="113"/>
       <c r="L21" s="113"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="135" t="s">
         <v>28</v>
       </c>
@@ -9041,7 +9042,7 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="135" t="s">
         <v>29</v>
       </c>
@@ -9059,7 +9060,7 @@
       <c r="K23" s="113"/>
       <c r="L23" s="113"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="135" t="s">
         <v>30</v>
       </c>
@@ -9077,7 +9078,7 @@
       <c r="K24" s="113"/>
       <c r="L24" s="113"/>
     </row>
-    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A25" s="135" t="s">
         <v>31</v>
       </c>
@@ -9095,7 +9096,7 @@
       <c r="K25" s="113"/>
       <c r="L25" s="113"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="135" t="s">
         <v>32</v>
       </c>
@@ -9113,7 +9114,7 @@
       <c r="K26" s="113"/>
       <c r="L26" s="113"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="135" t="s">
         <v>33</v>
       </c>
@@ -9131,7 +9132,7 @@
       <c r="K27" s="113"/>
       <c r="L27" s="113"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="135" t="s">
         <v>34</v>
       </c>
@@ -9149,7 +9150,7 @@
       <c r="K28" s="113"/>
       <c r="L28" s="113"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="135" t="s">
         <v>35</v>
       </c>
@@ -9167,7 +9168,7 @@
       <c r="K29" s="113"/>
       <c r="L29" s="113"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="135" t="s">
         <v>36</v>
       </c>
@@ -9185,7 +9186,7 @@
       <c r="K30" s="113"/>
       <c r="L30" s="113"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="135" t="s">
         <v>37</v>
       </c>
@@ -9203,7 +9204,7 @@
       <c r="K31" s="113"/>
       <c r="L31" s="113"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="135" t="s">
         <v>215</v>
       </c>
@@ -9221,7 +9222,7 @@
       <c r="K32" s="113"/>
       <c r="L32" s="113"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="135" t="s">
         <v>39</v>
       </c>
@@ -9239,7 +9240,7 @@
       <c r="K33" s="113"/>
       <c r="L33" s="113"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="135" t="s">
         <v>40</v>
       </c>
@@ -9257,7 +9258,7 @@
       <c r="K34" s="113"/>
       <c r="L34" s="113"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="135" t="s">
         <v>41</v>
       </c>
@@ -9275,7 +9276,7 @@
       <c r="K35" s="113"/>
       <c r="L35" s="113"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="135" t="s">
         <v>42</v>
       </c>
@@ -9293,7 +9294,7 @@
       <c r="K36" s="113"/>
       <c r="L36" s="113"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="135" t="s">
         <v>43</v>
       </c>
@@ -9311,7 +9312,7 @@
       <c r="K37" s="113"/>
       <c r="L37" s="113"/>
     </row>
-    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A38" s="135" t="s">
         <v>44</v>
       </c>
@@ -9329,7 +9330,7 @@
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
     </row>
-    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A39" s="135" t="s">
         <v>216</v>
       </c>
@@ -9347,7 +9348,7 @@
       <c r="K39" s="113"/>
       <c r="L39" s="113"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="135" t="s">
         <v>46</v>
       </c>
@@ -9365,7 +9366,7 @@
       <c r="K40" s="113"/>
       <c r="L40" s="113"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="135" t="s">
         <v>47</v>
       </c>
@@ -9383,7 +9384,7 @@
       <c r="K41" s="113"/>
       <c r="L41" s="113"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="135" t="s">
         <v>48</v>
       </c>
@@ -9401,7 +9402,7 @@
       <c r="K42" s="113"/>
       <c r="L42" s="113"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="135" t="s">
         <v>49</v>
       </c>
@@ -9419,7 +9420,7 @@
       <c r="K43" s="113"/>
       <c r="L43" s="113"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="135" t="s">
         <v>50</v>
       </c>
@@ -9437,7 +9438,7 @@
       <c r="K44" s="113"/>
       <c r="L44" s="113"/>
     </row>
-    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A45" s="135" t="s">
         <v>51</v>
       </c>
@@ -9455,7 +9456,7 @@
       <c r="K45" s="113"/>
       <c r="L45" s="113"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="135" t="s">
         <v>52</v>
       </c>
@@ -9473,7 +9474,7 @@
       <c r="K46" s="113"/>
       <c r="L46" s="113"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="135" t="s">
         <v>54</v>
       </c>
@@ -9491,7 +9492,7 @@
       <c r="K47" s="113"/>
       <c r="L47" s="113"/>
     </row>
-    <row r="48" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A48" s="135" t="s">
         <v>55</v>
       </c>
@@ -9509,7 +9510,7 @@
       <c r="K48" s="113"/>
       <c r="L48" s="113"/>
     </row>
-    <row r="49" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A49" s="135" t="s">
         <v>56</v>
       </c>
@@ -9527,7 +9528,7 @@
       <c r="K49" s="113"/>
       <c r="L49" s="113"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="135" t="s">
         <v>57</v>
       </c>
@@ -9545,7 +9546,7 @@
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="135" t="s">
         <v>58</v>
       </c>
@@ -9563,7 +9564,7 @@
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="135" t="s">
         <v>59</v>
       </c>
@@ -9581,7 +9582,7 @@
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="135" t="s">
         <v>60</v>
       </c>
@@ -9599,7 +9600,7 @@
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="135" t="s">
         <v>61</v>
       </c>
@@ -9617,7 +9618,7 @@
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
     </row>
-    <row r="55" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A55" s="135" t="s">
         <v>62</v>
       </c>
@@ -9635,7 +9636,7 @@
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="135" t="s">
         <v>63</v>
       </c>
@@ -9653,7 +9654,7 @@
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="135" t="s">
         <v>64</v>
       </c>
@@ -9671,7 +9672,7 @@
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="135" t="s">
         <v>65</v>
       </c>
@@ -9689,7 +9690,7 @@
       <c r="K58" s="113"/>
       <c r="L58" s="113"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="135" t="s">
         <v>66</v>
       </c>
@@ -9707,7 +9708,7 @@
       <c r="K59" s="113"/>
       <c r="L59" s="113"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="135" t="s">
         <v>67</v>
       </c>
@@ -9725,7 +9726,7 @@
       <c r="K60" s="113"/>
       <c r="L60" s="113"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="135" t="s">
         <v>68</v>
       </c>
@@ -9743,7 +9744,7 @@
       <c r="K61" s="113"/>
       <c r="L61" s="113"/>
     </row>
-    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A62" s="135" t="s">
         <v>69</v>
       </c>
@@ -9761,7 +9762,7 @@
       <c r="K62" s="113"/>
       <c r="L62" s="113"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="135" t="s">
         <v>70</v>
       </c>
@@ -9779,7 +9780,7 @@
       <c r="K63" s="113"/>
       <c r="L63" s="113"/>
     </row>
-    <row r="64" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="135" t="s">
         <v>71</v>
       </c>
@@ -9797,7 +9798,7 @@
       <c r="K64" s="113"/>
       <c r="L64" s="113"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="135" t="s">
         <v>72</v>
       </c>
@@ -9815,7 +9816,7 @@
       <c r="K65" s="113"/>
       <c r="L65" s="113"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="135" t="s">
         <v>73</v>
       </c>
@@ -9833,7 +9834,7 @@
       <c r="K66" s="113"/>
       <c r="L66" s="113"/>
     </row>
-    <row r="67" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A67" s="135" t="s">
         <v>74</v>
       </c>
@@ -9851,7 +9852,7 @@
       <c r="K67" s="113"/>
       <c r="L67" s="113"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="135" t="s">
         <v>75</v>
       </c>
@@ -9869,7 +9870,7 @@
       <c r="K68" s="113"/>
       <c r="L68" s="113"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="135" t="s">
         <v>217</v>
       </c>
@@ -9887,7 +9888,7 @@
       <c r="K69" s="113"/>
       <c r="L69" s="113"/>
     </row>
-    <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A70" s="135" t="s">
         <v>77</v>
       </c>
@@ -9905,7 +9906,7 @@
       <c r="K70" s="113"/>
       <c r="L70" s="113"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="135" t="s">
         <v>78</v>
       </c>
@@ -9925,7 +9926,7 @@
       <c r="K71" s="113"/>
       <c r="L71" s="113"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="135" t="s">
         <v>79</v>
       </c>
@@ -9943,7 +9944,7 @@
       <c r="K72" s="113"/>
       <c r="L72" s="113"/>
     </row>
-    <row r="73" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A73" s="135" t="s">
         <v>80</v>
       </c>
@@ -9961,7 +9962,7 @@
       <c r="K73" s="113"/>
       <c r="L73" s="113"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="135" t="s">
         <v>81</v>
       </c>
@@ -9979,7 +9980,7 @@
       <c r="K74" s="113"/>
       <c r="L74" s="113"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="135" t="s">
         <v>82</v>
       </c>
@@ -9997,7 +9998,7 @@
       <c r="K75" s="113"/>
       <c r="L75" s="113"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="135" t="s">
         <v>83</v>
       </c>
@@ -10015,7 +10016,7 @@
       <c r="K76" s="113"/>
       <c r="L76" s="113"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="135" t="s">
         <v>84</v>
       </c>
@@ -10033,7 +10034,7 @@
       <c r="K77" s="113"/>
       <c r="L77" s="113"/>
     </row>
-    <row r="78" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A78" s="135" t="s">
         <v>85</v>
       </c>
@@ -10051,7 +10052,7 @@
       <c r="K78" s="113"/>
       <c r="L78" s="113"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="135" t="s">
         <v>86</v>
       </c>
@@ -10069,7 +10070,7 @@
       <c r="K79" s="113"/>
       <c r="L79" s="113"/>
     </row>
-    <row r="80" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A80" s="135" t="s">
         <v>87</v>
       </c>
@@ -10087,7 +10088,7 @@
       <c r="K80" s="113"/>
       <c r="L80" s="113"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="135" t="s">
         <v>218</v>
       </c>
@@ -10105,7 +10106,7 @@
       <c r="K81" s="113"/>
       <c r="L81" s="113"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="135" t="s">
         <v>219</v>
       </c>
@@ -10123,7 +10124,7 @@
       <c r="K82" s="113"/>
       <c r="L82" s="113"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="135" t="s">
         <v>90</v>
       </c>
@@ -10141,7 +10142,7 @@
       <c r="K83" s="113"/>
       <c r="L83" s="113"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="113"/>
       <c r="B84" s="113"/>
       <c r="C84" s="113"/>
@@ -10155,7 +10156,7 @@
       <c r="K84" s="113"/>
       <c r="L84" s="113"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="113"/>
       <c r="B85" s="113"/>
       <c r="C85" s="113"/>
@@ -10169,7 +10170,7 @@
       <c r="K85" s="113"/>
       <c r="L85" s="113"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="113"/>
       <c r="B86" s="113"/>
       <c r="C86" s="113"/>
@@ -10183,7 +10184,7 @@
       <c r="K86" s="113"/>
       <c r="L86" s="113"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="113"/>
       <c r="B87" s="113"/>
       <c r="C87" s="113"/>
@@ -10197,7 +10198,7 @@
       <c r="K87" s="113"/>
       <c r="L87" s="113"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="113"/>
       <c r="B88" s="113"/>
       <c r="C88" s="113"/>
@@ -10211,7 +10212,7 @@
       <c r="K88" s="113"/>
       <c r="L88" s="113"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="113"/>
       <c r="B89" s="113"/>
       <c r="C89" s="113"/>
@@ -10225,7 +10226,7 @@
       <c r="K89" s="113"/>
       <c r="L89" s="113"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="113"/>
       <c r="B90" s="113"/>
       <c r="C90" s="113"/>
@@ -10239,7 +10240,7 @@
       <c r="K90" s="113"/>
       <c r="L90" s="113"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="113"/>
       <c r="B91" s="113"/>
       <c r="C91" s="113"/>
@@ -10253,7 +10254,7 @@
       <c r="K91" s="113"/>
       <c r="L91" s="113"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="113"/>
       <c r="B92" s="113"/>
       <c r="C92" s="113"/>
@@ -10267,7 +10268,7 @@
       <c r="K92" s="113"/>
       <c r="L92" s="113"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="113"/>
       <c r="B93" s="113"/>
       <c r="C93" s="113"/>
@@ -10281,7 +10282,7 @@
       <c r="K93" s="113"/>
       <c r="L93" s="113"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="113"/>
       <c r="B94" s="113"/>
       <c r="C94" s="113"/>
@@ -10295,7 +10296,7 @@
       <c r="K94" s="113"/>
       <c r="L94" s="113"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="113"/>
       <c r="B95" s="113"/>
       <c r="C95" s="113"/>
@@ -10309,7 +10310,7 @@
       <c r="K95" s="113"/>
       <c r="L95" s="113"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="113"/>
       <c r="B96" s="113"/>
       <c r="C96" s="113"/>
@@ -10323,7 +10324,7 @@
       <c r="K96" s="113"/>
       <c r="L96" s="113"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="113"/>
       <c r="B97" s="113"/>
       <c r="C97" s="113"/>
@@ -10337,7 +10338,7 @@
       <c r="K97" s="113"/>
       <c r="L97" s="113"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="113"/>
       <c r="B98" s="113"/>
       <c r="C98" s="113"/>
@@ -10351,7 +10352,7 @@
       <c r="K98" s="113"/>
       <c r="L98" s="113"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="113"/>
       <c r="B99" s="113"/>
       <c r="C99" s="113"/>
@@ -10365,7 +10366,7 @@
       <c r="K99" s="113"/>
       <c r="L99" s="113"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="113"/>
       <c r="B100" s="113"/>
       <c r="C100" s="113"/>
@@ -10379,7 +10380,7 @@
       <c r="K100" s="113"/>
       <c r="L100" s="113"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="113"/>
       <c r="B101" s="113"/>
       <c r="C101" s="113"/>
@@ -10393,7 +10394,7 @@
       <c r="K101" s="113"/>
       <c r="L101" s="113"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="113"/>
       <c r="B102" s="113"/>
       <c r="C102" s="113"/>
@@ -10407,7 +10408,7 @@
       <c r="K102" s="113"/>
       <c r="L102" s="113"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="113"/>
       <c r="B103" s="113"/>
       <c r="C103" s="113"/>
@@ -10421,7 +10422,7 @@
       <c r="K103" s="113"/>
       <c r="L103" s="113"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="113"/>
       <c r="B104" s="113"/>
       <c r="C104" s="113"/>
@@ -10435,7 +10436,7 @@
       <c r="K104" s="113"/>
       <c r="L104" s="113"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="113"/>
       <c r="B105" s="113"/>
       <c r="C105" s="113"/>
@@ -10449,7 +10450,7 @@
       <c r="K105" s="113"/>
       <c r="L105" s="113"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="113"/>
       <c r="B106" s="113"/>
       <c r="C106" s="113"/>
@@ -10463,7 +10464,7 @@
       <c r="K106" s="113"/>
       <c r="L106" s="113"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="113"/>
       <c r="B107" s="113"/>
       <c r="C107" s="113"/>
@@ -10477,7 +10478,7 @@
       <c r="K107" s="113"/>
       <c r="L107" s="113"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="113"/>
       <c r="B108" s="113"/>
       <c r="C108" s="113"/>
@@ -10491,7 +10492,7 @@
       <c r="K108" s="113"/>
       <c r="L108" s="113"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="113"/>
       <c r="B109" s="113"/>
       <c r="C109" s="113"/>
@@ -10505,7 +10506,7 @@
       <c r="K109" s="113"/>
       <c r="L109" s="113"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="113"/>
       <c r="B110" s="113"/>
       <c r="C110" s="113"/>
@@ -10519,7 +10520,7 @@
       <c r="K110" s="113"/>
       <c r="L110" s="113"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="113"/>
       <c r="B111" s="113"/>
       <c r="C111" s="113"/>
@@ -10533,7 +10534,7 @@
       <c r="K111" s="113"/>
       <c r="L111" s="113"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="113"/>
       <c r="B112" s="113"/>
       <c r="C112" s="113"/>
@@ -10547,7 +10548,7 @@
       <c r="K112" s="113"/>
       <c r="L112" s="113"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="113"/>
       <c r="B113" s="113"/>
       <c r="C113" s="113"/>
@@ -10561,7 +10562,7 @@
       <c r="K113" s="113"/>
       <c r="L113" s="113"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="113"/>
       <c r="B114" s="113"/>
       <c r="C114" s="113"/>
@@ -10575,7 +10576,7 @@
       <c r="K114" s="113"/>
       <c r="L114" s="113"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="113"/>
       <c r="B115" s="113"/>
       <c r="C115" s="113"/>
@@ -10589,7 +10590,7 @@
       <c r="K115" s="113"/>
       <c r="L115" s="113"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="113"/>
       <c r="B116" s="113"/>
       <c r="C116" s="113"/>
@@ -10603,7 +10604,7 @@
       <c r="K116" s="113"/>
       <c r="L116" s="113"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="113"/>
       <c r="B117" s="113"/>
       <c r="C117" s="113"/>
@@ -10617,7 +10618,7 @@
       <c r="K117" s="113"/>
       <c r="L117" s="113"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="113"/>
       <c r="B118" s="113"/>
       <c r="C118" s="113"/>
@@ -10631,7 +10632,7 @@
       <c r="K118" s="113"/>
       <c r="L118" s="113"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="113"/>
       <c r="B119" s="113"/>
       <c r="C119" s="113"/>
@@ -10645,7 +10646,7 @@
       <c r="K119" s="113"/>
       <c r="L119" s="113"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="113"/>
       <c r="B120" s="113"/>
       <c r="C120" s="113"/>
@@ -10659,7 +10660,7 @@
       <c r="K120" s="113"/>
       <c r="L120" s="113"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="113"/>
       <c r="B121" s="113"/>
       <c r="C121" s="113"/>
@@ -10673,7 +10674,7 @@
       <c r="K121" s="113"/>
       <c r="L121" s="113"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="113"/>
       <c r="B122" s="113"/>
       <c r="C122" s="113"/>
@@ -10687,7 +10688,7 @@
       <c r="K122" s="113"/>
       <c r="L122" s="113"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="113"/>
       <c r="B123" s="113"/>
       <c r="C123" s="113"/>
@@ -10701,7 +10702,7 @@
       <c r="K123" s="113"/>
       <c r="L123" s="113"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="113"/>
       <c r="B124" s="113"/>
       <c r="C124" s="113"/>
@@ -10715,7 +10716,7 @@
       <c r="K124" s="113"/>
       <c r="L124" s="113"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="113"/>
       <c r="B125" s="113"/>
       <c r="C125" s="113"/>
@@ -10729,7 +10730,7 @@
       <c r="K125" s="113"/>
       <c r="L125" s="113"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="113"/>
       <c r="B126" s="113"/>
       <c r="C126" s="113"/>
@@ -10743,7 +10744,7 @@
       <c r="K126" s="113"/>
       <c r="L126" s="113"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="113"/>
       <c r="B127" s="113"/>
       <c r="C127" s="113"/>
@@ -10757,7 +10758,7 @@
       <c r="K127" s="113"/>
       <c r="L127" s="113"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="113"/>
       <c r="B128" s="113"/>
       <c r="C128" s="113"/>
@@ -10771,7 +10772,7 @@
       <c r="K128" s="113"/>
       <c r="L128" s="113"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="113"/>
       <c r="B129" s="113"/>
       <c r="C129" s="113"/>
@@ -10785,7 +10786,7 @@
       <c r="K129" s="113"/>
       <c r="L129" s="113"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="113"/>
       <c r="B130" s="113"/>
       <c r="C130" s="113"/>
@@ -10799,7 +10800,7 @@
       <c r="K130" s="113"/>
       <c r="L130" s="113"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="113"/>
       <c r="B131" s="113"/>
       <c r="C131" s="113"/>
@@ -10813,7 +10814,7 @@
       <c r="K131" s="113"/>
       <c r="L131" s="113"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="113"/>
       <c r="B132" s="113"/>
       <c r="C132" s="113"/>
@@ -10827,7 +10828,7 @@
       <c r="K132" s="113"/>
       <c r="L132" s="113"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="113"/>
       <c r="B133" s="113"/>
       <c r="C133" s="113"/>
@@ -10841,7 +10842,7 @@
       <c r="K133" s="113"/>
       <c r="L133" s="113"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="113"/>
       <c r="B134" s="113"/>
       <c r="C134" s="113"/>
@@ -10855,7 +10856,7 @@
       <c r="K134" s="113"/>
       <c r="L134" s="113"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="113"/>
       <c r="B135" s="113"/>
       <c r="C135" s="113"/>
@@ -10869,7 +10870,7 @@
       <c r="K135" s="113"/>
       <c r="L135" s="113"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="113"/>
       <c r="B136" s="113"/>
       <c r="C136" s="113"/>
@@ -10883,7 +10884,7 @@
       <c r="K136" s="113"/>
       <c r="L136" s="113"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="113"/>
       <c r="B137" s="113"/>
       <c r="C137" s="113"/>
@@ -10897,7 +10898,7 @@
       <c r="K137" s="113"/>
       <c r="L137" s="113"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="113"/>
       <c r="B138" s="113"/>
       <c r="C138" s="113"/>
@@ -10911,7 +10912,7 @@
       <c r="K138" s="113"/>
       <c r="L138" s="113"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="113"/>
       <c r="B139" s="113"/>
       <c r="C139" s="113"/>
@@ -10925,7 +10926,7 @@
       <c r="K139" s="113"/>
       <c r="L139" s="113"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="113"/>
       <c r="B140" s="113"/>
       <c r="C140" s="113"/>
@@ -10939,7 +10940,7 @@
       <c r="K140" s="113"/>
       <c r="L140" s="113"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="113"/>
       <c r="B141" s="113"/>
       <c r="C141" s="113"/>
@@ -10953,7 +10954,7 @@
       <c r="K141" s="113"/>
       <c r="L141" s="113"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="113"/>
       <c r="B142" s="113"/>
       <c r="C142" s="113"/>
@@ -10967,7 +10968,7 @@
       <c r="K142" s="113"/>
       <c r="L142" s="113"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="113"/>
       <c r="B143" s="113"/>
       <c r="C143" s="113"/>
@@ -10981,7 +10982,7 @@
       <c r="K143" s="113"/>
       <c r="L143" s="113"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="113"/>
       <c r="B144" s="113"/>
       <c r="C144" s="113"/>
@@ -10995,7 +10996,7 @@
       <c r="K144" s="113"/>
       <c r="L144" s="113"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="113"/>
       <c r="B145" s="113"/>
       <c r="C145" s="113"/>
@@ -11009,7 +11010,7 @@
       <c r="K145" s="113"/>
       <c r="L145" s="113"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="113"/>
       <c r="B146" s="113"/>
       <c r="C146" s="113"/>
@@ -11023,7 +11024,7 @@
       <c r="K146" s="113"/>
       <c r="L146" s="113"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="113"/>
       <c r="B147" s="113"/>
       <c r="C147" s="113"/>
@@ -11037,7 +11038,7 @@
       <c r="K147" s="113"/>
       <c r="L147" s="113"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="113"/>
       <c r="B148" s="113"/>
       <c r="C148" s="113"/>
@@ -11051,7 +11052,7 @@
       <c r="K148" s="113"/>
       <c r="L148" s="113"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="113"/>
       <c r="B149" s="113"/>
       <c r="C149" s="113"/>
@@ -11065,7 +11066,7 @@
       <c r="K149" s="113"/>
       <c r="L149" s="113"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="113"/>
       <c r="B150" s="113"/>
       <c r="C150" s="113"/>
@@ -11079,7 +11080,7 @@
       <c r="K150" s="113"/>
       <c r="L150" s="113"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="113"/>
       <c r="B151" s="113"/>
       <c r="C151" s="113"/>
@@ -11093,7 +11094,7 @@
       <c r="K151" s="113"/>
       <c r="L151" s="113"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="113"/>
       <c r="B152" s="113"/>
       <c r="C152" s="113"/>
@@ -11107,7 +11108,7 @@
       <c r="K152" s="113"/>
       <c r="L152" s="113"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="113"/>
       <c r="B153" s="113"/>
       <c r="C153" s="113"/>
@@ -11121,7 +11122,7 @@
       <c r="K153" s="113"/>
       <c r="L153" s="113"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="113"/>
       <c r="B154" s="113"/>
       <c r="C154" s="113"/>
@@ -11135,7 +11136,7 @@
       <c r="K154" s="113"/>
       <c r="L154" s="113"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="113"/>
       <c r="B155" s="113"/>
       <c r="C155" s="113"/>
@@ -11149,7 +11150,7 @@
       <c r="K155" s="113"/>
       <c r="L155" s="113"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="113"/>
       <c r="B156" s="113"/>
       <c r="C156" s="113"/>
@@ -11163,7 +11164,7 @@
       <c r="K156" s="113"/>
       <c r="L156" s="113"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="113"/>
       <c r="B157" s="113"/>
       <c r="C157" s="113"/>
@@ -11177,7 +11178,7 @@
       <c r="K157" s="113"/>
       <c r="L157" s="113"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="113"/>
       <c r="B158" s="113"/>
       <c r="C158" s="113"/>
@@ -11191,7 +11192,7 @@
       <c r="K158" s="113"/>
       <c r="L158" s="113"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="113"/>
       <c r="B159" s="113"/>
       <c r="C159" s="113"/>
@@ -11205,7 +11206,7 @@
       <c r="K159" s="113"/>
       <c r="L159" s="113"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="113"/>
       <c r="B160" s="113"/>
       <c r="C160" s="113"/>
@@ -11219,7 +11220,7 @@
       <c r="K160" s="113"/>
       <c r="L160" s="113"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="113"/>
       <c r="B161" s="113"/>
       <c r="C161" s="113"/>
@@ -11233,7 +11234,7 @@
       <c r="K161" s="113"/>
       <c r="L161" s="113"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="113"/>
       <c r="B162" s="113"/>
       <c r="C162" s="113"/>
@@ -11247,7 +11248,7 @@
       <c r="K162" s="113"/>
       <c r="L162" s="113"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="113"/>
       <c r="B163" s="113"/>
       <c r="C163" s="113"/>
@@ -11261,7 +11262,7 @@
       <c r="K163" s="113"/>
       <c r="L163" s="113"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="113"/>
       <c r="B164" s="113"/>
       <c r="C164" s="113"/>
@@ -11275,7 +11276,7 @@
       <c r="K164" s="113"/>
       <c r="L164" s="113"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="113"/>
       <c r="B165" s="113"/>
       <c r="C165" s="113"/>
@@ -11289,7 +11290,7 @@
       <c r="K165" s="113"/>
       <c r="L165" s="113"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="113"/>
       <c r="B166" s="113"/>
       <c r="C166" s="113"/>
@@ -11303,7 +11304,7 @@
       <c r="K166" s="113"/>
       <c r="L166" s="113"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="113"/>
       <c r="B167" s="113"/>
       <c r="C167" s="113"/>
@@ -11317,7 +11318,7 @@
       <c r="K167" s="113"/>
       <c r="L167" s="113"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="113"/>
       <c r="B168" s="113"/>
       <c r="C168" s="113"/>
@@ -11331,7 +11332,7 @@
       <c r="K168" s="113"/>
       <c r="L168" s="113"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="113"/>
       <c r="B169" s="113"/>
       <c r="C169" s="113"/>
@@ -11345,7 +11346,7 @@
       <c r="K169" s="113"/>
       <c r="L169" s="113"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="113"/>
       <c r="B170" s="113"/>
       <c r="C170" s="113"/>
@@ -11359,7 +11360,7 @@
       <c r="K170" s="113"/>
       <c r="L170" s="113"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="113"/>
       <c r="B171" s="113"/>
       <c r="C171" s="113"/>
@@ -11373,7 +11374,7 @@
       <c r="K171" s="113"/>
       <c r="L171" s="113"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="113"/>
       <c r="B172" s="113"/>
       <c r="C172" s="113"/>
@@ -11387,7 +11388,7 @@
       <c r="K172" s="113"/>
       <c r="L172" s="113"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="113"/>
       <c r="B173" s="113"/>
       <c r="C173" s="113"/>
@@ -11401,7 +11402,7 @@
       <c r="K173" s="113"/>
       <c r="L173" s="113"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="113"/>
       <c r="B174" s="113"/>
       <c r="C174" s="113"/>
@@ -11415,7 +11416,7 @@
       <c r="K174" s="113"/>
       <c r="L174" s="113"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="113"/>
       <c r="B175" s="113"/>
       <c r="C175" s="113"/>
@@ -11429,7 +11430,7 @@
       <c r="K175" s="113"/>
       <c r="L175" s="113"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="113"/>
       <c r="B176" s="113"/>
       <c r="C176" s="113"/>
@@ -11443,7 +11444,7 @@
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="113"/>
       <c r="B177" s="113"/>
       <c r="C177" s="113"/>
@@ -11457,7 +11458,7 @@
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="113"/>
       <c r="B178" s="113"/>
       <c r="C178" s="113"/>
@@ -11471,7 +11472,7 @@
       <c r="K178" s="113"/>
       <c r="L178" s="113"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="113"/>
       <c r="B179" s="113"/>
       <c r="C179" s="113"/>
@@ -11485,7 +11486,7 @@
       <c r="K179" s="113"/>
       <c r="L179" s="113"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="113"/>
       <c r="B180" s="113"/>
       <c r="C180" s="113"/>
@@ -11499,7 +11500,7 @@
       <c r="K180" s="113"/>
       <c r="L180" s="113"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="113"/>
       <c r="B181" s="113"/>
       <c r="C181" s="113"/>
@@ -11513,7 +11514,7 @@
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="113"/>
       <c r="B182" s="113"/>
       <c r="C182" s="113"/>
@@ -11527,7 +11528,7 @@
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="113"/>
       <c r="B183" s="113"/>
       <c r="C183" s="113"/>
@@ -11541,7 +11542,7 @@
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="113"/>
       <c r="B184" s="113"/>
       <c r="C184" s="113"/>
@@ -11555,7 +11556,7 @@
       <c r="K184" s="113"/>
       <c r="L184" s="113"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="113"/>
       <c r="B185" s="113"/>
       <c r="C185" s="113"/>
@@ -11569,7 +11570,7 @@
       <c r="K185" s="113"/>
       <c r="L185" s="113"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="113"/>
       <c r="B186" s="113"/>
       <c r="C186" s="113"/>
@@ -11583,7 +11584,7 @@
       <c r="K186" s="113"/>
       <c r="L186" s="113"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="113"/>
       <c r="B187" s="113"/>
       <c r="C187" s="113"/>
@@ -11597,7 +11598,7 @@
       <c r="K187" s="113"/>
       <c r="L187" s="113"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="113"/>
       <c r="B188" s="113"/>
       <c r="C188" s="113"/>
@@ -11611,7 +11612,7 @@
       <c r="K188" s="113"/>
       <c r="L188" s="113"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="113"/>
       <c r="B189" s="113"/>
       <c r="C189" s="113"/>
@@ -11625,7 +11626,7 @@
       <c r="K189" s="113"/>
       <c r="L189" s="113"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="113"/>
       <c r="B190" s="113"/>
       <c r="C190" s="113"/>
@@ -11639,7 +11640,7 @@
       <c r="K190" s="113"/>
       <c r="L190" s="113"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="113"/>
       <c r="B191" s="113"/>
       <c r="C191" s="113"/>
@@ -11653,7 +11654,7 @@
       <c r="K191" s="113"/>
       <c r="L191" s="113"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="113"/>
       <c r="B192" s="113"/>
       <c r="C192" s="113"/>
@@ -11667,7 +11668,7 @@
       <c r="K192" s="113"/>
       <c r="L192" s="113"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="113"/>
       <c r="B193" s="113"/>
       <c r="C193" s="113"/>
@@ -11681,7 +11682,7 @@
       <c r="K193" s="113"/>
       <c r="L193" s="113"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="113"/>
       <c r="B194" s="113"/>
       <c r="C194" s="113"/>
@@ -11695,7 +11696,7 @@
       <c r="K194" s="113"/>
       <c r="L194" s="113"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="113"/>
       <c r="B195" s="113"/>
       <c r="C195" s="113"/>
@@ -11709,7 +11710,7 @@
       <c r="K195" s="113"/>
       <c r="L195" s="113"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="113"/>
       <c r="B196" s="113"/>
       <c r="C196" s="113"/>
@@ -11723,7 +11724,7 @@
       <c r="K196" s="113"/>
       <c r="L196" s="113"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="113"/>
       <c r="B197" s="113"/>
       <c r="C197" s="113"/>
@@ -11737,7 +11738,7 @@
       <c r="K197" s="113"/>
       <c r="L197" s="113"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="113"/>
       <c r="B198" s="113"/>
       <c r="C198" s="113"/>
@@ -11751,7 +11752,7 @@
       <c r="K198" s="113"/>
       <c r="L198" s="113"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="113"/>
       <c r="B199" s="113"/>
       <c r="C199" s="113"/>
@@ -11765,7 +11766,7 @@
       <c r="K199" s="113"/>
       <c r="L199" s="113"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="113"/>
       <c r="B200" s="113"/>
       <c r="C200" s="113"/>
@@ -11779,7 +11780,7 @@
       <c r="K200" s="113"/>
       <c r="L200" s="113"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="113"/>
       <c r="B201" s="113"/>
       <c r="C201" s="113"/>
@@ -11793,7 +11794,7 @@
       <c r="K201" s="113"/>
       <c r="L201" s="113"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="113"/>
       <c r="B202" s="113"/>
       <c r="C202" s="113"/>
@@ -11807,7 +11808,7 @@
       <c r="K202" s="113"/>
       <c r="L202" s="113"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="113"/>
       <c r="B203" s="113"/>
       <c r="C203" s="113"/>
@@ -11821,7 +11822,7 @@
       <c r="K203" s="113"/>
       <c r="L203" s="113"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="113"/>
       <c r="B204" s="113"/>
       <c r="C204" s="113"/>
@@ -11835,7 +11836,7 @@
       <c r="K204" s="113"/>
       <c r="L204" s="113"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="113"/>
       <c r="B205" s="113"/>
       <c r="C205" s="113"/>
@@ -11849,7 +11850,7 @@
       <c r="K205" s="113"/>
       <c r="L205" s="113"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="113"/>
       <c r="B206" s="113"/>
       <c r="C206" s="113"/>
@@ -11863,7 +11864,7 @@
       <c r="K206" s="113"/>
       <c r="L206" s="113"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="113"/>
       <c r="B207" s="113"/>
       <c r="C207" s="113"/>
@@ -11877,7 +11878,7 @@
       <c r="K207" s="113"/>
       <c r="L207" s="113"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="113"/>
       <c r="B208" s="113"/>
       <c r="C208" s="113"/>
@@ -11891,7 +11892,7 @@
       <c r="K208" s="113"/>
       <c r="L208" s="113"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="113"/>
       <c r="B209" s="113"/>
       <c r="C209" s="113"/>
@@ -11905,7 +11906,7 @@
       <c r="K209" s="113"/>
       <c r="L209" s="113"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="113"/>
       <c r="B210" s="113"/>
       <c r="C210" s="113"/>
@@ -11919,7 +11920,7 @@
       <c r="K210" s="113"/>
       <c r="L210" s="113"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="113"/>
       <c r="B211" s="113"/>
       <c r="C211" s="113"/>
@@ -11933,7 +11934,7 @@
       <c r="K211" s="113"/>
       <c r="L211" s="113"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="113"/>
       <c r="B212" s="113"/>
       <c r="C212" s="113"/>
@@ -11947,7 +11948,7 @@
       <c r="K212" s="113"/>
       <c r="L212" s="113"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="113"/>
       <c r="B213" s="113"/>
       <c r="C213" s="113"/>
@@ -11961,7 +11962,7 @@
       <c r="K213" s="113"/>
       <c r="L213" s="113"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="113"/>
       <c r="B214" s="113"/>
       <c r="C214" s="113"/>
@@ -11975,7 +11976,7 @@
       <c r="K214" s="113"/>
       <c r="L214" s="113"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="113"/>
       <c r="B215" s="113"/>
       <c r="C215" s="113"/>
@@ -11989,7 +11990,7 @@
       <c r="K215" s="113"/>
       <c r="L215" s="113"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="113"/>
       <c r="B216" s="113"/>
       <c r="C216" s="113"/>
@@ -12003,7 +12004,7 @@
       <c r="K216" s="113"/>
       <c r="L216" s="113"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="113"/>
       <c r="B217" s="113"/>
       <c r="C217" s="113"/>
@@ -12017,7 +12018,7 @@
       <c r="K217" s="113"/>
       <c r="L217" s="113"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="113"/>
       <c r="B218" s="113"/>
       <c r="C218" s="113"/>
@@ -12031,7 +12032,7 @@
       <c r="K218" s="113"/>
       <c r="L218" s="113"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="113"/>
       <c r="B219" s="113"/>
       <c r="C219" s="113"/>
@@ -12045,7 +12046,7 @@
       <c r="K219" s="113"/>
       <c r="L219" s="113"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="113"/>
       <c r="B220" s="113"/>
       <c r="C220" s="113"/>
@@ -12059,7 +12060,7 @@
       <c r="K220" s="113"/>
       <c r="L220" s="113"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="113"/>
       <c r="B221" s="113"/>
       <c r="C221" s="113"/>
@@ -12073,7 +12074,7 @@
       <c r="K221" s="113"/>
       <c r="L221" s="113"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="113"/>
       <c r="B222" s="113"/>
       <c r="C222" s="113"/>
@@ -12087,7 +12088,7 @@
       <c r="K222" s="113"/>
       <c r="L222" s="113"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="113"/>
       <c r="B223" s="113"/>
       <c r="C223" s="113"/>
@@ -12101,7 +12102,7 @@
       <c r="K223" s="113"/>
       <c r="L223" s="113"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="113"/>
       <c r="B224" s="113"/>
       <c r="C224" s="113"/>
@@ -12115,7 +12116,7 @@
       <c r="K224" s="113"/>
       <c r="L224" s="113"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="113"/>
       <c r="B225" s="113"/>
       <c r="C225" s="113"/>
@@ -12129,7 +12130,7 @@
       <c r="K225" s="113"/>
       <c r="L225" s="113"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" s="113"/>
       <c r="B226" s="113"/>
       <c r="C226" s="113"/>
@@ -12143,7 +12144,7 @@
       <c r="K226" s="113"/>
       <c r="L226" s="113"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="113"/>
       <c r="B227" s="113"/>
       <c r="C227" s="113"/>
@@ -12157,7 +12158,7 @@
       <c r="K227" s="113"/>
       <c r="L227" s="113"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="113"/>
       <c r="B228" s="113"/>
       <c r="C228" s="113"/>
@@ -12171,7 +12172,7 @@
       <c r="K228" s="113"/>
       <c r="L228" s="113"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="113"/>
       <c r="B229" s="113"/>
       <c r="C229" s="113"/>
@@ -12185,7 +12186,7 @@
       <c r="K229" s="113"/>
       <c r="L229" s="113"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="113"/>
       <c r="B230" s="113"/>
       <c r="C230" s="113"/>
@@ -12199,7 +12200,7 @@
       <c r="K230" s="113"/>
       <c r="L230" s="113"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="113"/>
       <c r="B231" s="113"/>
       <c r="C231" s="113"/>
@@ -12213,7 +12214,7 @@
       <c r="K231" s="113"/>
       <c r="L231" s="113"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="113"/>
       <c r="B232" s="113"/>
       <c r="C232" s="113"/>
@@ -12227,7 +12228,7 @@
       <c r="K232" s="113"/>
       <c r="L232" s="113"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="113"/>
       <c r="B233" s="113"/>
       <c r="C233" s="113"/>
@@ -12241,7 +12242,7 @@
       <c r="K233" s="113"/>
       <c r="L233" s="113"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="113"/>
       <c r="B234" s="113"/>
       <c r="C234" s="113"/>
@@ -12255,7 +12256,7 @@
       <c r="K234" s="113"/>
       <c r="L234" s="113"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="113"/>
       <c r="B235" s="113"/>
       <c r="C235" s="113"/>
@@ -12269,7 +12270,7 @@
       <c r="K235" s="113"/>
       <c r="L235" s="113"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="113"/>
       <c r="B236" s="113"/>
       <c r="C236" s="113"/>
@@ -12283,7 +12284,7 @@
       <c r="K236" s="113"/>
       <c r="L236" s="113"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="113"/>
       <c r="B237" s="113"/>
       <c r="C237" s="113"/>
@@ -12297,7 +12298,7 @@
       <c r="K237" s="113"/>
       <c r="L237" s="113"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="113"/>
       <c r="B238" s="113"/>
       <c r="C238" s="113"/>
@@ -12311,7 +12312,7 @@
       <c r="K238" s="113"/>
       <c r="L238" s="113"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" s="113"/>
       <c r="B239" s="113"/>
       <c r="C239" s="113"/>
@@ -12325,7 +12326,7 @@
       <c r="K239" s="113"/>
       <c r="L239" s="113"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" s="113"/>
       <c r="B240" s="113"/>
       <c r="C240" s="113"/>
@@ -12339,7 +12340,7 @@
       <c r="K240" s="113"/>
       <c r="L240" s="113"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="113"/>
       <c r="B241" s="113"/>
       <c r="C241" s="113"/>
@@ -12353,7 +12354,7 @@
       <c r="K241" s="113"/>
       <c r="L241" s="113"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="113"/>
       <c r="B242" s="113"/>
       <c r="C242" s="113"/>
@@ -12367,7 +12368,7 @@
       <c r="K242" s="113"/>
       <c r="L242" s="113"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" s="113"/>
       <c r="B243" s="113"/>
       <c r="C243" s="113"/>
@@ -12381,7 +12382,7 @@
       <c r="K243" s="113"/>
       <c r="L243" s="113"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="113"/>
       <c r="B244" s="113"/>
       <c r="C244" s="113"/>
@@ -12395,7 +12396,7 @@
       <c r="K244" s="113"/>
       <c r="L244" s="113"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="113"/>
       <c r="B245" s="113"/>
       <c r="C245" s="113"/>
@@ -12409,7 +12410,7 @@
       <c r="K245" s="113"/>
       <c r="L245" s="113"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="113"/>
       <c r="B246" s="113"/>
       <c r="C246" s="113"/>
@@ -12423,7 +12424,7 @@
       <c r="K246" s="113"/>
       <c r="L246" s="113"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="113"/>
       <c r="B247" s="113"/>
       <c r="C247" s="113"/>
@@ -12437,7 +12438,7 @@
       <c r="K247" s="113"/>
       <c r="L247" s="113"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="113"/>
       <c r="B248" s="113"/>
       <c r="C248" s="113"/>
@@ -12451,7 +12452,7 @@
       <c r="K248" s="113"/>
       <c r="L248" s="113"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="113"/>
       <c r="B249" s="113"/>
       <c r="C249" s="113"/>
@@ -12465,7 +12466,7 @@
       <c r="K249" s="113"/>
       <c r="L249" s="113"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="113"/>
       <c r="B250" s="113"/>
       <c r="C250" s="113"/>
@@ -12479,7 +12480,7 @@
       <c r="K250" s="113"/>
       <c r="L250" s="113"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="113"/>
       <c r="B251" s="113"/>
       <c r="C251" s="113"/>
@@ -12493,7 +12494,7 @@
       <c r="K251" s="113"/>
       <c r="L251" s="113"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="113"/>
       <c r="B252" s="113"/>
       <c r="C252" s="113"/>
@@ -12507,7 +12508,7 @@
       <c r="K252" s="113"/>
       <c r="L252" s="113"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="113"/>
       <c r="B253" s="113"/>
       <c r="C253" s="113"/>
@@ -12521,7 +12522,7 @@
       <c r="K253" s="113"/>
       <c r="L253" s="113"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" s="113"/>
       <c r="B254" s="113"/>
       <c r="C254" s="113"/>
@@ -12535,7 +12536,7 @@
       <c r="K254" s="113"/>
       <c r="L254" s="113"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="113"/>
       <c r="B255" s="113"/>
       <c r="C255" s="113"/>
@@ -12549,7 +12550,7 @@
       <c r="K255" s="113"/>
       <c r="L255" s="113"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="113"/>
       <c r="B256" s="113"/>
       <c r="C256" s="113"/>
@@ -12563,7 +12564,7 @@
       <c r="K256" s="113"/>
       <c r="L256" s="113"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="113"/>
       <c r="B257" s="113"/>
       <c r="C257" s="113"/>
@@ -12577,7 +12578,7 @@
       <c r="K257" s="113"/>
       <c r="L257" s="113"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="113"/>
       <c r="B258" s="113"/>
       <c r="C258" s="113"/>
@@ -12604,55 +12605,55 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="24" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A1" s="190" t="s">
         <v>97</v>
       </c>
@@ -12713,7 +12714,7 @@
       <c r="AR1" s="194"/>
       <c r="AS1" s="195"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
         <v>92</v>
       </c>
@@ -12826,7 +12827,7 @@
       </c>
       <c r="AS2" s="77"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A3" s="47" t="s">
         <v>98</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
         <v>100</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>2.96E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A5" s="41" t="s">
         <v>101</v>
       </c>
@@ -13205,7 +13206,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A6" s="42" t="s">
         <v>102</v>
       </c>
@@ -13313,7 +13314,7 @@
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
       <c r="E7" s="41" t="s">
         <v>112</v>
       </c>
@@ -13389,7 +13390,7 @@
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
       <c r="E8" s="41" t="s">
         <v>113</v>
       </c>
@@ -13465,7 +13466,7 @@
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
       <c r="E9" s="41" t="s">
         <v>114</v>
       </c>
@@ -13535,7 +13536,7 @@
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
       <c r="E10" s="42" t="s">
         <v>115</v>
       </c>
@@ -13617,11 +13618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9393A-9557-43CE-B45F-3D30F980E3AF}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27:AD33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
@@ -13629,55 +13630,55 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.6640625" customWidth="1"/>
     <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.21875" customWidth="1"/>
-    <col min="29" max="29" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.19921875" customWidth="1"/>
+    <col min="29" max="29" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="24" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
@@ -13789,7 +13790,7 @@
       <c r="AZ1" s="161"/>
       <c r="BA1" s="161"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="78"/>
       <c r="B2" s="24" t="s">
         <v>98</v>
@@ -13895,7 +13896,7 @@
       <c r="AZ2" s="161"/>
       <c r="BA2" s="161"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="79" t="s">
         <v>97</v>
       </c>
@@ -13984,7 +13985,7 @@
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" s="80"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
@@ -14073,7 +14074,7 @@
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="81"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
@@ -14147,7 +14148,7 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="H6" s="205"/>
       <c r="I6" s="25" t="s">
@@ -14208,7 +14209,7 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="D7" s="5"/>
@@ -14270,7 +14271,7 @@
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" s="83"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -14333,7 +14334,7 @@
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9" s="83"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14396,7 +14397,7 @@
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" s="83"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -14438,7 +14439,7 @@
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="84"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -14479,7 +14480,7 @@
         <v>4.2900000000000004E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="83"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -14518,7 +14519,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" s="83"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -14557,7 +14558,7 @@
         <v>1.0330000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="83"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -14596,7 +14597,7 @@
         <v>2.0500000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" s="83"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -14637,7 +14638,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -14673,7 +14674,7 @@
         <v>2.48E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A17" s="83"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -14712,7 +14713,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A18" s="83"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -14751,7 +14752,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A19" s="83"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -14771,7 +14772,7 @@
         <v>2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A20" s="84"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -14793,7 +14794,7 @@
         <v>2.14E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A21" s="84"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -14813,7 +14814,7 @@
         <v>3.3300000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A22" s="83"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -14833,7 +14834,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A23" s="83"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -14855,7 +14856,7 @@
         <v>2.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A24" s="83"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -14875,7 +14876,7 @@
         <v>9.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G25" s="6"/>
       <c r="AC25" s="209"/>
       <c r="AD25" s="203"/>
@@ -14889,10 +14890,10 @@
         <v>2.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
       <c r="AG26" s="5"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
       <c r="AC27" s="207" t="s">
@@ -14911,7 +14912,7 @@
         <v>5.6999999999999998E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
@@ -14927,7 +14928,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
@@ -14943,7 +14944,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
       <c r="AC30" s="208"/>
       <c r="AD30" s="165"/>
       <c r="AE30" s="7" t="s">
@@ -14956,7 +14957,7 @@
         <v>1.31E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
       <c r="AC31" s="208"/>
@@ -14971,7 +14972,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
       <c r="AC32" s="208"/>
       <c r="AD32" s="165"/>
       <c r="AE32" s="7" t="s">
@@ -14984,7 +14985,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="AC33" s="208"/>
       <c r="AD33" s="165"/>
@@ -14998,7 +14999,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A34" s="89"/>
       <c r="B34" s="90"/>
       <c r="C34" s="6"/>
@@ -15018,7 +15019,7 @@
         <v>2.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A35" s="89"/>
       <c r="B35" s="90"/>
       <c r="C35" s="6"/>
@@ -15036,7 +15037,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A36" s="89"/>
       <c r="B36" s="90"/>
       <c r="C36" s="6"/>
@@ -15054,7 +15055,7 @@
         <v>3.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A37" s="89"/>
       <c r="B37" s="90"/>
       <c r="C37" s="6"/>
@@ -15072,7 +15073,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A38" s="89"/>
       <c r="B38" s="90"/>
       <c r="C38" s="6"/>
@@ -15090,7 +15091,7 @@
         <v>4.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A39" s="89"/>
       <c r="B39" s="90"/>
       <c r="C39" s="6"/>
@@ -15108,7 +15109,7 @@
         <v>4.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A40" s="89"/>
       <c r="B40" s="90"/>
       <c r="C40" s="6"/>
@@ -15126,7 +15127,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A41" s="89"/>
       <c r="B41" s="90"/>
       <c r="C41" s="6"/>
@@ -15146,7 +15147,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="89"/>
       <c r="B42" s="90"/>
       <c r="C42" s="6"/>
@@ -15164,7 +15165,7 @@
         <v>3.81E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A43" s="89"/>
       <c r="B43" s="90"/>
       <c r="C43" s="6"/>
@@ -15182,7 +15183,7 @@
         <v>3.81E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A44" s="89"/>
       <c r="B44" s="90"/>
       <c r="C44" s="6"/>
@@ -15200,7 +15201,7 @@
         <v>4.5900000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A45" s="89"/>
       <c r="B45" s="90"/>
       <c r="C45" s="6"/>
@@ -15218,7 +15219,7 @@
         <v>7.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A46" s="89"/>
       <c r="B46" s="90"/>
       <c r="C46" s="6"/>
@@ -15236,7 +15237,7 @@
         <v>8.3300000000000006E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A47" s="89"/>
       <c r="B47" s="90"/>
       <c r="C47" s="6"/>
@@ -15254,7 +15255,7 @@
         <v>3.65E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A48" s="89"/>
       <c r="B48" s="90"/>
       <c r="C48" s="6"/>
@@ -15274,7 +15275,7 @@
         <v>7.3499999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A49" s="89"/>
       <c r="B49" s="90"/>
       <c r="C49" s="6"/>
@@ -15292,7 +15293,7 @@
         <v>1.3220000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A50" s="89"/>
       <c r="B50" s="90"/>
       <c r="C50" s="6"/>
@@ -15310,7 +15311,7 @@
         <v>8.7299999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A51" s="89"/>
       <c r="B51" s="90"/>
       <c r="C51" s="6"/>
@@ -15330,7 +15331,7 @@
         <v>1.136E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A52" s="89"/>
       <c r="B52" s="90"/>
       <c r="C52" s="6"/>
@@ -15348,7 +15349,7 @@
         <v>1.384E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A53" s="89"/>
       <c r="B53" s="90"/>
       <c r="C53" s="6"/>
@@ -15366,7 +15367,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A54" s="89"/>
       <c r="B54" s="90"/>
       <c r="C54" s="6"/>
@@ -15386,7 +15387,7 @@
         <v>8.5279999999999995E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A55" s="89"/>
       <c r="B55" s="90"/>
       <c r="C55" s="6"/>
@@ -15406,217 +15407,217 @@
         <v>2.96E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A56" s="89"/>
       <c r="B56" s="90"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A57" s="89"/>
       <c r="B57" s="90"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A59" s="89"/>
       <c r="B59" s="90"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A60" s="89"/>
       <c r="B60" s="90"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A61" s="89"/>
       <c r="B61" s="90"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A62" s="89"/>
       <c r="B62" s="90"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A63" s="89"/>
       <c r="B63" s="90"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A64" s="89"/>
       <c r="B64" s="90"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="89"/>
       <c r="B65" s="90"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="89"/>
       <c r="B66" s="90"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="89"/>
       <c r="B67" s="90"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="89"/>
       <c r="B68" s="90"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="89"/>
       <c r="B69" s="90"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="89"/>
       <c r="B70" s="90"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="89"/>
       <c r="B71" s="90"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="89"/>
       <c r="B72" s="90"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="89"/>
       <c r="B73" s="90"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="89"/>
       <c r="B74" s="90"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="89"/>
       <c r="B75" s="90"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="89"/>
       <c r="B76" s="90"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="89"/>
       <c r="B77" s="90"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="89"/>
       <c r="B78" s="90"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="89"/>
       <c r="B79" s="90"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="89"/>
       <c r="B80" s="90"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="89"/>
       <c r="B81" s="90"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="89"/>
       <c r="B82" s="90"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="89"/>
       <c r="B83" s="90"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="89"/>
       <c r="B84" s="90"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="89"/>
       <c r="B85" s="90"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="89"/>
       <c r="B86" s="90"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="89"/>
       <c r="B87" s="90"/>
       <c r="C87" s="6"/>
@@ -15664,17 +15665,17 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
@@ -15694,7 +15695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="204" t="s">
         <v>97</v>
       </c>
@@ -15714,7 +15715,7 @@
         <v>9.4299999999999991E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="205"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
@@ -15732,7 +15733,7 @@
         <v>1.4540000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="205"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
@@ -15750,7 +15751,7 @@
         <v>1.9789999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="206"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
@@ -15784,18 +15785,18 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="204" t="s">
         <v>107</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>0.11851</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="205"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
@@ -15862,7 +15863,7 @@
         <v>0.14452999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="205"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
@@ -15883,7 +15884,7 @@
         <v>0.23755999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="205"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
@@ -15904,7 +15905,7 @@
         <v>0.20099</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="205"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
@@ -15925,7 +15926,7 @@
         <v>0.18537999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="205"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
@@ -15946,7 +15947,7 @@
         <v>0.22058</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="205"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
@@ -15967,7 +15968,7 @@
         <v>0.21898000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="206"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
@@ -15988,7 +15989,7 @@
         <v>0.21154000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="204" t="s">
         <v>116</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>0.14138000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="205"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
@@ -16032,7 +16033,7 @@
         <v>0.17241999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="205"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
@@ -16053,7 +16054,7 @@
         <v>0.28339999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="205"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
@@ -16074,7 +16075,7 @@
         <v>0.23977999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="205"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
@@ -16095,7 +16096,7 @@
         <v>0.21498999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="205"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
@@ -16116,7 +16117,7 @@
         <v>0.25580999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="205"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
@@ -16137,7 +16138,7 @@
         <v>0.25395000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="206"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
@@ -16175,16 +16176,16 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="204" t="s">
         <v>121</v>
       </c>
@@ -16226,7 +16227,7 @@
       <c r="F2" s="38"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="205"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
@@ -16243,7 +16244,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="206"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
@@ -16276,15 +16277,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="86" t="s">
         <v>91</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="82" t="s">
         <v>128</v>
       </c>
@@ -16323,37 +16324,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>242</v>
       </c>
@@ -16371,15 +16372,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="204" t="s">
         <v>132</v>
       </c>
@@ -16396,7 +16397,7 @@
         <v>6.7000000000000002E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="205"/>
       <c r="B2" s="168"/>
       <c r="C2" s="7" t="s">
@@ -16409,7 +16410,7 @@
         <v>1.01E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="205"/>
       <c r="B3" s="168"/>
       <c r="C3" s="7" t="s">
@@ -16422,7 +16423,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="205"/>
       <c r="B4" s="168"/>
       <c r="C4" s="7" t="s">
@@ -16435,7 +16436,7 @@
         <v>1.72E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="205"/>
       <c r="B5" s="168"/>
       <c r="C5" s="7" t="s">
@@ -16448,7 +16449,7 @@
         <v>2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="205"/>
       <c r="B6" s="168"/>
       <c r="C6" s="7" t="s">
@@ -16461,7 +16462,7 @@
         <v>7.6400000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="205"/>
       <c r="B7" s="168"/>
       <c r="C7" s="7" t="s">
@@ -16474,7 +16475,7 @@
         <v>1.0399999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="205"/>
       <c r="B8" s="168" t="s">
         <v>141</v>
@@ -16489,7 +16490,7 @@
         <v>1.31E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="205"/>
       <c r="B9" s="168"/>
       <c r="C9" s="7" t="s">
@@ -16502,7 +16503,7 @@
         <v>2.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="205"/>
       <c r="B10" s="168"/>
       <c r="C10" s="7" t="s">
@@ -16515,7 +16516,7 @@
         <v>4.2900000000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="205"/>
       <c r="B11" s="168"/>
       <c r="C11" s="7" t="s">
@@ -16528,7 +16529,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="205"/>
       <c r="B12" s="168"/>
       <c r="C12" s="7" t="s">
@@ -16541,7 +16542,7 @@
         <v>1.0330000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="205"/>
       <c r="B13" s="168"/>
       <c r="C13" s="7" t="s">
@@ -16554,7 +16555,7 @@
         <v>2.0500000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="205"/>
       <c r="B14" s="168" t="s">
         <v>147</v>
@@ -16569,7 +16570,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="205"/>
       <c r="B15" s="168"/>
       <c r="C15" s="7" t="s">
@@ -16582,7 +16583,7 @@
         <v>2.48E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="205"/>
       <c r="B16" s="168"/>
       <c r="C16" s="7" t="s">
@@ -16595,7 +16596,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="205"/>
       <c r="B17" s="168"/>
       <c r="C17" s="7" t="s">
@@ -16608,7 +16609,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="205"/>
       <c r="B18" s="168"/>
       <c r="C18" s="7" t="s">
@@ -16621,7 +16622,7 @@
         <v>2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="205"/>
       <c r="B19" s="168" t="s">
         <v>149</v>
@@ -16636,7 +16637,7 @@
         <v>2.14E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="205"/>
       <c r="B20" s="168"/>
       <c r="C20" s="7" t="s">
@@ -16649,7 +16650,7 @@
         <v>3.3300000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="205"/>
       <c r="B21" s="168"/>
       <c r="C21" s="7" t="s">
@@ -16662,7 +16663,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="205"/>
       <c r="B22" s="168" t="s">
         <v>152</v>
@@ -16677,7 +16678,7 @@
         <v>2.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="205"/>
       <c r="B23" s="168"/>
       <c r="C23" s="7" t="s">
@@ -16690,7 +16691,7 @@
         <v>9.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="206"/>
       <c r="B24" s="169"/>
       <c r="C24" s="13" t="s">
@@ -16703,7 +16704,7 @@
         <v>2.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="207" t="s">
         <v>155</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>5.6999999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="208"/>
       <c r="B26" s="168"/>
       <c r="C26" s="7" t="s">
@@ -16733,7 +16734,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="208"/>
       <c r="B27" s="168"/>
       <c r="C27" s="7" t="s">
@@ -16746,7 +16747,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="208"/>
       <c r="B28" s="168"/>
       <c r="C28" s="7" t="s">
@@ -16759,7 +16760,7 @@
         <v>1.31E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="208"/>
       <c r="B29" s="168"/>
       <c r="C29" s="7" t="s">
@@ -16772,7 +16773,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="208"/>
       <c r="B30" s="168"/>
       <c r="C30" s="7" t="s">
@@ -16785,7 +16786,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="208"/>
       <c r="B31" s="168"/>
       <c r="C31" s="7" t="s">
@@ -16798,7 +16799,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="208"/>
       <c r="B32" s="168" t="s">
         <v>161</v>
@@ -16813,7 +16814,7 @@
         <v>2.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="208"/>
       <c r="B33" s="168"/>
       <c r="C33" s="7" t="s">
@@ -16826,7 +16827,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="208"/>
       <c r="B34" s="168"/>
       <c r="C34" s="7" t="s">
@@ -16839,7 +16840,7 @@
         <v>3.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="208"/>
       <c r="B35" s="168"/>
       <c r="C35" s="7" t="s">
@@ -16852,7 +16853,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="208"/>
       <c r="B36" s="168"/>
       <c r="C36" s="7" t="s">
@@ -16865,7 +16866,7 @@
         <v>4.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="208"/>
       <c r="B37" s="168"/>
       <c r="C37" s="7" t="s">
@@ -16878,7 +16879,7 @@
         <v>4.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="208"/>
       <c r="B38" s="168"/>
       <c r="C38" s="7" t="s">
@@ -16891,7 +16892,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="208"/>
       <c r="B39" s="168" t="s">
         <v>166</v>
@@ -16906,7 +16907,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="208"/>
       <c r="B40" s="168"/>
       <c r="C40" s="7" t="s">
@@ -16919,7 +16920,7 @@
         <v>3.81E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="208"/>
       <c r="B41" s="168"/>
       <c r="C41" s="7" t="s">
@@ -16932,7 +16933,7 @@
         <v>3.81E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="208"/>
       <c r="B42" s="168"/>
       <c r="C42" s="7" t="s">
@@ -16945,7 +16946,7 @@
         <v>4.5900000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="208"/>
       <c r="B43" s="168"/>
       <c r="C43" s="7" t="s">
@@ -16958,7 +16959,7 @@
         <v>7.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="208"/>
       <c r="B44" s="168"/>
       <c r="C44" s="7" t="s">
@@ -16971,7 +16972,7 @@
         <v>8.3300000000000006E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="208"/>
       <c r="B45" s="168"/>
       <c r="C45" s="7" t="s">
@@ -16984,7 +16985,7 @@
         <v>3.65E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="208"/>
       <c r="B46" s="168" t="s">
         <v>173</v>
@@ -16999,7 +17000,7 @@
         <v>7.3499999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="208"/>
       <c r="B47" s="168"/>
       <c r="C47" s="7" t="s">
@@ -17012,7 +17013,7 @@
         <v>1.3220000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="208"/>
       <c r="B48" s="168"/>
       <c r="C48" s="7" t="s">
@@ -17025,7 +17026,7 @@
         <v>8.7299999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="208"/>
       <c r="B49" s="168" t="s">
         <v>176</v>
@@ -17040,7 +17041,7 @@
         <v>1.136E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="208"/>
       <c r="B50" s="168"/>
       <c r="C50" s="7" t="s">
@@ -17053,7 +17054,7 @@
         <v>1.384E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="208"/>
       <c r="B51" s="168"/>
       <c r="C51" s="7" t="s">
@@ -17066,7 +17067,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="208"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
@@ -17081,7 +17082,7 @@
         <v>8.5279999999999995E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="209"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
@@ -17115,6 +17116,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD098515-21DA-4E34-8208-57D76FDC375B}">
   <dimension ref="A1:BA87"/>
@@ -17123,7 +17138,7 @@
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
@@ -17131,52 +17146,52 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="24" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>91</v>
       </c>
@@ -17237,7 +17252,7 @@
       <c r="AZ1" s="161"/>
       <c r="BA1" s="161"/>
     </row>
-    <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="174" t="s">
         <v>97</v>
       </c>
@@ -17300,7 +17315,7 @@
       <c r="AZ2" s="161"/>
       <c r="BA2" s="161"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="175"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
@@ -17358,7 +17373,7 @@
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" s="175"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
@@ -17419,7 +17434,7 @@
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="176"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
@@ -17480,7 +17495,7 @@
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="I6" s="5"/>
       <c r="J6" s="94"/>
@@ -17521,7 +17536,7 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="D7" s="5" t="s">
@@ -17569,7 +17584,7 @@
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" s="174" t="s">
         <v>107</v>
       </c>
@@ -17624,7 +17639,7 @@
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9" s="175"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
@@ -17675,7 +17690,7 @@
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" s="175"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
@@ -17722,7 +17737,7 @@
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="175"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
@@ -17746,7 +17761,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="175"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
@@ -17770,7 +17785,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" s="175"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
@@ -17794,7 +17809,7 @@
       <c r="J13" s="98"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A14" s="175"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
@@ -17818,7 +17833,7 @@
       <c r="J14" s="99"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" s="176"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
@@ -17842,7 +17857,7 @@
       <c r="J15" s="98"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -17851,7 +17866,7 @@
       <c r="J16" s="98"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="171" t="s">
         <v>116</v>
       </c>
@@ -17877,7 +17892,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="172"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
@@ -17901,7 +17916,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="172"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
@@ -17925,7 +17940,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="172"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
@@ -17949,7 +17964,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="172"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
@@ -17973,7 +17988,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="172"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
@@ -17997,7 +18012,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="172"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
@@ -18021,7 +18036,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="173"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
@@ -18045,13 +18060,13 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -18065,7 +18080,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="174" t="s">
         <v>121</v>
       </c>
@@ -18088,7 +18103,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="175"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
@@ -18109,7 +18124,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="176"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
@@ -18127,8 +18142,8 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
         <v>128</v>
       </c>
@@ -18142,7 +18157,7 @@
         <v>6.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
@@ -18159,7 +18174,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="171" t="s">
         <v>132</v>
       </c>
@@ -18183,7 +18198,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="172"/>
       <c r="B35" s="168"/>
       <c r="C35" s="7" t="s">
@@ -18199,7 +18214,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="172"/>
       <c r="B36" s="168"/>
       <c r="C36" s="7" t="s">
@@ -18215,7 +18230,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="172"/>
       <c r="B37" s="168"/>
       <c r="C37" s="7" t="s">
@@ -18231,7 +18246,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="172"/>
       <c r="B38" s="168"/>
       <c r="C38" s="7" t="s">
@@ -18247,7 +18262,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="172"/>
       <c r="B39" s="168"/>
       <c r="C39" s="7" t="s">
@@ -18260,7 +18275,7 @@
         <v>7.6400000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="172"/>
       <c r="B40" s="168"/>
       <c r="C40" s="7" t="s">
@@ -18273,7 +18288,7 @@
         <v>1.0399999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="172"/>
       <c r="B41" s="168" t="str">
         <f>G35</f>
@@ -18289,7 +18304,7 @@
         <v>1.31E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="172"/>
       <c r="B42" s="168"/>
       <c r="C42" s="7" t="s">
@@ -18302,7 +18317,7 @@
         <v>2.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="172"/>
       <c r="B43" s="168"/>
       <c r="C43" s="7" t="s">
@@ -18315,7 +18330,7 @@
         <v>4.2900000000000004E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="172"/>
       <c r="B44" s="168"/>
       <c r="C44" s="7" t="s">
@@ -18328,7 +18343,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="172"/>
       <c r="B45" s="168"/>
       <c r="C45" s="7" t="s">
@@ -18341,7 +18356,7 @@
         <v>1.0330000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="172"/>
       <c r="B46" s="168"/>
       <c r="C46" s="7" t="s">
@@ -18354,7 +18369,7 @@
         <v>2.0500000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="172"/>
       <c r="B47" s="168" t="str">
         <f>G36</f>
@@ -18370,7 +18385,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="172"/>
       <c r="B48" s="168"/>
       <c r="C48" s="7" t="s">
@@ -18383,7 +18398,7 @@
         <v>2.48E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="172"/>
       <c r="B49" s="168"/>
       <c r="C49" s="7" t="s">
@@ -18396,7 +18411,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="172"/>
       <c r="B50" s="168"/>
       <c r="C50" s="7" t="s">
@@ -18409,7 +18424,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="172"/>
       <c r="B51" s="168"/>
       <c r="C51" s="7" t="s">
@@ -18422,7 +18437,7 @@
         <v>2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="172"/>
       <c r="B52" s="168" t="str">
         <f>G37</f>
@@ -18438,7 +18453,7 @@
         <v>2.14E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="172"/>
       <c r="B53" s="168"/>
       <c r="C53" s="7" t="s">
@@ -18451,7 +18466,7 @@
         <v>3.3300000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="172"/>
       <c r="B54" s="168"/>
       <c r="C54" s="7" t="s">
@@ -18464,7 +18479,7 @@
         <v>2.6199999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="172"/>
       <c r="B55" s="168" t="str">
         <f>G38</f>
@@ -18480,7 +18495,7 @@
         <v>2.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="172"/>
       <c r="B56" s="168"/>
       <c r="C56" s="7" t="s">
@@ -18493,7 +18508,7 @@
         <v>9.9900000000000006E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="173"/>
       <c r="B57" s="169"/>
       <c r="C57" s="13" t="s">
@@ -18506,10 +18521,10 @@
         <v>2.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="177" t="s">
         <v>155</v>
       </c>
@@ -18529,7 +18544,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="178"/>
       <c r="B60" s="165"/>
       <c r="C60" s="7" t="s">
@@ -18548,7 +18563,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="178"/>
       <c r="B61" s="165"/>
       <c r="C61" s="7" t="s">
@@ -18564,7 +18579,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="178"/>
       <c r="B62" s="165"/>
       <c r="C62" s="7" t="s">
@@ -18580,7 +18595,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="178"/>
       <c r="B63" s="165"/>
       <c r="C63" s="7" t="s">
@@ -18596,7 +18611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="178"/>
       <c r="B64" s="165"/>
       <c r="C64" s="7" t="s">
@@ -18612,7 +18627,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="178"/>
       <c r="B65" s="165"/>
       <c r="C65" s="7" t="s">
@@ -18626,7 +18641,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="178"/>
       <c r="B66" s="165" t="str">
         <f>G61</f>
@@ -18643,7 +18658,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="178"/>
       <c r="B67" s="165"/>
       <c r="C67" s="7" t="s">
@@ -18656,7 +18671,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="178"/>
       <c r="B68" s="165"/>
       <c r="C68" s="7" t="s">
@@ -18669,7 +18684,7 @@
         <v>3.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="178"/>
       <c r="B69" s="165"/>
       <c r="C69" s="7" t="s">
@@ -18682,7 +18697,7 @@
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="178"/>
       <c r="B70" s="165"/>
       <c r="C70" s="7" t="s">
@@ -18695,7 +18710,7 @@
         <v>4.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="178"/>
       <c r="B71" s="165"/>
       <c r="C71" s="7" t="s">
@@ -18708,7 +18723,7 @@
         <v>4.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="178"/>
       <c r="B72" s="165"/>
       <c r="C72" s="7" t="s">
@@ -18721,7 +18736,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="178"/>
       <c r="B73" s="165" t="str">
         <f>G62</f>
@@ -18737,7 +18752,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="178"/>
       <c r="B74" s="165"/>
       <c r="C74" s="7" t="s">
@@ -18750,7 +18765,7 @@
         <v>3.81E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="178"/>
       <c r="B75" s="165"/>
       <c r="C75" s="7" t="s">
@@ -18763,7 +18778,7 @@
         <v>3.81E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="178"/>
       <c r="B76" s="165"/>
       <c r="C76" s="7" t="s">
@@ -18776,7 +18791,7 @@
         <v>4.5900000000000003E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="178"/>
       <c r="B77" s="165"/>
       <c r="C77" s="7" t="s">
@@ -18789,7 +18804,7 @@
         <v>7.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="178"/>
       <c r="B78" s="165"/>
       <c r="C78" s="7" t="s">
@@ -18802,7 +18817,7 @@
         <v>8.3300000000000006E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="178"/>
       <c r="B79" s="165"/>
       <c r="C79" s="7" t="s">
@@ -18815,7 +18830,7 @@
         <v>3.65E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="178"/>
       <c r="B80" s="165" t="str">
         <f>G63</f>
@@ -18831,7 +18846,7 @@
         <v>7.3499999999999998E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="178"/>
       <c r="B81" s="165"/>
       <c r="C81" s="7" t="s">
@@ -18844,7 +18859,7 @@
         <v>1.3220000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="178"/>
       <c r="B82" s="165"/>
       <c r="C82" s="7" t="s">
@@ -18857,7 +18872,7 @@
         <v>8.7299999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="178"/>
       <c r="B83" s="165" t="str">
         <f>G64</f>
@@ -18873,7 +18888,7 @@
         <v>1.136E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="178"/>
       <c r="B84" s="165"/>
       <c r="C84" s="7" t="s">
@@ -18886,7 +18901,7 @@
         <v>1.384E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="179"/>
       <c r="B85" s="166"/>
       <c r="C85" s="109" t="s">
@@ -18899,14 +18914,14 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="105"/>
       <c r="B86" s="19"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="105"/>
       <c r="B87" s="19"/>
       <c r="C87" s="7"/>
@@ -18963,47 +18978,47 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="150" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>155</v>
       </c>
@@ -19022,14 +19037,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="112" t="s">
         <v>196</v>
       </c>
@@ -19038,7 +19053,7 @@
       </c>
       <c r="C1" s="113"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="121" t="s">
         <v>198</v>
       </c>
@@ -19047,7 +19062,7 @@
       </c>
       <c r="C2" s="181"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="121" t="s">
         <v>199</v>
       </c>
@@ -19056,7 +19071,7 @@
       </c>
       <c r="C3" s="181"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="121" t="s">
         <v>200</v>
       </c>
@@ -19065,7 +19080,7 @@
       </c>
       <c r="C4" s="181"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="121" t="s">
         <v>201</v>
       </c>
@@ -19074,7 +19089,7 @@
       </c>
       <c r="C5" s="181"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="121" t="s">
         <v>202</v>
       </c>
@@ -19083,7 +19098,7 @@
       </c>
       <c r="C6" s="181"/>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="121" t="s">
         <v>203</v>
       </c>
@@ -19092,7 +19107,7 @@
       </c>
       <c r="C7" s="181"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="122" t="s">
         <v>243</v>
       </c>
@@ -19101,7 +19116,7 @@
       </c>
       <c r="C8" s="181"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="121" t="s">
         <v>244</v>
       </c>
@@ -19110,7 +19125,7 @@
       </c>
       <c r="C9" s="181"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="125" t="s">
         <v>245</v>
       </c>
@@ -19119,7 +19134,7 @@
       </c>
       <c r="C10" s="181"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="125" t="s">
         <v>246</v>
       </c>
@@ -19128,7 +19143,7 @@
       </c>
       <c r="C11" s="181"/>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="153" t="s">
         <v>247</v>
       </c>
@@ -19137,127 +19152,127 @@
       </c>
       <c r="C12" s="181"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
       <c r="C13" s="181"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
       <c r="C14" s="181"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
       <c r="C15" s="181"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
       <c r="C16" s="181"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
       <c r="C17" s="181"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
       <c r="C18" s="181"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
       <c r="C19" s="181"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
       <c r="C20" s="181"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
       <c r="C21" s="181"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
       <c r="C22" s="181"/>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
       <c r="C23" s="182"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
       <c r="C24" s="182"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
       <c r="C25" s="182"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
       <c r="C26" s="182"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
       <c r="C27" s="182"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
       <c r="C28" s="182"/>
     </row>
-    <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
       <c r="C29" s="180"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
       <c r="C30" s="180"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
       <c r="C31" s="180"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
       <c r="C32" s="180"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
       <c r="C33" s="180"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="113"/>
       <c r="B34" s="113"/>
       <c r="C34" s="113"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="113"/>
       <c r="B35" s="113"/>
       <c r="C35" s="113"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="113"/>
       <c r="B36" s="113"/>
       <c r="C36" s="113"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="113"/>
       <c r="B37" s="113"/>
       <c r="C37" s="114"/>
@@ -19284,14 +19299,14 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="112" t="s">
         <v>204</v>
       </c>
@@ -19306,7 +19321,7 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="145" t="s">
         <v>205</v>
       </c>
@@ -19321,7 +19336,7 @@
       <c r="H2" s="187"/>
       <c r="I2" s="183"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="111" t="s">
         <v>220</v>
       </c>
@@ -19336,7 +19351,7 @@
       <c r="H3" s="188"/>
       <c r="I3" s="183"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
       <c r="C4" s="185"/>
@@ -19347,7 +19362,7 @@
       <c r="H4" s="188"/>
       <c r="I4" s="183"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
       <c r="C5" s="185"/>
@@ -19358,7 +19373,7 @@
       <c r="H5" s="188"/>
       <c r="I5" s="183"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
       <c r="C6" s="185"/>
@@ -19369,7 +19384,7 @@
       <c r="H6" s="188"/>
       <c r="I6" s="183"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
       <c r="C7" s="185"/>
@@ -19380,7 +19395,7 @@
       <c r="H7" s="188"/>
       <c r="I7" s="183"/>
     </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
       <c r="C8" s="185"/>
@@ -19391,7 +19406,7 @@
       <c r="H8" s="188"/>
       <c r="I8" s="183"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
       <c r="C9" s="186"/>
@@ -19402,7 +19417,7 @@
       <c r="H9" s="189"/>
       <c r="I9" s="183"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="111"/>
       <c r="B10" s="111"/>
       <c r="C10" s="120"/>
@@ -19413,7 +19428,7 @@
       <c r="H10" s="119"/>
       <c r="I10" s="119"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="111"/>
       <c r="B11" s="111"/>
       <c r="C11" s="127"/>
@@ -19424,7 +19439,7 @@
       <c r="H11" s="119"/>
       <c r="I11" s="119"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="112"/>
       <c r="B12" s="111"/>
       <c r="C12" s="119"/>
@@ -19435,7 +19450,7 @@
       <c r="H12" s="119"/>
       <c r="I12" s="119"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="111"/>
       <c r="B13" s="111"/>
       <c r="C13" s="119"/>
@@ -19446,7 +19461,7 @@
       <c r="H13" s="119"/>
       <c r="I13" s="119"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="111"/>
       <c r="B14" s="111"/>
       <c r="C14" s="128"/>
@@ -19457,7 +19472,7 @@
       <c r="H14" s="119"/>
       <c r="I14" s="119"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="112"/>
       <c r="B15" s="111"/>
       <c r="C15" s="119"/>
@@ -19468,7 +19483,7 @@
       <c r="H15" s="119"/>
       <c r="I15" s="119"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="112"/>
       <c r="B16" s="111"/>
       <c r="C16" s="119" t="s">
@@ -19481,7 +19496,7 @@
       <c r="H16" s="119"/>
       <c r="I16" s="119"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="112"/>
       <c r="B17" s="111"/>
       <c r="C17" s="119"/>
@@ -19492,7 +19507,7 @@
       <c r="H17" s="119"/>
       <c r="I17" s="119"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="112"/>
       <c r="B18" s="111"/>
       <c r="C18" s="119"/>
@@ -19503,7 +19518,7 @@
       <c r="H18" s="119"/>
       <c r="I18" s="119"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="112"/>
       <c r="B19" s="111"/>
       <c r="C19" s="119"/>
@@ -19514,7 +19529,7 @@
       <c r="H19" s="119"/>
       <c r="I19" s="119"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="112"/>
       <c r="B20" s="111"/>
       <c r="C20" s="119"/>
@@ -19544,34 +19559,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCAC664-4044-450B-B778-DDDA7976179A}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>616</v>
       </c>
@@ -19590,32 +19605,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>611</v>
       </c>
@@ -19631,32 +19646,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>606</v>
       </c>
@@ -19667,15 +19682,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
@@ -19683,7 +19689,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -19904,15 +19910,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19922,7 +19929,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19939,4 +19946,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D13F2A-E44D-461C-B63A-9A665C947380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E8059-4950-434B-8EF5-68CC35EFB057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,21 @@
     <sheet name="Usage Types" sheetId="21" r:id="rId8"/>
     <sheet name="Facilities" sheetId="20" r:id="rId9"/>
     <sheet name="Process" sheetId="19" r:id="rId10"/>
-    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId11"/>
-    <sheet name="Packaging" sheetId="16" r:id="rId12"/>
-    <sheet name="Manufacturing" sheetId="15" r:id="rId13"/>
-    <sheet name="Test Page" sheetId="3" r:id="rId14"/>
-    <sheet name="Transport Test Page" sheetId="5" r:id="rId15"/>
-    <sheet name="Van" sheetId="6" r:id="rId16"/>
-    <sheet name="HGV" sheetId="7" r:id="rId17"/>
-    <sheet name="Freight Flight" sheetId="8" r:id="rId18"/>
-    <sheet name="Rail" sheetId="9" r:id="rId19"/>
-    <sheet name="Ship" sheetId="10" r:id="rId20"/>
-    <sheet name="Saved Emissions" sheetId="23" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId11"/>
+    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId12"/>
+    <sheet name="Packaging" sheetId="16" r:id="rId13"/>
+    <sheet name="Manufacturing" sheetId="15" r:id="rId14"/>
+    <sheet name="Test Page" sheetId="3" r:id="rId15"/>
+    <sheet name="Transport Test Page" sheetId="5" r:id="rId16"/>
+    <sheet name="Van" sheetId="6" r:id="rId17"/>
+    <sheet name="HGV" sheetId="7" r:id="rId18"/>
+    <sheet name="Freight Flight" sheetId="8" r:id="rId19"/>
+    <sheet name="Rail" sheetId="9" r:id="rId20"/>
+    <sheet name="Ship" sheetId="10" r:id="rId21"/>
+    <sheet name="Saved Emissions" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
     <definedName name="wttTransport">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="623">
   <si>
     <t>Country</t>
   </si>
@@ -2076,6 +2077,24 @@
   </si>
   <si>
     <t>Plastic appliances</t>
+  </si>
+  <si>
+    <t>5-axis multi-function</t>
+  </si>
+  <si>
+    <t>Milling (3 axis)</t>
+  </si>
+  <si>
+    <t>Turning (3 axis)</t>
+  </si>
+  <si>
+    <t>Grinding</t>
+  </si>
+  <si>
+    <t>Laser cutting</t>
+  </si>
+  <si>
+    <t>Machine Process</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2286,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2331,6 +2350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3078,7 +3103,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3504,6 +3529,36 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3530,36 +3585,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3615,6 +3640,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3633,12 +3664,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -6186,7 +6212,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6240,6 +6266,54 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40758563-BC2E-44F0-BF67-4E97AC986071}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="210" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A86444-194D-475C-A119-79201F84CD65}">
   <dimension ref="A1:C202"/>
   <sheetViews>
@@ -8481,7 +8555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CF364-998B-474D-A19B-22FEFE188380}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -8620,7 +8694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125FD3FB-F912-42B3-B605-31DC335FC9DA}">
   <dimension ref="A1:L258"/>
   <sheetViews>
@@ -12599,7 +12673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849DADDE-0FC9-4C51-8BB1-BFE5AFC7081B}">
   <dimension ref="A1:AS10"/>
   <sheetViews>
@@ -13616,7 +13690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9393A-9557-43CE-B45F-3D30F980E3AF}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
@@ -13777,20 +13851,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="179"/>
-      <c r="AO1" s="179"/>
-      <c r="AP1" s="179"/>
-      <c r="AQ1" s="179"/>
-      <c r="AR1" s="179"/>
-      <c r="AS1" s="179"/>
-      <c r="AT1" s="179"/>
-      <c r="AU1" s="179"/>
-      <c r="AV1" s="179"/>
-      <c r="AW1" s="179"/>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="179"/>
-      <c r="BA1" s="179"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+      <c r="AS1" s="161"/>
+      <c r="AT1" s="161"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
+      <c r="AX1" s="161"/>
+      <c r="AY1" s="161"/>
+      <c r="AZ1" s="161"/>
+      <c r="BA1" s="161"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -13809,7 +13883,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="202" t="s">
+      <c r="H2" s="204" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -13831,7 +13905,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="202" t="s">
+      <c r="P2" s="204" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -13862,10 +13936,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="205" t="s">
+      <c r="AC2" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="208" t="s">
+      <c r="AD2" s="202" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -13877,26 +13951,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="179"/>
-      <c r="BA2" s="179"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="161"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="161"/>
+      <c r="AQ2" s="161"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="161"/>
+      <c r="AT2" s="161"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="161"/>
+      <c r="AY2" s="161"/>
+      <c r="AZ2" s="161"/>
+      <c r="BA2" s="161"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -13917,7 +13991,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="203"/>
+      <c r="H3" s="205"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -13937,7 +14011,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="203"/>
+      <c r="P3" s="205"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -13958,8 +14032,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="171"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="165"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -14004,7 +14078,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="203"/>
+      <c r="H4" s="205"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -14024,7 +14098,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="204"/>
+      <c r="P4" s="206"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -14044,8 +14118,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="171"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="165"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -14093,7 +14167,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="203"/>
+      <c r="H5" s="205"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -14118,8 +14192,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="171"/>
+      <c r="AC5" s="208"/>
+      <c r="AD5" s="165"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -14152,7 +14226,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="203"/>
+      <c r="H6" s="205"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -14179,8 +14253,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="206"/>
-      <c r="AD6" s="171"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="165"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -14218,7 +14292,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="203"/>
+      <c r="H7" s="205"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -14245,8 +14319,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="206"/>
-      <c r="AD7" s="171"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="165"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -14281,7 +14355,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="203"/>
+      <c r="H8" s="205"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -14308,8 +14382,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="206"/>
-      <c r="AD8" s="171"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="165"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -14344,7 +14418,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="204"/>
+      <c r="H9" s="206"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -14371,8 +14445,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="206"/>
-      <c r="AD9" s="171" t="s">
+      <c r="AC9" s="208"/>
+      <c r="AD9" s="165" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -14415,8 +14489,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="171"/>
+      <c r="AC10" s="208"/>
+      <c r="AD10" s="165"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -14449,7 +14523,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="205" t="s">
+      <c r="H11" s="207" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -14470,8 +14544,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="206"/>
-      <c r="AD11" s="171"/>
+      <c r="AC11" s="208"/>
+      <c r="AD11" s="165"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -14490,7 +14564,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="206"/>
+      <c r="H12" s="208"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -14509,8 +14583,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="206"/>
-      <c r="AD12" s="171"/>
+      <c r="AC12" s="208"/>
+      <c r="AD12" s="165"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -14529,7 +14603,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="206"/>
+      <c r="H13" s="208"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -14548,8 +14622,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="206"/>
-      <c r="AD13" s="171"/>
+      <c r="AC13" s="208"/>
+      <c r="AD13" s="165"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -14568,7 +14642,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="206"/>
+      <c r="H14" s="208"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -14587,8 +14661,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="206"/>
-      <c r="AD14" s="171"/>
+      <c r="AC14" s="208"/>
+      <c r="AD14" s="165"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -14607,7 +14681,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="206"/>
+      <c r="H15" s="208"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -14626,8 +14700,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="206"/>
-      <c r="AD15" s="171" t="s">
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="165" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -14645,7 +14719,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="206"/>
+      <c r="H16" s="208"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -14664,8 +14738,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="206"/>
-      <c r="AD16" s="171"/>
+      <c r="AC16" s="208"/>
+      <c r="AD16" s="165"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -14684,7 +14758,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="206"/>
+      <c r="H17" s="208"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -14703,8 +14777,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="206"/>
-      <c r="AD17" s="171"/>
+      <c r="AC17" s="208"/>
+      <c r="AD17" s="165"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -14723,7 +14797,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="207"/>
+      <c r="H18" s="209"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -14742,8 +14816,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="206"/>
-      <c r="AD18" s="171"/>
+      <c r="AC18" s="208"/>
+      <c r="AD18" s="165"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -14762,8 +14836,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="206"/>
-      <c r="AD19" s="171"/>
+      <c r="AC19" s="208"/>
+      <c r="AD19" s="165"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -14782,8 +14856,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="206"/>
-      <c r="AD20" s="171" t="s">
+      <c r="AC20" s="208"/>
+      <c r="AD20" s="165" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -14804,8 +14878,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="206"/>
-      <c r="AD21" s="171"/>
+      <c r="AC21" s="208"/>
+      <c r="AD21" s="165"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -14824,8 +14898,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="206"/>
-      <c r="AD22" s="171"/>
+      <c r="AC22" s="208"/>
+      <c r="AD22" s="165"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -14844,8 +14918,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="206"/>
-      <c r="AD23" s="171" t="s">
+      <c r="AC23" s="208"/>
+      <c r="AD23" s="165" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -14866,8 +14940,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="206"/>
-      <c r="AD24" s="171"/>
+      <c r="AC24" s="208"/>
+      <c r="AD24" s="165"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -14880,8 +14954,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="207"/>
-      <c r="AD25" s="209"/>
+      <c r="AC25" s="209"/>
+      <c r="AD25" s="203"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -14898,10 +14972,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="205" t="s">
+      <c r="AC27" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="208" t="s">
+      <c r="AD27" s="202" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -14918,8 +14992,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="206"/>
-      <c r="AD28" s="171"/>
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="165"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -14934,8 +15008,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="206"/>
-      <c r="AD29" s="171"/>
+      <c r="AC29" s="208"/>
+      <c r="AD29" s="165"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -14947,8 +15021,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="206"/>
-      <c r="AD30" s="171"/>
+      <c r="AC30" s="208"/>
+      <c r="AD30" s="165"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -14962,8 +15036,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="206"/>
-      <c r="AD31" s="171"/>
+      <c r="AC31" s="208"/>
+      <c r="AD31" s="165"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -14975,8 +15049,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="171"/>
+      <c r="AC32" s="208"/>
+      <c r="AD32" s="165"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -14989,8 +15063,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="206"/>
-      <c r="AD33" s="171"/>
+      <c r="AC33" s="208"/>
+      <c r="AD33" s="165"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -15007,8 +15081,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="206"/>
-      <c r="AD34" s="171" t="s">
+      <c r="AC34" s="208"/>
+      <c r="AD34" s="165" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -15027,8 +15101,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="206"/>
-      <c r="AD35" s="171"/>
+      <c r="AC35" s="208"/>
+      <c r="AD35" s="165"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -15045,8 +15119,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="206"/>
-      <c r="AD36" s="171"/>
+      <c r="AC36" s="208"/>
+      <c r="AD36" s="165"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -15063,8 +15137,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="206"/>
-      <c r="AD37" s="171"/>
+      <c r="AC37" s="208"/>
+      <c r="AD37" s="165"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -15081,8 +15155,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="206"/>
-      <c r="AD38" s="171"/>
+      <c r="AC38" s="208"/>
+      <c r="AD38" s="165"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -15099,8 +15173,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="206"/>
-      <c r="AD39" s="171"/>
+      <c r="AC39" s="208"/>
+      <c r="AD39" s="165"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -15117,8 +15191,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="206"/>
-      <c r="AD40" s="171"/>
+      <c r="AC40" s="208"/>
+      <c r="AD40" s="165"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -15135,8 +15209,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="206"/>
-      <c r="AD41" s="171" t="s">
+      <c r="AC41" s="208"/>
+      <c r="AD41" s="165" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -15155,8 +15229,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="206"/>
-      <c r="AD42" s="171"/>
+      <c r="AC42" s="208"/>
+      <c r="AD42" s="165"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -15173,8 +15247,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="206"/>
-      <c r="AD43" s="171"/>
+      <c r="AC43" s="208"/>
+      <c r="AD43" s="165"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -15191,8 +15265,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="206"/>
-      <c r="AD44" s="171"/>
+      <c r="AC44" s="208"/>
+      <c r="AD44" s="165"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -15209,8 +15283,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="206"/>
-      <c r="AD45" s="171"/>
+      <c r="AC45" s="208"/>
+      <c r="AD45" s="165"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -15227,8 +15301,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="206"/>
-      <c r="AD46" s="171"/>
+      <c r="AC46" s="208"/>
+      <c r="AD46" s="165"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -15245,8 +15319,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="206"/>
-      <c r="AD47" s="171"/>
+      <c r="AC47" s="208"/>
+      <c r="AD47" s="165"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -15263,8 +15337,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="206"/>
-      <c r="AD48" s="171" t="s">
+      <c r="AC48" s="208"/>
+      <c r="AD48" s="165" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -15283,8 +15357,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="206"/>
-      <c r="AD49" s="171"/>
+      <c r="AC49" s="208"/>
+      <c r="AD49" s="165"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -15301,8 +15375,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="206"/>
-      <c r="AD50" s="171"/>
+      <c r="AC50" s="208"/>
+      <c r="AD50" s="165"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -15319,8 +15393,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="206"/>
-      <c r="AD51" s="171" t="s">
+      <c r="AC51" s="208"/>
+      <c r="AD51" s="165" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -15339,8 +15413,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="206"/>
-      <c r="AD52" s="171"/>
+      <c r="AC52" s="208"/>
+      <c r="AD52" s="165"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -15357,8 +15431,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="206"/>
-      <c r="AD53" s="171"/>
+      <c r="AC53" s="208"/>
+      <c r="AD53" s="165"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -15375,7 +15449,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="206"/>
+      <c r="AC54" s="208"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -15395,7 +15469,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="207"/>
+      <c r="AC55" s="209"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -15628,11 +15702,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -15649,17 +15723,17 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -15698,7 +15772,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -15718,7 +15792,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -15736,7 +15810,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="203"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -15754,7 +15828,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -15779,7 +15853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -15822,7 +15896,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -15845,7 +15919,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -15866,7 +15940,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="203"/>
+      <c r="A4" s="205"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -15887,7 +15961,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="203"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -15908,7 +15982,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="203"/>
+      <c r="A6" s="205"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -15929,7 +16003,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="203"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -15950,7 +16024,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="203"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -15971,7 +16045,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -15992,7 +16066,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="204" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -16015,7 +16089,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="203"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -16036,7 +16110,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="203"/>
+      <c r="A12" s="205"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -16057,7 +16131,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="205"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -16078,7 +16152,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -16099,7 +16173,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="203"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -16120,7 +16194,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
+      <c r="A16" s="205"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -16141,7 +16215,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -16170,7 +16244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -16211,7 +16285,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -16230,7 +16304,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
+      <c r="A3" s="205"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16247,7 +16321,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16271,7 +16345,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -16320,53 +16440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295B0C8-B8D2-4684-B32D-14EED3B83A5D}">
   <dimension ref="A1:E53"/>
   <sheetViews>
@@ -16383,10 +16457,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="167" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -16400,8 +16474,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="203"/>
-      <c r="B2" s="174"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -16413,8 +16487,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="203"/>
-      <c r="B3" s="174"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -16426,8 +16500,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="203"/>
-      <c r="B4" s="174"/>
+      <c r="A4" s="205"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -16439,8 +16513,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="203"/>
-      <c r="B5" s="174"/>
+      <c r="A5" s="205"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -16452,8 +16526,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="203"/>
-      <c r="B6" s="174"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -16465,8 +16539,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="203"/>
-      <c r="B7" s="174"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -16478,8 +16552,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="203"/>
-      <c r="B8" s="174" t="s">
+      <c r="A8" s="205"/>
+      <c r="B8" s="168" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -16493,8 +16567,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="203"/>
-      <c r="B9" s="174"/>
+      <c r="A9" s="205"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -16506,8 +16580,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
-      <c r="B10" s="174"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -16519,8 +16593,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="203"/>
-      <c r="B11" s="174"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -16532,8 +16606,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="203"/>
-      <c r="B12" s="174"/>
+      <c r="A12" s="205"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -16545,8 +16619,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
-      <c r="B13" s="174"/>
+      <c r="A13" s="205"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -16558,8 +16632,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
-      <c r="B14" s="174" t="s">
+      <c r="A14" s="205"/>
+      <c r="B14" s="168" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -16573,8 +16647,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="203"/>
-      <c r="B15" s="174"/>
+      <c r="A15" s="205"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -16586,8 +16660,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
-      <c r="B16" s="174"/>
+      <c r="A16" s="205"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -16599,8 +16673,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
-      <c r="B17" s="174"/>
+      <c r="A17" s="205"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -16612,8 +16686,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
-      <c r="B18" s="174"/>
+      <c r="A18" s="205"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -16625,8 +16699,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
-      <c r="B19" s="174" t="s">
+      <c r="A19" s="205"/>
+      <c r="B19" s="168" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -16640,8 +16714,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="203"/>
-      <c r="B20" s="174"/>
+      <c r="A20" s="205"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -16653,8 +16727,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="203"/>
-      <c r="B21" s="174"/>
+      <c r="A21" s="205"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -16666,8 +16740,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
-      <c r="B22" s="174" t="s">
+      <c r="A22" s="205"/>
+      <c r="B22" s="168" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -16681,8 +16755,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="203"/>
-      <c r="B23" s="174"/>
+      <c r="A23" s="205"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -16694,8 +16768,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="204"/>
-      <c r="B24" s="175"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -16707,10 +16781,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="167" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -16724,8 +16798,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="206"/>
-      <c r="B26" s="174"/>
+      <c r="A26" s="208"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -16737,8 +16811,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="206"/>
-      <c r="B27" s="174"/>
+      <c r="A27" s="208"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -16750,8 +16824,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="206"/>
-      <c r="B28" s="174"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -16763,8 +16837,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="206"/>
-      <c r="B29" s="174"/>
+      <c r="A29" s="208"/>
+      <c r="B29" s="168"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -16776,8 +16850,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="206"/>
-      <c r="B30" s="174"/>
+      <c r="A30" s="208"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -16789,8 +16863,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="206"/>
-      <c r="B31" s="174"/>
+      <c r="A31" s="208"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -16802,8 +16876,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="206"/>
-      <c r="B32" s="174" t="s">
+      <c r="A32" s="208"/>
+      <c r="B32" s="168" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -16817,8 +16891,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="206"/>
-      <c r="B33" s="174"/>
+      <c r="A33" s="208"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -16830,8 +16904,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="206"/>
-      <c r="B34" s="174"/>
+      <c r="A34" s="208"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -16843,8 +16917,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="206"/>
-      <c r="B35" s="174"/>
+      <c r="A35" s="208"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -16856,8 +16930,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="206"/>
-      <c r="B36" s="174"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -16869,8 +16943,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="206"/>
-      <c r="B37" s="174"/>
+      <c r="A37" s="208"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -16882,8 +16956,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="206"/>
-      <c r="B38" s="174"/>
+      <c r="A38" s="208"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -16895,8 +16969,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="206"/>
-      <c r="B39" s="174" t="s">
+      <c r="A39" s="208"/>
+      <c r="B39" s="168" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -16910,8 +16984,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="206"/>
-      <c r="B40" s="174"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -16923,8 +16997,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="206"/>
-      <c r="B41" s="174"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -16936,8 +17010,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="206"/>
-      <c r="B42" s="174"/>
+      <c r="A42" s="208"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -16949,8 +17023,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="206"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -16962,8 +17036,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="206"/>
-      <c r="B44" s="174"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -16975,8 +17049,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="206"/>
-      <c r="B45" s="174"/>
+      <c r="A45" s="208"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -16988,8 +17062,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="206"/>
-      <c r="B46" s="174" t="s">
+      <c r="A46" s="208"/>
+      <c r="B46" s="168" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -17003,8 +17077,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="206"/>
-      <c r="B47" s="174"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="168"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -17016,8 +17090,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="206"/>
-      <c r="B48" s="174"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -17029,8 +17103,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="206"/>
-      <c r="B49" s="174" t="s">
+      <c r="A49" s="208"/>
+      <c r="B49" s="168" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -17044,8 +17118,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="206"/>
-      <c r="B50" s="174"/>
+      <c r="A50" s="208"/>
+      <c r="B50" s="168"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -17057,8 +17131,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="206"/>
-      <c r="B51" s="174"/>
+      <c r="A51" s="208"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -17070,7 +17144,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="206"/>
+      <c r="A52" s="208"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -17085,7 +17159,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="207"/>
+      <c r="A53" s="209"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -17118,7 +17192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17136,7 +17210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD098515-21DA-4E34-8208-57D76FDC375B}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -17212,50 +17286,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="178"/>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="178"/>
-      <c r="AJ1" s="178"/>
-      <c r="AK1" s="178"/>
-      <c r="AL1" s="178"/>
-      <c r="AM1" s="178"/>
-      <c r="AN1" s="179"/>
-      <c r="AO1" s="179"/>
-      <c r="AP1" s="179"/>
-      <c r="AQ1" s="179"/>
-      <c r="AR1" s="179"/>
-      <c r="AS1" s="179"/>
-      <c r="AT1" s="179"/>
-      <c r="AU1" s="179"/>
-      <c r="AV1" s="179"/>
-      <c r="AW1" s="179"/>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="179"/>
-      <c r="BA1" s="179"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+      <c r="AS1" s="161"/>
+      <c r="AT1" s="161"/>
+      <c r="AU1" s="161"/>
+      <c r="AV1" s="161"/>
+      <c r="AW1" s="161"/>
+      <c r="AX1" s="161"/>
+      <c r="AY1" s="161"/>
+      <c r="AZ1" s="161"/>
+      <c r="BA1" s="161"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="174" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -17292,33 +17366,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="179"/>
-      <c r="BA2" s="179"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="161"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="161"/>
+      <c r="AQ2" s="161"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="161"/>
+      <c r="AT2" s="161"/>
+      <c r="AU2" s="161"/>
+      <c r="AV2" s="161"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="161"/>
+      <c r="AY2" s="161"/>
+      <c r="AZ2" s="161"/>
+      <c r="BA2" s="161"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="165"/>
+      <c r="A3" s="175"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -17376,7 +17450,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
+      <c r="A4" s="175"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -17437,7 +17511,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="166"/>
+      <c r="A5" s="176"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -17587,7 +17661,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="174" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -17642,7 +17716,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="165"/>
+      <c r="A9" s="175"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -17693,7 +17767,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="165"/>
+      <c r="A10" s="175"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -17740,7 +17814,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="165"/>
+      <c r="A11" s="175"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -17764,7 +17838,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="165"/>
+      <c r="A12" s="175"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -17788,7 +17862,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="165"/>
+      <c r="A13" s="175"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -17812,7 +17886,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="165"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -17836,7 +17910,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="166"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -17869,7 +17943,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="171" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -17895,7 +17969,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="162"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -17919,7 +17993,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="162"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -17943,7 +18017,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="162"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -17967,7 +18041,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -17991,7 +18065,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -18015,7 +18089,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -18039,7 +18113,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="163"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -18083,7 +18157,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="164" t="s">
+      <c r="A27" s="174" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -18106,7 +18180,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="165"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -18127,7 +18201,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="166"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -18177,10 +18251,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="173" t="str">
+      <c r="B34" s="167" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -18201,8 +18275,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="174"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -18217,8 +18291,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="162"/>
-      <c r="B36" s="174"/>
+      <c r="A36" s="172"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -18233,8 +18307,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="162"/>
-      <c r="B37" s="174"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -18249,8 +18323,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="162"/>
-      <c r="B38" s="174"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -18265,8 +18339,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="174"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -18278,8 +18352,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="162"/>
-      <c r="B40" s="174"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -18291,8 +18365,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="162"/>
-      <c r="B41" s="174" t="str">
+      <c r="A41" s="172"/>
+      <c r="B41" s="168" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -18307,8 +18381,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="162"/>
-      <c r="B42" s="174"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -18320,8 +18394,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="162"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -18333,8 +18407,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="162"/>
-      <c r="B44" s="174"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -18346,8 +18420,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="162"/>
-      <c r="B45" s="174"/>
+      <c r="A45" s="172"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -18359,8 +18433,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="162"/>
-      <c r="B46" s="174"/>
+      <c r="A46" s="172"/>
+      <c r="B46" s="168"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -18372,8 +18446,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="162"/>
-      <c r="B47" s="174" t="str">
+      <c r="A47" s="172"/>
+      <c r="B47" s="168" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -18388,8 +18462,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="162"/>
-      <c r="B48" s="174"/>
+      <c r="A48" s="172"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -18401,8 +18475,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="162"/>
-      <c r="B49" s="174"/>
+      <c r="A49" s="172"/>
+      <c r="B49" s="168"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -18414,8 +18488,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="162"/>
-      <c r="B50" s="174"/>
+      <c r="A50" s="172"/>
+      <c r="B50" s="168"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -18427,8 +18501,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="162"/>
-      <c r="B51" s="174"/>
+      <c r="A51" s="172"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -18440,8 +18514,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="162"/>
-      <c r="B52" s="174" t="str">
+      <c r="A52" s="172"/>
+      <c r="B52" s="168" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -18456,8 +18530,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="162"/>
-      <c r="B53" s="174"/>
+      <c r="A53" s="172"/>
+      <c r="B53" s="168"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -18469,8 +18543,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="162"/>
-      <c r="B54" s="174"/>
+      <c r="A54" s="172"/>
+      <c r="B54" s="168"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -18482,8 +18556,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="162"/>
-      <c r="B55" s="174" t="str">
+      <c r="A55" s="172"/>
+      <c r="B55" s="168" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -18498,8 +18572,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="162"/>
-      <c r="B56" s="174"/>
+      <c r="A56" s="172"/>
+      <c r="B56" s="168"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -18511,8 +18585,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="163"/>
-      <c r="B57" s="175"/>
+      <c r="A57" s="173"/>
+      <c r="B57" s="169"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -18527,10 +18601,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="167" t="s">
+      <c r="A59" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="176" t="s">
+      <c r="B59" s="170" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -18547,8 +18621,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="168"/>
-      <c r="B60" s="171"/>
+      <c r="A60" s="178"/>
+      <c r="B60" s="165"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -18566,8 +18640,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="168"/>
-      <c r="B61" s="171"/>
+      <c r="A61" s="178"/>
+      <c r="B61" s="165"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -18582,8 +18656,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="168"/>
-      <c r="B62" s="171"/>
+      <c r="A62" s="178"/>
+      <c r="B62" s="165"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -18598,8 +18672,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
-      <c r="B63" s="171"/>
+      <c r="A63" s="178"/>
+      <c r="B63" s="165"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -18614,8 +18688,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="168"/>
-      <c r="B64" s="171"/>
+      <c r="A64" s="178"/>
+      <c r="B64" s="165"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -18630,8 +18704,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="171"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="165"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -18644,8 +18718,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="168"/>
-      <c r="B66" s="171" t="str">
+      <c r="A66" s="178"/>
+      <c r="B66" s="165" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -18661,8 +18735,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="168"/>
-      <c r="B67" s="171"/>
+      <c r="A67" s="178"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -18674,8 +18748,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="168"/>
-      <c r="B68" s="171"/>
+      <c r="A68" s="178"/>
+      <c r="B68" s="165"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -18687,8 +18761,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="168"/>
-      <c r="B69" s="171"/>
+      <c r="A69" s="178"/>
+      <c r="B69" s="165"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -18700,8 +18774,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="168"/>
-      <c r="B70" s="171"/>
+      <c r="A70" s="178"/>
+      <c r="B70" s="165"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -18713,8 +18787,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="168"/>
-      <c r="B71" s="171"/>
+      <c r="A71" s="178"/>
+      <c r="B71" s="165"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -18726,8 +18800,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="168"/>
-      <c r="B72" s="171"/>
+      <c r="A72" s="178"/>
+      <c r="B72" s="165"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -18739,8 +18813,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="168"/>
-      <c r="B73" s="171" t="str">
+      <c r="A73" s="178"/>
+      <c r="B73" s="165" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -18755,8 +18829,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="168"/>
-      <c r="B74" s="171"/>
+      <c r="A74" s="178"/>
+      <c r="B74" s="165"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -18768,8 +18842,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="168"/>
-      <c r="B75" s="171"/>
+      <c r="A75" s="178"/>
+      <c r="B75" s="165"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -18781,8 +18855,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="168"/>
-      <c r="B76" s="171"/>
+      <c r="A76" s="178"/>
+      <c r="B76" s="165"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -18794,8 +18868,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="168"/>
-      <c r="B77" s="171"/>
+      <c r="A77" s="178"/>
+      <c r="B77" s="165"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -18807,8 +18881,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="168"/>
-      <c r="B78" s="171"/>
+      <c r="A78" s="178"/>
+      <c r="B78" s="165"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -18820,8 +18894,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="168"/>
-      <c r="B79" s="171"/>
+      <c r="A79" s="178"/>
+      <c r="B79" s="165"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -18833,8 +18907,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="168"/>
-      <c r="B80" s="171" t="str">
+      <c r="A80" s="178"/>
+      <c r="B80" s="165" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -18849,8 +18923,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="168"/>
-      <c r="B81" s="171"/>
+      <c r="A81" s="178"/>
+      <c r="B81" s="165"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -18862,8 +18936,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="168"/>
-      <c r="B82" s="171"/>
+      <c r="A82" s="178"/>
+      <c r="B82" s="165"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -18875,8 +18949,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="168"/>
-      <c r="B83" s="171" t="str">
+      <c r="A83" s="178"/>
+      <c r="B83" s="165" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -18891,8 +18965,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="168"/>
-      <c r="B84" s="171"/>
+      <c r="A84" s="178"/>
+      <c r="B84" s="165"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -18904,8 +18978,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="169"/>
-      <c r="B85" s="172"/>
+      <c r="A85" s="179"/>
+      <c r="B85" s="166"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -18932,21 +19006,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -18959,13 +19025,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -19684,12 +19758,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19914,17 +19987,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19949,11 +20025,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9679D86-2709-4399-BA24-DB6E72717AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D1D19-01D0-4CBB-97AE-3A99B7655762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,23 @@
     <sheet name="Facilities" sheetId="20" r:id="rId9"/>
     <sheet name="Process" sheetId="19" r:id="rId10"/>
     <sheet name="Machine_Process" sheetId="24" r:id="rId11"/>
-    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId12"/>
-    <sheet name="Packaging" sheetId="16" r:id="rId13"/>
-    <sheet name="Manufacturing" sheetId="15" r:id="rId14"/>
-    <sheet name="Test Page" sheetId="3" r:id="rId15"/>
-    <sheet name="Transport Test Page" sheetId="5" r:id="rId16"/>
-    <sheet name="Van" sheetId="6" r:id="rId17"/>
-    <sheet name="HGV" sheetId="7" r:id="rId18"/>
-    <sheet name="Freight Flight" sheetId="8" r:id="rId19"/>
-    <sheet name="Rail" sheetId="9" r:id="rId20"/>
-    <sheet name="Ship" sheetId="10" r:id="rId21"/>
-    <sheet name="Saved Emissions" sheetId="23" r:id="rId22"/>
+    <sheet name="YCM" sheetId="25" r:id="rId12"/>
+    <sheet name="Amada" sheetId="26" r:id="rId13"/>
+    <sheet name="Mazak" sheetId="27" r:id="rId14"/>
+    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId15"/>
+    <sheet name="Packaging" sheetId="16" r:id="rId16"/>
+    <sheet name="Manufacturing" sheetId="15" r:id="rId17"/>
+    <sheet name="Test Page" sheetId="3" r:id="rId18"/>
+    <sheet name="Transport Test Page" sheetId="5" r:id="rId19"/>
+    <sheet name="Van" sheetId="6" r:id="rId20"/>
+    <sheet name="HGV" sheetId="7" r:id="rId21"/>
+    <sheet name="Freight Flight" sheetId="8" r:id="rId22"/>
+    <sheet name="Rail" sheetId="9" r:id="rId23"/>
+    <sheet name="Ship" sheetId="10" r:id="rId24"/>
+    <sheet name="Saved Emissions" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
     <definedName name="wttTransport">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="851">
   <si>
     <t>Country</t>
   </si>
@@ -2079,22 +2082,706 @@
     <t>Plastic appliances</t>
   </si>
   <si>
-    <t>5-axis multi-function</t>
-  </si>
-  <si>
-    <t>Milling (3 axis)</t>
-  </si>
-  <si>
-    <t>Turning (3 axis)</t>
-  </si>
-  <si>
-    <t>Grinding</t>
-  </si>
-  <si>
-    <t>Laser cutting</t>
-  </si>
-  <si>
     <t>Machine Process</t>
+  </si>
+  <si>
+    <t>CNC Milling</t>
+  </si>
+  <si>
+    <t>CNC Turning</t>
+  </si>
+  <si>
+    <t>CNC Drilling/Boring</t>
+  </si>
+  <si>
+    <t>CNC Grinding</t>
+  </si>
+  <si>
+    <t>CNC Multi-purpose 5-axis</t>
+  </si>
+  <si>
+    <t>Friction Welding</t>
+  </si>
+  <si>
+    <t>Laser Cutting</t>
+  </si>
+  <si>
+    <t>Wire Cutting</t>
+  </si>
+  <si>
+    <t>Machine Model</t>
+  </si>
+  <si>
+    <t>Main Spindle (kW)</t>
+  </si>
+  <si>
+    <t>Sub Spindle (kW)</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>15 ( 30 ,48 )</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>NXV560A-APC</t>
+  </si>
+  <si>
+    <t>18.5 (18.5)</t>
+  </si>
+  <si>
+    <t>NXV600A</t>
+  </si>
+  <si>
+    <t>NXV1020A</t>
+  </si>
+  <si>
+    <t>NXV1020AM</t>
+  </si>
+  <si>
+    <t>NXV1270A</t>
+  </si>
+  <si>
+    <t>18.5 ( 18.5 )</t>
+  </si>
+  <si>
+    <t>NXV1380A</t>
+  </si>
+  <si>
+    <t>18.5 (18.5/37)</t>
+  </si>
+  <si>
+    <t>NXV1680A</t>
+  </si>
+  <si>
+    <t>NSV1680B</t>
+  </si>
+  <si>
+    <t>18.5(45)</t>
+  </si>
+  <si>
+    <t>NMV76A</t>
+  </si>
+  <si>
+    <t>18.5 (18.5/18.5)</t>
+  </si>
+  <si>
+    <t>NMV106A</t>
+  </si>
+  <si>
+    <t>18.5(18.5/18.5)</t>
+  </si>
+  <si>
+    <t>NSV66A</t>
+  </si>
+  <si>
+    <t>25(25)</t>
+  </si>
+  <si>
+    <t>NSV66AM</t>
+  </si>
+  <si>
+    <t>25(25/22)</t>
+  </si>
+  <si>
+    <t>NSV106A</t>
+  </si>
+  <si>
+    <t>NSV106AM</t>
+  </si>
+  <si>
+    <t>NSV106AS</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>NSV106AMS</t>
+  </si>
+  <si>
+    <t>25 (37)</t>
+  </si>
+  <si>
+    <t>NSV156A</t>
+  </si>
+  <si>
+    <t>25 (37/48)</t>
+  </si>
+  <si>
+    <t>NFX400A</t>
+  </si>
+  <si>
+    <t>18.5 (25/25)</t>
+  </si>
+  <si>
+    <t>NTV158A</t>
+  </si>
+  <si>
+    <t>22 (22)</t>
+  </si>
+  <si>
+    <t>NTV 158B</t>
+  </si>
+  <si>
+    <t>22(30)</t>
+  </si>
+  <si>
+    <t>TCV 2000A</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>TCV 3000A</t>
+  </si>
+  <si>
+    <t>TCV 3000A-5AX</t>
+  </si>
+  <si>
+    <t>25/50</t>
+  </si>
+  <si>
+    <t>TV116B</t>
+  </si>
+  <si>
+    <t>25 ( 45 )</t>
+  </si>
+  <si>
+    <t>TV116B-APC</t>
+  </si>
+  <si>
+    <t>TV146B</t>
+  </si>
+  <si>
+    <t>TV158B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 ( 45 ) </t>
+  </si>
+  <si>
+    <t>TV188B</t>
+  </si>
+  <si>
+    <t>TV2110B</t>
+  </si>
+  <si>
+    <t>TV2610B</t>
+  </si>
+  <si>
+    <t>FV102A-APC</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>FV56T</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Unverified data</t>
+  </si>
+  <si>
+    <t>D3016</t>
+  </si>
+  <si>
+    <t>15 ( 35 /45 )</t>
+  </si>
+  <si>
+    <t>DCV2012A</t>
+  </si>
+  <si>
+    <t>DCV2012B</t>
+  </si>
+  <si>
+    <t>DCV2018A-5AX</t>
+  </si>
+  <si>
+    <t>DCV3016B</t>
+  </si>
+  <si>
+    <t>25(25/45)</t>
+  </si>
+  <si>
+    <t>DCV3018-5AX</t>
+  </si>
+  <si>
+    <t>DCV3021B</t>
+  </si>
+  <si>
+    <t>DCV3025B</t>
+  </si>
+  <si>
+    <t>25/25/45</t>
+  </si>
+  <si>
+    <t>DCV4016B</t>
+  </si>
+  <si>
+    <t>DCV4018A-5AX</t>
+  </si>
+  <si>
+    <t>DCV4021B</t>
+  </si>
+  <si>
+    <t>DCV4025B</t>
+  </si>
+  <si>
+    <t>DCV4030B-5AF</t>
+  </si>
+  <si>
+    <t>DCV4030B-5AX</t>
+  </si>
+  <si>
+    <t>DCV4035B</t>
+  </si>
+  <si>
+    <t>DCV5021B</t>
+  </si>
+  <si>
+    <t>DCV5025B</t>
+  </si>
+  <si>
+    <t>DCV5030B</t>
+  </si>
+  <si>
+    <t>DCV5030B-5AX</t>
+  </si>
+  <si>
+    <t>DCV6030B-5AX</t>
+  </si>
+  <si>
+    <t>DCV6035B</t>
+  </si>
+  <si>
+    <t>NDC2016B</t>
+  </si>
+  <si>
+    <t>35 (45)</t>
+  </si>
+  <si>
+    <t>NDC2018B-AHC</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>NDC3016B</t>
+  </si>
+  <si>
+    <t>NDC3018B-AHC</t>
+  </si>
+  <si>
+    <t>NDC3022B</t>
+  </si>
+  <si>
+    <t>34 (45)</t>
+  </si>
+  <si>
+    <t>NDC4016B</t>
+  </si>
+  <si>
+    <t>NDC4018B-AHC</t>
+  </si>
+  <si>
+    <t>NDC4022B</t>
+  </si>
+  <si>
+    <t>NDC4022B-AHC</t>
+  </si>
+  <si>
+    <t>NFP66A</t>
+  </si>
+  <si>
+    <t>22.5 (7.5)</t>
+  </si>
+  <si>
+    <t>FP66A</t>
+  </si>
+  <si>
+    <t>37 (22/11)</t>
+  </si>
+  <si>
+    <t>FP100A</t>
+  </si>
+  <si>
+    <t>37 (22)</t>
+  </si>
+  <si>
+    <t>NH500A</t>
+  </si>
+  <si>
+    <t>NH630B</t>
+  </si>
+  <si>
+    <t>45 (55)</t>
+  </si>
+  <si>
+    <t>NH800B</t>
+  </si>
+  <si>
+    <t>GT-200B</t>
+  </si>
+  <si>
+    <t>(L) 3.7/7.5 (H) 5.5/11</t>
+  </si>
+  <si>
+    <t>GT-250B</t>
+  </si>
+  <si>
+    <t>(L) 7.5/15 , (H) 11/15</t>
+  </si>
+  <si>
+    <t>GT-300B</t>
+  </si>
+  <si>
+    <t>(L)11/18.5 (H)15/18.5</t>
+  </si>
+  <si>
+    <t>GT-200MA</t>
+  </si>
+  <si>
+    <t>(L) 7.5/15, (H) 11/15</t>
+  </si>
+  <si>
+    <t>GT-250MA</t>
+  </si>
+  <si>
+    <t>GT-300LMB</t>
+  </si>
+  <si>
+    <t>TC-16LA</t>
+  </si>
+  <si>
+    <t>11/15</t>
+  </si>
+  <si>
+    <t>TC-16LB</t>
+  </si>
+  <si>
+    <t>TC-26</t>
+  </si>
+  <si>
+    <t>TC-36</t>
+  </si>
+  <si>
+    <t>22 / 26</t>
+  </si>
+  <si>
+    <t>TC-46/1000</t>
+  </si>
+  <si>
+    <t>30/37</t>
+  </si>
+  <si>
+    <t>TC-46/1650</t>
+  </si>
+  <si>
+    <t>TC-46/2300</t>
+  </si>
+  <si>
+    <t>TC-46/3200</t>
+  </si>
+  <si>
+    <t>TC-46M/3200</t>
+  </si>
+  <si>
+    <t>30-37</t>
+  </si>
+  <si>
+    <t>NTC-2000LY</t>
+  </si>
+  <si>
+    <t>18.5/22/30</t>
+  </si>
+  <si>
+    <t>NTC-2000LSY</t>
+  </si>
+  <si>
+    <t>7.5 / 11</t>
+  </si>
+  <si>
+    <t>NT-2500SY</t>
+  </si>
+  <si>
+    <t>15/22</t>
+  </si>
+  <si>
+    <t>5.5/7.5</t>
+  </si>
+  <si>
+    <t>UV650</t>
+  </si>
+  <si>
+    <t>DCV3018A-5AX</t>
+  </si>
+  <si>
+    <t>TCV3000A-5AX</t>
+  </si>
+  <si>
+    <t>Main Wheel (kW)</t>
+  </si>
+  <si>
+    <t>Reciprocating (kW)</t>
+  </si>
+  <si>
+    <t>DPG-150</t>
+  </si>
+  <si>
+    <t>GLS-150GL UP</t>
+  </si>
+  <si>
+    <t>1.8-4 (kW-P)</t>
+  </si>
+  <si>
+    <t>GLS-80PL</t>
+  </si>
+  <si>
+    <t>1.5-4 (kW-P)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLS-150GL  </t>
+  </si>
+  <si>
+    <t>DV-1</t>
+  </si>
+  <si>
+    <t>WINSTAR-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINSTAR </t>
+  </si>
+  <si>
+    <t>MEISTER-G3 UP</t>
+  </si>
+  <si>
+    <t>MEISTER-G3/V3</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>TF-M1</t>
+  </si>
+  <si>
+    <t>TECHSTER 52</t>
+  </si>
+  <si>
+    <t>3.7-2</t>
+  </si>
+  <si>
+    <t>TECHSTER 64</t>
+  </si>
+  <si>
+    <t>3.7-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHSTER 84 </t>
+  </si>
+  <si>
+    <t>7.5-4</t>
+  </si>
+  <si>
+    <t>TECHSTER 104</t>
+  </si>
+  <si>
+    <t>TS-104</t>
+  </si>
+  <si>
+    <t>TECHSTER 106</t>
+  </si>
+  <si>
+    <t>TS-106</t>
+  </si>
+  <si>
+    <t>TECHSTER 126</t>
+  </si>
+  <si>
+    <t>TS-126</t>
+  </si>
+  <si>
+    <t>SSR-5/SSR-6</t>
+  </si>
+  <si>
+    <t>7.5/11</t>
+  </si>
+  <si>
+    <t>Second Spindle (kW)</t>
+  </si>
+  <si>
+    <t>Milling Spindle (kW)</t>
+  </si>
+  <si>
+    <t>INTEGRIX I NEO</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>INTEGRIX i-H</t>
+  </si>
+  <si>
+    <t>INTEGRIX i-150</t>
+  </si>
+  <si>
+    <t>INTEGRIX j</t>
+  </si>
+  <si>
+    <t>INTEGRIX j-200 NEO</t>
+  </si>
+  <si>
+    <t>INTEGRIX i-500</t>
+  </si>
+  <si>
+    <t>INTEGRIX e-H</t>
+  </si>
+  <si>
+    <t>INTEGRIX i-V</t>
+  </si>
+  <si>
+    <t>INTEGRIX e-V</t>
+  </si>
+  <si>
+    <t>INTEGRIX e-RAMTEC</t>
+  </si>
+  <si>
+    <t>INTEGRIX AG</t>
+  </si>
+  <si>
+    <t>VARIAXIS i NEO</t>
+  </si>
+  <si>
+    <t>VARIAXIS C</t>
+  </si>
+  <si>
+    <t>VARIAXIS j</t>
+  </si>
+  <si>
+    <t>VARIAXIS i-300 AWC</t>
+  </si>
+  <si>
+    <t>VORTEX i-V</t>
+  </si>
+  <si>
+    <t>VORTEX e-V</t>
+  </si>
+  <si>
+    <t>VTC</t>
+  </si>
+  <si>
+    <t>VORTEX II</t>
+  </si>
+  <si>
+    <t>VORTEX HORIZONTAL PROFILER</t>
+  </si>
+  <si>
+    <t>HCR</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>VERSATECH</t>
+  </si>
+  <si>
+    <t>QUICK TURN</t>
+  </si>
+  <si>
+    <t>QTE</t>
+  </si>
+  <si>
+    <t>QT-PRIMOS</t>
+  </si>
+  <si>
+    <t>SLANT TURN</t>
+  </si>
+  <si>
+    <t>QRX</t>
+  </si>
+  <si>
+    <t>TURNING CENTER</t>
+  </si>
+  <si>
+    <t>POWER MASTER</t>
+  </si>
+  <si>
+    <t>MULTIPLEX W</t>
+  </si>
+  <si>
+    <t>DUAL TURN 200</t>
+  </si>
+  <si>
+    <t>HQR NEO</t>
+  </si>
+  <si>
+    <t>HQR</t>
+  </si>
+  <si>
+    <t>MEGA TURN</t>
+  </si>
+  <si>
+    <t>VCN</t>
+  </si>
+  <si>
+    <t>VC-Ez IP</t>
+  </si>
+  <si>
+    <t>VCE</t>
+  </si>
+  <si>
+    <t>MTV</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>FF-400V/30 L</t>
+  </si>
+  <si>
+    <t>FJV (BT40)</t>
+  </si>
+  <si>
+    <t>FJV (BT50)</t>
+  </si>
+  <si>
+    <t>FJV 5 Face</t>
+  </si>
+  <si>
+    <t>FJW</t>
+  </si>
+  <si>
+    <t>HCN NEO</t>
+  </si>
+  <si>
+    <t>HCN</t>
+  </si>
+  <si>
+    <t>FF-1250H</t>
+  </si>
+  <si>
+    <t>HCN-Q</t>
+  </si>
+  <si>
+    <t>μ</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2285,8 +2972,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2359,8 +3053,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -3097,13 +3815,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3530,6 +4274,36 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3556,36 +4330,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3641,6 +4385,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3659,11 +4409,151 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6267,10 +7157,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40758563-BC2E-44F0-BF67-4E97AC986071}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6280,32 +7170,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="161" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="211" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="211" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="211" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="211" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="211" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>621</v>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="211" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="211" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="211" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6314,6 +7219,1813 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="212" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="212" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1" s="212" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="214" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" s="227" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="217" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="214" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" s="227" t="s">
+        <v>630</v>
+      </c>
+      <c r="C3" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="214" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="227" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="214" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" s="227" t="s">
+        <v>634</v>
+      </c>
+      <c r="C5" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="214" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="227" t="s">
+        <v>634</v>
+      </c>
+      <c r="C6" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="214" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="227" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="214" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8" s="227" t="s">
+        <v>639</v>
+      </c>
+      <c r="C8" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="214" t="s">
+        <v>640</v>
+      </c>
+      <c r="B9" s="227" t="s">
+        <v>641</v>
+      </c>
+      <c r="C9" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="214" t="s">
+        <v>642</v>
+      </c>
+      <c r="B10" s="227" t="s">
+        <v>641</v>
+      </c>
+      <c r="C10" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="214" t="s">
+        <v>643</v>
+      </c>
+      <c r="B11" s="227" t="s">
+        <v>644</v>
+      </c>
+      <c r="C11" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="214" t="s">
+        <v>645</v>
+      </c>
+      <c r="B12" s="227" t="s">
+        <v>646</v>
+      </c>
+      <c r="C12" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="214" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" s="227" t="s">
+        <v>648</v>
+      </c>
+      <c r="C13" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="214" t="s">
+        <v>649</v>
+      </c>
+      <c r="B14" s="227" t="s">
+        <v>650</v>
+      </c>
+      <c r="C14" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="214" t="s">
+        <v>651</v>
+      </c>
+      <c r="B15" s="227" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="214" t="s">
+        <v>653</v>
+      </c>
+      <c r="B16" s="227">
+        <v>18.5</v>
+      </c>
+      <c r="C16" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="214" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="227">
+        <v>18.5</v>
+      </c>
+      <c r="C17" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="214" t="s">
+        <v>655</v>
+      </c>
+      <c r="B18" s="215" t="s">
+        <v>656</v>
+      </c>
+      <c r="C18" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="214" t="s">
+        <v>657</v>
+      </c>
+      <c r="B19" s="215" t="s">
+        <v>658</v>
+      </c>
+      <c r="C19" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="214" t="s">
+        <v>659</v>
+      </c>
+      <c r="B20" s="215" t="s">
+        <v>660</v>
+      </c>
+      <c r="C20" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="B21" s="215" t="s">
+        <v>662</v>
+      </c>
+      <c r="C21" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="214" t="s">
+        <v>663</v>
+      </c>
+      <c r="B22" s="227" t="s">
+        <v>664</v>
+      </c>
+      <c r="C22" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="214" t="s">
+        <v>665</v>
+      </c>
+      <c r="B23" s="227" t="s">
+        <v>666</v>
+      </c>
+      <c r="C23" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="214" t="s">
+        <v>667</v>
+      </c>
+      <c r="B24" s="215" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="214" t="s">
+        <v>669</v>
+      </c>
+      <c r="B25" s="216" t="s">
+        <v>668</v>
+      </c>
+      <c r="C25" s="216" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="214" t="s">
+        <v>670</v>
+      </c>
+      <c r="B26" s="215" t="s">
+        <v>671</v>
+      </c>
+      <c r="C26" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="214" t="s">
+        <v>672</v>
+      </c>
+      <c r="B27" s="227" t="s">
+        <v>673</v>
+      </c>
+      <c r="C27" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="214" t="s">
+        <v>674</v>
+      </c>
+      <c r="B28" s="227" t="s">
+        <v>673</v>
+      </c>
+      <c r="C28" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="214" t="s">
+        <v>675</v>
+      </c>
+      <c r="B29" s="227" t="s">
+        <v>673</v>
+      </c>
+      <c r="C29" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="214" t="s">
+        <v>676</v>
+      </c>
+      <c r="B30" s="215" t="s">
+        <v>677</v>
+      </c>
+      <c r="C30" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="214" t="s">
+        <v>678</v>
+      </c>
+      <c r="B31" s="227" t="s">
+        <v>673</v>
+      </c>
+      <c r="C31" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="214" t="s">
+        <v>679</v>
+      </c>
+      <c r="B32" s="227" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="214" t="s">
+        <v>680</v>
+      </c>
+      <c r="B33" s="227" t="s">
+        <v>673</v>
+      </c>
+      <c r="C33" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="214" t="s">
+        <v>681</v>
+      </c>
+      <c r="B34" s="215" t="s">
+        <v>682</v>
+      </c>
+      <c r="C34" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="214" t="s">
+        <v>683</v>
+      </c>
+      <c r="B35" s="215" t="s">
+        <v>684</v>
+      </c>
+      <c r="C35" s="215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="214" t="s">
+        <v>685</v>
+      </c>
+      <c r="B36" s="228" t="s">
+        <v>686</v>
+      </c>
+      <c r="C36" s="228" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="213" t="s">
+        <v>687</v>
+      </c>
+      <c r="B37" s="219" t="s">
+        <v>688</v>
+      </c>
+      <c r="C37" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="213" t="s">
+        <v>689</v>
+      </c>
+      <c r="B38" s="219">
+        <v>22</v>
+      </c>
+      <c r="C38" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="213" t="s">
+        <v>690</v>
+      </c>
+      <c r="B39" s="219">
+        <v>45</v>
+      </c>
+      <c r="C39" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="213" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" s="219">
+        <v>70</v>
+      </c>
+      <c r="C40" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="213" t="s">
+        <v>692</v>
+      </c>
+      <c r="B41" s="219" t="s">
+        <v>693</v>
+      </c>
+      <c r="C41" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="213" t="s">
+        <v>694</v>
+      </c>
+      <c r="B42" s="219">
+        <v>70</v>
+      </c>
+      <c r="C42" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="213" t="s">
+        <v>695</v>
+      </c>
+      <c r="B43" s="219" t="s">
+        <v>693</v>
+      </c>
+      <c r="C43" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="213" t="s">
+        <v>696</v>
+      </c>
+      <c r="B44" s="219" t="s">
+        <v>697</v>
+      </c>
+      <c r="C44" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="213" t="s">
+        <v>698</v>
+      </c>
+      <c r="B45" s="219" t="s">
+        <v>693</v>
+      </c>
+      <c r="C45" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="213" t="s">
+        <v>699</v>
+      </c>
+      <c r="B46" s="219">
+        <v>70</v>
+      </c>
+      <c r="C46" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="213" t="s">
+        <v>700</v>
+      </c>
+      <c r="B47" s="219" t="s">
+        <v>697</v>
+      </c>
+      <c r="C47" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="213" t="s">
+        <v>701</v>
+      </c>
+      <c r="B48" s="219" t="s">
+        <v>697</v>
+      </c>
+      <c r="C48" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="213" t="s">
+        <v>702</v>
+      </c>
+      <c r="B49" s="219">
+        <v>43</v>
+      </c>
+      <c r="C49" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="213" t="s">
+        <v>703</v>
+      </c>
+      <c r="B50" s="219">
+        <v>46</v>
+      </c>
+      <c r="C50" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="213" t="s">
+        <v>704</v>
+      </c>
+      <c r="B51" s="219">
+        <v>22</v>
+      </c>
+      <c r="C51" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="213" t="s">
+        <v>705</v>
+      </c>
+      <c r="B52" s="219" t="s">
+        <v>697</v>
+      </c>
+      <c r="C52" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="213" t="s">
+        <v>706</v>
+      </c>
+      <c r="B53" s="219" t="s">
+        <v>697</v>
+      </c>
+      <c r="C53" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="213" t="s">
+        <v>707</v>
+      </c>
+      <c r="B54" s="219" t="s">
+        <v>697</v>
+      </c>
+      <c r="C54" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="213" t="s">
+        <v>708</v>
+      </c>
+      <c r="B55" s="219">
+        <v>46</v>
+      </c>
+      <c r="C55" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="213" t="s">
+        <v>709</v>
+      </c>
+      <c r="B56" s="219">
+        <v>46</v>
+      </c>
+      <c r="C56" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="213" t="s">
+        <v>710</v>
+      </c>
+      <c r="B57" s="219" t="s">
+        <v>697</v>
+      </c>
+      <c r="C57" s="219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="213" t="s">
+        <v>711</v>
+      </c>
+      <c r="B58" s="218" t="s">
+        <v>712</v>
+      </c>
+      <c r="C58" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="213" t="s">
+        <v>713</v>
+      </c>
+      <c r="B59" s="218" t="s">
+        <v>714</v>
+      </c>
+      <c r="C59" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="213" t="s">
+        <v>715</v>
+      </c>
+      <c r="B60" s="218" t="s">
+        <v>712</v>
+      </c>
+      <c r="C60" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="213" t="s">
+        <v>716</v>
+      </c>
+      <c r="B61" s="218" t="s">
+        <v>714</v>
+      </c>
+      <c r="C61" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="213" t="s">
+        <v>717</v>
+      </c>
+      <c r="B62" s="218" t="s">
+        <v>718</v>
+      </c>
+      <c r="C62" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="213" t="s">
+        <v>719</v>
+      </c>
+      <c r="B63" s="218" t="s">
+        <v>712</v>
+      </c>
+      <c r="C63" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="213" t="s">
+        <v>720</v>
+      </c>
+      <c r="B64" s="218" t="s">
+        <v>714</v>
+      </c>
+      <c r="C64" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="213" t="s">
+        <v>721</v>
+      </c>
+      <c r="B65" s="218" t="s">
+        <v>712</v>
+      </c>
+      <c r="C65" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="213" t="s">
+        <v>722</v>
+      </c>
+      <c r="B66" s="218" t="s">
+        <v>714</v>
+      </c>
+      <c r="C66" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="213" t="s">
+        <v>723</v>
+      </c>
+      <c r="B67" s="219" t="s">
+        <v>724</v>
+      </c>
+      <c r="C67" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="213" t="s">
+        <v>725</v>
+      </c>
+      <c r="B68" s="219" t="s">
+        <v>726</v>
+      </c>
+      <c r="C68" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="213" t="s">
+        <v>727</v>
+      </c>
+      <c r="B69" s="219" t="s">
+        <v>728</v>
+      </c>
+      <c r="C69" s="218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="225" t="s">
+        <v>729</v>
+      </c>
+      <c r="B70" s="220" t="s">
+        <v>656</v>
+      </c>
+      <c r="C70" s="220" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="225" t="s">
+        <v>730</v>
+      </c>
+      <c r="B71" s="220" t="s">
+        <v>731</v>
+      </c>
+      <c r="C71" s="220" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="225" t="s">
+        <v>732</v>
+      </c>
+      <c r="B72" s="220" t="s">
+        <v>731</v>
+      </c>
+      <c r="C72" s="220" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="226" t="s">
+        <v>733</v>
+      </c>
+      <c r="B73" s="229" t="s">
+        <v>734</v>
+      </c>
+      <c r="C73" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="226" t="s">
+        <v>735</v>
+      </c>
+      <c r="B74" s="229" t="s">
+        <v>736</v>
+      </c>
+      <c r="C74" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="226" t="s">
+        <v>737</v>
+      </c>
+      <c r="B75" s="229" t="s">
+        <v>738</v>
+      </c>
+      <c r="C75" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="226" t="s">
+        <v>739</v>
+      </c>
+      <c r="B76" s="229" t="s">
+        <v>740</v>
+      </c>
+      <c r="C76" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="226" t="s">
+        <v>741</v>
+      </c>
+      <c r="B77" s="229" t="s">
+        <v>734</v>
+      </c>
+      <c r="C77" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="226" t="s">
+        <v>742</v>
+      </c>
+      <c r="B78" s="229" t="s">
+        <v>738</v>
+      </c>
+      <c r="C78" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="226" t="s">
+        <v>743</v>
+      </c>
+      <c r="B79" s="221" t="s">
+        <v>744</v>
+      </c>
+      <c r="C79" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="226" t="s">
+        <v>745</v>
+      </c>
+      <c r="B80" s="230" t="s">
+        <v>744</v>
+      </c>
+      <c r="C80" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="226" t="s">
+        <v>746</v>
+      </c>
+      <c r="B81" s="231" t="s">
+        <v>744</v>
+      </c>
+      <c r="C81" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="226" t="s">
+        <v>747</v>
+      </c>
+      <c r="B82" s="221" t="s">
+        <v>748</v>
+      </c>
+      <c r="C82" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="226" t="s">
+        <v>749</v>
+      </c>
+      <c r="B83" s="221" t="s">
+        <v>750</v>
+      </c>
+      <c r="C83" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="226" t="s">
+        <v>751</v>
+      </c>
+      <c r="B84" s="221" t="s">
+        <v>750</v>
+      </c>
+      <c r="C84" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="226" t="s">
+        <v>752</v>
+      </c>
+      <c r="B85" s="221" t="s">
+        <v>750</v>
+      </c>
+      <c r="C85" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="226" t="s">
+        <v>753</v>
+      </c>
+      <c r="B86" s="221" t="s">
+        <v>750</v>
+      </c>
+      <c r="C86" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="226" t="s">
+        <v>754</v>
+      </c>
+      <c r="B87" s="221" t="s">
+        <v>755</v>
+      </c>
+      <c r="C87" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="226" t="s">
+        <v>756</v>
+      </c>
+      <c r="B88" s="230" t="s">
+        <v>757</v>
+      </c>
+      <c r="C88" s="221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="226" t="s">
+        <v>758</v>
+      </c>
+      <c r="B89" s="221" t="s">
+        <v>757</v>
+      </c>
+      <c r="C89" s="230" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="226" t="s">
+        <v>760</v>
+      </c>
+      <c r="B90" s="221" t="s">
+        <v>761</v>
+      </c>
+      <c r="C90" s="221" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="224" t="s">
+        <v>661</v>
+      </c>
+      <c r="B91" s="222">
+        <v>18.5</v>
+      </c>
+      <c r="C91" s="222" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="224" t="s">
+        <v>763</v>
+      </c>
+      <c r="B92" s="223">
+        <v>17</v>
+      </c>
+      <c r="C92" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="224" t="s">
+        <v>691</v>
+      </c>
+      <c r="B93" s="223">
+        <v>70</v>
+      </c>
+      <c r="C93" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="224" t="s">
+        <v>764</v>
+      </c>
+      <c r="B94" s="223">
+        <v>70</v>
+      </c>
+      <c r="C94" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="224" t="s">
+        <v>699</v>
+      </c>
+      <c r="B95" s="223">
+        <v>70</v>
+      </c>
+      <c r="C95" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="224" t="s">
+        <v>702</v>
+      </c>
+      <c r="B96" s="223">
+        <v>43</v>
+      </c>
+      <c r="C96" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="224" t="s">
+        <v>703</v>
+      </c>
+      <c r="B97" s="223">
+        <v>46</v>
+      </c>
+      <c r="C97" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="224" t="s">
+        <v>708</v>
+      </c>
+      <c r="B98" s="223">
+        <v>46</v>
+      </c>
+      <c r="C98" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="224" t="s">
+        <v>709</v>
+      </c>
+      <c r="B99" s="223">
+        <v>46</v>
+      </c>
+      <c r="C99" s="223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="224" t="s">
+        <v>765</v>
+      </c>
+      <c r="B100" s="222" t="s">
+        <v>671</v>
+      </c>
+      <c r="C100" s="222" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9920F0A-7BF3-44E3-9D30-DF809E59ED17}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="232" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="232" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" s="232" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="237" t="s">
+        <v>768</v>
+      </c>
+      <c r="B2" s="242" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="242" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="237" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" s="243" t="s">
+        <v>770</v>
+      </c>
+      <c r="C3" s="233" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="237" t="s">
+        <v>771</v>
+      </c>
+      <c r="B4" s="233" t="s">
+        <v>772</v>
+      </c>
+      <c r="C4" s="233" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="237" t="s">
+        <v>774</v>
+      </c>
+      <c r="B5" s="233" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" s="233" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="237" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" s="242" t="s">
+        <v>686</v>
+      </c>
+      <c r="C6" s="242" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="238" t="s">
+        <v>776</v>
+      </c>
+      <c r="B7" s="234" t="s">
+        <v>684</v>
+      </c>
+      <c r="C7" s="234" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="238" t="s">
+        <v>777</v>
+      </c>
+      <c r="B8" s="234" t="s">
+        <v>684</v>
+      </c>
+      <c r="C8" s="234" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="238" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9" s="234" t="s">
+        <v>684</v>
+      </c>
+      <c r="C9" s="241" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="238" t="s">
+        <v>779</v>
+      </c>
+      <c r="B10" s="234" t="s">
+        <v>780</v>
+      </c>
+      <c r="C10" s="234" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="238" t="s">
+        <v>781</v>
+      </c>
+      <c r="B11" s="234">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="234" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="239" t="s">
+        <v>782</v>
+      </c>
+      <c r="B12" s="235" t="s">
+        <v>783</v>
+      </c>
+      <c r="C12" s="235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="239" t="s">
+        <v>784</v>
+      </c>
+      <c r="B13" s="235" t="s">
+        <v>785</v>
+      </c>
+      <c r="C13" s="235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="239" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14" s="235" t="s">
+        <v>787</v>
+      </c>
+      <c r="C14" s="235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="239" t="s">
+        <v>788</v>
+      </c>
+      <c r="B15" s="235" t="s">
+        <v>789</v>
+      </c>
+      <c r="C15" s="235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="239" t="s">
+        <v>790</v>
+      </c>
+      <c r="B16" s="235" t="s">
+        <v>791</v>
+      </c>
+      <c r="C16" s="235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="239" t="s">
+        <v>792</v>
+      </c>
+      <c r="B17" s="235" t="s">
+        <v>793</v>
+      </c>
+      <c r="C17" s="235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="240" t="s">
+        <v>794</v>
+      </c>
+      <c r="B18" s="244" t="s">
+        <v>795</v>
+      </c>
+      <c r="C18" s="236" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC407A-E4C2-4651-A59D-6A61F758042C}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="245" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="245" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1" s="245" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="245" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="247" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2" s="252" t="s">
+        <v>799</v>
+      </c>
+      <c r="C2" s="252" t="s">
+        <v>631</v>
+      </c>
+      <c r="D2" s="252" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="247" t="s">
+        <v>801</v>
+      </c>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="247" t="s">
+        <v>802</v>
+      </c>
+      <c r="B4" s="252"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="247" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="247" t="s">
+        <v>804</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="247" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="247" t="s">
+        <v>806</v>
+      </c>
+      <c r="B8" s="252"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="247" t="s">
+        <v>807</v>
+      </c>
+      <c r="B9" s="252"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="252"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="247" t="s">
+        <v>808</v>
+      </c>
+      <c r="B10" s="252"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="247" t="s">
+        <v>809</v>
+      </c>
+      <c r="B11" s="252"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="252"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="247" t="s">
+        <v>810</v>
+      </c>
+      <c r="B12" s="252"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="253" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" s="254"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="246" t="s">
+        <v>811</v>
+      </c>
+      <c r="B14" s="254"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="254"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="246" t="s">
+        <v>812</v>
+      </c>
+      <c r="B15" s="254"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="246" t="s">
+        <v>813</v>
+      </c>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="246" t="s">
+        <v>814</v>
+      </c>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="246" t="s">
+        <v>815</v>
+      </c>
+      <c r="B18" s="254"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="254"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="246" t="s">
+        <v>816</v>
+      </c>
+      <c r="B19" s="254"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="254"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="246" t="s">
+        <v>817</v>
+      </c>
+      <c r="B20" s="254"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="254"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="246" t="s">
+        <v>818</v>
+      </c>
+      <c r="B21" s="254"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="246" t="s">
+        <v>819</v>
+      </c>
+      <c r="B22" s="254"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="254"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="246" t="s">
+        <v>820</v>
+      </c>
+      <c r="B23" s="254"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="254"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="246" t="s">
+        <v>821</v>
+      </c>
+      <c r="B24" s="254"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="254"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="246" t="s">
+        <v>822</v>
+      </c>
+      <c r="B25" s="254"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="254"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="255" t="s">
+        <v>823</v>
+      </c>
+      <c r="B26" s="256"/>
+      <c r="C26" s="256"/>
+      <c r="D26" s="256"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="249" t="s">
+        <v>824</v>
+      </c>
+      <c r="B27" s="256"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="249" t="s">
+        <v>825</v>
+      </c>
+      <c r="B28" s="256"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="256"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="249" t="s">
+        <v>826</v>
+      </c>
+      <c r="B29" s="256"/>
+      <c r="C29" s="256"/>
+      <c r="D29" s="256"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="249" t="s">
+        <v>827</v>
+      </c>
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="249" t="s">
+        <v>828</v>
+      </c>
+      <c r="B31" s="256"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="256"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="249" t="s">
+        <v>829</v>
+      </c>
+      <c r="B32" s="256"/>
+      <c r="C32" s="256"/>
+      <c r="D32" s="256"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="249" t="s">
+        <v>830</v>
+      </c>
+      <c r="B33" s="256"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="256"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="249" t="s">
+        <v>831</v>
+      </c>
+      <c r="B34" s="256"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="256"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="249" t="s">
+        <v>832</v>
+      </c>
+      <c r="B35" s="256"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="256"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="249" t="s">
+        <v>833</v>
+      </c>
+      <c r="B36" s="256"/>
+      <c r="C36" s="256"/>
+      <c r="D36" s="256"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="249" t="s">
+        <v>834</v>
+      </c>
+      <c r="B37" s="256"/>
+      <c r="C37" s="256"/>
+      <c r="D37" s="256"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="257" t="s">
+        <v>835</v>
+      </c>
+      <c r="B38" s="251"/>
+      <c r="C38" s="251"/>
+      <c r="D38" s="251"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="250" t="s">
+        <v>836</v>
+      </c>
+      <c r="B39" s="251"/>
+      <c r="C39" s="251"/>
+      <c r="D39" s="251"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="250" t="s">
+        <v>837</v>
+      </c>
+      <c r="B40" s="251"/>
+      <c r="C40" s="251"/>
+      <c r="D40" s="251"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="250" t="s">
+        <v>838</v>
+      </c>
+      <c r="B41" s="251"/>
+      <c r="C41" s="251"/>
+      <c r="D41" s="251"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="250" t="s">
+        <v>817</v>
+      </c>
+      <c r="B42" s="251"/>
+      <c r="C42" s="251"/>
+      <c r="D42" s="251"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="250" t="s">
+        <v>839</v>
+      </c>
+      <c r="B43" s="251"/>
+      <c r="C43" s="251"/>
+      <c r="D43" s="251"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="250" t="s">
+        <v>840</v>
+      </c>
+      <c r="B44" s="251"/>
+      <c r="C44" s="251"/>
+      <c r="D44" s="251"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="250" t="s">
+        <v>841</v>
+      </c>
+      <c r="B45" s="251"/>
+      <c r="C45" s="251"/>
+      <c r="D45" s="251"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="258" t="s">
+        <v>842</v>
+      </c>
+      <c r="B46" s="259"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="259"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="260" t="s">
+        <v>843</v>
+      </c>
+      <c r="B47" s="259"/>
+      <c r="C47" s="259"/>
+      <c r="D47" s="259"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="260" t="s">
+        <v>844</v>
+      </c>
+      <c r="B48" s="259"/>
+      <c r="C48" s="259"/>
+      <c r="D48" s="259"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="260" t="s">
+        <v>845</v>
+      </c>
+      <c r="B49" s="259"/>
+      <c r="C49" s="259"/>
+      <c r="D49" s="259"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="260" t="s">
+        <v>822</v>
+      </c>
+      <c r="B50" s="259"/>
+      <c r="C50" s="259"/>
+      <c r="D50" s="259"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="261" t="s">
+        <v>846</v>
+      </c>
+      <c r="B51" s="262"/>
+      <c r="C51" s="262"/>
+      <c r="D51" s="262"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="248" t="s">
+        <v>847</v>
+      </c>
+      <c r="B52" s="262"/>
+      <c r="C52" s="262"/>
+      <c r="D52" s="262"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="248" t="s">
+        <v>848</v>
+      </c>
+      <c r="B53" s="262"/>
+      <c r="C53" s="262"/>
+      <c r="D53" s="262"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="248" t="s">
+        <v>834</v>
+      </c>
+      <c r="B54" s="262"/>
+      <c r="C54" s="262"/>
+      <c r="D54" s="262"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="248" t="s">
+        <v>849</v>
+      </c>
+      <c r="B55" s="262"/>
+      <c r="C55" s="262"/>
+      <c r="D55" s="262"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="261" t="s">
+        <v>850</v>
+      </c>
+      <c r="B56" s="262"/>
+      <c r="C56" s="262"/>
+      <c r="D56" s="262"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A86444-194D-475C-A119-79201F84CD65}">
   <dimension ref="A1:C202"/>
   <sheetViews>
@@ -8555,7 +11267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CF364-998B-474D-A19B-22FEFE188380}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -8694,7 +11406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125FD3FB-F912-42B3-B605-31DC335FC9DA}">
   <dimension ref="A1:L258"/>
   <sheetViews>
@@ -12673,7 +15385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849DADDE-0FC9-4C51-8BB1-BFE5AFC7081B}">
   <dimension ref="A1:AS10"/>
   <sheetViews>
@@ -13690,7 +16402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9393A-9557-43CE-B45F-3D30F980E3AF}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
@@ -13851,20 +16563,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="180"/>
-      <c r="AO1" s="180"/>
-      <c r="AP1" s="180"/>
-      <c r="AQ1" s="180"/>
-      <c r="AR1" s="180"/>
-      <c r="AS1" s="180"/>
-      <c r="AT1" s="180"/>
-      <c r="AU1" s="180"/>
-      <c r="AV1" s="180"/>
-      <c r="AW1" s="180"/>
-      <c r="AX1" s="180"/>
-      <c r="AY1" s="180"/>
-      <c r="AZ1" s="180"/>
-      <c r="BA1" s="180"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="162"/>
+      <c r="AP1" s="162"/>
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
+      <c r="BA1" s="162"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -13883,7 +16595,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="205" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -13905,7 +16617,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="203" t="s">
+      <c r="P2" s="205" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -13936,10 +16648,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="206" t="s">
+      <c r="AC2" s="208" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="209" t="s">
+      <c r="AD2" s="203" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -13951,26 +16663,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="180"/>
-      <c r="AJ2" s="180"/>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="180"/>
-      <c r="AO2" s="180"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="180"/>
-      <c r="AR2" s="180"/>
-      <c r="AS2" s="180"/>
-      <c r="AT2" s="180"/>
-      <c r="AU2" s="180"/>
-      <c r="AV2" s="180"/>
-      <c r="AW2" s="180"/>
-      <c r="AX2" s="180"/>
-      <c r="AY2" s="180"/>
-      <c r="AZ2" s="180"/>
-      <c r="BA2" s="180"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162"/>
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="162"/>
+      <c r="AW2" s="162"/>
+      <c r="AX2" s="162"/>
+      <c r="AY2" s="162"/>
+      <c r="AZ2" s="162"/>
+      <c r="BA2" s="162"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -13991,7 +16703,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="204"/>
+      <c r="H3" s="206"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -14011,7 +16723,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="204"/>
+      <c r="P3" s="206"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -14032,8 +16744,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="207"/>
-      <c r="AD3" s="172"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="166"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -14078,7 +16790,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="204"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -14098,7 +16810,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="205"/>
+      <c r="P4" s="207"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -14118,8 +16830,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="172"/>
+      <c r="AC4" s="209"/>
+      <c r="AD4" s="166"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -14167,7 +16879,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="204"/>
+      <c r="H5" s="206"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -14192,8 +16904,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="207"/>
-      <c r="AD5" s="172"/>
+      <c r="AC5" s="209"/>
+      <c r="AD5" s="166"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -14226,7 +16938,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="204"/>
+      <c r="H6" s="206"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -14253,8 +16965,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="172"/>
+      <c r="AC6" s="209"/>
+      <c r="AD6" s="166"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -14292,7 +17004,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="204"/>
+      <c r="H7" s="206"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -14319,8 +17031,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="207"/>
-      <c r="AD7" s="172"/>
+      <c r="AC7" s="209"/>
+      <c r="AD7" s="166"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -14355,7 +17067,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="204"/>
+      <c r="H8" s="206"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -14382,8 +17094,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="207"/>
-      <c r="AD8" s="172"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="166"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -14418,7 +17130,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="205"/>
+      <c r="H9" s="207"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -14445,8 +17157,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="207"/>
-      <c r="AD9" s="172" t="s">
+      <c r="AC9" s="209"/>
+      <c r="AD9" s="166" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -14489,8 +17201,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="207"/>
-      <c r="AD10" s="172"/>
+      <c r="AC10" s="209"/>
+      <c r="AD10" s="166"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -14523,7 +17235,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="206" t="s">
+      <c r="H11" s="208" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -14544,8 +17256,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="207"/>
-      <c r="AD11" s="172"/>
+      <c r="AC11" s="209"/>
+      <c r="AD11" s="166"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -14564,7 +17276,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="207"/>
+      <c r="H12" s="209"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -14583,8 +17295,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="207"/>
-      <c r="AD12" s="172"/>
+      <c r="AC12" s="209"/>
+      <c r="AD12" s="166"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -14603,7 +17315,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="207"/>
+      <c r="H13" s="209"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -14622,8 +17334,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="207"/>
-      <c r="AD13" s="172"/>
+      <c r="AC13" s="209"/>
+      <c r="AD13" s="166"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -14642,7 +17354,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="207"/>
+      <c r="H14" s="209"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -14661,8 +17373,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="207"/>
-      <c r="AD14" s="172"/>
+      <c r="AC14" s="209"/>
+      <c r="AD14" s="166"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -14681,7 +17393,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="207"/>
+      <c r="H15" s="209"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -14700,8 +17412,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="207"/>
-      <c r="AD15" s="172" t="s">
+      <c r="AC15" s="209"/>
+      <c r="AD15" s="166" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -14719,7 +17431,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="207"/>
+      <c r="H16" s="209"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -14738,8 +17450,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="207"/>
-      <c r="AD16" s="172"/>
+      <c r="AC16" s="209"/>
+      <c r="AD16" s="166"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -14758,7 +17470,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="207"/>
+      <c r="H17" s="209"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -14777,8 +17489,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="172"/>
+      <c r="AC17" s="209"/>
+      <c r="AD17" s="166"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -14797,7 +17509,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="208"/>
+      <c r="H18" s="210"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -14816,8 +17528,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="207"/>
-      <c r="AD18" s="172"/>
+      <c r="AC18" s="209"/>
+      <c r="AD18" s="166"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -14836,8 +17548,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="207"/>
-      <c r="AD19" s="172"/>
+      <c r="AC19" s="209"/>
+      <c r="AD19" s="166"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -14856,8 +17568,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="207"/>
-      <c r="AD20" s="172" t="s">
+      <c r="AC20" s="209"/>
+      <c r="AD20" s="166" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -14878,8 +17590,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="207"/>
-      <c r="AD21" s="172"/>
+      <c r="AC21" s="209"/>
+      <c r="AD21" s="166"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -14898,8 +17610,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="207"/>
-      <c r="AD22" s="172"/>
+      <c r="AC22" s="209"/>
+      <c r="AD22" s="166"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -14918,8 +17630,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="207"/>
-      <c r="AD23" s="172" t="s">
+      <c r="AC23" s="209"/>
+      <c r="AD23" s="166" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -14940,8 +17652,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="207"/>
-      <c r="AD24" s="172"/>
+      <c r="AC24" s="209"/>
+      <c r="AD24" s="166"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -14954,8 +17666,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="208"/>
-      <c r="AD25" s="210"/>
+      <c r="AC25" s="210"/>
+      <c r="AD25" s="204"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -14972,10 +17684,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="206" t="s">
+      <c r="AC27" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="209" t="s">
+      <c r="AD27" s="203" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -14992,8 +17704,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="207"/>
-      <c r="AD28" s="172"/>
+      <c r="AC28" s="209"/>
+      <c r="AD28" s="166"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -15008,8 +17720,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="207"/>
-      <c r="AD29" s="172"/>
+      <c r="AC29" s="209"/>
+      <c r="AD29" s="166"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -15021,8 +17733,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="207"/>
-      <c r="AD30" s="172"/>
+      <c r="AC30" s="209"/>
+      <c r="AD30" s="166"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -15036,8 +17748,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="207"/>
-      <c r="AD31" s="172"/>
+      <c r="AC31" s="209"/>
+      <c r="AD31" s="166"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -15049,8 +17761,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="207"/>
-      <c r="AD32" s="172"/>
+      <c r="AC32" s="209"/>
+      <c r="AD32" s="166"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -15063,8 +17775,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="207"/>
-      <c r="AD33" s="172"/>
+      <c r="AC33" s="209"/>
+      <c r="AD33" s="166"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -15081,8 +17793,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="207"/>
-      <c r="AD34" s="172" t="s">
+      <c r="AC34" s="209"/>
+      <c r="AD34" s="166" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -15101,8 +17813,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="207"/>
-      <c r="AD35" s="172"/>
+      <c r="AC35" s="209"/>
+      <c r="AD35" s="166"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -15119,8 +17831,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="207"/>
-      <c r="AD36" s="172"/>
+      <c r="AC36" s="209"/>
+      <c r="AD36" s="166"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -15137,8 +17849,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="207"/>
-      <c r="AD37" s="172"/>
+      <c r="AC37" s="209"/>
+      <c r="AD37" s="166"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -15155,8 +17867,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="207"/>
-      <c r="AD38" s="172"/>
+      <c r="AC38" s="209"/>
+      <c r="AD38" s="166"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -15173,8 +17885,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="207"/>
-      <c r="AD39" s="172"/>
+      <c r="AC39" s="209"/>
+      <c r="AD39" s="166"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -15191,8 +17903,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="207"/>
-      <c r="AD40" s="172"/>
+      <c r="AC40" s="209"/>
+      <c r="AD40" s="166"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -15209,8 +17921,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="207"/>
-      <c r="AD41" s="172" t="s">
+      <c r="AC41" s="209"/>
+      <c r="AD41" s="166" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -15229,8 +17941,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="207"/>
-      <c r="AD42" s="172"/>
+      <c r="AC42" s="209"/>
+      <c r="AD42" s="166"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -15247,8 +17959,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="207"/>
-      <c r="AD43" s="172"/>
+      <c r="AC43" s="209"/>
+      <c r="AD43" s="166"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -15265,8 +17977,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="207"/>
-      <c r="AD44" s="172"/>
+      <c r="AC44" s="209"/>
+      <c r="AD44" s="166"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -15283,8 +17995,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="207"/>
-      <c r="AD45" s="172"/>
+      <c r="AC45" s="209"/>
+      <c r="AD45" s="166"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -15301,8 +18013,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="207"/>
-      <c r="AD46" s="172"/>
+      <c r="AC46" s="209"/>
+      <c r="AD46" s="166"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -15319,8 +18031,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="207"/>
-      <c r="AD47" s="172"/>
+      <c r="AC47" s="209"/>
+      <c r="AD47" s="166"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -15337,8 +18049,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="207"/>
-      <c r="AD48" s="172" t="s">
+      <c r="AC48" s="209"/>
+      <c r="AD48" s="166" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -15357,8 +18069,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="207"/>
-      <c r="AD49" s="172"/>
+      <c r="AC49" s="209"/>
+      <c r="AD49" s="166"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -15375,8 +18087,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="207"/>
-      <c r="AD50" s="172"/>
+      <c r="AC50" s="209"/>
+      <c r="AD50" s="166"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -15393,8 +18105,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="207"/>
-      <c r="AD51" s="172" t="s">
+      <c r="AC51" s="209"/>
+      <c r="AD51" s="166" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -15413,8 +18125,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="207"/>
-      <c r="AD52" s="172"/>
+      <c r="AC52" s="209"/>
+      <c r="AD52" s="166"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -15431,8 +18143,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="207"/>
-      <c r="AD53" s="172"/>
+      <c r="AC53" s="209"/>
+      <c r="AD53" s="166"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -15449,7 +18161,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="207"/>
+      <c r="AC54" s="209"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -15469,7 +18181,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="208"/>
+      <c r="AC55" s="210"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -15702,11 +18414,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -15723,17 +18435,63 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -15772,7 +18530,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="205" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -15792,7 +18550,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="204"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -15810,7 +18568,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="25" t="s">
         <v>101</v>
       </c>
@@ -15828,7 +18586,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="205"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -15853,7 +18611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -15896,7 +18654,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="205" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -15919,7 +18677,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="204"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -15940,7 +18698,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
+      <c r="A4" s="206"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -15961,7 +18719,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -15982,7 +18740,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="204"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -16003,7 +18761,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="204"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -16024,7 +18782,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -16045,7 +18803,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="205"/>
+      <c r="A9" s="207"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -16066,7 +18824,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="205" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -16089,7 +18847,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -16110,7 +18868,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -16131,7 +18889,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="204"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -16152,7 +18910,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -16173,7 +18931,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="204"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -16194,7 +18952,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="204"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -16215,7 +18973,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="205"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -16244,7 +19002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -16285,7 +19043,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="205" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -16304,7 +19062,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="204"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -16321,7 +19079,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="205"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -16345,53 +19103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -16440,7 +19152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295B0C8-B8D2-4684-B32D-14EED3B83A5D}">
   <dimension ref="A1:E53"/>
   <sheetViews>
@@ -16457,10 +19169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="168" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -16474,8 +19186,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="204"/>
-      <c r="B2" s="175"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -16487,8 +19199,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="204"/>
-      <c r="B3" s="175"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -16500,8 +19212,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
-      <c r="B4" s="175"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -16513,8 +19225,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="175"/>
+      <c r="A5" s="206"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -16526,8 +19238,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="204"/>
-      <c r="B6" s="175"/>
+      <c r="A6" s="206"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -16539,8 +19251,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="204"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -16552,8 +19264,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
-      <c r="B8" s="175" t="s">
+      <c r="A8" s="206"/>
+      <c r="B8" s="169" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -16567,8 +19279,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
-      <c r="B9" s="175"/>
+      <c r="A9" s="206"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -16580,8 +19292,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
-      <c r="B10" s="175"/>
+      <c r="A10" s="206"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -16593,8 +19305,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="206"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -16606,8 +19318,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
-      <c r="B12" s="175"/>
+      <c r="A12" s="206"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -16619,8 +19331,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="204"/>
-      <c r="B13" s="175"/>
+      <c r="A13" s="206"/>
+      <c r="B13" s="169"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -16632,8 +19344,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
-      <c r="B14" s="175" t="s">
+      <c r="A14" s="206"/>
+      <c r="B14" s="169" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -16647,8 +19359,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="204"/>
-      <c r="B15" s="175"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="169"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -16660,8 +19372,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="204"/>
-      <c r="B16" s="175"/>
+      <c r="A16" s="206"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -16673,8 +19385,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
-      <c r="B17" s="175"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -16686,8 +19398,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="175"/>
+      <c r="A18" s="206"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -16699,8 +19411,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
-      <c r="B19" s="175" t="s">
+      <c r="A19" s="206"/>
+      <c r="B19" s="169" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -16714,8 +19426,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="204"/>
-      <c r="B20" s="175"/>
+      <c r="A20" s="206"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -16727,8 +19439,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="204"/>
-      <c r="B21" s="175"/>
+      <c r="A21" s="206"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -16740,8 +19452,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="204"/>
-      <c r="B22" s="175" t="s">
+      <c r="A22" s="206"/>
+      <c r="B22" s="169" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -16755,8 +19467,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="204"/>
-      <c r="B23" s="175"/>
+      <c r="A23" s="206"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -16768,8 +19480,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="205"/>
-      <c r="B24" s="176"/>
+      <c r="A24" s="207"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -16781,10 +19493,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="206" t="s">
+      <c r="A25" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="168" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -16798,8 +19510,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="207"/>
-      <c r="B26" s="175"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -16811,8 +19523,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="207"/>
-      <c r="B27" s="175"/>
+      <c r="A27" s="209"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -16824,8 +19536,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="207"/>
-      <c r="B28" s="175"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -16837,8 +19549,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="207"/>
-      <c r="B29" s="175"/>
+      <c r="A29" s="209"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -16850,8 +19562,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="207"/>
-      <c r="B30" s="175"/>
+      <c r="A30" s="209"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -16863,8 +19575,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="207"/>
-      <c r="B31" s="175"/>
+      <c r="A31" s="209"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -16876,8 +19588,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="207"/>
-      <c r="B32" s="175" t="s">
+      <c r="A32" s="209"/>
+      <c r="B32" s="169" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -16891,8 +19603,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="207"/>
-      <c r="B33" s="175"/>
+      <c r="A33" s="209"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -16904,8 +19616,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="207"/>
-      <c r="B34" s="175"/>
+      <c r="A34" s="209"/>
+      <c r="B34" s="169"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -16917,8 +19629,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="207"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="209"/>
+      <c r="B35" s="169"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -16930,8 +19642,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="207"/>
-      <c r="B36" s="175"/>
+      <c r="A36" s="209"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -16943,8 +19655,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="207"/>
-      <c r="B37" s="175"/>
+      <c r="A37" s="209"/>
+      <c r="B37" s="169"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -16956,8 +19668,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="207"/>
-      <c r="B38" s="175"/>
+      <c r="A38" s="209"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -16969,8 +19681,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="207"/>
-      <c r="B39" s="175" t="s">
+      <c r="A39" s="209"/>
+      <c r="B39" s="169" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -16984,8 +19696,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="207"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="209"/>
+      <c r="B40" s="169"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -16997,8 +19709,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="207"/>
-      <c r="B41" s="175"/>
+      <c r="A41" s="209"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -17010,8 +19722,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="207"/>
-      <c r="B42" s="175"/>
+      <c r="A42" s="209"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -17023,8 +19735,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="207"/>
-      <c r="B43" s="175"/>
+      <c r="A43" s="209"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -17036,8 +19748,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="207"/>
-      <c r="B44" s="175"/>
+      <c r="A44" s="209"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -17049,8 +19761,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="207"/>
-      <c r="B45" s="175"/>
+      <c r="A45" s="209"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -17062,8 +19774,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="207"/>
-      <c r="B46" s="175" t="s">
+      <c r="A46" s="209"/>
+      <c r="B46" s="169" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -17077,8 +19789,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="207"/>
-      <c r="B47" s="175"/>
+      <c r="A47" s="209"/>
+      <c r="B47" s="169"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -17090,8 +19802,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="207"/>
-      <c r="B48" s="175"/>
+      <c r="A48" s="209"/>
+      <c r="B48" s="169"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -17103,8 +19815,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="207"/>
-      <c r="B49" s="175" t="s">
+      <c r="A49" s="209"/>
+      <c r="B49" s="169" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -17118,8 +19830,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="207"/>
-      <c r="B50" s="175"/>
+      <c r="A50" s="209"/>
+      <c r="B50" s="169"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -17131,8 +19843,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="207"/>
-      <c r="B51" s="175"/>
+      <c r="A51" s="209"/>
+      <c r="B51" s="169"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -17144,7 +19856,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="207"/>
+      <c r="A52" s="209"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -17159,7 +19871,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="208"/>
+      <c r="A53" s="210"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -17192,7 +19904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17286,50 +19998,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="179"/>
-      <c r="AG1" s="179"/>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="179"/>
-      <c r="AJ1" s="179"/>
-      <c r="AK1" s="179"/>
-      <c r="AL1" s="179"/>
-      <c r="AM1" s="179"/>
-      <c r="AN1" s="180"/>
-      <c r="AO1" s="180"/>
-      <c r="AP1" s="180"/>
-      <c r="AQ1" s="180"/>
-      <c r="AR1" s="180"/>
-      <c r="AS1" s="180"/>
-      <c r="AT1" s="180"/>
-      <c r="AU1" s="180"/>
-      <c r="AV1" s="180"/>
-      <c r="AW1" s="180"/>
-      <c r="AX1" s="180"/>
-      <c r="AY1" s="180"/>
-      <c r="AZ1" s="180"/>
-      <c r="BA1" s="180"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="162"/>
+      <c r="AP1" s="162"/>
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
+      <c r="BA1" s="162"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="175" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -17366,33 +20078,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="180"/>
-      <c r="AJ2" s="180"/>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="180"/>
-      <c r="AO2" s="180"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="180"/>
-      <c r="AR2" s="180"/>
-      <c r="AS2" s="180"/>
-      <c r="AT2" s="180"/>
-      <c r="AU2" s="180"/>
-      <c r="AV2" s="180"/>
-      <c r="AW2" s="180"/>
-      <c r="AX2" s="180"/>
-      <c r="AY2" s="180"/>
-      <c r="AZ2" s="180"/>
-      <c r="BA2" s="180"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162"/>
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="162"/>
+      <c r="AW2" s="162"/>
+      <c r="AX2" s="162"/>
+      <c r="AY2" s="162"/>
+      <c r="AZ2" s="162"/>
+      <c r="BA2" s="162"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="166"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -17450,7 +20162,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="166"/>
+      <c r="A4" s="176"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -17511,7 +20223,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -17661,7 +20373,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="175" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -17716,7 +20428,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="166"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -17767,7 +20479,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="166"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -17814,7 +20526,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="166"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -17838,7 +20550,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="166"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -17862,7 +20574,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="166"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -17886,7 +20598,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="166"/>
+      <c r="A14" s="176"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -17910,7 +20622,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="167"/>
+      <c r="A15" s="177"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -17943,7 +20655,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="172" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -17969,7 +20681,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="163"/>
+      <c r="A18" s="173"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -17993,7 +20705,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="163"/>
+      <c r="A19" s="173"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -18017,7 +20729,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="163"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -18041,7 +20753,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="163"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -18065,7 +20777,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="163"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -18089,7 +20801,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="163"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -18113,7 +20825,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -18157,7 +20869,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="175" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -18180,7 +20892,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="166"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -18201,7 +20913,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="167"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -18251,10 +20963,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="174" t="str">
+      <c r="B34" s="168" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -18275,8 +20987,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="163"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="169"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -18291,8 +21003,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="175"/>
+      <c r="A36" s="173"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -18307,8 +21019,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="163"/>
-      <c r="B37" s="175"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="169"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -18323,8 +21035,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="163"/>
-      <c r="B38" s="175"/>
+      <c r="A38" s="173"/>
+      <c r="B38" s="169"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -18339,8 +21051,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
-      <c r="B39" s="175"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -18352,8 +21064,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="163"/>
-      <c r="B40" s="175"/>
+      <c r="A40" s="173"/>
+      <c r="B40" s="169"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -18365,8 +21077,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="163"/>
-      <c r="B41" s="175" t="str">
+      <c r="A41" s="173"/>
+      <c r="B41" s="169" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -18381,8 +21093,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="163"/>
-      <c r="B42" s="175"/>
+      <c r="A42" s="173"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -18394,8 +21106,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="163"/>
-      <c r="B43" s="175"/>
+      <c r="A43" s="173"/>
+      <c r="B43" s="169"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -18407,8 +21119,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="163"/>
-      <c r="B44" s="175"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -18420,8 +21132,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="163"/>
-      <c r="B45" s="175"/>
+      <c r="A45" s="173"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -18433,8 +21145,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="163"/>
-      <c r="B46" s="175"/>
+      <c r="A46" s="173"/>
+      <c r="B46" s="169"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -18446,8 +21158,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="163"/>
-      <c r="B47" s="175" t="str">
+      <c r="A47" s="173"/>
+      <c r="B47" s="169" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -18462,8 +21174,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="163"/>
-      <c r="B48" s="175"/>
+      <c r="A48" s="173"/>
+      <c r="B48" s="169"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -18475,8 +21187,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="163"/>
-      <c r="B49" s="175"/>
+      <c r="A49" s="173"/>
+      <c r="B49" s="169"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -18488,8 +21200,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="163"/>
-      <c r="B50" s="175"/>
+      <c r="A50" s="173"/>
+      <c r="B50" s="169"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -18501,8 +21213,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="163"/>
-      <c r="B51" s="175"/>
+      <c r="A51" s="173"/>
+      <c r="B51" s="169"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -18514,8 +21226,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="163"/>
-      <c r="B52" s="175" t="str">
+      <c r="A52" s="173"/>
+      <c r="B52" s="169" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -18530,8 +21242,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="163"/>
-      <c r="B53" s="175"/>
+      <c r="A53" s="173"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -18543,8 +21255,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="163"/>
-      <c r="B54" s="175"/>
+      <c r="A54" s="173"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -18556,8 +21268,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="163"/>
-      <c r="B55" s="175" t="str">
+      <c r="A55" s="173"/>
+      <c r="B55" s="169" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -18572,8 +21284,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="163"/>
-      <c r="B56" s="175"/>
+      <c r="A56" s="173"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -18585,8 +21297,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="164"/>
-      <c r="B57" s="176"/>
+      <c r="A57" s="174"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -18601,10 +21313,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="168" t="s">
+      <c r="A59" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="177" t="s">
+      <c r="B59" s="171" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -18621,8 +21333,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="169"/>
-      <c r="B60" s="172"/>
+      <c r="A60" s="179"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -18640,8 +21352,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="169"/>
-      <c r="B61" s="172"/>
+      <c r="A61" s="179"/>
+      <c r="B61" s="166"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -18656,8 +21368,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="169"/>
-      <c r="B62" s="172"/>
+      <c r="A62" s="179"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -18672,8 +21384,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="169"/>
-      <c r="B63" s="172"/>
+      <c r="A63" s="179"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -18688,8 +21400,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="169"/>
-      <c r="B64" s="172"/>
+      <c r="A64" s="179"/>
+      <c r="B64" s="166"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -18704,8 +21416,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="169"/>
-      <c r="B65" s="172"/>
+      <c r="A65" s="179"/>
+      <c r="B65" s="166"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -18718,8 +21430,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="169"/>
-      <c r="B66" s="172" t="str">
+      <c r="A66" s="179"/>
+      <c r="B66" s="166" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -18735,8 +21447,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="169"/>
-      <c r="B67" s="172"/>
+      <c r="A67" s="179"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -18748,8 +21460,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="169"/>
-      <c r="B68" s="172"/>
+      <c r="A68" s="179"/>
+      <c r="B68" s="166"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -18761,8 +21473,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="169"/>
-      <c r="B69" s="172"/>
+      <c r="A69" s="179"/>
+      <c r="B69" s="166"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -18774,8 +21486,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="169"/>
-      <c r="B70" s="172"/>
+      <c r="A70" s="179"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -18787,8 +21499,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="169"/>
-      <c r="B71" s="172"/>
+      <c r="A71" s="179"/>
+      <c r="B71" s="166"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -18800,8 +21512,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="169"/>
-      <c r="B72" s="172"/>
+      <c r="A72" s="179"/>
+      <c r="B72" s="166"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -18813,8 +21525,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="169"/>
-      <c r="B73" s="172" t="str">
+      <c r="A73" s="179"/>
+      <c r="B73" s="166" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -18829,8 +21541,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="169"/>
-      <c r="B74" s="172"/>
+      <c r="A74" s="179"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -18842,8 +21554,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="169"/>
-      <c r="B75" s="172"/>
+      <c r="A75" s="179"/>
+      <c r="B75" s="166"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -18855,8 +21567,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="169"/>
-      <c r="B76" s="172"/>
+      <c r="A76" s="179"/>
+      <c r="B76" s="166"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -18868,8 +21580,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="169"/>
-      <c r="B77" s="172"/>
+      <c r="A77" s="179"/>
+      <c r="B77" s="166"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -18881,8 +21593,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="169"/>
-      <c r="B78" s="172"/>
+      <c r="A78" s="179"/>
+      <c r="B78" s="166"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -18894,8 +21606,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="169"/>
-      <c r="B79" s="172"/>
+      <c r="A79" s="179"/>
+      <c r="B79" s="166"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -18907,8 +21619,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="169"/>
-      <c r="B80" s="172" t="str">
+      <c r="A80" s="179"/>
+      <c r="B80" s="166" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -18923,8 +21635,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="169"/>
-      <c r="B81" s="172"/>
+      <c r="A81" s="179"/>
+      <c r="B81" s="166"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -18936,8 +21648,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="169"/>
-      <c r="B82" s="172"/>
+      <c r="A82" s="179"/>
+      <c r="B82" s="166"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -18949,8 +21661,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="169"/>
-      <c r="B83" s="172" t="str">
+      <c r="A83" s="179"/>
+      <c r="B83" s="166" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -18965,8 +21677,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="169"/>
-      <c r="B84" s="172"/>
+      <c r="A84" s="179"/>
+      <c r="B84" s="166"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -18978,8 +21690,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="170"/>
-      <c r="B85" s="173"/>
+      <c r="A85" s="180"/>
+      <c r="B85" s="167"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -19006,21 +21718,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -19033,13 +21737,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -19758,12 +22470,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19988,17 +22699,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20023,11 +22737,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F7B5C-F065-40A6-8011-425E8B118017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72AF21-2381-4384-87DE-35BB1C91BBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="1113">
   <si>
     <t>Country</t>
   </si>
@@ -3467,6 +3467,108 @@
   <si>
     <t>Average Van Battery(up to 3500kg)</t>
   </si>
+  <si>
+    <t>HGV Rigid (&gt; 3500kg to 7500kg) (0% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt;7500kg to 17000kg) (0% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt; 17000kg) (0% Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Rigids (0% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;3500kg to 33000kg) (0% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;33000kg) (0% Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Artics (0% Laden)</t>
+  </si>
+  <si>
+    <t>All HVGs (0% Laden)</t>
+  </si>
+  <si>
+    <t>HGV(DIESEL)</t>
+  </si>
+  <si>
+    <t>HGV Refrigerated(DIESEL)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt; 3500kg to 7500kg) (50% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt;7500kg to 17000kg) (50% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt; 17000kg) (50% Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Rigids (50% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;3500kg to 33000kg) (50% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;33000kg) (50% Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Artics (50% Laden)</t>
+  </si>
+  <si>
+    <t>All HVGs (50% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt; 3500kg to 7500kg) (100% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt;7500kg to 17000kg) (100% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt; 17000kg) (100% Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Rigids (100% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;3500kg to 33000kg) (100% Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;33000kg) (100% Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Artics (100% Laden)</t>
+  </si>
+  <si>
+    <t>All HVGs (100% Laden)</t>
+  </si>
+  <si>
+    <t>All HVGs (Average Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Artics (Average Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;33000kg) (Average Laden)</t>
+  </si>
+  <si>
+    <t>HGV Articulated ( &gt;3500kg to 33000kg) (Average Laden)</t>
+  </si>
+  <si>
+    <t>HGV All Rigids (Average Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt; 17000kg) (Average Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt;7500kg to 17000kg) (Average Laden)</t>
+  </si>
+  <si>
+    <t>HGV Rigid (&gt; 3500kg to 7500kg) (Average Laden)</t>
+  </si>
 </sst>
 </file>
 
@@ -3475,7 +3577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3670,6 +3772,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -3793,7 +3917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -4650,13 +4774,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5235,6 +5416,66 @@
     <xf numFmtId="4" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5261,36 +5502,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5346,6 +5557,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5364,40 +5581,38 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20662,65 +20877,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="256" t="s">
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="256" t="s">
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="256" t="s">
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="267"/>
+      <c r="O1" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="256" t="s">
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="267"/>
+      <c r="T1" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="257"/>
-      <c r="V1" s="253" t="s">
+      <c r="U1" s="267"/>
+      <c r="V1" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="254"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="254"/>
-      <c r="AD1" s="254"/>
-      <c r="AE1" s="255"/>
-      <c r="AF1" s="250" t="s">
+      <c r="W1" s="264"/>
+      <c r="X1" s="264"/>
+      <c r="Y1" s="264"/>
+      <c r="Z1" s="264"/>
+      <c r="AA1" s="264"/>
+      <c r="AB1" s="264"/>
+      <c r="AC1" s="264"/>
+      <c r="AD1" s="264"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="251"/>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="251"/>
-      <c r="AJ1" s="251"/>
-      <c r="AK1" s="251"/>
-      <c r="AL1" s="251"/>
-      <c r="AM1" s="251"/>
-      <c r="AN1" s="251"/>
-      <c r="AO1" s="251"/>
-      <c r="AP1" s="251"/>
-      <c r="AQ1" s="251"/>
-      <c r="AR1" s="251"/>
-      <c r="AS1" s="252"/>
+      <c r="AG1" s="261"/>
+      <c r="AH1" s="261"/>
+      <c r="AI1" s="261"/>
+      <c r="AJ1" s="261"/>
+      <c r="AK1" s="261"/>
+      <c r="AL1" s="261"/>
+      <c r="AM1" s="261"/>
+      <c r="AN1" s="261"/>
+      <c r="AO1" s="261"/>
+      <c r="AP1" s="261"/>
+      <c r="AQ1" s="261"/>
+      <c r="AR1" s="261"/>
+      <c r="AS1" s="262"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -21783,20 +21998,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236"/>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="236"/>
-      <c r="AX1" s="236"/>
-      <c r="AY1" s="236"/>
-      <c r="AZ1" s="236"/>
-      <c r="BA1" s="236"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="228"/>
+      <c r="AT1" s="228"/>
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="228"/>
+      <c r="AY1" s="228"/>
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -21815,7 +22030,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="259" t="s">
+      <c r="H2" s="271" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -21837,7 +22052,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="259" t="s">
+      <c r="P2" s="271" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -21868,10 +22083,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="262" t="s">
+      <c r="AC2" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="265" t="s">
+      <c r="AD2" s="269" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -21883,26 +22098,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="236"/>
-      <c r="AI2" s="236"/>
-      <c r="AJ2" s="236"/>
-      <c r="AK2" s="236"/>
-      <c r="AL2" s="236"/>
-      <c r="AM2" s="236"/>
-      <c r="AN2" s="236"/>
-      <c r="AO2" s="236"/>
-      <c r="AP2" s="236"/>
-      <c r="AQ2" s="236"/>
-      <c r="AR2" s="236"/>
-      <c r="AS2" s="236"/>
-      <c r="AT2" s="236"/>
-      <c r="AU2" s="236"/>
-      <c r="AV2" s="236"/>
-      <c r="AW2" s="236"/>
-      <c r="AX2" s="236"/>
-      <c r="AY2" s="236"/>
-      <c r="AZ2" s="236"/>
-      <c r="BA2" s="236"/>
+      <c r="AH2" s="228"/>
+      <c r="AI2" s="228"/>
+      <c r="AJ2" s="228"/>
+      <c r="AK2" s="228"/>
+      <c r="AL2" s="228"/>
+      <c r="AM2" s="228"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="228"/>
+      <c r="AP2" s="228"/>
+      <c r="AQ2" s="228"/>
+      <c r="AR2" s="228"/>
+      <c r="AS2" s="228"/>
+      <c r="AT2" s="228"/>
+      <c r="AU2" s="228"/>
+      <c r="AV2" s="228"/>
+      <c r="AW2" s="228"/>
+      <c r="AX2" s="228"/>
+      <c r="AY2" s="228"/>
+      <c r="AZ2" s="228"/>
+      <c r="BA2" s="228"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -21923,7 +22138,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="260"/>
+      <c r="H3" s="272"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -21943,7 +22158,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="260"/>
+      <c r="P3" s="272"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -21964,8 +22179,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="263"/>
-      <c r="AD3" s="228"/>
+      <c r="AC3" s="275"/>
+      <c r="AD3" s="232"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22010,7 +22225,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="260"/>
+      <c r="H4" s="272"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22030,7 +22245,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="261"/>
+      <c r="P4" s="273"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22050,8 +22265,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="263"/>
-      <c r="AD4" s="228"/>
+      <c r="AC4" s="275"/>
+      <c r="AD4" s="232"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22099,7 +22314,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="260"/>
+      <c r="H5" s="272"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22124,8 +22339,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="263"/>
-      <c r="AD5" s="228"/>
+      <c r="AC5" s="275"/>
+      <c r="AD5" s="232"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22158,7 +22373,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="260"/>
+      <c r="H6" s="272"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22185,8 +22400,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="228"/>
+      <c r="AC6" s="275"/>
+      <c r="AD6" s="232"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22224,7 +22439,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="260"/>
+      <c r="H7" s="272"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22251,8 +22466,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="263"/>
-      <c r="AD7" s="228"/>
+      <c r="AC7" s="275"/>
+      <c r="AD7" s="232"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22287,7 +22502,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="260"/>
+      <c r="H8" s="272"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22314,8 +22529,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="228"/>
+      <c r="AC8" s="275"/>
+      <c r="AD8" s="232"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22350,7 +22565,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="261"/>
+      <c r="H9" s="273"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22377,8 +22592,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="228" t="s">
+      <c r="AC9" s="275"/>
+      <c r="AD9" s="232" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22421,8 +22636,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="263"/>
-      <c r="AD10" s="228"/>
+      <c r="AC10" s="275"/>
+      <c r="AD10" s="232"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22455,7 +22670,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="262" t="s">
+      <c r="H11" s="274" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22476,8 +22691,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="263"/>
-      <c r="AD11" s="228"/>
+      <c r="AC11" s="275"/>
+      <c r="AD11" s="232"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22496,7 +22711,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="263"/>
+      <c r="H12" s="275"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22515,8 +22730,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="263"/>
-      <c r="AD12" s="228"/>
+      <c r="AC12" s="275"/>
+      <c r="AD12" s="232"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -22535,7 +22750,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="263"/>
+      <c r="H13" s="275"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -22554,8 +22769,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="263"/>
-      <c r="AD13" s="228"/>
+      <c r="AC13" s="275"/>
+      <c r="AD13" s="232"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -22574,7 +22789,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="263"/>
+      <c r="H14" s="275"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -22593,8 +22808,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="228"/>
+      <c r="AC14" s="275"/>
+      <c r="AD14" s="232"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -22613,7 +22828,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="263"/>
+      <c r="H15" s="275"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -22632,8 +22847,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="263"/>
-      <c r="AD15" s="228" t="s">
+      <c r="AC15" s="275"/>
+      <c r="AD15" s="232" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -22651,7 +22866,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="263"/>
+      <c r="H16" s="275"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -22670,8 +22885,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="263"/>
-      <c r="AD16" s="228"/>
+      <c r="AC16" s="275"/>
+      <c r="AD16" s="232"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -22690,7 +22905,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="263"/>
+      <c r="H17" s="275"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -22709,8 +22924,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="263"/>
-      <c r="AD17" s="228"/>
+      <c r="AC17" s="275"/>
+      <c r="AD17" s="232"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -22729,7 +22944,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="264"/>
+      <c r="H18" s="276"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -22748,8 +22963,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="263"/>
-      <c r="AD18" s="228"/>
+      <c r="AC18" s="275"/>
+      <c r="AD18" s="232"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -22768,8 +22983,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="263"/>
-      <c r="AD19" s="228"/>
+      <c r="AC19" s="275"/>
+      <c r="AD19" s="232"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -22788,8 +23003,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="263"/>
-      <c r="AD20" s="228" t="s">
+      <c r="AC20" s="275"/>
+      <c r="AD20" s="232" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -22810,8 +23025,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="263"/>
-      <c r="AD21" s="228"/>
+      <c r="AC21" s="275"/>
+      <c r="AD21" s="232"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -22830,8 +23045,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="263"/>
-      <c r="AD22" s="228"/>
+      <c r="AC22" s="275"/>
+      <c r="AD22" s="232"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -22850,8 +23065,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="263"/>
-      <c r="AD23" s="228" t="s">
+      <c r="AC23" s="275"/>
+      <c r="AD23" s="232" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -22872,8 +23087,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="263"/>
-      <c r="AD24" s="228"/>
+      <c r="AC24" s="275"/>
+      <c r="AD24" s="232"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -22886,8 +23101,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="264"/>
-      <c r="AD25" s="266"/>
+      <c r="AC25" s="276"/>
+      <c r="AD25" s="270"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -22904,10 +23119,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="262" t="s">
+      <c r="AC27" s="274" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="265" t="s">
+      <c r="AD27" s="269" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -22924,8 +23139,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="263"/>
-      <c r="AD28" s="228"/>
+      <c r="AC28" s="275"/>
+      <c r="AD28" s="232"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -22940,8 +23155,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="263"/>
-      <c r="AD29" s="228"/>
+      <c r="AC29" s="275"/>
+      <c r="AD29" s="232"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -22953,8 +23168,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="263"/>
-      <c r="AD30" s="228"/>
+      <c r="AC30" s="275"/>
+      <c r="AD30" s="232"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -22968,8 +23183,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="263"/>
-      <c r="AD31" s="228"/>
+      <c r="AC31" s="275"/>
+      <c r="AD31" s="232"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -22981,8 +23196,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="263"/>
-      <c r="AD32" s="228"/>
+      <c r="AC32" s="275"/>
+      <c r="AD32" s="232"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -22995,8 +23210,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="263"/>
-      <c r="AD33" s="228"/>
+      <c r="AC33" s="275"/>
+      <c r="AD33" s="232"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23013,8 +23228,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="263"/>
-      <c r="AD34" s="228" t="s">
+      <c r="AC34" s="275"/>
+      <c r="AD34" s="232" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23033,8 +23248,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="263"/>
-      <c r="AD35" s="228"/>
+      <c r="AC35" s="275"/>
+      <c r="AD35" s="232"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23051,8 +23266,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="263"/>
-      <c r="AD36" s="228"/>
+      <c r="AC36" s="275"/>
+      <c r="AD36" s="232"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23069,8 +23284,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="263"/>
-      <c r="AD37" s="228"/>
+      <c r="AC37" s="275"/>
+      <c r="AD37" s="232"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23087,8 +23302,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="263"/>
-      <c r="AD38" s="228"/>
+      <c r="AC38" s="275"/>
+      <c r="AD38" s="232"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23105,8 +23320,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="263"/>
-      <c r="AD39" s="228"/>
+      <c r="AC39" s="275"/>
+      <c r="AD39" s="232"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23123,8 +23338,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="263"/>
-      <c r="AD40" s="228"/>
+      <c r="AC40" s="275"/>
+      <c r="AD40" s="232"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23141,8 +23356,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="263"/>
-      <c r="AD41" s="228" t="s">
+      <c r="AC41" s="275"/>
+      <c r="AD41" s="232" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23161,8 +23376,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="263"/>
-      <c r="AD42" s="228"/>
+      <c r="AC42" s="275"/>
+      <c r="AD42" s="232"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23179,8 +23394,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="263"/>
-      <c r="AD43" s="228"/>
+      <c r="AC43" s="275"/>
+      <c r="AD43" s="232"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23197,8 +23412,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="263"/>
-      <c r="AD44" s="228"/>
+      <c r="AC44" s="275"/>
+      <c r="AD44" s="232"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23215,8 +23430,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="263"/>
-      <c r="AD45" s="228"/>
+      <c r="AC45" s="275"/>
+      <c r="AD45" s="232"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23233,8 +23448,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="263"/>
-      <c r="AD46" s="228"/>
+      <c r="AC46" s="275"/>
+      <c r="AD46" s="232"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23251,8 +23466,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="263"/>
-      <c r="AD47" s="228"/>
+      <c r="AC47" s="275"/>
+      <c r="AD47" s="232"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23269,8 +23484,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="263"/>
-      <c r="AD48" s="228" t="s">
+      <c r="AC48" s="275"/>
+      <c r="AD48" s="232" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23289,8 +23504,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="263"/>
-      <c r="AD49" s="228"/>
+      <c r="AC49" s="275"/>
+      <c r="AD49" s="232"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23307,8 +23522,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="263"/>
-      <c r="AD50" s="228"/>
+      <c r="AC50" s="275"/>
+      <c r="AD50" s="232"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23325,8 +23540,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="263"/>
-      <c r="AD51" s="228" t="s">
+      <c r="AC51" s="275"/>
+      <c r="AD51" s="232" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23345,8 +23560,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="263"/>
-      <c r="AD52" s="228"/>
+      <c r="AC52" s="275"/>
+      <c r="AD52" s="232"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23363,8 +23578,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="263"/>
-      <c r="AD53" s="228"/>
+      <c r="AC53" s="275"/>
+      <c r="AD53" s="232"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23381,7 +23596,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="263"/>
+      <c r="AC54" s="275"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23401,7 +23616,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="264"/>
+      <c r="AC55" s="276"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -23634,11 +23849,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -23655,11 +23870,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23719,7 +23934,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23827,7 +24042,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="267" t="s">
+      <c r="A10" s="218" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -23838,134 +24053,134 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="269" t="s">
+      <c r="A11" s="220" t="s">
         <v>1067</v>
       </c>
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="221" t="s">
         <v>1066</v>
       </c>
-      <c r="C11" s="271">
+      <c r="C11" s="222">
         <v>3.746E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="272" t="s">
+      <c r="A12" s="223" t="s">
         <v>1068</v>
       </c>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C12" s="273">
+      <c r="C12" s="224">
         <v>4.6019999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="272" t="s">
+      <c r="A13" s="223" t="s">
         <v>1069</v>
       </c>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C13" s="273">
+      <c r="C13" s="224">
         <v>6.7059999999999995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="272" t="s">
+      <c r="A14" s="223" t="s">
         <v>1070</v>
       </c>
-      <c r="B14" s="268" t="s">
+      <c r="B14" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C14" s="273">
+      <c r="C14" s="224">
         <v>6.1280000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="272" t="s">
+      <c r="A15" s="223" t="s">
         <v>1071</v>
       </c>
-      <c r="B15" s="268" t="s">
+      <c r="B15" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C15" s="273">
+      <c r="C15" s="224">
         <v>5.6140000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="272" t="s">
+      <c r="A16" s="223" t="s">
         <v>1072</v>
       </c>
-      <c r="B16" s="268" t="s">
+      <c r="B16" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C16" s="273">
+      <c r="C16" s="224">
         <v>6.0740000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="272" t="s">
+      <c r="A17" s="223" t="s">
         <v>1073</v>
       </c>
-      <c r="B17" s="268" t="s">
+      <c r="B17" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C17" s="273">
+      <c r="C17" s="224">
         <v>9.783E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="272" t="s">
+      <c r="A18" s="223" t="s">
         <v>1074</v>
       </c>
-      <c r="B18" s="268" t="s">
+      <c r="B18" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C18" s="273">
+      <c r="C18" s="224">
         <v>6.1830000000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="272" t="s">
+      <c r="A19" s="223" t="s">
         <v>1075</v>
       </c>
-      <c r="B19" s="268" t="s">
+      <c r="B19" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C19" s="273">
+      <c r="C19" s="224">
         <v>9.4299999999999991E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="272" t="s">
+      <c r="A20" s="223" t="s">
         <v>1076</v>
       </c>
-      <c r="B20" s="268" t="s">
+      <c r="B20" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C20" s="273">
+      <c r="C20" s="224">
         <v>1.4540000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="272" t="s">
+      <c r="A21" s="223" t="s">
         <v>1077</v>
       </c>
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="219" t="s">
         <v>1066</v>
       </c>
-      <c r="C21" s="273">
+      <c r="C21" s="224">
         <v>1.9789999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="225" t="s">
         <v>1078</v>
       </c>
-      <c r="B22" s="275" t="s">
+      <c r="B22" s="226" t="s">
         <v>1066</v>
       </c>
-      <c r="C22" s="276">
+      <c r="C22" s="227">
         <v>1.7590000000000001E-2</v>
       </c>
     </row>
@@ -23977,21 +24192,25 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -24018,7 +24237,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="278" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -24041,7 +24260,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="260"/>
+      <c r="A3" s="272"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24062,7 +24281,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="260"/>
+      <c r="A4" s="272"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24083,7 +24302,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="260"/>
+      <c r="A5" s="272"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24104,7 +24323,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="260"/>
+      <c r="A6" s="272"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24125,7 +24344,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="260"/>
+      <c r="A7" s="272"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24146,7 +24365,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="260"/>
+      <c r="A8" s="272"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24167,7 +24386,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="261"/>
+      <c r="A9" s="273"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24188,7 +24407,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="259" t="s">
+      <c r="A10" s="271" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24211,7 +24430,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="260"/>
+      <c r="A11" s="272"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24232,7 +24451,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="260"/>
+      <c r="A12" s="272"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24253,7 +24472,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="260"/>
+      <c r="A13" s="272"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24274,7 +24493,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="260"/>
+      <c r="A14" s="272"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24295,7 +24514,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="260"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24316,7 +24535,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="260"/>
+      <c r="A16" s="272"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24337,7 +24556,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="261"/>
+      <c r="A17" s="273"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -24354,6 +24573,674 @@
         <v>0.28094999999999998</v>
       </c>
       <c r="G17" s="33">
+        <v>0.24823999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="279" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E19" s="279" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="277" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="277" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="220" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B21" s="287" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="222">
+        <v>0.11027000000000001</v>
+      </c>
+      <c r="E21" s="280" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F21" s="283" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="222">
+        <v>0.13155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="223" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B22" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="224">
+        <v>0.13206999999999999</v>
+      </c>
+      <c r="E22" s="281" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F22" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="224">
+        <v>0.15756000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="223" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B23" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="224">
+        <v>0.18171999999999999</v>
+      </c>
+      <c r="E23" s="281" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F23" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="224">
+        <v>0.21678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="223" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B24" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="224">
+        <v>0.16044</v>
+      </c>
+      <c r="E24" s="281" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F24" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="224">
+        <v>0.19139999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="223" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B25" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="224">
+        <v>0.14831</v>
+      </c>
+      <c r="E25" s="281" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F25" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="224">
+        <v>0.17199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="223" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B26" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="224">
+        <v>0.15178</v>
+      </c>
+      <c r="E26" s="281" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F26" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="224">
+        <v>0.17602000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="223" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B27" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="224">
+        <v>0.15162</v>
+      </c>
+      <c r="E27" s="281" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F27" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="224">
+        <v>0.17582999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="223" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B28" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="224">
+        <v>0.15526999999999999</v>
+      </c>
+      <c r="E28" s="281" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F28" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="224">
+        <v>0.1822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="223" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B29" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="224">
+        <v>0.11985</v>
+      </c>
+      <c r="E29" s="281" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F29" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="224">
+        <v>0.14299000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="223" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B30" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="224">
+        <v>0.15093999999999999</v>
+      </c>
+      <c r="E30" s="281" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F30" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="224">
+        <v>0.18007000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="223" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B31" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="224">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="E31" s="281" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F31" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="224">
+        <v>0.26436999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="223" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B32" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="224">
+        <v>0.19131000000000001</v>
+      </c>
+      <c r="E32" s="281" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F32" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="224">
+        <v>0.22822999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="223" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B33" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="224">
+        <v>0.18537999999999999</v>
+      </c>
+      <c r="E33" s="281" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F33" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="224">
+        <v>0.21498999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="223" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B34" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="224">
+        <v>0.20236999999999999</v>
+      </c>
+      <c r="E34" s="281" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F34" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="224">
+        <v>0.23469000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="223" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B35" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="224">
+        <v>0.20158999999999999</v>
+      </c>
+      <c r="E35" s="281" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F35" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="224">
+        <v>0.23379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="223" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B36" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="224">
+        <v>0.19733999999999999</v>
+      </c>
+      <c r="E36" s="281" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F36" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="224">
+        <v>0.23157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="223" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B37" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="224">
+        <v>0.12944</v>
+      </c>
+      <c r="E37" s="281" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F37" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="224">
+        <v>0.15442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="223" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B38" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="224">
+        <v>0.16980999999999999</v>
+      </c>
+      <c r="E38" s="281" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F38" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="224">
+        <v>0.20258000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="223" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B39" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="224">
+        <v>0.26149</v>
+      </c>
+      <c r="E39" s="281" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F39" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="224">
+        <v>0.31196000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="223" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B40" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="224">
+        <v>0.22217999999999999</v>
+      </c>
+      <c r="E40" s="281" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F40" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="224">
+        <v>0.26506000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="223" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B41" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="224">
+        <v>0.22245999999999999</v>
+      </c>
+      <c r="E41" s="281" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F41" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="224">
+        <v>0.25799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="223" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B42" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="224">
+        <v>0.25296000000000002</v>
+      </c>
+      <c r="E42" s="281" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F42" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="224">
+        <v>0.29336000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="223" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B43" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="224">
+        <v>0.25157000000000002</v>
+      </c>
+      <c r="E43" s="281" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F43" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="224">
+        <v>0.29175000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="223" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B44" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="224">
+        <v>0.23941999999999999</v>
+      </c>
+      <c r="E44" s="281" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F44" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="224">
+        <v>0.28094999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="223" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B45" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="224">
+        <v>0.11851</v>
+      </c>
+      <c r="E45" s="281" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F45" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="224">
+        <v>0.14138000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="223" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B46" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="224">
+        <v>0.14452999999999999</v>
+      </c>
+      <c r="E46" s="281" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F46" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="224">
+        <v>0.17241999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="223" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B47" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="224">
+        <v>0.23755999999999999</v>
+      </c>
+      <c r="E47" s="281" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F47" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="224">
+        <v>0.28339999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="223" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B48" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="224">
+        <v>0.20099</v>
+      </c>
+      <c r="E48" s="281" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F48" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="224">
+        <v>0.23977999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="223" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B49" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="224">
+        <v>0.18537999999999999</v>
+      </c>
+      <c r="E49" s="281" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F49" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="224">
+        <v>0.21498999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="223" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B50" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="224">
+        <v>0.22058</v>
+      </c>
+      <c r="E50" s="281" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F50" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="224">
+        <v>0.25580999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="223" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B51" s="286" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="224">
+        <v>0.21898000000000001</v>
+      </c>
+      <c r="E51" s="281" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F51" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="224">
+        <v>0.25395000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="225" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B52" s="288" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="227">
+        <v>0.21154000000000001</v>
+      </c>
+      <c r="E52" s="282" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F52" s="285" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="227">
         <v>0.24823999999999999</v>
       </c>
     </row>
@@ -24368,10 +25255,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24407,7 +25294,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="271" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -24426,7 +25313,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="260"/>
+      <c r="A3" s="272"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -24443,7 +25330,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="261"/>
+      <c r="A4" s="273"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -24456,6 +25343,74 @@
         <v>0.315</v>
       </c>
       <c r="G4" s="17">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.13516</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.13516</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="12">
+        <v>0.315</v>
+      </c>
+      <c r="F12" s="17">
         <v>0.13100000000000001</v>
       </c>
     </row>
@@ -24469,10 +25424,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24508,6 +25463,34 @@
         <v>123</v>
       </c>
       <c r="D2" s="27">
+        <v>6.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="27">
         <v>6.9100000000000003E-3</v>
       </c>
     </row>
@@ -24533,10 +25516,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="234" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -24550,8 +25533,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="260"/>
-      <c r="B2" s="231"/>
+      <c r="A2" s="272"/>
+      <c r="B2" s="235"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -24563,8 +25546,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="260"/>
-      <c r="B3" s="231"/>
+      <c r="A3" s="272"/>
+      <c r="B3" s="235"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -24576,8 +25559,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="260"/>
-      <c r="B4" s="231"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -24589,8 +25572,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="260"/>
-      <c r="B5" s="231"/>
+      <c r="A5" s="272"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -24602,8 +25585,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="260"/>
-      <c r="B6" s="231"/>
+      <c r="A6" s="272"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -24615,8 +25598,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="260"/>
-      <c r="B7" s="231"/>
+      <c r="A7" s="272"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -24628,8 +25611,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="260"/>
-      <c r="B8" s="231" t="s">
+      <c r="A8" s="272"/>
+      <c r="B8" s="235" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -24643,8 +25626,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="260"/>
-      <c r="B9" s="231"/>
+      <c r="A9" s="272"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -24656,8 +25639,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="260"/>
-      <c r="B10" s="231"/>
+      <c r="A10" s="272"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -24669,8 +25652,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="260"/>
-      <c r="B11" s="231"/>
+      <c r="A11" s="272"/>
+      <c r="B11" s="235"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -24682,8 +25665,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="260"/>
-      <c r="B12" s="231"/>
+      <c r="A12" s="272"/>
+      <c r="B12" s="235"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -24695,8 +25678,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="260"/>
-      <c r="B13" s="231"/>
+      <c r="A13" s="272"/>
+      <c r="B13" s="235"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -24708,8 +25691,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="260"/>
-      <c r="B14" s="231" t="s">
+      <c r="A14" s="272"/>
+      <c r="B14" s="235" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -24723,8 +25706,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="260"/>
-      <c r="B15" s="231"/>
+      <c r="A15" s="272"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -24736,8 +25719,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="260"/>
-      <c r="B16" s="231"/>
+      <c r="A16" s="272"/>
+      <c r="B16" s="235"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -24749,8 +25732,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="260"/>
-      <c r="B17" s="231"/>
+      <c r="A17" s="272"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -24762,8 +25745,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="260"/>
-      <c r="B18" s="231"/>
+      <c r="A18" s="272"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -24775,8 +25758,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="260"/>
-      <c r="B19" s="231" t="s">
+      <c r="A19" s="272"/>
+      <c r="B19" s="235" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -24790,8 +25773,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="260"/>
-      <c r="B20" s="231"/>
+      <c r="A20" s="272"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -24803,8 +25786,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="260"/>
-      <c r="B21" s="231"/>
+      <c r="A21" s="272"/>
+      <c r="B21" s="235"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -24816,8 +25799,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="260"/>
-      <c r="B22" s="231" t="s">
+      <c r="A22" s="272"/>
+      <c r="B22" s="235" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -24831,8 +25814,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="260"/>
-      <c r="B23" s="231"/>
+      <c r="A23" s="272"/>
+      <c r="B23" s="235"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -24844,8 +25827,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="261"/>
-      <c r="B24" s="232"/>
+      <c r="A24" s="273"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -24857,10 +25840,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="262" t="s">
+      <c r="A25" s="274" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="230" t="s">
+      <c r="B25" s="234" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -24874,8 +25857,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="263"/>
-      <c r="B26" s="231"/>
+      <c r="A26" s="275"/>
+      <c r="B26" s="235"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -24887,8 +25870,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="263"/>
-      <c r="B27" s="231"/>
+      <c r="A27" s="275"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -24900,8 +25883,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="263"/>
-      <c r="B28" s="231"/>
+      <c r="A28" s="275"/>
+      <c r="B28" s="235"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -24913,8 +25896,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="263"/>
-      <c r="B29" s="231"/>
+      <c r="A29" s="275"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -24926,8 +25909,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="263"/>
-      <c r="B30" s="231"/>
+      <c r="A30" s="275"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -24939,8 +25922,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="263"/>
-      <c r="B31" s="231"/>
+      <c r="A31" s="275"/>
+      <c r="B31" s="235"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -24952,8 +25935,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="263"/>
-      <c r="B32" s="231" t="s">
+      <c r="A32" s="275"/>
+      <c r="B32" s="235" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -24967,8 +25950,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="263"/>
-      <c r="B33" s="231"/>
+      <c r="A33" s="275"/>
+      <c r="B33" s="235"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -24980,8 +25963,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="263"/>
-      <c r="B34" s="231"/>
+      <c r="A34" s="275"/>
+      <c r="B34" s="235"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -24993,8 +25976,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="263"/>
-      <c r="B35" s="231"/>
+      <c r="A35" s="275"/>
+      <c r="B35" s="235"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -25006,8 +25989,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="263"/>
-      <c r="B36" s="231"/>
+      <c r="A36" s="275"/>
+      <c r="B36" s="235"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -25019,8 +26002,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="263"/>
-      <c r="B37" s="231"/>
+      <c r="A37" s="275"/>
+      <c r="B37" s="235"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -25032,8 +26015,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="263"/>
-      <c r="B38" s="231"/>
+      <c r="A38" s="275"/>
+      <c r="B38" s="235"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -25045,8 +26028,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="263"/>
-      <c r="B39" s="231" t="s">
+      <c r="A39" s="275"/>
+      <c r="B39" s="235" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -25060,8 +26043,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="263"/>
-      <c r="B40" s="231"/>
+      <c r="A40" s="275"/>
+      <c r="B40" s="235"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -25073,8 +26056,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="263"/>
-      <c r="B41" s="231"/>
+      <c r="A41" s="275"/>
+      <c r="B41" s="235"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -25086,8 +26069,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="263"/>
-      <c r="B42" s="231"/>
+      <c r="A42" s="275"/>
+      <c r="B42" s="235"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -25099,8 +26082,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="263"/>
-      <c r="B43" s="231"/>
+      <c r="A43" s="275"/>
+      <c r="B43" s="235"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -25112,8 +26095,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="263"/>
-      <c r="B44" s="231"/>
+      <c r="A44" s="275"/>
+      <c r="B44" s="235"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -25125,8 +26108,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="263"/>
-      <c r="B45" s="231"/>
+      <c r="A45" s="275"/>
+      <c r="B45" s="235"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -25138,8 +26121,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="263"/>
-      <c r="B46" s="231" t="s">
+      <c r="A46" s="275"/>
+      <c r="B46" s="235" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -25153,8 +26136,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="263"/>
-      <c r="B47" s="231"/>
+      <c r="A47" s="275"/>
+      <c r="B47" s="235"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -25166,8 +26149,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="263"/>
-      <c r="B48" s="231"/>
+      <c r="A48" s="275"/>
+      <c r="B48" s="235"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -25179,8 +26162,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="263"/>
-      <c r="B49" s="231" t="s">
+      <c r="A49" s="275"/>
+      <c r="B49" s="235" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -25194,8 +26177,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="263"/>
-      <c r="B50" s="231"/>
+      <c r="A50" s="275"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -25207,8 +26190,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="263"/>
-      <c r="B51" s="231"/>
+      <c r="A51" s="275"/>
+      <c r="B51" s="235"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -25220,7 +26203,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="263"/>
+      <c r="A52" s="275"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -25235,7 +26218,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="264"/>
+      <c r="A53" s="276"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -25362,50 +26345,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="227"/>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="227"/>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="235"/>
-      <c r="AG1" s="235"/>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="235"/>
-      <c r="AJ1" s="235"/>
-      <c r="AK1" s="235"/>
-      <c r="AL1" s="235"/>
-      <c r="AM1" s="235"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236"/>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="236"/>
-      <c r="AX1" s="236"/>
-      <c r="AY1" s="236"/>
-      <c r="AZ1" s="236"/>
-      <c r="BA1" s="236"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="231"/>
+      <c r="AE1" s="231"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="231"/>
+      <c r="AH1" s="231"/>
+      <c r="AI1" s="231"/>
+      <c r="AJ1" s="231"/>
+      <c r="AK1" s="231"/>
+      <c r="AL1" s="231"/>
+      <c r="AM1" s="231"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="228"/>
+      <c r="AT1" s="228"/>
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="228"/>
+      <c r="AY1" s="228"/>
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="241" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -25442,33 +26425,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="234"/>
-      <c r="AE2" s="234"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="234"/>
-      <c r="AH2" s="236"/>
-      <c r="AI2" s="236"/>
-      <c r="AJ2" s="236"/>
-      <c r="AK2" s="236"/>
-      <c r="AL2" s="236"/>
-      <c r="AM2" s="236"/>
-      <c r="AN2" s="236"/>
-      <c r="AO2" s="236"/>
-      <c r="AP2" s="236"/>
-      <c r="AQ2" s="236"/>
-      <c r="AR2" s="236"/>
-      <c r="AS2" s="236"/>
-      <c r="AT2" s="236"/>
-      <c r="AU2" s="236"/>
-      <c r="AV2" s="236"/>
-      <c r="AW2" s="236"/>
-      <c r="AX2" s="236"/>
-      <c r="AY2" s="236"/>
-      <c r="AZ2" s="236"/>
-      <c r="BA2" s="236"/>
+      <c r="AD2" s="230"/>
+      <c r="AE2" s="230"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="228"/>
+      <c r="AI2" s="228"/>
+      <c r="AJ2" s="228"/>
+      <c r="AK2" s="228"/>
+      <c r="AL2" s="228"/>
+      <c r="AM2" s="228"/>
+      <c r="AN2" s="228"/>
+      <c r="AO2" s="228"/>
+      <c r="AP2" s="228"/>
+      <c r="AQ2" s="228"/>
+      <c r="AR2" s="228"/>
+      <c r="AS2" s="228"/>
+      <c r="AT2" s="228"/>
+      <c r="AU2" s="228"/>
+      <c r="AV2" s="228"/>
+      <c r="AW2" s="228"/>
+      <c r="AX2" s="228"/>
+      <c r="AY2" s="228"/>
+      <c r="AZ2" s="228"/>
+      <c r="BA2" s="228"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="222"/>
+      <c r="A3" s="242"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -25526,7 +26509,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="222"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -25587,7 +26570,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="223"/>
+      <c r="A5" s="243"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -25737,7 +26720,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="241" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -25792,7 +26775,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
+      <c r="A9" s="242"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -25843,7 +26826,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="222"/>
+      <c r="A10" s="242"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -25890,7 +26873,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="222"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -25914,7 +26897,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="222"/>
+      <c r="A12" s="242"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -25938,7 +26921,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="222"/>
+      <c r="A13" s="242"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -25962,7 +26945,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="222"/>
+      <c r="A14" s="242"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -25986,7 +26969,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="223"/>
+      <c r="A15" s="243"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -26019,7 +27002,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="238" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -26045,7 +27028,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="219"/>
+      <c r="A18" s="239"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -26069,7 +27052,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="219"/>
+      <c r="A19" s="239"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -26093,7 +27076,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="219"/>
+      <c r="A20" s="239"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -26117,7 +27100,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="219"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -26141,7 +27124,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="219"/>
+      <c r="A22" s="239"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -26165,7 +27148,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="219"/>
+      <c r="A23" s="239"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -26189,7 +27172,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="220"/>
+      <c r="A24" s="240"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -26233,7 +27216,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="221" t="s">
+      <c r="A27" s="241" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -26256,7 +27239,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="222"/>
+      <c r="A28" s="242"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -26277,7 +27260,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="223"/>
+      <c r="A29" s="243"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -26327,10 +27310,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="218" t="s">
+      <c r="A34" s="238" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="230" t="str">
+      <c r="B34" s="234" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -26351,8 +27334,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="219"/>
-      <c r="B35" s="231"/>
+      <c r="A35" s="239"/>
+      <c r="B35" s="235"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -26367,8 +27350,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="219"/>
-      <c r="B36" s="231"/>
+      <c r="A36" s="239"/>
+      <c r="B36" s="235"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -26383,8 +27366,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="219"/>
-      <c r="B37" s="231"/>
+      <c r="A37" s="239"/>
+      <c r="B37" s="235"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -26399,8 +27382,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="219"/>
-      <c r="B38" s="231"/>
+      <c r="A38" s="239"/>
+      <c r="B38" s="235"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -26415,8 +27398,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="219"/>
-      <c r="B39" s="231"/>
+      <c r="A39" s="239"/>
+      <c r="B39" s="235"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -26428,8 +27411,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="219"/>
-      <c r="B40" s="231"/>
+      <c r="A40" s="239"/>
+      <c r="B40" s="235"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -26441,8 +27424,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="219"/>
-      <c r="B41" s="231" t="str">
+      <c r="A41" s="239"/>
+      <c r="B41" s="235" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -26457,8 +27440,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="219"/>
-      <c r="B42" s="231"/>
+      <c r="A42" s="239"/>
+      <c r="B42" s="235"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -26470,8 +27453,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="219"/>
-      <c r="B43" s="231"/>
+      <c r="A43" s="239"/>
+      <c r="B43" s="235"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -26483,8 +27466,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="219"/>
-      <c r="B44" s="231"/>
+      <c r="A44" s="239"/>
+      <c r="B44" s="235"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -26496,8 +27479,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="219"/>
-      <c r="B45" s="231"/>
+      <c r="A45" s="239"/>
+      <c r="B45" s="235"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -26509,8 +27492,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="219"/>
-      <c r="B46" s="231"/>
+      <c r="A46" s="239"/>
+      <c r="B46" s="235"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -26522,8 +27505,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="219"/>
-      <c r="B47" s="231" t="str">
+      <c r="A47" s="239"/>
+      <c r="B47" s="235" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -26538,8 +27521,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="219"/>
-      <c r="B48" s="231"/>
+      <c r="A48" s="239"/>
+      <c r="B48" s="235"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -26551,8 +27534,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
-      <c r="B49" s="231"/>
+      <c r="A49" s="239"/>
+      <c r="B49" s="235"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -26564,8 +27547,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="231"/>
+      <c r="A50" s="239"/>
+      <c r="B50" s="235"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -26577,8 +27560,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="219"/>
-      <c r="B51" s="231"/>
+      <c r="A51" s="239"/>
+      <c r="B51" s="235"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26590,8 +27573,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="219"/>
-      <c r="B52" s="231" t="str">
+      <c r="A52" s="239"/>
+      <c r="B52" s="235" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -26606,8 +27589,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="219"/>
-      <c r="B53" s="231"/>
+      <c r="A53" s="239"/>
+      <c r="B53" s="235"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -26619,8 +27602,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="219"/>
-      <c r="B54" s="231"/>
+      <c r="A54" s="239"/>
+      <c r="B54" s="235"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -26632,8 +27615,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="219"/>
-      <c r="B55" s="231" t="str">
+      <c r="A55" s="239"/>
+      <c r="B55" s="235" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -26648,8 +27631,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="231"/>
+      <c r="A56" s="239"/>
+      <c r="B56" s="235"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -26661,8 +27644,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="220"/>
-      <c r="B57" s="232"/>
+      <c r="A57" s="240"/>
+      <c r="B57" s="236"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -26677,10 +27660,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="224" t="s">
+      <c r="A59" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="233" t="s">
+      <c r="B59" s="237" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -26697,8 +27680,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="225"/>
-      <c r="B60" s="228"/>
+      <c r="A60" s="245"/>
+      <c r="B60" s="232"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -26716,8 +27699,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="225"/>
-      <c r="B61" s="228"/>
+      <c r="A61" s="245"/>
+      <c r="B61" s="232"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -26732,8 +27715,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="225"/>
-      <c r="B62" s="228"/>
+      <c r="A62" s="245"/>
+      <c r="B62" s="232"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -26748,8 +27731,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="225"/>
-      <c r="B63" s="228"/>
+      <c r="A63" s="245"/>
+      <c r="B63" s="232"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -26764,8 +27747,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="225"/>
-      <c r="B64" s="228"/>
+      <c r="A64" s="245"/>
+      <c r="B64" s="232"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -26780,8 +27763,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="225"/>
-      <c r="B65" s="228"/>
+      <c r="A65" s="245"/>
+      <c r="B65" s="232"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -26794,8 +27777,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="225"/>
-      <c r="B66" s="228" t="str">
+      <c r="A66" s="245"/>
+      <c r="B66" s="232" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -26811,8 +27794,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="225"/>
-      <c r="B67" s="228"/>
+      <c r="A67" s="245"/>
+      <c r="B67" s="232"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -26824,8 +27807,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="225"/>
-      <c r="B68" s="228"/>
+      <c r="A68" s="245"/>
+      <c r="B68" s="232"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -26837,8 +27820,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="225"/>
-      <c r="B69" s="228"/>
+      <c r="A69" s="245"/>
+      <c r="B69" s="232"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -26850,8 +27833,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="225"/>
-      <c r="B70" s="228"/>
+      <c r="A70" s="245"/>
+      <c r="B70" s="232"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -26863,8 +27846,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="225"/>
-      <c r="B71" s="228"/>
+      <c r="A71" s="245"/>
+      <c r="B71" s="232"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -26876,8 +27859,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="225"/>
-      <c r="B72" s="228"/>
+      <c r="A72" s="245"/>
+      <c r="B72" s="232"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -26889,8 +27872,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="225"/>
-      <c r="B73" s="228" t="str">
+      <c r="A73" s="245"/>
+      <c r="B73" s="232" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -26905,8 +27888,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="225"/>
-      <c r="B74" s="228"/>
+      <c r="A74" s="245"/>
+      <c r="B74" s="232"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -26918,8 +27901,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="225"/>
-      <c r="B75" s="228"/>
+      <c r="A75" s="245"/>
+      <c r="B75" s="232"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -26931,8 +27914,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="225"/>
-      <c r="B76" s="228"/>
+      <c r="A76" s="245"/>
+      <c r="B76" s="232"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -26944,8 +27927,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="225"/>
-      <c r="B77" s="228"/>
+      <c r="A77" s="245"/>
+      <c r="B77" s="232"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -26957,8 +27940,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="225"/>
-      <c r="B78" s="228"/>
+      <c r="A78" s="245"/>
+      <c r="B78" s="232"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -26970,8 +27953,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="225"/>
-      <c r="B79" s="228"/>
+      <c r="A79" s="245"/>
+      <c r="B79" s="232"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -26983,8 +27966,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="225"/>
-      <c r="B80" s="228" t="str">
+      <c r="A80" s="245"/>
+      <c r="B80" s="232" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -26999,8 +27982,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="225"/>
-      <c r="B81" s="228"/>
+      <c r="A81" s="245"/>
+      <c r="B81" s="232"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -27012,8 +27995,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="225"/>
-      <c r="B82" s="228"/>
+      <c r="A82" s="245"/>
+      <c r="B82" s="232"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -27025,8 +28008,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="225"/>
-      <c r="B83" s="228" t="str">
+      <c r="A83" s="245"/>
+      <c r="B83" s="232" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -27041,8 +28024,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="225"/>
-      <c r="B84" s="228"/>
+      <c r="A84" s="245"/>
+      <c r="B84" s="232"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -27054,8 +28037,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="226"/>
-      <c r="B85" s="229"/>
+      <c r="A85" s="246"/>
+      <c r="B85" s="233"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -27082,21 +28065,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -27109,13 +28084,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -27212,7 +28195,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="238"/>
+      <c r="C2" s="248"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -27221,7 +28204,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="238"/>
+      <c r="C3" s="248"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -27230,7 +28213,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="238"/>
+      <c r="C4" s="248"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -27239,7 +28222,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="238"/>
+      <c r="C5" s="248"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -27248,7 +28231,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="238"/>
+      <c r="C6" s="248"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -27257,7 +28240,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="238"/>
+      <c r="C7" s="248"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -27266,7 +28249,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="238"/>
+      <c r="C8" s="248"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -27275,7 +28258,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="238"/>
+      <c r="C9" s="248"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -27284,7 +28267,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="238"/>
+      <c r="C10" s="248"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -27293,7 +28276,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="238"/>
+      <c r="C11" s="248"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -27302,112 +28285,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="238"/>
+      <c r="C12" s="248"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="238"/>
+      <c r="C13" s="248"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="238"/>
+      <c r="C14" s="248"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="238"/>
+      <c r="C15" s="248"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="238"/>
+      <c r="C16" s="248"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="238"/>
+      <c r="C17" s="248"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="238"/>
+      <c r="C18" s="248"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="238"/>
+      <c r="C19" s="248"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="238"/>
+      <c r="C20" s="248"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="238"/>
+      <c r="C21" s="248"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="238"/>
+      <c r="C22" s="248"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="239"/>
+      <c r="C23" s="249"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="239"/>
+      <c r="C24" s="249"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="239"/>
+      <c r="C25" s="249"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="239"/>
+      <c r="C26" s="249"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="239"/>
+      <c r="C27" s="249"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="239"/>
+      <c r="C28" s="249"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="237"/>
+      <c r="C29" s="247"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="237"/>
+      <c r="C30" s="247"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="237"/>
+      <c r="C31" s="247"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="237"/>
+      <c r="C32" s="247"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="237"/>
+      <c r="C33" s="247"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -27480,13 +28463,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="240"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="250"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -27495,79 +28478,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="240"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="250"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="240"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="250"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="240"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="250"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="240"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="250"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="240"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="250"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="240"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="255"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="250"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="240"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="253"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="250"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -27834,12 +28817,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28064,17 +29046,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28099,11 +29084,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5887EC4-83E3-42CF-8D37-A02DDECE5FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4DE8B4-F082-4F91-B5D1-84B3E6E61777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="11" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="19" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1115">
   <si>
     <t>Country</t>
   </si>
@@ -3571,6 +3571,9 @@
   </si>
   <si>
     <t>Manufacture</t>
+  </si>
+  <si>
+    <t>International with RF&lt;1500km</t>
   </si>
 </sst>
 </file>
@@ -5405,35 +5408,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5461,6 +5440,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5516,12 +5525,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5540,14 +5543,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8218,7 +8221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -8240,10 +8243,10 @@
       <c r="C1" s="162" t="s">
         <v>628</v>
       </c>
-      <c r="D1" s="284" t="s">
+      <c r="D1" s="234" t="s">
         <v>597</v>
       </c>
-      <c r="E1" s="284" t="s">
+      <c r="E1" s="234" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -20818,65 +20821,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="271" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="273" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="271" t="s">
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="273" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="271" t="s">
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="273" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="271" t="s">
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="272"/>
-      <c r="V1" s="268" t="s">
+      <c r="U1" s="274"/>
+      <c r="V1" s="270" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="269"/>
-      <c r="X1" s="269"/>
-      <c r="Y1" s="269"/>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="269"/>
-      <c r="AB1" s="269"/>
-      <c r="AC1" s="269"/>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="270"/>
-      <c r="AF1" s="265" t="s">
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="271"/>
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="271"/>
+      <c r="AD1" s="271"/>
+      <c r="AE1" s="272"/>
+      <c r="AF1" s="267" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="266"/>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="266"/>
-      <c r="AJ1" s="266"/>
-      <c r="AK1" s="266"/>
-      <c r="AL1" s="266"/>
-      <c r="AM1" s="266"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="267"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="268"/>
+      <c r="AK1" s="268"/>
+      <c r="AL1" s="268"/>
+      <c r="AM1" s="268"/>
+      <c r="AN1" s="268"/>
+      <c r="AO1" s="268"/>
+      <c r="AP1" s="268"/>
+      <c r="AQ1" s="268"/>
+      <c r="AR1" s="268"/>
+      <c r="AS1" s="269"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -21939,20 +21942,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="233"/>
-      <c r="AO1" s="233"/>
-      <c r="AP1" s="233"/>
-      <c r="AQ1" s="233"/>
-      <c r="AR1" s="233"/>
-      <c r="AS1" s="233"/>
-      <c r="AT1" s="233"/>
-      <c r="AU1" s="233"/>
-      <c r="AV1" s="233"/>
-      <c r="AW1" s="233"/>
-      <c r="AX1" s="233"/>
-      <c r="AY1" s="233"/>
-      <c r="AZ1" s="233"/>
-      <c r="BA1" s="233"/>
+      <c r="AN1" s="253"/>
+      <c r="AO1" s="253"/>
+      <c r="AP1" s="253"/>
+      <c r="AQ1" s="253"/>
+      <c r="AR1" s="253"/>
+      <c r="AS1" s="253"/>
+      <c r="AT1" s="253"/>
+      <c r="AU1" s="253"/>
+      <c r="AV1" s="253"/>
+      <c r="AW1" s="253"/>
+      <c r="AX1" s="253"/>
+      <c r="AY1" s="253"/>
+      <c r="AZ1" s="253"/>
+      <c r="BA1" s="253"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22027,7 +22030,7 @@
       <c r="AC2" s="279" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="274" t="s">
+      <c r="AD2" s="282" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22039,26 +22042,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="233"/>
-      <c r="AI2" s="233"/>
-      <c r="AJ2" s="233"/>
-      <c r="AK2" s="233"/>
-      <c r="AL2" s="233"/>
-      <c r="AM2" s="233"/>
-      <c r="AN2" s="233"/>
-      <c r="AO2" s="233"/>
-      <c r="AP2" s="233"/>
-      <c r="AQ2" s="233"/>
-      <c r="AR2" s="233"/>
-      <c r="AS2" s="233"/>
-      <c r="AT2" s="233"/>
-      <c r="AU2" s="233"/>
-      <c r="AV2" s="233"/>
-      <c r="AW2" s="233"/>
-      <c r="AX2" s="233"/>
-      <c r="AY2" s="233"/>
-      <c r="AZ2" s="233"/>
-      <c r="BA2" s="233"/>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="253"/>
+      <c r="AJ2" s="253"/>
+      <c r="AK2" s="253"/>
+      <c r="AL2" s="253"/>
+      <c r="AM2" s="253"/>
+      <c r="AN2" s="253"/>
+      <c r="AO2" s="253"/>
+      <c r="AP2" s="253"/>
+      <c r="AQ2" s="253"/>
+      <c r="AR2" s="253"/>
+      <c r="AS2" s="253"/>
+      <c r="AT2" s="253"/>
+      <c r="AU2" s="253"/>
+      <c r="AV2" s="253"/>
+      <c r="AW2" s="253"/>
+      <c r="AX2" s="253"/>
+      <c r="AY2" s="253"/>
+      <c r="AZ2" s="253"/>
+      <c r="BA2" s="253"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22121,7 +22124,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="280"/>
-      <c r="AD3" s="237"/>
+      <c r="AD3" s="245"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22207,7 +22210,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AC4" s="280"/>
-      <c r="AD4" s="237"/>
+      <c r="AD4" s="245"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22281,7 +22284,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AC5" s="280"/>
-      <c r="AD5" s="237"/>
+      <c r="AD5" s="245"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22342,7 +22345,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="AC6" s="280"/>
-      <c r="AD6" s="237"/>
+      <c r="AD6" s="245"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22408,7 +22411,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="AC7" s="280"/>
-      <c r="AD7" s="237"/>
+      <c r="AD7" s="245"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22471,7 +22474,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="AC8" s="280"/>
-      <c r="AD8" s="237"/>
+      <c r="AD8" s="245"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22534,7 +22537,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="AC9" s="280"/>
-      <c r="AD9" s="237" t="s">
+      <c r="AD9" s="245" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22578,7 +22581,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="AC10" s="280"/>
-      <c r="AD10" s="237"/>
+      <c r="AD10" s="245"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22633,7 +22636,7 @@
         <v>0.14138000000000001</v>
       </c>
       <c r="AC11" s="280"/>
-      <c r="AD11" s="237"/>
+      <c r="AD11" s="245"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22672,7 +22675,7 @@
         <v>0.17241999999999999</v>
       </c>
       <c r="AC12" s="280"/>
-      <c r="AD12" s="237"/>
+      <c r="AD12" s="245"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -22711,7 +22714,7 @@
         <v>0.28339999999999999</v>
       </c>
       <c r="AC13" s="280"/>
-      <c r="AD13" s="237"/>
+      <c r="AD13" s="245"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -22750,7 +22753,7 @@
         <v>0.23977999999999999</v>
       </c>
       <c r="AC14" s="280"/>
-      <c r="AD14" s="237"/>
+      <c r="AD14" s="245"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -22789,7 +22792,7 @@
         <v>0.21498999999999999</v>
       </c>
       <c r="AC15" s="280"/>
-      <c r="AD15" s="237" t="s">
+      <c r="AD15" s="245" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -22827,7 +22830,7 @@
         <v>0.25580999999999998</v>
       </c>
       <c r="AC16" s="280"/>
-      <c r="AD16" s="237"/>
+      <c r="AD16" s="245"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -22866,7 +22869,7 @@
         <v>0.25395000000000001</v>
       </c>
       <c r="AC17" s="280"/>
-      <c r="AD17" s="237"/>
+      <c r="AD17" s="245"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -22905,7 +22908,7 @@
         <v>0.24823999999999999</v>
       </c>
       <c r="AC18" s="280"/>
-      <c r="AD18" s="237"/>
+      <c r="AD18" s="245"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -22925,7 +22928,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="AC19" s="280"/>
-      <c r="AD19" s="237"/>
+      <c r="AD19" s="245"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -22945,7 +22948,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="AC20" s="280"/>
-      <c r="AD20" s="237" t="s">
+      <c r="AD20" s="245" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -22967,7 +22970,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="AC21" s="280"/>
-      <c r="AD21" s="237"/>
+      <c r="AD21" s="245"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -22987,7 +22990,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="AC22" s="280"/>
-      <c r="AD22" s="237"/>
+      <c r="AD22" s="245"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23007,7 +23010,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="AC23" s="280"/>
-      <c r="AD23" s="237" t="s">
+      <c r="AD23" s="245" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23029,7 +23032,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="AC24" s="280"/>
-      <c r="AD24" s="237"/>
+      <c r="AD24" s="245"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23043,7 +23046,7 @@
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
       <c r="AC25" s="281"/>
-      <c r="AD25" s="275"/>
+      <c r="AD25" s="283"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23063,7 +23066,7 @@
       <c r="AC27" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="274" t="s">
+      <c r="AD27" s="282" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23081,7 +23084,7 @@
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
       <c r="AC28" s="280"/>
-      <c r="AD28" s="237"/>
+      <c r="AD28" s="245"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23097,7 +23100,7 @@
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
       <c r="AC29" s="280"/>
-      <c r="AD29" s="237"/>
+      <c r="AD29" s="245"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23110,7 +23113,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AC30" s="280"/>
-      <c r="AD30" s="237"/>
+      <c r="AD30" s="245"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23125,7 +23128,7 @@
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
       <c r="AC31" s="280"/>
-      <c r="AD31" s="237"/>
+      <c r="AD31" s="245"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23138,7 +23141,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="AC32" s="280"/>
-      <c r="AD32" s="237"/>
+      <c r="AD32" s="245"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23152,7 +23155,7 @@
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="AC33" s="280"/>
-      <c r="AD33" s="237"/>
+      <c r="AD33" s="245"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23170,7 +23173,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="AC34" s="280"/>
-      <c r="AD34" s="237" t="s">
+      <c r="AD34" s="245" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23190,7 +23193,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="AC35" s="280"/>
-      <c r="AD35" s="237"/>
+      <c r="AD35" s="245"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23208,7 +23211,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="AC36" s="280"/>
-      <c r="AD36" s="237"/>
+      <c r="AD36" s="245"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23226,7 +23229,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="AC37" s="280"/>
-      <c r="AD37" s="237"/>
+      <c r="AD37" s="245"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23244,7 +23247,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="AC38" s="280"/>
-      <c r="AD38" s="237"/>
+      <c r="AD38" s="245"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23262,7 +23265,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="AC39" s="280"/>
-      <c r="AD39" s="237"/>
+      <c r="AD39" s="245"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23280,7 +23283,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="AC40" s="280"/>
-      <c r="AD40" s="237"/>
+      <c r="AD40" s="245"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23298,7 +23301,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="AC41" s="280"/>
-      <c r="AD41" s="237" t="s">
+      <c r="AD41" s="245" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23318,7 +23321,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="AC42" s="280"/>
-      <c r="AD42" s="237"/>
+      <c r="AD42" s="245"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23336,7 +23339,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="AC43" s="280"/>
-      <c r="AD43" s="237"/>
+      <c r="AD43" s="245"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23354,7 +23357,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="AC44" s="280"/>
-      <c r="AD44" s="237"/>
+      <c r="AD44" s="245"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23372,7 +23375,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="AC45" s="280"/>
-      <c r="AD45" s="237"/>
+      <c r="AD45" s="245"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23390,7 +23393,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="AC46" s="280"/>
-      <c r="AD46" s="237"/>
+      <c r="AD46" s="245"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23408,7 +23411,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="AC47" s="280"/>
-      <c r="AD47" s="237"/>
+      <c r="AD47" s="245"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23426,7 +23429,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="AC48" s="280"/>
-      <c r="AD48" s="237" t="s">
+      <c r="AD48" s="245" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23446,7 +23449,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="AC49" s="280"/>
-      <c r="AD49" s="237"/>
+      <c r="AD49" s="245"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23464,7 +23467,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="AC50" s="280"/>
-      <c r="AD50" s="237"/>
+      <c r="AD50" s="245"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23482,7 +23485,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="AC51" s="280"/>
-      <c r="AD51" s="237" t="s">
+      <c r="AD51" s="245" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23502,7 +23505,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="AC52" s="280"/>
-      <c r="AD52" s="237"/>
+      <c r="AD52" s="245"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23520,7 +23523,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="AC53" s="280"/>
-      <c r="AD53" s="237"/>
+      <c r="AD53" s="245"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23790,11 +23793,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -23811,11 +23814,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23874,7 +23877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -24135,7 +24138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -24178,7 +24181,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="284" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -24561,7 +24564,7 @@
       <c r="F21" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="283">
+      <c r="G21" s="233">
         <v>0.13155</v>
       </c>
     </row>
@@ -24581,7 +24584,7 @@
       <c r="F22" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="283">
+      <c r="G22" s="233">
         <v>0.15756000000000001</v>
       </c>
     </row>
@@ -24601,7 +24604,7 @@
       <c r="F23" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="283">
+      <c r="G23" s="233">
         <v>0.21678</v>
       </c>
     </row>
@@ -24621,7 +24624,7 @@
       <c r="F24" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="283">
+      <c r="G24" s="233">
         <v>0.19139999999999999</v>
       </c>
     </row>
@@ -24641,7 +24644,7 @@
       <c r="F25" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="283">
+      <c r="G25" s="233">
         <v>0.17199</v>
       </c>
     </row>
@@ -24661,7 +24664,7 @@
       <c r="F26" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="283">
+      <c r="G26" s="233">
         <v>0.17602000000000001</v>
       </c>
     </row>
@@ -24681,7 +24684,7 @@
       <c r="F27" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="283">
+      <c r="G27" s="233">
         <v>0.17582999999999999</v>
       </c>
     </row>
@@ -24701,7 +24704,7 @@
       <c r="F28" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="283">
+      <c r="G28" s="233">
         <v>0.1822</v>
       </c>
     </row>
@@ -24721,7 +24724,7 @@
       <c r="F29" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="283">
+      <c r="G29" s="233">
         <v>0.14299000000000001</v>
       </c>
     </row>
@@ -24741,7 +24744,7 @@
       <c r="F30" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="283">
+      <c r="G30" s="233">
         <v>0.18007000000000001</v>
       </c>
     </row>
@@ -24761,7 +24764,7 @@
       <c r="F31" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="283">
+      <c r="G31" s="233">
         <v>0.26436999999999999</v>
       </c>
     </row>
@@ -24781,7 +24784,7 @@
       <c r="F32" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="283">
+      <c r="G32" s="233">
         <v>0.22822999999999999</v>
       </c>
     </row>
@@ -24801,7 +24804,7 @@
       <c r="F33" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="283">
+      <c r="G33" s="233">
         <v>0.21498999999999999</v>
       </c>
     </row>
@@ -24821,7 +24824,7 @@
       <c r="F34" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="283">
+      <c r="G34" s="233">
         <v>0.23469000000000001</v>
       </c>
     </row>
@@ -24841,7 +24844,7 @@
       <c r="F35" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="283">
+      <c r="G35" s="233">
         <v>0.23379</v>
       </c>
     </row>
@@ -24861,7 +24864,7 @@
       <c r="F36" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="283">
+      <c r="G36" s="233">
         <v>0.23157</v>
       </c>
     </row>
@@ -24881,7 +24884,7 @@
       <c r="F37" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="283">
+      <c r="G37" s="233">
         <v>0.15442</v>
       </c>
     </row>
@@ -24901,7 +24904,7 @@
       <c r="F38" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="283">
+      <c r="G38" s="233">
         <v>0.20258000000000001</v>
       </c>
     </row>
@@ -24921,7 +24924,7 @@
       <c r="F39" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="283">
+      <c r="G39" s="233">
         <v>0.31196000000000002</v>
       </c>
     </row>
@@ -24941,7 +24944,7 @@
       <c r="F40" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="283">
+      <c r="G40" s="233">
         <v>0.26506000000000002</v>
       </c>
     </row>
@@ -24961,7 +24964,7 @@
       <c r="F41" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="283">
+      <c r="G41" s="233">
         <v>0.25799</v>
       </c>
     </row>
@@ -24981,7 +24984,7 @@
       <c r="F42" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="283">
+      <c r="G42" s="233">
         <v>0.29336000000000001</v>
       </c>
     </row>
@@ -25001,7 +25004,7 @@
       <c r="F43" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="283">
+      <c r="G43" s="233">
         <v>0.29175000000000001</v>
       </c>
     </row>
@@ -25021,7 +25024,7 @@
       <c r="F44" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="283">
+      <c r="G44" s="233">
         <v>0.28094999999999998</v>
       </c>
     </row>
@@ -25041,7 +25044,7 @@
       <c r="F45" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="283">
+      <c r="G45" s="233">
         <v>0.14138000000000001</v>
       </c>
     </row>
@@ -25061,7 +25064,7 @@
       <c r="F46" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G46" s="283">
+      <c r="G46" s="233">
         <v>0.17241999999999999</v>
       </c>
     </row>
@@ -25081,7 +25084,7 @@
       <c r="F47" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="283">
+      <c r="G47" s="233">
         <v>0.28339999999999999</v>
       </c>
     </row>
@@ -25101,7 +25104,7 @@
       <c r="F48" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="283">
+      <c r="G48" s="233">
         <v>0.23977999999999999</v>
       </c>
     </row>
@@ -25121,7 +25124,7 @@
       <c r="F49" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="283">
+      <c r="G49" s="233">
         <v>0.21498999999999999</v>
       </c>
     </row>
@@ -25141,7 +25144,7 @@
       <c r="F50" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="283">
+      <c r="G50" s="233">
         <v>0.25580999999999998</v>
       </c>
     </row>
@@ -25161,7 +25164,7 @@
       <c r="F51" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="283">
+      <c r="G51" s="233">
         <v>0.25395000000000001</v>
       </c>
     </row>
@@ -25181,7 +25184,7 @@
       <c r="F52" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="283">
+      <c r="G52" s="233">
         <v>0.24823999999999999</v>
       </c>
     </row>
@@ -25199,7 +25202,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25309,7 +25312,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>122</v>
+        <v>1114</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>123</v>
@@ -25460,7 +25463,7 @@
       <c r="A1" s="276" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="247" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25475,7 +25478,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="277"/>
-      <c r="B2" s="240"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25488,7 +25491,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="277"/>
-      <c r="B3" s="240"/>
+      <c r="B3" s="248"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -25501,7 +25504,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="277"/>
-      <c r="B4" s="240"/>
+      <c r="B4" s="248"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -25514,7 +25517,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="277"/>
-      <c r="B5" s="240"/>
+      <c r="B5" s="248"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -25527,7 +25530,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="277"/>
-      <c r="B6" s="240"/>
+      <c r="B6" s="248"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -25540,7 +25543,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="277"/>
-      <c r="B7" s="240"/>
+      <c r="B7" s="248"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -25553,7 +25556,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="277"/>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="248" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -25568,7 +25571,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="277"/>
-      <c r="B9" s="240"/>
+      <c r="B9" s="248"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -25581,7 +25584,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="277"/>
-      <c r="B10" s="240"/>
+      <c r="B10" s="248"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -25594,7 +25597,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="277"/>
-      <c r="B11" s="240"/>
+      <c r="B11" s="248"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -25607,7 +25610,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="277"/>
-      <c r="B12" s="240"/>
+      <c r="B12" s="248"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -25620,7 +25623,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="277"/>
-      <c r="B13" s="240"/>
+      <c r="B13" s="248"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -25633,7 +25636,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="277"/>
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="248" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -25648,7 +25651,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="277"/>
-      <c r="B15" s="240"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -25661,7 +25664,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="277"/>
-      <c r="B16" s="240"/>
+      <c r="B16" s="248"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -25674,7 +25677,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="277"/>
-      <c r="B17" s="240"/>
+      <c r="B17" s="248"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -25687,7 +25690,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="277"/>
-      <c r="B18" s="240"/>
+      <c r="B18" s="248"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -25700,7 +25703,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="277"/>
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="248" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -25715,7 +25718,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="277"/>
-      <c r="B20" s="240"/>
+      <c r="B20" s="248"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -25728,7 +25731,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="277"/>
-      <c r="B21" s="240"/>
+      <c r="B21" s="248"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -25741,7 +25744,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="277"/>
-      <c r="B22" s="240" t="s">
+      <c r="B22" s="248" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -25756,7 +25759,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="277"/>
-      <c r="B23" s="240"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -25769,7 +25772,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="278"/>
-      <c r="B24" s="241"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -25784,7 +25787,7 @@
       <c r="A25" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="239" t="s">
+      <c r="B25" s="247" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -25799,7 +25802,7 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="280"/>
-      <c r="B26" s="240"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -25812,7 +25815,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="280"/>
-      <c r="B27" s="240"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -25825,7 +25828,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="280"/>
-      <c r="B28" s="240"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -25838,7 +25841,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="280"/>
-      <c r="B29" s="240"/>
+      <c r="B29" s="248"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -25851,7 +25854,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="280"/>
-      <c r="B30" s="240"/>
+      <c r="B30" s="248"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -25864,7 +25867,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="280"/>
-      <c r="B31" s="240"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -25877,7 +25880,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="280"/>
-      <c r="B32" s="240" t="s">
+      <c r="B32" s="248" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -25892,7 +25895,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="280"/>
-      <c r="B33" s="240"/>
+      <c r="B33" s="248"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -25905,7 +25908,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="280"/>
-      <c r="B34" s="240"/>
+      <c r="B34" s="248"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -25918,7 +25921,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="280"/>
-      <c r="B35" s="240"/>
+      <c r="B35" s="248"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -25931,7 +25934,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="280"/>
-      <c r="B36" s="240"/>
+      <c r="B36" s="248"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -25944,7 +25947,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="280"/>
-      <c r="B37" s="240"/>
+      <c r="B37" s="248"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -25957,7 +25960,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="280"/>
-      <c r="B38" s="240"/>
+      <c r="B38" s="248"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -25970,7 +25973,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="280"/>
-      <c r="B39" s="240" t="s">
+      <c r="B39" s="248" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -25985,7 +25988,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="280"/>
-      <c r="B40" s="240"/>
+      <c r="B40" s="248"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -25998,7 +26001,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="280"/>
-      <c r="B41" s="240"/>
+      <c r="B41" s="248"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26011,7 +26014,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="280"/>
-      <c r="B42" s="240"/>
+      <c r="B42" s="248"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26024,7 +26027,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="280"/>
-      <c r="B43" s="240"/>
+      <c r="B43" s="248"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26037,7 +26040,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="280"/>
-      <c r="B44" s="240"/>
+      <c r="B44" s="248"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26050,7 +26053,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="280"/>
-      <c r="B45" s="240"/>
+      <c r="B45" s="248"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26063,7 +26066,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="280"/>
-      <c r="B46" s="240" t="s">
+      <c r="B46" s="248" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26078,7 +26081,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="280"/>
-      <c r="B47" s="240"/>
+      <c r="B47" s="248"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -26091,7 +26094,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="280"/>
-      <c r="B48" s="240"/>
+      <c r="B48" s="248"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -26104,7 +26107,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="280"/>
-      <c r="B49" s="240" t="s">
+      <c r="B49" s="248" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -26119,7 +26122,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="280"/>
-      <c r="B50" s="240"/>
+      <c r="B50" s="248"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -26132,7 +26135,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="280"/>
-      <c r="B51" s="240"/>
+      <c r="B51" s="248"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26286,50 +26289,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="234"/>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="234"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="236"/>
-      <c r="AN1" s="233"/>
-      <c r="AO1" s="233"/>
-      <c r="AP1" s="233"/>
-      <c r="AQ1" s="233"/>
-      <c r="AR1" s="233"/>
-      <c r="AS1" s="233"/>
-      <c r="AT1" s="233"/>
-      <c r="AU1" s="233"/>
-      <c r="AV1" s="233"/>
-      <c r="AW1" s="233"/>
-      <c r="AX1" s="233"/>
-      <c r="AY1" s="233"/>
-      <c r="AZ1" s="233"/>
-      <c r="BA1" s="233"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
+      <c r="AD1" s="252"/>
+      <c r="AE1" s="252"/>
+      <c r="AF1" s="252"/>
+      <c r="AG1" s="252"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="252"/>
+      <c r="AJ1" s="252"/>
+      <c r="AK1" s="252"/>
+      <c r="AL1" s="252"/>
+      <c r="AM1" s="252"/>
+      <c r="AN1" s="253"/>
+      <c r="AO1" s="253"/>
+      <c r="AP1" s="253"/>
+      <c r="AQ1" s="253"/>
+      <c r="AR1" s="253"/>
+      <c r="AS1" s="253"/>
+      <c r="AT1" s="253"/>
+      <c r="AU1" s="253"/>
+      <c r="AV1" s="253"/>
+      <c r="AW1" s="253"/>
+      <c r="AX1" s="253"/>
+      <c r="AY1" s="253"/>
+      <c r="AZ1" s="253"/>
+      <c r="BA1" s="253"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="238" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -26366,33 +26369,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="235"/>
-      <c r="AF2" s="235"/>
-      <c r="AG2" s="235"/>
-      <c r="AH2" s="233"/>
-      <c r="AI2" s="233"/>
-      <c r="AJ2" s="233"/>
-      <c r="AK2" s="233"/>
-      <c r="AL2" s="233"/>
-      <c r="AM2" s="233"/>
-      <c r="AN2" s="233"/>
-      <c r="AO2" s="233"/>
-      <c r="AP2" s="233"/>
-      <c r="AQ2" s="233"/>
-      <c r="AR2" s="233"/>
-      <c r="AS2" s="233"/>
-      <c r="AT2" s="233"/>
-      <c r="AU2" s="233"/>
-      <c r="AV2" s="233"/>
-      <c r="AW2" s="233"/>
-      <c r="AX2" s="233"/>
-      <c r="AY2" s="233"/>
-      <c r="AZ2" s="233"/>
-      <c r="BA2" s="233"/>
+      <c r="AD2" s="251"/>
+      <c r="AE2" s="251"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="251"/>
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="253"/>
+      <c r="AJ2" s="253"/>
+      <c r="AK2" s="253"/>
+      <c r="AL2" s="253"/>
+      <c r="AM2" s="253"/>
+      <c r="AN2" s="253"/>
+      <c r="AO2" s="253"/>
+      <c r="AP2" s="253"/>
+      <c r="AQ2" s="253"/>
+      <c r="AR2" s="253"/>
+      <c r="AS2" s="253"/>
+      <c r="AT2" s="253"/>
+      <c r="AU2" s="253"/>
+      <c r="AV2" s="253"/>
+      <c r="AW2" s="253"/>
+      <c r="AX2" s="253"/>
+      <c r="AY2" s="253"/>
+      <c r="AZ2" s="253"/>
+      <c r="BA2" s="253"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="247"/>
+      <c r="A3" s="239"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -26450,7 +26453,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="247"/>
+      <c r="A4" s="239"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -26511,7 +26514,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="248"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -26661,7 +26664,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="238" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -26716,7 +26719,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="247"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -26767,7 +26770,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="247"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -26814,7 +26817,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="247"/>
+      <c r="A11" s="239"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -26838,7 +26841,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="247"/>
+      <c r="A12" s="239"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -26862,7 +26865,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="247"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -26886,7 +26889,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="247"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -26910,7 +26913,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="248"/>
+      <c r="A15" s="240"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -26943,7 +26946,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="243" t="s">
+      <c r="A17" s="235" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -26969,7 +26972,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="244"/>
+      <c r="A18" s="236"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -26993,7 +26996,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="244"/>
+      <c r="A19" s="236"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27017,7 +27020,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="244"/>
+      <c r="A20" s="236"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27041,7 +27044,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="244"/>
+      <c r="A21" s="236"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27065,7 +27068,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="244"/>
+      <c r="A22" s="236"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27089,7 +27092,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="244"/>
+      <c r="A23" s="236"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27113,7 +27116,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="245"/>
+      <c r="A24" s="237"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27157,7 +27160,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="246" t="s">
+      <c r="A27" s="238" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27180,7 +27183,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="247"/>
+      <c r="A28" s="239"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -27201,7 +27204,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="248"/>
+      <c r="A29" s="240"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -27251,10 +27254,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="243" t="s">
+      <c r="A34" s="235" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="239" t="str">
+      <c r="B34" s="247" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -27275,8 +27278,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="244"/>
-      <c r="B35" s="240"/>
+      <c r="A35" s="236"/>
+      <c r="B35" s="248"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -27291,8 +27294,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="244"/>
-      <c r="B36" s="240"/>
+      <c r="A36" s="236"/>
+      <c r="B36" s="248"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -27307,8 +27310,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="244"/>
-      <c r="B37" s="240"/>
+      <c r="A37" s="236"/>
+      <c r="B37" s="248"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -27323,8 +27326,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="244"/>
-      <c r="B38" s="240"/>
+      <c r="A38" s="236"/>
+      <c r="B38" s="248"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -27339,8 +27342,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="244"/>
-      <c r="B39" s="240"/>
+      <c r="A39" s="236"/>
+      <c r="B39" s="248"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -27352,8 +27355,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="244"/>
-      <c r="B40" s="240"/>
+      <c r="A40" s="236"/>
+      <c r="B40" s="248"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -27365,8 +27368,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="244"/>
-      <c r="B41" s="240" t="str">
+      <c r="A41" s="236"/>
+      <c r="B41" s="248" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -27381,8 +27384,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="244"/>
-      <c r="B42" s="240"/>
+      <c r="A42" s="236"/>
+      <c r="B42" s="248"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -27394,8 +27397,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="244"/>
-      <c r="B43" s="240"/>
+      <c r="A43" s="236"/>
+      <c r="B43" s="248"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -27407,8 +27410,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="244"/>
-      <c r="B44" s="240"/>
+      <c r="A44" s="236"/>
+      <c r="B44" s="248"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -27420,8 +27423,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="244"/>
-      <c r="B45" s="240"/>
+      <c r="A45" s="236"/>
+      <c r="B45" s="248"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -27433,8 +27436,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="244"/>
-      <c r="B46" s="240"/>
+      <c r="A46" s="236"/>
+      <c r="B46" s="248"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -27446,8 +27449,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="244"/>
-      <c r="B47" s="240" t="str">
+      <c r="A47" s="236"/>
+      <c r="B47" s="248" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -27462,8 +27465,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="244"/>
-      <c r="B48" s="240"/>
+      <c r="A48" s="236"/>
+      <c r="B48" s="248"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -27475,8 +27478,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="244"/>
-      <c r="B49" s="240"/>
+      <c r="A49" s="236"/>
+      <c r="B49" s="248"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -27488,8 +27491,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="244"/>
-      <c r="B50" s="240"/>
+      <c r="A50" s="236"/>
+      <c r="B50" s="248"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -27501,8 +27504,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="244"/>
-      <c r="B51" s="240"/>
+      <c r="A51" s="236"/>
+      <c r="B51" s="248"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27514,8 +27517,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="244"/>
-      <c r="B52" s="240" t="str">
+      <c r="A52" s="236"/>
+      <c r="B52" s="248" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -27530,8 +27533,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="244"/>
-      <c r="B53" s="240"/>
+      <c r="A53" s="236"/>
+      <c r="B53" s="248"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -27543,8 +27546,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="244"/>
-      <c r="B54" s="240"/>
+      <c r="A54" s="236"/>
+      <c r="B54" s="248"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -27556,8 +27559,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="244"/>
-      <c r="B55" s="240" t="str">
+      <c r="A55" s="236"/>
+      <c r="B55" s="248" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -27572,8 +27575,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="244"/>
-      <c r="B56" s="240"/>
+      <c r="A56" s="236"/>
+      <c r="B56" s="248"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -27585,8 +27588,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="245"/>
-      <c r="B57" s="241"/>
+      <c r="A57" s="237"/>
+      <c r="B57" s="249"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -27601,10 +27604,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="249" t="s">
+      <c r="A59" s="241" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="242" t="s">
+      <c r="B59" s="250" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -27621,8 +27624,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="250"/>
-      <c r="B60" s="237"/>
+      <c r="A60" s="242"/>
+      <c r="B60" s="245"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -27640,8 +27643,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="250"/>
-      <c r="B61" s="237"/>
+      <c r="A61" s="242"/>
+      <c r="B61" s="245"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -27656,8 +27659,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="250"/>
-      <c r="B62" s="237"/>
+      <c r="A62" s="242"/>
+      <c r="B62" s="245"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -27672,8 +27675,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="250"/>
-      <c r="B63" s="237"/>
+      <c r="A63" s="242"/>
+      <c r="B63" s="245"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -27688,8 +27691,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="250"/>
-      <c r="B64" s="237"/>
+      <c r="A64" s="242"/>
+      <c r="B64" s="245"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -27704,8 +27707,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="250"/>
-      <c r="B65" s="237"/>
+      <c r="A65" s="242"/>
+      <c r="B65" s="245"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -27718,8 +27721,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="250"/>
-      <c r="B66" s="237" t="str">
+      <c r="A66" s="242"/>
+      <c r="B66" s="245" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -27735,8 +27738,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="250"/>
-      <c r="B67" s="237"/>
+      <c r="A67" s="242"/>
+      <c r="B67" s="245"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -27748,8 +27751,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="250"/>
-      <c r="B68" s="237"/>
+      <c r="A68" s="242"/>
+      <c r="B68" s="245"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -27761,8 +27764,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="250"/>
-      <c r="B69" s="237"/>
+      <c r="A69" s="242"/>
+      <c r="B69" s="245"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -27774,8 +27777,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="250"/>
-      <c r="B70" s="237"/>
+      <c r="A70" s="242"/>
+      <c r="B70" s="245"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -27787,8 +27790,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="250"/>
-      <c r="B71" s="237"/>
+      <c r="A71" s="242"/>
+      <c r="B71" s="245"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -27800,8 +27803,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="250"/>
-      <c r="B72" s="237"/>
+      <c r="A72" s="242"/>
+      <c r="B72" s="245"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -27813,8 +27816,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="250"/>
-      <c r="B73" s="237" t="str">
+      <c r="A73" s="242"/>
+      <c r="B73" s="245" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -27829,8 +27832,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="250"/>
-      <c r="B74" s="237"/>
+      <c r="A74" s="242"/>
+      <c r="B74" s="245"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -27842,8 +27845,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="250"/>
-      <c r="B75" s="237"/>
+      <c r="A75" s="242"/>
+      <c r="B75" s="245"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -27855,8 +27858,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="250"/>
-      <c r="B76" s="237"/>
+      <c r="A76" s="242"/>
+      <c r="B76" s="245"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -27868,8 +27871,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="250"/>
-      <c r="B77" s="237"/>
+      <c r="A77" s="242"/>
+      <c r="B77" s="245"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -27881,8 +27884,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="250"/>
-      <c r="B78" s="237"/>
+      <c r="A78" s="242"/>
+      <c r="B78" s="245"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -27894,8 +27897,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="250"/>
-      <c r="B79" s="237"/>
+      <c r="A79" s="242"/>
+      <c r="B79" s="245"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -27907,8 +27910,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="250"/>
-      <c r="B80" s="237" t="str">
+      <c r="A80" s="242"/>
+      <c r="B80" s="245" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -27923,8 +27926,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="250"/>
-      <c r="B81" s="237"/>
+      <c r="A81" s="242"/>
+      <c r="B81" s="245"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -27936,8 +27939,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="250"/>
-      <c r="B82" s="237"/>
+      <c r="A82" s="242"/>
+      <c r="B82" s="245"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -27949,8 +27952,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="250"/>
-      <c r="B83" s="237" t="str">
+      <c r="A83" s="242"/>
+      <c r="B83" s="245" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -27965,8 +27968,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="250"/>
-      <c r="B84" s="237"/>
+      <c r="A84" s="242"/>
+      <c r="B84" s="245"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -27978,8 +27981,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="251"/>
-      <c r="B85" s="238"/>
+      <c r="A85" s="243"/>
+      <c r="B85" s="246"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28006,13 +28009,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28025,21 +28036,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28136,7 +28139,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="253"/>
+      <c r="C2" s="255"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -28145,7 +28148,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="253"/>
+      <c r="C3" s="255"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -28154,7 +28157,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="253"/>
+      <c r="C4" s="255"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -28163,7 +28166,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="253"/>
+      <c r="C5" s="255"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -28172,7 +28175,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="253"/>
+      <c r="C6" s="255"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -28181,7 +28184,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="253"/>
+      <c r="C7" s="255"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -28190,7 +28193,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="253"/>
+      <c r="C8" s="255"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -28199,7 +28202,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="253"/>
+      <c r="C9" s="255"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -28208,7 +28211,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="253"/>
+      <c r="C10" s="255"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -28217,7 +28220,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="253"/>
+      <c r="C11" s="255"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -28226,112 +28229,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="253"/>
+      <c r="C12" s="255"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="253"/>
+      <c r="C13" s="255"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="253"/>
+      <c r="C14" s="255"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="253"/>
+      <c r="C15" s="255"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="253"/>
+      <c r="C16" s="255"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="253"/>
+      <c r="C17" s="255"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="253"/>
+      <c r="C18" s="255"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="253"/>
+      <c r="C19" s="255"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="253"/>
+      <c r="C20" s="255"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="253"/>
+      <c r="C21" s="255"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="253"/>
+      <c r="C22" s="255"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="254"/>
+      <c r="C23" s="256"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="254"/>
+      <c r="C24" s="256"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="254"/>
+      <c r="C25" s="256"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="254"/>
+      <c r="C26" s="256"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="254"/>
+      <c r="C27" s="256"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="254"/>
+      <c r="C28" s="256"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="252"/>
+      <c r="C29" s="254"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="252"/>
+      <c r="C30" s="254"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="252"/>
+      <c r="C31" s="254"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="252"/>
+      <c r="C32" s="254"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="252"/>
+      <c r="C33" s="254"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -28404,13 +28407,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="255"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="257"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -28419,79 +28422,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="255"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="257"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="255"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="262"/>
+      <c r="I4" s="257"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="255"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="255"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="257"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="255"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="257"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="255"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="257"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="255"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="257"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -28758,11 +28761,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28987,20 +28991,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29025,9 +29026,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4DE8B4-F082-4F91-B5D1-84B3E6E61777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707513F3-AC13-46B9-8F8B-1F19382BDD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="19" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="22" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1121">
   <si>
     <t>Country</t>
   </si>
@@ -3573,7 +3573,25 @@
     <t>Manufacture</t>
   </si>
   <si>
-    <t>International with RF&lt;1500km</t>
+    <t>International with RF</t>
+  </si>
+  <si>
+    <t>International witout RF</t>
+  </si>
+  <si>
+    <t>Belly Freight Flights&lt;1500km</t>
+  </si>
+  <si>
+    <t>Belly Freight Flights&gt;1500km</t>
+  </si>
+  <si>
+    <t>Freighter&lt;1500km</t>
+  </si>
+  <si>
+    <t>Freighter&gt;1500km</t>
+  </si>
+  <si>
+    <t>Rail(Freight Train)</t>
   </si>
 </sst>
 </file>
@@ -3923,7 +3941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -4780,13 +4798,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5414,6 +5523,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5440,36 +5579,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5525,6 +5634,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5543,14 +5658,46 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21942,20 +22089,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="253"/>
-      <c r="AO1" s="253"/>
-      <c r="AP1" s="253"/>
-      <c r="AQ1" s="253"/>
-      <c r="AR1" s="253"/>
-      <c r="AS1" s="253"/>
-      <c r="AT1" s="253"/>
-      <c r="AU1" s="253"/>
-      <c r="AV1" s="253"/>
-      <c r="AW1" s="253"/>
-      <c r="AX1" s="253"/>
-      <c r="AY1" s="253"/>
-      <c r="AZ1" s="253"/>
-      <c r="BA1" s="253"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="235"/>
+      <c r="AQ1" s="235"/>
+      <c r="AR1" s="235"/>
+      <c r="AS1" s="235"/>
+      <c r="AT1" s="235"/>
+      <c r="AU1" s="235"/>
+      <c r="AV1" s="235"/>
+      <c r="AW1" s="235"/>
+      <c r="AX1" s="235"/>
+      <c r="AY1" s="235"/>
+      <c r="AZ1" s="235"/>
+      <c r="BA1" s="235"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -21974,7 +22121,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="276" t="s">
+      <c r="H2" s="278" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -21996,7 +22143,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="276" t="s">
+      <c r="P2" s="278" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22027,10 +22174,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="279" t="s">
+      <c r="AC2" s="281" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="282" t="s">
+      <c r="AD2" s="276" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22042,26 +22189,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="253"/>
-      <c r="AJ2" s="253"/>
-      <c r="AK2" s="253"/>
-      <c r="AL2" s="253"/>
-      <c r="AM2" s="253"/>
-      <c r="AN2" s="253"/>
-      <c r="AO2" s="253"/>
-      <c r="AP2" s="253"/>
-      <c r="AQ2" s="253"/>
-      <c r="AR2" s="253"/>
-      <c r="AS2" s="253"/>
-      <c r="AT2" s="253"/>
-      <c r="AU2" s="253"/>
-      <c r="AV2" s="253"/>
-      <c r="AW2" s="253"/>
-      <c r="AX2" s="253"/>
-      <c r="AY2" s="253"/>
-      <c r="AZ2" s="253"/>
-      <c r="BA2" s="253"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="235"/>
+      <c r="AJ2" s="235"/>
+      <c r="AK2" s="235"/>
+      <c r="AL2" s="235"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="235"/>
+      <c r="AT2" s="235"/>
+      <c r="AU2" s="235"/>
+      <c r="AV2" s="235"/>
+      <c r="AW2" s="235"/>
+      <c r="AX2" s="235"/>
+      <c r="AY2" s="235"/>
+      <c r="AZ2" s="235"/>
+      <c r="BA2" s="235"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22082,7 +22229,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="277"/>
+      <c r="H3" s="279"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22102,7 +22249,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="277"/>
+      <c r="P3" s="279"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22123,8 +22270,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="280"/>
-      <c r="AD3" s="245"/>
+      <c r="AC3" s="282"/>
+      <c r="AD3" s="239"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22169,7 +22316,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="277"/>
+      <c r="H4" s="279"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22189,7 +22336,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="278"/>
+      <c r="P4" s="280"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22209,8 +22356,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="280"/>
-      <c r="AD4" s="245"/>
+      <c r="AC4" s="282"/>
+      <c r="AD4" s="239"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22258,7 +22405,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="277"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22283,8 +22430,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="280"/>
-      <c r="AD5" s="245"/>
+      <c r="AC5" s="282"/>
+      <c r="AD5" s="239"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22317,7 +22464,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="277"/>
+      <c r="H6" s="279"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22344,8 +22491,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="245"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="239"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22383,7 +22530,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="277"/>
+      <c r="H7" s="279"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22410,8 +22557,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="280"/>
-      <c r="AD7" s="245"/>
+      <c r="AC7" s="282"/>
+      <c r="AD7" s="239"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22446,7 +22593,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="277"/>
+      <c r="H8" s="279"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22473,8 +22620,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="280"/>
-      <c r="AD8" s="245"/>
+      <c r="AC8" s="282"/>
+      <c r="AD8" s="239"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22509,7 +22656,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="278"/>
+      <c r="H9" s="280"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22536,8 +22683,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="280"/>
-      <c r="AD9" s="245" t="s">
+      <c r="AC9" s="282"/>
+      <c r="AD9" s="239" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22580,8 +22727,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="280"/>
-      <c r="AD10" s="245"/>
+      <c r="AC10" s="282"/>
+      <c r="AD10" s="239"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22614,7 +22761,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="279" t="s">
+      <c r="H11" s="281" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22635,8 +22782,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="280"/>
-      <c r="AD11" s="245"/>
+      <c r="AC11" s="282"/>
+      <c r="AD11" s="239"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22655,7 +22802,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="280"/>
+      <c r="H12" s="282"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22674,8 +22821,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="280"/>
-      <c r="AD12" s="245"/>
+      <c r="AC12" s="282"/>
+      <c r="AD12" s="239"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -22694,7 +22841,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="280"/>
+      <c r="H13" s="282"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -22713,8 +22860,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="280"/>
-      <c r="AD13" s="245"/>
+      <c r="AC13" s="282"/>
+      <c r="AD13" s="239"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -22733,7 +22880,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="280"/>
+      <c r="H14" s="282"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -22752,8 +22899,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="280"/>
-      <c r="AD14" s="245"/>
+      <c r="AC14" s="282"/>
+      <c r="AD14" s="239"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -22772,7 +22919,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="280"/>
+      <c r="H15" s="282"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -22791,8 +22938,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="280"/>
-      <c r="AD15" s="245" t="s">
+      <c r="AC15" s="282"/>
+      <c r="AD15" s="239" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -22810,7 +22957,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="280"/>
+      <c r="H16" s="282"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -22829,8 +22976,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="280"/>
-      <c r="AD16" s="245"/>
+      <c r="AC16" s="282"/>
+      <c r="AD16" s="239"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -22849,7 +22996,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="280"/>
+      <c r="H17" s="282"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -22868,8 +23015,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="280"/>
-      <c r="AD17" s="245"/>
+      <c r="AC17" s="282"/>
+      <c r="AD17" s="239"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -22888,7 +23035,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="281"/>
+      <c r="H18" s="283"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -22907,8 +23054,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="280"/>
-      <c r="AD18" s="245"/>
+      <c r="AC18" s="282"/>
+      <c r="AD18" s="239"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -22927,8 +23074,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="280"/>
-      <c r="AD19" s="245"/>
+      <c r="AC19" s="282"/>
+      <c r="AD19" s="239"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -22947,8 +23094,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="280"/>
-      <c r="AD20" s="245" t="s">
+      <c r="AC20" s="282"/>
+      <c r="AD20" s="239" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -22969,8 +23116,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="280"/>
-      <c r="AD21" s="245"/>
+      <c r="AC21" s="282"/>
+      <c r="AD21" s="239"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -22989,8 +23136,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="280"/>
-      <c r="AD22" s="245"/>
+      <c r="AC22" s="282"/>
+      <c r="AD22" s="239"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23009,8 +23156,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="280"/>
-      <c r="AD23" s="245" t="s">
+      <c r="AC23" s="282"/>
+      <c r="AD23" s="239" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23031,8 +23178,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="280"/>
-      <c r="AD24" s="245"/>
+      <c r="AC24" s="282"/>
+      <c r="AD24" s="239"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23045,8 +23192,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="281"/>
-      <c r="AD25" s="283"/>
+      <c r="AC25" s="283"/>
+      <c r="AD25" s="277"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23063,10 +23210,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="279" t="s">
+      <c r="AC27" s="281" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="282" t="s">
+      <c r="AD27" s="276" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23083,8 +23230,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="280"/>
-      <c r="AD28" s="245"/>
+      <c r="AC28" s="282"/>
+      <c r="AD28" s="239"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23099,8 +23246,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="280"/>
-      <c r="AD29" s="245"/>
+      <c r="AC29" s="282"/>
+      <c r="AD29" s="239"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23112,8 +23259,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="280"/>
-      <c r="AD30" s="245"/>
+      <c r="AC30" s="282"/>
+      <c r="AD30" s="239"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23127,8 +23274,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="280"/>
-      <c r="AD31" s="245"/>
+      <c r="AC31" s="282"/>
+      <c r="AD31" s="239"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23140,8 +23287,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="280"/>
-      <c r="AD32" s="245"/>
+      <c r="AC32" s="282"/>
+      <c r="AD32" s="239"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23154,8 +23301,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="280"/>
-      <c r="AD33" s="245"/>
+      <c r="AC33" s="282"/>
+      <c r="AD33" s="239"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23172,8 +23319,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="280"/>
-      <c r="AD34" s="245" t="s">
+      <c r="AC34" s="282"/>
+      <c r="AD34" s="239" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23192,8 +23339,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="280"/>
-      <c r="AD35" s="245"/>
+      <c r="AC35" s="282"/>
+      <c r="AD35" s="239"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23210,8 +23357,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="280"/>
-      <c r="AD36" s="245"/>
+      <c r="AC36" s="282"/>
+      <c r="AD36" s="239"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23228,8 +23375,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="280"/>
-      <c r="AD37" s="245"/>
+      <c r="AC37" s="282"/>
+      <c r="AD37" s="239"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23246,8 +23393,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="280"/>
-      <c r="AD38" s="245"/>
+      <c r="AC38" s="282"/>
+      <c r="AD38" s="239"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23264,8 +23411,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="280"/>
-      <c r="AD39" s="245"/>
+      <c r="AC39" s="282"/>
+      <c r="AD39" s="239"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23282,8 +23429,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="280"/>
-      <c r="AD40" s="245"/>
+      <c r="AC40" s="282"/>
+      <c r="AD40" s="239"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23300,8 +23447,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="280"/>
-      <c r="AD41" s="245" t="s">
+      <c r="AC41" s="282"/>
+      <c r="AD41" s="239" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23320,8 +23467,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="280"/>
-      <c r="AD42" s="245"/>
+      <c r="AC42" s="282"/>
+      <c r="AD42" s="239"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23338,8 +23485,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="280"/>
-      <c r="AD43" s="245"/>
+      <c r="AC43" s="282"/>
+      <c r="AD43" s="239"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23356,8 +23503,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="280"/>
-      <c r="AD44" s="245"/>
+      <c r="AC44" s="282"/>
+      <c r="AD44" s="239"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23374,8 +23521,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="280"/>
-      <c r="AD45" s="245"/>
+      <c r="AC45" s="282"/>
+      <c r="AD45" s="239"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23392,8 +23539,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="280"/>
-      <c r="AD46" s="245"/>
+      <c r="AC46" s="282"/>
+      <c r="AD46" s="239"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23410,8 +23557,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="280"/>
-      <c r="AD47" s="245"/>
+      <c r="AC47" s="282"/>
+      <c r="AD47" s="239"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23428,8 +23575,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="280"/>
-      <c r="AD48" s="245" t="s">
+      <c r="AC48" s="282"/>
+      <c r="AD48" s="239" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23448,8 +23595,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="280"/>
-      <c r="AD49" s="245"/>
+      <c r="AC49" s="282"/>
+      <c r="AD49" s="239"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23466,8 +23613,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="280"/>
-      <c r="AD50" s="245"/>
+      <c r="AC50" s="282"/>
+      <c r="AD50" s="239"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23484,8 +23631,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="280"/>
-      <c r="AD51" s="245" t="s">
+      <c r="AC51" s="282"/>
+      <c r="AD51" s="239" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23504,8 +23651,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="280"/>
-      <c r="AD52" s="245"/>
+      <c r="AC52" s="282"/>
+      <c r="AD52" s="239"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23522,8 +23669,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="280"/>
-      <c r="AD53" s="245"/>
+      <c r="AC53" s="282"/>
+      <c r="AD53" s="239"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23540,7 +23687,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="280"/>
+      <c r="AC54" s="282"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23560,7 +23707,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="281"/>
+      <c r="AC55" s="283"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -23793,11 +23940,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -23814,11 +23961,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23877,7 +24024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -24138,8 +24285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24204,7 +24351,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="277"/>
+      <c r="A3" s="279"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24225,7 +24372,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="277"/>
+      <c r="A4" s="279"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24246,7 +24393,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="277"/>
+      <c r="A5" s="279"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24267,7 +24414,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="277"/>
+      <c r="A6" s="279"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24288,7 +24435,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="277"/>
+      <c r="A7" s="279"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24309,7 +24456,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="277"/>
+      <c r="A8" s="279"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24330,7 +24477,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="278"/>
+      <c r="A9" s="280"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24351,7 +24498,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="276" t="s">
+      <c r="A10" s="278" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24374,7 +24521,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="277"/>
+      <c r="A11" s="279"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24395,7 +24542,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="277"/>
+      <c r="A12" s="279"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24416,7 +24563,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="277"/>
+      <c r="A13" s="279"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24437,7 +24584,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="277"/>
+      <c r="A14" s="279"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24458,7 +24605,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="277"/>
+      <c r="A15" s="279"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24479,7 +24626,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="277"/>
+      <c r="A16" s="279"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24500,7 +24647,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="278"/>
+      <c r="A17" s="280"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25199,22 +25346,22 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -25238,7 +25385,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="278" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25257,7 +25404,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="277"/>
+      <c r="A3" s="279"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25274,7 +25421,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="278"/>
+      <c r="A4" s="280"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25291,70 +25438,79 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="291" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="288" t="s">
         <v>1114</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="296" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="107">
         <v>0.13516</v>
       </c>
-      <c r="D10" s="8">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="289" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B11" s="297" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="286">
         <v>0.13516</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="289" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B12" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="5">
+      <c r="C12" s="286">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F11" s="16">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="289" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B13" s="297" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="286">
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="12" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="289" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B14" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="12">
+      <c r="C14" s="286">
         <v>0.315</v>
       </c>
-      <c r="F12" s="17">
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="290" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B15" s="298" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="287">
         <v>0.13100000000000001</v>
       </c>
     </row>
@@ -25368,10 +25524,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25410,33 +25566,32 @@
         <v>6.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86" t="s">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="85" t="s">
+      <c r="B6" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="C6" s="285" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="295" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B7" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="27">
+      <c r="C7" s="294">
         <v>6.9100000000000003E-3</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="291"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25460,10 +25615,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="278" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="241" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25477,8 +25632,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="277"/>
-      <c r="B2" s="248"/>
+      <c r="A2" s="279"/>
+      <c r="B2" s="242"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25490,8 +25645,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="277"/>
-      <c r="B3" s="248"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="242"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -25503,8 +25658,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="277"/>
-      <c r="B4" s="248"/>
+      <c r="A4" s="279"/>
+      <c r="B4" s="242"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -25516,8 +25671,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="277"/>
-      <c r="B5" s="248"/>
+      <c r="A5" s="279"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -25529,8 +25684,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="277"/>
-      <c r="B6" s="248"/>
+      <c r="A6" s="279"/>
+      <c r="B6" s="242"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -25542,8 +25697,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="277"/>
-      <c r="B7" s="248"/>
+      <c r="A7" s="279"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -25555,8 +25710,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="277"/>
-      <c r="B8" s="248" t="s">
+      <c r="A8" s="279"/>
+      <c r="B8" s="242" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -25570,8 +25725,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="277"/>
-      <c r="B9" s="248"/>
+      <c r="A9" s="279"/>
+      <c r="B9" s="242"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -25583,8 +25738,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="277"/>
-      <c r="B10" s="248"/>
+      <c r="A10" s="279"/>
+      <c r="B10" s="242"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -25596,8 +25751,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="277"/>
-      <c r="B11" s="248"/>
+      <c r="A11" s="279"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -25609,8 +25764,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="277"/>
-      <c r="B12" s="248"/>
+      <c r="A12" s="279"/>
+      <c r="B12" s="242"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -25622,8 +25777,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="277"/>
-      <c r="B13" s="248"/>
+      <c r="A13" s="279"/>
+      <c r="B13" s="242"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -25635,8 +25790,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="277"/>
-      <c r="B14" s="248" t="s">
+      <c r="A14" s="279"/>
+      <c r="B14" s="242" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -25650,8 +25805,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="277"/>
-      <c r="B15" s="248"/>
+      <c r="A15" s="279"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -25663,8 +25818,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="277"/>
-      <c r="B16" s="248"/>
+      <c r="A16" s="279"/>
+      <c r="B16" s="242"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -25676,8 +25831,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="277"/>
-      <c r="B17" s="248"/>
+      <c r="A17" s="279"/>
+      <c r="B17" s="242"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -25689,8 +25844,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="277"/>
-      <c r="B18" s="248"/>
+      <c r="A18" s="279"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -25702,8 +25857,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="277"/>
-      <c r="B19" s="248" t="s">
+      <c r="A19" s="279"/>
+      <c r="B19" s="242" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -25717,8 +25872,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="277"/>
-      <c r="B20" s="248"/>
+      <c r="A20" s="279"/>
+      <c r="B20" s="242"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -25730,8 +25885,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="277"/>
-      <c r="B21" s="248"/>
+      <c r="A21" s="279"/>
+      <c r="B21" s="242"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -25743,8 +25898,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="277"/>
-      <c r="B22" s="248" t="s">
+      <c r="A22" s="279"/>
+      <c r="B22" s="242" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -25758,8 +25913,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="277"/>
-      <c r="B23" s="248"/>
+      <c r="A23" s="279"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -25771,8 +25926,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="278"/>
-      <c r="B24" s="249"/>
+      <c r="A24" s="280"/>
+      <c r="B24" s="243"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -25784,10 +25939,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="279" t="s">
+      <c r="A25" s="281" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="247" t="s">
+      <c r="B25" s="241" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -25801,8 +25956,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="280"/>
-      <c r="B26" s="248"/>
+      <c r="A26" s="282"/>
+      <c r="B26" s="242"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -25814,8 +25969,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="280"/>
-      <c r="B27" s="248"/>
+      <c r="A27" s="282"/>
+      <c r="B27" s="242"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -25827,8 +25982,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="280"/>
-      <c r="B28" s="248"/>
+      <c r="A28" s="282"/>
+      <c r="B28" s="242"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -25840,8 +25995,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="280"/>
-      <c r="B29" s="248"/>
+      <c r="A29" s="282"/>
+      <c r="B29" s="242"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -25853,8 +26008,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="280"/>
-      <c r="B30" s="248"/>
+      <c r="A30" s="282"/>
+      <c r="B30" s="242"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -25866,8 +26021,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="280"/>
-      <c r="B31" s="248"/>
+      <c r="A31" s="282"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -25879,8 +26034,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="280"/>
-      <c r="B32" s="248" t="s">
+      <c r="A32" s="282"/>
+      <c r="B32" s="242" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -25894,8 +26049,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="280"/>
-      <c r="B33" s="248"/>
+      <c r="A33" s="282"/>
+      <c r="B33" s="242"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -25907,8 +26062,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="280"/>
-      <c r="B34" s="248"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="242"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -25920,8 +26075,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="280"/>
-      <c r="B35" s="248"/>
+      <c r="A35" s="282"/>
+      <c r="B35" s="242"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -25933,8 +26088,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="280"/>
-      <c r="B36" s="248"/>
+      <c r="A36" s="282"/>
+      <c r="B36" s="242"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -25946,8 +26101,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="280"/>
-      <c r="B37" s="248"/>
+      <c r="A37" s="282"/>
+      <c r="B37" s="242"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -25959,8 +26114,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="280"/>
-      <c r="B38" s="248"/>
+      <c r="A38" s="282"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -25972,8 +26127,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="280"/>
-      <c r="B39" s="248" t="s">
+      <c r="A39" s="282"/>
+      <c r="B39" s="242" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -25987,8 +26142,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="280"/>
-      <c r="B40" s="248"/>
+      <c r="A40" s="282"/>
+      <c r="B40" s="242"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26000,8 +26155,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="280"/>
-      <c r="B41" s="248"/>
+      <c r="A41" s="282"/>
+      <c r="B41" s="242"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26013,8 +26168,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="280"/>
-      <c r="B42" s="248"/>
+      <c r="A42" s="282"/>
+      <c r="B42" s="242"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26026,8 +26181,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="280"/>
-      <c r="B43" s="248"/>
+      <c r="A43" s="282"/>
+      <c r="B43" s="242"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26039,8 +26194,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="280"/>
-      <c r="B44" s="248"/>
+      <c r="A44" s="282"/>
+      <c r="B44" s="242"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26052,8 +26207,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="280"/>
-      <c r="B45" s="248"/>
+      <c r="A45" s="282"/>
+      <c r="B45" s="242"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26065,8 +26220,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="280"/>
-      <c r="B46" s="248" t="s">
+      <c r="A46" s="282"/>
+      <c r="B46" s="242" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26080,8 +26235,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="280"/>
-      <c r="B47" s="248"/>
+      <c r="A47" s="282"/>
+      <c r="B47" s="242"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -26093,8 +26248,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="280"/>
-      <c r="B48" s="248"/>
+      <c r="A48" s="282"/>
+      <c r="B48" s="242"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -26106,8 +26261,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="280"/>
-      <c r="B49" s="248" t="s">
+      <c r="A49" s="282"/>
+      <c r="B49" s="242" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -26121,8 +26276,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="280"/>
-      <c r="B50" s="248"/>
+      <c r="A50" s="282"/>
+      <c r="B50" s="242"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -26134,8 +26289,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="280"/>
-      <c r="B51" s="248"/>
+      <c r="A51" s="282"/>
+      <c r="B51" s="242"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26147,7 +26302,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="280"/>
+      <c r="A52" s="282"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -26162,7 +26317,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="281"/>
+      <c r="A53" s="283"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -26289,50 +26444,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="244"/>
-      <c r="AA1" s="244"/>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="244"/>
-      <c r="AD1" s="252"/>
-      <c r="AE1" s="252"/>
-      <c r="AF1" s="252"/>
-      <c r="AG1" s="252"/>
-      <c r="AH1" s="252"/>
-      <c r="AI1" s="252"/>
-      <c r="AJ1" s="252"/>
-      <c r="AK1" s="252"/>
-      <c r="AL1" s="252"/>
-      <c r="AM1" s="252"/>
-      <c r="AN1" s="253"/>
-      <c r="AO1" s="253"/>
-      <c r="AP1" s="253"/>
-      <c r="AQ1" s="253"/>
-      <c r="AR1" s="253"/>
-      <c r="AS1" s="253"/>
-      <c r="AT1" s="253"/>
-      <c r="AU1" s="253"/>
-      <c r="AV1" s="253"/>
-      <c r="AW1" s="253"/>
-      <c r="AX1" s="253"/>
-      <c r="AY1" s="253"/>
-      <c r="AZ1" s="253"/>
-      <c r="BA1" s="253"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="238"/>
+      <c r="AM1" s="238"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="235"/>
+      <c r="AQ1" s="235"/>
+      <c r="AR1" s="235"/>
+      <c r="AS1" s="235"/>
+      <c r="AT1" s="235"/>
+      <c r="AU1" s="235"/>
+      <c r="AV1" s="235"/>
+      <c r="AW1" s="235"/>
+      <c r="AX1" s="235"/>
+      <c r="AY1" s="235"/>
+      <c r="AZ1" s="235"/>
+      <c r="BA1" s="235"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="248" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -26369,33 +26524,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="251"/>
-      <c r="AE2" s="251"/>
-      <c r="AF2" s="251"/>
-      <c r="AG2" s="251"/>
-      <c r="AH2" s="253"/>
-      <c r="AI2" s="253"/>
-      <c r="AJ2" s="253"/>
-      <c r="AK2" s="253"/>
-      <c r="AL2" s="253"/>
-      <c r="AM2" s="253"/>
-      <c r="AN2" s="253"/>
-      <c r="AO2" s="253"/>
-      <c r="AP2" s="253"/>
-      <c r="AQ2" s="253"/>
-      <c r="AR2" s="253"/>
-      <c r="AS2" s="253"/>
-      <c r="AT2" s="253"/>
-      <c r="AU2" s="253"/>
-      <c r="AV2" s="253"/>
-      <c r="AW2" s="253"/>
-      <c r="AX2" s="253"/>
-      <c r="AY2" s="253"/>
-      <c r="AZ2" s="253"/>
-      <c r="BA2" s="253"/>
+      <c r="AD2" s="237"/>
+      <c r="AE2" s="237"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="237"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="235"/>
+      <c r="AJ2" s="235"/>
+      <c r="AK2" s="235"/>
+      <c r="AL2" s="235"/>
+      <c r="AM2" s="235"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="235"/>
+      <c r="AT2" s="235"/>
+      <c r="AU2" s="235"/>
+      <c r="AV2" s="235"/>
+      <c r="AW2" s="235"/>
+      <c r="AX2" s="235"/>
+      <c r="AY2" s="235"/>
+      <c r="AZ2" s="235"/>
+      <c r="BA2" s="235"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="239"/>
+      <c r="A3" s="249"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -26453,7 +26608,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="239"/>
+      <c r="A4" s="249"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -26514,7 +26669,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="240"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -26664,7 +26819,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="238" t="s">
+      <c r="A8" s="248" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -26719,7 +26874,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
+      <c r="A9" s="249"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -26770,7 +26925,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="239"/>
+      <c r="A10" s="249"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -26817,7 +26972,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="239"/>
+      <c r="A11" s="249"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -26841,7 +26996,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="239"/>
+      <c r="A12" s="249"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -26865,7 +27020,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="239"/>
+      <c r="A13" s="249"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -26889,7 +27044,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="239"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -26913,7 +27068,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="240"/>
+      <c r="A15" s="250"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -26946,7 +27101,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="235" t="s">
+      <c r="A17" s="245" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -26972,7 +27127,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="236"/>
+      <c r="A18" s="246"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -26996,7 +27151,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="236"/>
+      <c r="A19" s="246"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27020,7 +27175,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="236"/>
+      <c r="A20" s="246"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27044,7 +27199,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="236"/>
+      <c r="A21" s="246"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27068,7 +27223,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="236"/>
+      <c r="A22" s="246"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27092,7 +27247,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="236"/>
+      <c r="A23" s="246"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27116,7 +27271,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="237"/>
+      <c r="A24" s="247"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27160,7 +27315,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="238" t="s">
+      <c r="A27" s="248" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27183,7 +27338,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="239"/>
+      <c r="A28" s="249"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -27204,7 +27359,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="240"/>
+      <c r="A29" s="250"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -27254,10 +27409,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="235" t="s">
+      <c r="A34" s="245" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="247" t="str">
+      <c r="B34" s="241" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -27278,8 +27433,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="236"/>
-      <c r="B35" s="248"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="242"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -27294,8 +27449,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="236"/>
-      <c r="B36" s="248"/>
+      <c r="A36" s="246"/>
+      <c r="B36" s="242"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -27310,8 +27465,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="236"/>
-      <c r="B37" s="248"/>
+      <c r="A37" s="246"/>
+      <c r="B37" s="242"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -27326,8 +27481,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="236"/>
-      <c r="B38" s="248"/>
+      <c r="A38" s="246"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -27342,8 +27497,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="236"/>
-      <c r="B39" s="248"/>
+      <c r="A39" s="246"/>
+      <c r="B39" s="242"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -27355,8 +27510,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="236"/>
-      <c r="B40" s="248"/>
+      <c r="A40" s="246"/>
+      <c r="B40" s="242"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -27368,8 +27523,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="236"/>
-      <c r="B41" s="248" t="str">
+      <c r="A41" s="246"/>
+      <c r="B41" s="242" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -27384,8 +27539,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="236"/>
-      <c r="B42" s="248"/>
+      <c r="A42" s="246"/>
+      <c r="B42" s="242"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -27397,8 +27552,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="236"/>
-      <c r="B43" s="248"/>
+      <c r="A43" s="246"/>
+      <c r="B43" s="242"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -27410,8 +27565,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="236"/>
-      <c r="B44" s="248"/>
+      <c r="A44" s="246"/>
+      <c r="B44" s="242"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -27423,8 +27578,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="236"/>
-      <c r="B45" s="248"/>
+      <c r="A45" s="246"/>
+      <c r="B45" s="242"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -27436,8 +27591,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="236"/>
-      <c r="B46" s="248"/>
+      <c r="A46" s="246"/>
+      <c r="B46" s="242"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -27449,8 +27604,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="236"/>
-      <c r="B47" s="248" t="str">
+      <c r="A47" s="246"/>
+      <c r="B47" s="242" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -27465,8 +27620,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="236"/>
-      <c r="B48" s="248"/>
+      <c r="A48" s="246"/>
+      <c r="B48" s="242"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -27478,8 +27633,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="236"/>
-      <c r="B49" s="248"/>
+      <c r="A49" s="246"/>
+      <c r="B49" s="242"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -27491,8 +27646,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="236"/>
-      <c r="B50" s="248"/>
+      <c r="A50" s="246"/>
+      <c r="B50" s="242"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -27504,8 +27659,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="236"/>
-      <c r="B51" s="248"/>
+      <c r="A51" s="246"/>
+      <c r="B51" s="242"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27517,8 +27672,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="236"/>
-      <c r="B52" s="248" t="str">
+      <c r="A52" s="246"/>
+      <c r="B52" s="242" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -27533,8 +27688,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="236"/>
-      <c r="B53" s="248"/>
+      <c r="A53" s="246"/>
+      <c r="B53" s="242"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -27546,8 +27701,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="236"/>
-      <c r="B54" s="248"/>
+      <c r="A54" s="246"/>
+      <c r="B54" s="242"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -27559,8 +27714,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="236"/>
-      <c r="B55" s="248" t="str">
+      <c r="A55" s="246"/>
+      <c r="B55" s="242" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -27575,8 +27730,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="236"/>
-      <c r="B56" s="248"/>
+      <c r="A56" s="246"/>
+      <c r="B56" s="242"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -27588,8 +27743,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="237"/>
-      <c r="B57" s="249"/>
+      <c r="A57" s="247"/>
+      <c r="B57" s="243"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -27604,10 +27759,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="241" t="s">
+      <c r="A59" s="251" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="250" t="s">
+      <c r="B59" s="244" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -27624,8 +27779,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="242"/>
-      <c r="B60" s="245"/>
+      <c r="A60" s="252"/>
+      <c r="B60" s="239"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -27643,8 +27798,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="242"/>
-      <c r="B61" s="245"/>
+      <c r="A61" s="252"/>
+      <c r="B61" s="239"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -27659,8 +27814,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="242"/>
-      <c r="B62" s="245"/>
+      <c r="A62" s="252"/>
+      <c r="B62" s="239"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -27675,8 +27830,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="242"/>
-      <c r="B63" s="245"/>
+      <c r="A63" s="252"/>
+      <c r="B63" s="239"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -27691,8 +27846,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="242"/>
-      <c r="B64" s="245"/>
+      <c r="A64" s="252"/>
+      <c r="B64" s="239"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -27707,8 +27862,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="242"/>
-      <c r="B65" s="245"/>
+      <c r="A65" s="252"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -27721,8 +27876,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="242"/>
-      <c r="B66" s="245" t="str">
+      <c r="A66" s="252"/>
+      <c r="B66" s="239" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -27738,8 +27893,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="242"/>
-      <c r="B67" s="245"/>
+      <c r="A67" s="252"/>
+      <c r="B67" s="239"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -27751,8 +27906,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="242"/>
-      <c r="B68" s="245"/>
+      <c r="A68" s="252"/>
+      <c r="B68" s="239"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -27764,8 +27919,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="242"/>
-      <c r="B69" s="245"/>
+      <c r="A69" s="252"/>
+      <c r="B69" s="239"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -27777,8 +27932,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="242"/>
-      <c r="B70" s="245"/>
+      <c r="A70" s="252"/>
+      <c r="B70" s="239"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -27790,8 +27945,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="242"/>
-      <c r="B71" s="245"/>
+      <c r="A71" s="252"/>
+      <c r="B71" s="239"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -27803,8 +27958,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="242"/>
-      <c r="B72" s="245"/>
+      <c r="A72" s="252"/>
+      <c r="B72" s="239"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -27816,8 +27971,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="242"/>
-      <c r="B73" s="245" t="str">
+      <c r="A73" s="252"/>
+      <c r="B73" s="239" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -27832,8 +27987,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="242"/>
-      <c r="B74" s="245"/>
+      <c r="A74" s="252"/>
+      <c r="B74" s="239"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -27845,8 +28000,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="242"/>
-      <c r="B75" s="245"/>
+      <c r="A75" s="252"/>
+      <c r="B75" s="239"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -27858,8 +28013,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="242"/>
-      <c r="B76" s="245"/>
+      <c r="A76" s="252"/>
+      <c r="B76" s="239"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -27871,8 +28026,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="242"/>
-      <c r="B77" s="245"/>
+      <c r="A77" s="252"/>
+      <c r="B77" s="239"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -27884,8 +28039,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="242"/>
-      <c r="B78" s="245"/>
+      <c r="A78" s="252"/>
+      <c r="B78" s="239"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -27897,8 +28052,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="242"/>
-      <c r="B79" s="245"/>
+      <c r="A79" s="252"/>
+      <c r="B79" s="239"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -27910,8 +28065,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="242"/>
-      <c r="B80" s="245" t="str">
+      <c r="A80" s="252"/>
+      <c r="B80" s="239" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -27926,8 +28081,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="242"/>
-      <c r="B81" s="245"/>
+      <c r="A81" s="252"/>
+      <c r="B81" s="239"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -27939,8 +28094,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="242"/>
-      <c r="B82" s="245"/>
+      <c r="A82" s="252"/>
+      <c r="B82" s="239"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -27952,8 +28107,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="242"/>
-      <c r="B83" s="245" t="str">
+      <c r="A83" s="252"/>
+      <c r="B83" s="239" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -27968,8 +28123,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="242"/>
-      <c r="B84" s="245"/>
+      <c r="A84" s="252"/>
+      <c r="B84" s="239"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -27981,8 +28136,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="243"/>
-      <c r="B85" s="246"/>
+      <c r="A85" s="253"/>
+      <c r="B85" s="240"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28009,21 +28164,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28036,13 +28183,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28761,12 +28916,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28991,17 +29145,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29026,11 +29183,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707513F3-AC13-46B9-8F8B-1F19382BDD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E2AD9A-4DFB-472E-BE49-6B5DB8EE0324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="22" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="21" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -4895,7 +4895,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5523,35 +5523,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5579,6 +5580,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5634,12 +5665,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5658,46 +5683,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -20968,65 +20961,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="273" t="s">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="284" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="273" t="s">
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="284" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="273" t="s">
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="275"/>
-      <c r="S1" s="274"/>
-      <c r="T1" s="273" t="s">
+      <c r="P1" s="286"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="286"/>
+      <c r="S1" s="285"/>
+      <c r="T1" s="284" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="274"/>
-      <c r="V1" s="270" t="s">
+      <c r="U1" s="285"/>
+      <c r="V1" s="281" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="271"/>
-      <c r="X1" s="271"/>
-      <c r="Y1" s="271"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="271"/>
-      <c r="AB1" s="271"/>
-      <c r="AC1" s="271"/>
-      <c r="AD1" s="271"/>
-      <c r="AE1" s="272"/>
-      <c r="AF1" s="267" t="s">
+      <c r="W1" s="282"/>
+      <c r="X1" s="282"/>
+      <c r="Y1" s="282"/>
+      <c r="Z1" s="282"/>
+      <c r="AA1" s="282"/>
+      <c r="AB1" s="282"/>
+      <c r="AC1" s="282"/>
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="283"/>
+      <c r="AF1" s="278" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="268"/>
-      <c r="AH1" s="268"/>
-      <c r="AI1" s="268"/>
-      <c r="AJ1" s="268"/>
-      <c r="AK1" s="268"/>
-      <c r="AL1" s="268"/>
-      <c r="AM1" s="268"/>
-      <c r="AN1" s="268"/>
-      <c r="AO1" s="268"/>
-      <c r="AP1" s="268"/>
-      <c r="AQ1" s="268"/>
-      <c r="AR1" s="268"/>
-      <c r="AS1" s="269"/>
+      <c r="AG1" s="279"/>
+      <c r="AH1" s="279"/>
+      <c r="AI1" s="279"/>
+      <c r="AJ1" s="279"/>
+      <c r="AK1" s="279"/>
+      <c r="AL1" s="279"/>
+      <c r="AM1" s="279"/>
+      <c r="AN1" s="279"/>
+      <c r="AO1" s="279"/>
+      <c r="AP1" s="279"/>
+      <c r="AQ1" s="279"/>
+      <c r="AR1" s="279"/>
+      <c r="AS1" s="280"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -22089,20 +22082,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="235"/>
-      <c r="AO1" s="235"/>
-      <c r="AP1" s="235"/>
-      <c r="AQ1" s="235"/>
-      <c r="AR1" s="235"/>
-      <c r="AS1" s="235"/>
-      <c r="AT1" s="235"/>
-      <c r="AU1" s="235"/>
-      <c r="AV1" s="235"/>
-      <c r="AW1" s="235"/>
-      <c r="AX1" s="235"/>
-      <c r="AY1" s="235"/>
-      <c r="AZ1" s="235"/>
-      <c r="BA1" s="235"/>
+      <c r="AN1" s="264"/>
+      <c r="AO1" s="264"/>
+      <c r="AP1" s="264"/>
+      <c r="AQ1" s="264"/>
+      <c r="AR1" s="264"/>
+      <c r="AS1" s="264"/>
+      <c r="AT1" s="264"/>
+      <c r="AU1" s="264"/>
+      <c r="AV1" s="264"/>
+      <c r="AW1" s="264"/>
+      <c r="AX1" s="264"/>
+      <c r="AY1" s="264"/>
+      <c r="AZ1" s="264"/>
+      <c r="BA1" s="264"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22121,7 +22114,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="278" t="s">
+      <c r="H2" s="287" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22143,7 +22136,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="278" t="s">
+      <c r="P2" s="287" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22174,10 +22167,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="281" t="s">
+      <c r="AC2" s="290" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="276" t="s">
+      <c r="AD2" s="293" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22189,26 +22182,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="235"/>
-      <c r="AJ2" s="235"/>
-      <c r="AK2" s="235"/>
-      <c r="AL2" s="235"/>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="235"/>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="235"/>
-      <c r="AS2" s="235"/>
-      <c r="AT2" s="235"/>
-      <c r="AU2" s="235"/>
-      <c r="AV2" s="235"/>
-      <c r="AW2" s="235"/>
-      <c r="AX2" s="235"/>
-      <c r="AY2" s="235"/>
-      <c r="AZ2" s="235"/>
-      <c r="BA2" s="235"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="264"/>
+      <c r="AJ2" s="264"/>
+      <c r="AK2" s="264"/>
+      <c r="AL2" s="264"/>
+      <c r="AM2" s="264"/>
+      <c r="AN2" s="264"/>
+      <c r="AO2" s="264"/>
+      <c r="AP2" s="264"/>
+      <c r="AQ2" s="264"/>
+      <c r="AR2" s="264"/>
+      <c r="AS2" s="264"/>
+      <c r="AT2" s="264"/>
+      <c r="AU2" s="264"/>
+      <c r="AV2" s="264"/>
+      <c r="AW2" s="264"/>
+      <c r="AX2" s="264"/>
+      <c r="AY2" s="264"/>
+      <c r="AZ2" s="264"/>
+      <c r="BA2" s="264"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22229,7 +22222,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="279"/>
+      <c r="H3" s="288"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22249,7 +22242,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="279"/>
+      <c r="P3" s="288"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22270,8 +22263,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="239"/>
+      <c r="AC3" s="291"/>
+      <c r="AD3" s="256"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22316,7 +22309,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="279"/>
+      <c r="H4" s="288"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22336,7 +22329,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="280"/>
+      <c r="P4" s="289"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22356,8 +22349,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="282"/>
-      <c r="AD4" s="239"/>
+      <c r="AC4" s="291"/>
+      <c r="AD4" s="256"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22405,7 +22398,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="288"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22430,8 +22423,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="282"/>
-      <c r="AD5" s="239"/>
+      <c r="AC5" s="291"/>
+      <c r="AD5" s="256"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22464,7 +22457,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="279"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22491,8 +22484,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="239"/>
+      <c r="AC6" s="291"/>
+      <c r="AD6" s="256"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22530,7 +22523,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="279"/>
+      <c r="H7" s="288"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22557,8 +22550,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="239"/>
+      <c r="AC7" s="291"/>
+      <c r="AD7" s="256"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22593,7 +22586,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="279"/>
+      <c r="H8" s="288"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22620,8 +22613,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="282"/>
-      <c r="AD8" s="239"/>
+      <c r="AC8" s="291"/>
+      <c r="AD8" s="256"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22656,7 +22649,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="280"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22683,8 +22676,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="282"/>
-      <c r="AD9" s="239" t="s">
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="256" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22727,8 +22720,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="282"/>
-      <c r="AD10" s="239"/>
+      <c r="AC10" s="291"/>
+      <c r="AD10" s="256"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22761,7 +22754,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="281" t="s">
+      <c r="H11" s="290" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22782,8 +22775,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="282"/>
-      <c r="AD11" s="239"/>
+      <c r="AC11" s="291"/>
+      <c r="AD11" s="256"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22802,7 +22795,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="282"/>
+      <c r="H12" s="291"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22821,8 +22814,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="282"/>
-      <c r="AD12" s="239"/>
+      <c r="AC12" s="291"/>
+      <c r="AD12" s="256"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -22841,7 +22834,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="282"/>
+      <c r="H13" s="291"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -22860,8 +22853,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="282"/>
-      <c r="AD13" s="239"/>
+      <c r="AC13" s="291"/>
+      <c r="AD13" s="256"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -22880,7 +22873,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="282"/>
+      <c r="H14" s="291"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -22899,8 +22892,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="282"/>
-      <c r="AD14" s="239"/>
+      <c r="AC14" s="291"/>
+      <c r="AD14" s="256"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -22919,7 +22912,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="282"/>
+      <c r="H15" s="291"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -22938,8 +22931,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="282"/>
-      <c r="AD15" s="239" t="s">
+      <c r="AC15" s="291"/>
+      <c r="AD15" s="256" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -22957,7 +22950,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="282"/>
+      <c r="H16" s="291"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -22976,8 +22969,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="282"/>
-      <c r="AD16" s="239"/>
+      <c r="AC16" s="291"/>
+      <c r="AD16" s="256"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -22996,7 +22989,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="282"/>
+      <c r="H17" s="291"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23015,8 +23008,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="282"/>
-      <c r="AD17" s="239"/>
+      <c r="AC17" s="291"/>
+      <c r="AD17" s="256"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23035,7 +23028,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="283"/>
+      <c r="H18" s="292"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23054,8 +23047,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="282"/>
-      <c r="AD18" s="239"/>
+      <c r="AC18" s="291"/>
+      <c r="AD18" s="256"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23074,8 +23067,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="282"/>
-      <c r="AD19" s="239"/>
+      <c r="AC19" s="291"/>
+      <c r="AD19" s="256"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23094,8 +23087,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="282"/>
-      <c r="AD20" s="239" t="s">
+      <c r="AC20" s="291"/>
+      <c r="AD20" s="256" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23116,8 +23109,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="282"/>
-      <c r="AD21" s="239"/>
+      <c r="AC21" s="291"/>
+      <c r="AD21" s="256"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23136,8 +23129,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="282"/>
-      <c r="AD22" s="239"/>
+      <c r="AC22" s="291"/>
+      <c r="AD22" s="256"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23156,8 +23149,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="282"/>
-      <c r="AD23" s="239" t="s">
+      <c r="AC23" s="291"/>
+      <c r="AD23" s="256" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23178,8 +23171,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="282"/>
-      <c r="AD24" s="239"/>
+      <c r="AC24" s="291"/>
+      <c r="AD24" s="256"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23192,8 +23185,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="283"/>
-      <c r="AD25" s="277"/>
+      <c r="AC25" s="292"/>
+      <c r="AD25" s="294"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23210,10 +23203,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="281" t="s">
+      <c r="AC27" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="276" t="s">
+      <c r="AD27" s="293" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23230,8 +23223,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="282"/>
-      <c r="AD28" s="239"/>
+      <c r="AC28" s="291"/>
+      <c r="AD28" s="256"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23246,8 +23239,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="282"/>
-      <c r="AD29" s="239"/>
+      <c r="AC29" s="291"/>
+      <c r="AD29" s="256"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23259,8 +23252,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="282"/>
-      <c r="AD30" s="239"/>
+      <c r="AC30" s="291"/>
+      <c r="AD30" s="256"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23274,8 +23267,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="282"/>
-      <c r="AD31" s="239"/>
+      <c r="AC31" s="291"/>
+      <c r="AD31" s="256"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23287,8 +23280,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="282"/>
-      <c r="AD32" s="239"/>
+      <c r="AC32" s="291"/>
+      <c r="AD32" s="256"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23301,8 +23294,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="282"/>
-      <c r="AD33" s="239"/>
+      <c r="AC33" s="291"/>
+      <c r="AD33" s="256"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23319,8 +23312,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="282"/>
-      <c r="AD34" s="239" t="s">
+      <c r="AC34" s="291"/>
+      <c r="AD34" s="256" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23339,8 +23332,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="282"/>
-      <c r="AD35" s="239"/>
+      <c r="AC35" s="291"/>
+      <c r="AD35" s="256"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23357,8 +23350,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="282"/>
-      <c r="AD36" s="239"/>
+      <c r="AC36" s="291"/>
+      <c r="AD36" s="256"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23375,8 +23368,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="282"/>
-      <c r="AD37" s="239"/>
+      <c r="AC37" s="291"/>
+      <c r="AD37" s="256"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23393,8 +23386,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="282"/>
-      <c r="AD38" s="239"/>
+      <c r="AC38" s="291"/>
+      <c r="AD38" s="256"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23411,8 +23404,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="282"/>
-      <c r="AD39" s="239"/>
+      <c r="AC39" s="291"/>
+      <c r="AD39" s="256"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23429,8 +23422,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="282"/>
-      <c r="AD40" s="239"/>
+      <c r="AC40" s="291"/>
+      <c r="AD40" s="256"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23447,8 +23440,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="282"/>
-      <c r="AD41" s="239" t="s">
+      <c r="AC41" s="291"/>
+      <c r="AD41" s="256" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23467,8 +23460,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="282"/>
-      <c r="AD42" s="239"/>
+      <c r="AC42" s="291"/>
+      <c r="AD42" s="256"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23485,8 +23478,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="282"/>
-      <c r="AD43" s="239"/>
+      <c r="AC43" s="291"/>
+      <c r="AD43" s="256"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23503,8 +23496,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="282"/>
-      <c r="AD44" s="239"/>
+      <c r="AC44" s="291"/>
+      <c r="AD44" s="256"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23521,8 +23514,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="282"/>
-      <c r="AD45" s="239"/>
+      <c r="AC45" s="291"/>
+      <c r="AD45" s="256"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23539,8 +23532,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="282"/>
-      <c r="AD46" s="239"/>
+      <c r="AC46" s="291"/>
+      <c r="AD46" s="256"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23557,8 +23550,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="282"/>
-      <c r="AD47" s="239"/>
+      <c r="AC47" s="291"/>
+      <c r="AD47" s="256"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23575,8 +23568,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="282"/>
-      <c r="AD48" s="239" t="s">
+      <c r="AC48" s="291"/>
+      <c r="AD48" s="256" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23595,8 +23588,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="282"/>
-      <c r="AD49" s="239"/>
+      <c r="AC49" s="291"/>
+      <c r="AD49" s="256"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23613,8 +23606,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="282"/>
-      <c r="AD50" s="239"/>
+      <c r="AC50" s="291"/>
+      <c r="AD50" s="256"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23631,8 +23624,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="282"/>
-      <c r="AD51" s="239" t="s">
+      <c r="AC51" s="291"/>
+      <c r="AD51" s="256" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23651,8 +23644,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="282"/>
-      <c r="AD52" s="239"/>
+      <c r="AC52" s="291"/>
+      <c r="AD52" s="256"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23669,8 +23662,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="282"/>
-      <c r="AD53" s="239"/>
+      <c r="AC53" s="291"/>
+      <c r="AD53" s="256"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23687,7 +23680,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="282"/>
+      <c r="AC54" s="291"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23707,7 +23700,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="283"/>
+      <c r="AC55" s="292"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -23940,11 +23933,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -23961,11 +23954,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24328,7 +24321,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="295" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -24351,7 +24344,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="279"/>
+      <c r="A3" s="288"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24372,7 +24365,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="279"/>
+      <c r="A4" s="288"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24393,7 +24386,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="279"/>
+      <c r="A5" s="288"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24414,7 +24407,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="279"/>
+      <c r="A6" s="288"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24435,7 +24428,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="279"/>
+      <c r="A7" s="288"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24456,7 +24449,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="279"/>
+      <c r="A8" s="288"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24477,7 +24470,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="280"/>
+      <c r="A9" s="289"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24498,7 +24491,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="278" t="s">
+      <c r="A10" s="287" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24521,7 +24514,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="279"/>
+      <c r="A11" s="288"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24542,7 +24535,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="279"/>
+      <c r="A12" s="288"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24563,7 +24556,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="279"/>
+      <c r="A13" s="288"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24584,7 +24577,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="279"/>
+      <c r="A14" s="288"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24605,7 +24598,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="279"/>
+      <c r="A15" s="288"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24626,7 +24619,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="279"/>
+      <c r="A16" s="288"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24647,7 +24640,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="280"/>
+      <c r="A17" s="289"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25348,8 +25341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25385,7 +25378,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="287" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25404,7 +25397,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="279"/>
+      <c r="A3" s="288"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25421,7 +25414,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="280"/>
+      <c r="A4" s="289"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25438,7 +25431,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="291" t="s">
+      <c r="A9" s="240" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -25449,10 +25442,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="237" t="s">
         <v>1114</v>
       </c>
-      <c r="B10" s="296" t="s">
+      <c r="B10" s="243" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="107">
@@ -25460,57 +25453,57 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="289" t="s">
+      <c r="A11" s="238" t="s">
         <v>1115</v>
       </c>
-      <c r="B11" s="297" t="s">
+      <c r="B11" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="286">
+      <c r="C11" s="235">
         <v>0.13516</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="289" t="s">
+      <c r="A12" s="238" t="s">
         <v>1116</v>
       </c>
-      <c r="B12" s="297" t="s">
+      <c r="B12" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="286">
+      <c r="C12" s="235">
         <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="289" t="s">
+      <c r="A13" s="238" t="s">
         <v>1117</v>
       </c>
-      <c r="B13" s="297" t="s">
+      <c r="B13" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="286">
+      <c r="C13" s="235">
         <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="289" t="s">
+      <c r="A14" s="238" t="s">
         <v>1118</v>
       </c>
-      <c r="B14" s="297" t="s">
+      <c r="B14" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="286">
+      <c r="C14" s="235">
         <v>0.315</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="290" t="s">
+      <c r="A15" s="239" t="s">
         <v>1119</v>
       </c>
-      <c r="B15" s="298" t="s">
+      <c r="B15" s="245" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="287">
+      <c r="C15" s="236">
         <v>0.13100000000000001</v>
       </c>
     </row>
@@ -25526,7 +25519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -25567,29 +25560,29 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="228" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="293" t="s">
+      <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="295" t="s">
+      <c r="A7" s="242" t="s">
         <v>1120</v>
       </c>
-      <c r="B7" s="295" t="s">
+      <c r="B7" s="242" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="294">
+      <c r="C7" s="241">
         <v>6.9100000000000003E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="291"/>
+      <c r="B9" s="240"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
@@ -25615,10 +25608,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="287" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="258" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -25632,8 +25625,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="279"/>
-      <c r="B2" s="242"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="259"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
@@ -25645,8 +25638,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="279"/>
-      <c r="B3" s="242"/>
+      <c r="A3" s="288"/>
+      <c r="B3" s="259"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
@@ -25658,8 +25651,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="279"/>
-      <c r="B4" s="242"/>
+      <c r="A4" s="288"/>
+      <c r="B4" s="259"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
@@ -25671,8 +25664,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="279"/>
-      <c r="B5" s="242"/>
+      <c r="A5" s="288"/>
+      <c r="B5" s="259"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
@@ -25684,8 +25677,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="279"/>
-      <c r="B6" s="242"/>
+      <c r="A6" s="288"/>
+      <c r="B6" s="259"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
       </c>
@@ -25697,8 +25690,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="279"/>
-      <c r="B7" s="242"/>
+      <c r="A7" s="288"/>
+      <c r="B7" s="259"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
       </c>
@@ -25710,8 +25703,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="279"/>
-      <c r="B8" s="242" t="s">
+      <c r="A8" s="288"/>
+      <c r="B8" s="259" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -25725,8 +25718,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="279"/>
-      <c r="B9" s="242"/>
+      <c r="A9" s="288"/>
+      <c r="B9" s="259"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -25738,8 +25731,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="279"/>
-      <c r="B10" s="242"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="259"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
       </c>
@@ -25751,8 +25744,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="279"/>
-      <c r="B11" s="242"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="259"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
       </c>
@@ -25764,8 +25757,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="279"/>
-      <c r="B12" s="242"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="259"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -25777,8 +25770,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="279"/>
-      <c r="B13" s="242"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="259"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
       </c>
@@ -25790,8 +25783,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="279"/>
-      <c r="B14" s="242" t="s">
+      <c r="A14" s="288"/>
+      <c r="B14" s="259" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -25805,8 +25798,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="279"/>
-      <c r="B15" s="242"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
       </c>
@@ -25818,8 +25811,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="279"/>
-      <c r="B16" s="242"/>
+      <c r="A16" s="288"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
       </c>
@@ -25831,8 +25824,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="279"/>
-      <c r="B17" s="242"/>
+      <c r="A17" s="288"/>
+      <c r="B17" s="259"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
@@ -25844,8 +25837,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="279"/>
-      <c r="B18" s="242"/>
+      <c r="A18" s="288"/>
+      <c r="B18" s="259"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
       </c>
@@ -25857,8 +25850,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="279"/>
-      <c r="B19" s="242" t="s">
+      <c r="A19" s="288"/>
+      <c r="B19" s="259" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -25872,8 +25865,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="279"/>
-      <c r="B20" s="242"/>
+      <c r="A20" s="288"/>
+      <c r="B20" s="259"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
       </c>
@@ -25885,8 +25878,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="279"/>
-      <c r="B21" s="242"/>
+      <c r="A21" s="288"/>
+      <c r="B21" s="259"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
       </c>
@@ -25898,8 +25891,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="279"/>
-      <c r="B22" s="242" t="s">
+      <c r="A22" s="288"/>
+      <c r="B22" s="259" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -25913,8 +25906,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="279"/>
-      <c r="B23" s="242"/>
+      <c r="A23" s="288"/>
+      <c r="B23" s="259"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
       </c>
@@ -25926,8 +25919,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="280"/>
-      <c r="B24" s="243"/>
+      <c r="A24" s="289"/>
+      <c r="B24" s="260"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
@@ -25939,10 +25932,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="281" t="s">
+      <c r="A25" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="241" t="s">
+      <c r="B25" s="258" t="s">
         <v>156</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -25956,8 +25949,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="282"/>
-      <c r="B26" s="242"/>
+      <c r="A26" s="291"/>
+      <c r="B26" s="259"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
@@ -25969,8 +25962,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="282"/>
-      <c r="B27" s="242"/>
+      <c r="A27" s="291"/>
+      <c r="B27" s="259"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
       </c>
@@ -25982,8 +25975,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="282"/>
-      <c r="B28" s="242"/>
+      <c r="A28" s="291"/>
+      <c r="B28" s="259"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
       </c>
@@ -25995,8 +25988,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="282"/>
-      <c r="B29" s="242"/>
+      <c r="A29" s="291"/>
+      <c r="B29" s="259"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
       </c>
@@ -26008,8 +26001,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="282"/>
-      <c r="B30" s="242"/>
+      <c r="A30" s="291"/>
+      <c r="B30" s="259"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
       </c>
@@ -26021,8 +26014,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="282"/>
-      <c r="B31" s="242"/>
+      <c r="A31" s="291"/>
+      <c r="B31" s="259"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
       </c>
@@ -26034,8 +26027,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="282"/>
-      <c r="B32" s="242" t="s">
+      <c r="A32" s="291"/>
+      <c r="B32" s="259" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -26049,8 +26042,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="282"/>
-      <c r="B33" s="242"/>
+      <c r="A33" s="291"/>
+      <c r="B33" s="259"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
       </c>
@@ -26062,8 +26055,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="282"/>
-      <c r="B34" s="242"/>
+      <c r="A34" s="291"/>
+      <c r="B34" s="259"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
       </c>
@@ -26075,8 +26068,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="282"/>
-      <c r="B35" s="242"/>
+      <c r="A35" s="291"/>
+      <c r="B35" s="259"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
       </c>
@@ -26088,8 +26081,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="282"/>
-      <c r="B36" s="242"/>
+      <c r="A36" s="291"/>
+      <c r="B36" s="259"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
       </c>
@@ -26101,8 +26094,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="282"/>
-      <c r="B37" s="242"/>
+      <c r="A37" s="291"/>
+      <c r="B37" s="259"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
       </c>
@@ -26114,8 +26107,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="282"/>
-      <c r="B38" s="242"/>
+      <c r="A38" s="291"/>
+      <c r="B38" s="259"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -26127,8 +26120,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="282"/>
-      <c r="B39" s="242" t="s">
+      <c r="A39" s="291"/>
+      <c r="B39" s="259" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -26142,8 +26135,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="282"/>
-      <c r="B40" s="242"/>
+      <c r="A40" s="291"/>
+      <c r="B40" s="259"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
       </c>
@@ -26155,8 +26148,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="282"/>
-      <c r="B41" s="242"/>
+      <c r="A41" s="291"/>
+      <c r="B41" s="259"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
       </c>
@@ -26168,8 +26161,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="282"/>
-      <c r="B42" s="242"/>
+      <c r="A42" s="291"/>
+      <c r="B42" s="259"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
       </c>
@@ -26181,8 +26174,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="282"/>
-      <c r="B43" s="242"/>
+      <c r="A43" s="291"/>
+      <c r="B43" s="259"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
       </c>
@@ -26194,8 +26187,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="282"/>
-      <c r="B44" s="242"/>
+      <c r="A44" s="291"/>
+      <c r="B44" s="259"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
       </c>
@@ -26207,8 +26200,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="282"/>
-      <c r="B45" s="242"/>
+      <c r="A45" s="291"/>
+      <c r="B45" s="259"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
       </c>
@@ -26220,8 +26213,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="282"/>
-      <c r="B46" s="242" t="s">
+      <c r="A46" s="291"/>
+      <c r="B46" s="259" t="s">
         <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -26235,8 +26228,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="282"/>
-      <c r="B47" s="242"/>
+      <c r="A47" s="291"/>
+      <c r="B47" s="259"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
       </c>
@@ -26248,8 +26241,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="282"/>
-      <c r="B48" s="242"/>
+      <c r="A48" s="291"/>
+      <c r="B48" s="259"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
@@ -26261,8 +26254,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="282"/>
-      <c r="B49" s="242" t="s">
+      <c r="A49" s="291"/>
+      <c r="B49" s="259" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -26276,8 +26269,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="282"/>
-      <c r="B50" s="242"/>
+      <c r="A50" s="291"/>
+      <c r="B50" s="259"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
       </c>
@@ -26289,8 +26282,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="282"/>
-      <c r="B51" s="242"/>
+      <c r="A51" s="291"/>
+      <c r="B51" s="259"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -26302,7 +26295,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="282"/>
+      <c r="A52" s="291"/>
       <c r="B52" s="19" t="s">
         <v>179</v>
       </c>
@@ -26317,7 +26310,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="283"/>
+      <c r="A53" s="292"/>
       <c r="B53" s="20" t="s">
         <v>180</v>
       </c>
@@ -26444,50 +26437,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="238"/>
-      <c r="AM1" s="238"/>
-      <c r="AN1" s="235"/>
-      <c r="AO1" s="235"/>
-      <c r="AP1" s="235"/>
-      <c r="AQ1" s="235"/>
-      <c r="AR1" s="235"/>
-      <c r="AS1" s="235"/>
-      <c r="AT1" s="235"/>
-      <c r="AU1" s="235"/>
-      <c r="AV1" s="235"/>
-      <c r="AW1" s="235"/>
-      <c r="AX1" s="235"/>
-      <c r="AY1" s="235"/>
-      <c r="AZ1" s="235"/>
-      <c r="BA1" s="235"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="255"/>
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="255"/>
+      <c r="T1" s="255"/>
+      <c r="U1" s="255"/>
+      <c r="V1" s="255"/>
+      <c r="W1" s="255"/>
+      <c r="X1" s="255"/>
+      <c r="Y1" s="255"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="255"/>
+      <c r="AB1" s="255"/>
+      <c r="AC1" s="255"/>
+      <c r="AD1" s="263"/>
+      <c r="AE1" s="263"/>
+      <c r="AF1" s="263"/>
+      <c r="AG1" s="263"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="263"/>
+      <c r="AJ1" s="263"/>
+      <c r="AK1" s="263"/>
+      <c r="AL1" s="263"/>
+      <c r="AM1" s="263"/>
+      <c r="AN1" s="264"/>
+      <c r="AO1" s="264"/>
+      <c r="AP1" s="264"/>
+      <c r="AQ1" s="264"/>
+      <c r="AR1" s="264"/>
+      <c r="AS1" s="264"/>
+      <c r="AT1" s="264"/>
+      <c r="AU1" s="264"/>
+      <c r="AV1" s="264"/>
+      <c r="AW1" s="264"/>
+      <c r="AX1" s="264"/>
+      <c r="AY1" s="264"/>
+      <c r="AZ1" s="264"/>
+      <c r="BA1" s="264"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="249" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -26524,33 +26517,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="237"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="237"/>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="235"/>
-      <c r="AJ2" s="235"/>
-      <c r="AK2" s="235"/>
-      <c r="AL2" s="235"/>
-      <c r="AM2" s="235"/>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="235"/>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="235"/>
-      <c r="AS2" s="235"/>
-      <c r="AT2" s="235"/>
-      <c r="AU2" s="235"/>
-      <c r="AV2" s="235"/>
-      <c r="AW2" s="235"/>
-      <c r="AX2" s="235"/>
-      <c r="AY2" s="235"/>
-      <c r="AZ2" s="235"/>
-      <c r="BA2" s="235"/>
+      <c r="AD2" s="262"/>
+      <c r="AE2" s="262"/>
+      <c r="AF2" s="262"/>
+      <c r="AG2" s="262"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="264"/>
+      <c r="AJ2" s="264"/>
+      <c r="AK2" s="264"/>
+      <c r="AL2" s="264"/>
+      <c r="AM2" s="264"/>
+      <c r="AN2" s="264"/>
+      <c r="AO2" s="264"/>
+      <c r="AP2" s="264"/>
+      <c r="AQ2" s="264"/>
+      <c r="AR2" s="264"/>
+      <c r="AS2" s="264"/>
+      <c r="AT2" s="264"/>
+      <c r="AU2" s="264"/>
+      <c r="AV2" s="264"/>
+      <c r="AW2" s="264"/>
+      <c r="AX2" s="264"/>
+      <c r="AY2" s="264"/>
+      <c r="AZ2" s="264"/>
+      <c r="BA2" s="264"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="249"/>
+      <c r="A3" s="250"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -26608,7 +26601,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="249"/>
+      <c r="A4" s="250"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -26669,7 +26662,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="250"/>
+      <c r="A5" s="251"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -26819,7 +26812,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="248" t="s">
+      <c r="A8" s="249" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -26874,7 +26867,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
+      <c r="A9" s="250"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -26925,7 +26918,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="249"/>
+      <c r="A10" s="250"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -26972,7 +26965,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="249"/>
+      <c r="A11" s="250"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -26996,7 +26989,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="249"/>
+      <c r="A12" s="250"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27020,7 +27013,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="249"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27044,7 +27037,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="249"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27068,7 +27061,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="250"/>
+      <c r="A15" s="251"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27101,7 +27094,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="245" t="s">
+      <c r="A17" s="246" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27127,7 +27120,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="246"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -27151,7 +27144,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="246"/>
+      <c r="A19" s="247"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27175,7 +27168,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
+      <c r="A20" s="247"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27199,7 +27192,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="246"/>
+      <c r="A21" s="247"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27223,7 +27216,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="246"/>
+      <c r="A22" s="247"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27247,7 +27240,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="246"/>
+      <c r="A23" s="247"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27271,7 +27264,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="247"/>
+      <c r="A24" s="248"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27315,7 +27308,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="248" t="s">
+      <c r="A27" s="249" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27338,7 +27331,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="249"/>
+      <c r="A28" s="250"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -27359,7 +27352,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="250"/>
+      <c r="A29" s="251"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -27409,10 +27402,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="245" t="s">
+      <c r="A34" s="246" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="241" t="str">
+      <c r="B34" s="258" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -27433,8 +27426,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="246"/>
-      <c r="B35" s="242"/>
+      <c r="A35" s="247"/>
+      <c r="B35" s="259"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -27449,8 +27442,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="246"/>
-      <c r="B36" s="242"/>
+      <c r="A36" s="247"/>
+      <c r="B36" s="259"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -27465,8 +27458,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="246"/>
-      <c r="B37" s="242"/>
+      <c r="A37" s="247"/>
+      <c r="B37" s="259"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -27481,8 +27474,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="246"/>
-      <c r="B38" s="242"/>
+      <c r="A38" s="247"/>
+      <c r="B38" s="259"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -27497,8 +27490,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="246"/>
-      <c r="B39" s="242"/>
+      <c r="A39" s="247"/>
+      <c r="B39" s="259"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -27510,8 +27503,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="246"/>
-      <c r="B40" s="242"/>
+      <c r="A40" s="247"/>
+      <c r="B40" s="259"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -27523,8 +27516,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="246"/>
-      <c r="B41" s="242" t="str">
+      <c r="A41" s="247"/>
+      <c r="B41" s="259" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -27539,8 +27532,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="246"/>
-      <c r="B42" s="242"/>
+      <c r="A42" s="247"/>
+      <c r="B42" s="259"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -27552,8 +27545,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="246"/>
-      <c r="B43" s="242"/>
+      <c r="A43" s="247"/>
+      <c r="B43" s="259"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -27565,8 +27558,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="246"/>
-      <c r="B44" s="242"/>
+      <c r="A44" s="247"/>
+      <c r="B44" s="259"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -27578,8 +27571,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="246"/>
-      <c r="B45" s="242"/>
+      <c r="A45" s="247"/>
+      <c r="B45" s="259"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -27591,8 +27584,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="246"/>
-      <c r="B46" s="242"/>
+      <c r="A46" s="247"/>
+      <c r="B46" s="259"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -27604,8 +27597,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="246"/>
-      <c r="B47" s="242" t="str">
+      <c r="A47" s="247"/>
+      <c r="B47" s="259" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -27620,8 +27613,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="246"/>
-      <c r="B48" s="242"/>
+      <c r="A48" s="247"/>
+      <c r="B48" s="259"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -27633,8 +27626,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="246"/>
-      <c r="B49" s="242"/>
+      <c r="A49" s="247"/>
+      <c r="B49" s="259"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -27646,8 +27639,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="246"/>
-      <c r="B50" s="242"/>
+      <c r="A50" s="247"/>
+      <c r="B50" s="259"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -27659,8 +27652,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="246"/>
-      <c r="B51" s="242"/>
+      <c r="A51" s="247"/>
+      <c r="B51" s="259"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -27672,8 +27665,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="246"/>
-      <c r="B52" s="242" t="str">
+      <c r="A52" s="247"/>
+      <c r="B52" s="259" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -27688,8 +27681,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="246"/>
-      <c r="B53" s="242"/>
+      <c r="A53" s="247"/>
+      <c r="B53" s="259"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -27701,8 +27694,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="246"/>
-      <c r="B54" s="242"/>
+      <c r="A54" s="247"/>
+      <c r="B54" s="259"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -27714,8 +27707,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="246"/>
-      <c r="B55" s="242" t="str">
+      <c r="A55" s="247"/>
+      <c r="B55" s="259" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -27730,8 +27723,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="246"/>
-      <c r="B56" s="242"/>
+      <c r="A56" s="247"/>
+      <c r="B56" s="259"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -27743,8 +27736,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="247"/>
-      <c r="B57" s="243"/>
+      <c r="A57" s="248"/>
+      <c r="B57" s="260"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -27759,10 +27752,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="251" t="s">
+      <c r="A59" s="252" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="244" t="s">
+      <c r="B59" s="261" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -27779,8 +27772,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="252"/>
-      <c r="B60" s="239"/>
+      <c r="A60" s="253"/>
+      <c r="B60" s="256"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -27798,8 +27791,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="252"/>
-      <c r="B61" s="239"/>
+      <c r="A61" s="253"/>
+      <c r="B61" s="256"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -27814,8 +27807,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="252"/>
-      <c r="B62" s="239"/>
+      <c r="A62" s="253"/>
+      <c r="B62" s="256"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -27830,8 +27823,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="252"/>
-      <c r="B63" s="239"/>
+      <c r="A63" s="253"/>
+      <c r="B63" s="256"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -27846,8 +27839,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="252"/>
-      <c r="B64" s="239"/>
+      <c r="A64" s="253"/>
+      <c r="B64" s="256"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -27862,8 +27855,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="252"/>
-      <c r="B65" s="239"/>
+      <c r="A65" s="253"/>
+      <c r="B65" s="256"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -27876,8 +27869,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="252"/>
-      <c r="B66" s="239" t="str">
+      <c r="A66" s="253"/>
+      <c r="B66" s="256" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -27893,8 +27886,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="252"/>
-      <c r="B67" s="239"/>
+      <c r="A67" s="253"/>
+      <c r="B67" s="256"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -27906,8 +27899,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="252"/>
-      <c r="B68" s="239"/>
+      <c r="A68" s="253"/>
+      <c r="B68" s="256"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -27919,8 +27912,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="252"/>
-      <c r="B69" s="239"/>
+      <c r="A69" s="253"/>
+      <c r="B69" s="256"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -27932,8 +27925,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="252"/>
-      <c r="B70" s="239"/>
+      <c r="A70" s="253"/>
+      <c r="B70" s="256"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -27945,8 +27938,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="252"/>
-      <c r="B71" s="239"/>
+      <c r="A71" s="253"/>
+      <c r="B71" s="256"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -27958,8 +27951,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="252"/>
-      <c r="B72" s="239"/>
+      <c r="A72" s="253"/>
+      <c r="B72" s="256"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -27971,8 +27964,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="252"/>
-      <c r="B73" s="239" t="str">
+      <c r="A73" s="253"/>
+      <c r="B73" s="256" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -27987,8 +27980,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="252"/>
-      <c r="B74" s="239"/>
+      <c r="A74" s="253"/>
+      <c r="B74" s="256"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28000,8 +27993,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="252"/>
-      <c r="B75" s="239"/>
+      <c r="A75" s="253"/>
+      <c r="B75" s="256"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28013,8 +28006,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="252"/>
-      <c r="B76" s="239"/>
+      <c r="A76" s="253"/>
+      <c r="B76" s="256"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28026,8 +28019,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="252"/>
-      <c r="B77" s="239"/>
+      <c r="A77" s="253"/>
+      <c r="B77" s="256"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28039,8 +28032,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="252"/>
-      <c r="B78" s="239"/>
+      <c r="A78" s="253"/>
+      <c r="B78" s="256"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28052,8 +28045,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="252"/>
-      <c r="B79" s="239"/>
+      <c r="A79" s="253"/>
+      <c r="B79" s="256"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28065,8 +28058,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="252"/>
-      <c r="B80" s="239" t="str">
+      <c r="A80" s="253"/>
+      <c r="B80" s="256" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28081,8 +28074,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="252"/>
-      <c r="B81" s="239"/>
+      <c r="A81" s="253"/>
+      <c r="B81" s="256"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28094,8 +28087,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="252"/>
-      <c r="B82" s="239"/>
+      <c r="A82" s="253"/>
+      <c r="B82" s="256"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28107,8 +28100,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="252"/>
-      <c r="B83" s="239" t="str">
+      <c r="A83" s="253"/>
+      <c r="B83" s="256" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28123,8 +28116,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="252"/>
-      <c r="B84" s="239"/>
+      <c r="A84" s="253"/>
+      <c r="B84" s="256"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28136,8 +28129,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="253"/>
-      <c r="B85" s="240"/>
+      <c r="A85" s="254"/>
+      <c r="B85" s="257"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28164,13 +28157,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28183,21 +28184,13 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -28294,7 +28287,7 @@
       <c r="B2" s="123">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C2" s="255"/>
+      <c r="C2" s="266"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -28303,7 +28296,7 @@
       <c r="B3" s="123">
         <v>2.7</v>
       </c>
-      <c r="C3" s="255"/>
+      <c r="C3" s="266"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
@@ -28312,7 +28305,7 @@
       <c r="B4" s="123">
         <v>5.4</v>
       </c>
-      <c r="C4" s="255"/>
+      <c r="C4" s="266"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="121" t="s">
@@ -28321,7 +28314,7 @@
       <c r="B5" s="123">
         <v>3.4</v>
       </c>
-      <c r="C5" s="255"/>
+      <c r="C5" s="266"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
@@ -28330,7 +28323,7 @@
       <c r="B6" s="123">
         <v>1.8</v>
       </c>
-      <c r="C6" s="255"/>
+      <c r="C6" s="266"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
@@ -28339,7 +28332,7 @@
       <c r="B7" s="126">
         <v>2.52</v>
       </c>
-      <c r="C7" s="255"/>
+      <c r="C7" s="266"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="122" t="s">
@@ -28348,7 +28341,7 @@
       <c r="B8" s="151">
         <v>7.5</v>
       </c>
-      <c r="C8" s="255"/>
+      <c r="C8" s="266"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
@@ -28357,7 +28350,7 @@
       <c r="B9" s="123">
         <v>15</v>
       </c>
-      <c r="C9" s="255"/>
+      <c r="C9" s="266"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="125" t="s">
@@ -28366,7 +28359,7 @@
       <c r="B10" s="154">
         <v>15</v>
       </c>
-      <c r="C10" s="255"/>
+      <c r="C10" s="266"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="125" t="s">
@@ -28375,7 +28368,7 @@
       <c r="B11" s="152">
         <v>22</v>
       </c>
-      <c r="C11" s="255"/>
+      <c r="C11" s="266"/>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="153" t="s">
@@ -28384,112 +28377,112 @@
       <c r="B12" s="152">
         <v>30</v>
       </c>
-      <c r="C12" s="255"/>
+      <c r="C12" s="266"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="125"/>
       <c r="B13" s="152"/>
-      <c r="C13" s="255"/>
+      <c r="C13" s="266"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="151"/>
-      <c r="C14" s="255"/>
+      <c r="C14" s="266"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="121"/>
       <c r="B15" s="123"/>
-      <c r="C15" s="255"/>
+      <c r="C15" s="266"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="125"/>
       <c r="B16" s="152"/>
-      <c r="C16" s="255"/>
+      <c r="C16" s="266"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="125"/>
       <c r="B17" s="118"/>
-      <c r="C17" s="255"/>
+      <c r="C17" s="266"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="125"/>
       <c r="B18" s="118"/>
-      <c r="C18" s="255"/>
+      <c r="C18" s="266"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="125"/>
       <c r="B19" s="118"/>
-      <c r="C19" s="255"/>
+      <c r="C19" s="266"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="125"/>
       <c r="B20" s="118"/>
-      <c r="C20" s="255"/>
+      <c r="C20" s="266"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="125"/>
       <c r="B21" s="118"/>
-      <c r="C21" s="255"/>
+      <c r="C21" s="266"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="122"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="255"/>
+      <c r="C22" s="266"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
       <c r="B23" s="116"/>
-      <c r="C23" s="256"/>
+      <c r="C23" s="267"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="125"/>
       <c r="B24" s="118"/>
-      <c r="C24" s="256"/>
+      <c r="C24" s="267"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="125"/>
       <c r="B25" s="118"/>
-      <c r="C25" s="256"/>
+      <c r="C25" s="267"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="125"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="256"/>
+      <c r="C26" s="267"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="125"/>
       <c r="B27" s="118"/>
-      <c r="C27" s="256"/>
+      <c r="C27" s="267"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="256"/>
+      <c r="C28" s="267"/>
     </row>
     <row r="29" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="121"/>
       <c r="B29" s="142"/>
-      <c r="C29" s="254"/>
+      <c r="C29" s="265"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="125"/>
       <c r="B30" s="143"/>
-      <c r="C30" s="254"/>
+      <c r="C30" s="265"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="125"/>
       <c r="B31" s="143"/>
-      <c r="C31" s="254"/>
+      <c r="C31" s="265"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="125"/>
       <c r="B32" s="143"/>
-      <c r="C32" s="254"/>
+      <c r="C32" s="265"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="122"/>
       <c r="B33" s="144"/>
-      <c r="C33" s="254"/>
+      <c r="C33" s="265"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
@@ -28562,13 +28555,13 @@
       <c r="B2" s="123">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="257"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="268"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="111" t="s">
@@ -28577,79 +28570,79 @@
       <c r="B3" s="111">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="257"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="268"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="146"/>
       <c r="B4" s="118"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="257"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="268"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146"/>
       <c r="B5" s="118"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="257"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="268"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="146"/>
       <c r="B6" s="118"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="257"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="268"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="146"/>
       <c r="B7" s="118"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="262"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="257"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="273"/>
+      <c r="I7" s="268"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="146"/>
       <c r="B8" s="118"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="257"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="268"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="124"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="263"/>
-      <c r="H9" s="263"/>
-      <c r="I9" s="257"/>
+      <c r="C9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="274"/>
+      <c r="G9" s="274"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="268"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
@@ -28916,11 +28909,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29145,20 +29139,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29183,9 +29174,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC465D34-B4A1-4D0E-8877-5659BEE14D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE24BB-5E62-426D-A37A-CD8D42841A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="23" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="21" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -5719,6 +5719,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5745,36 +5775,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5830,6 +5830,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5847,12 +5853,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22256,20 +22256,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22288,7 +22288,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="289" t="s">
+      <c r="H2" s="291" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22310,7 +22310,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="289" t="s">
+      <c r="P2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22341,10 +22341,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="292" t="s">
+      <c r="AC2" s="294" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="295" t="s">
+      <c r="AD2" s="289" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22356,26 +22356,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22396,7 +22396,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="290"/>
+      <c r="H3" s="292"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="290"/>
+      <c r="P3" s="292"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22437,8 +22437,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="293"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="295"/>
+      <c r="AD3" s="252"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22483,7 +22483,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="290"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="291"/>
+      <c r="P4" s="293"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22523,8 +22523,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="293"/>
-      <c r="AD4" s="258"/>
+      <c r="AC4" s="295"/>
+      <c r="AD4" s="252"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22572,7 +22572,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="290"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22597,8 +22597,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="293"/>
-      <c r="AD5" s="258"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="252"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22631,7 +22631,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="290"/>
+      <c r="H6" s="292"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22658,8 +22658,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="293"/>
-      <c r="AD6" s="258"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="252"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22697,7 +22697,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="290"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22724,8 +22724,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="258"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="252"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22760,7 +22760,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="290"/>
+      <c r="H8" s="292"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22787,8 +22787,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="293"/>
-      <c r="AD8" s="258"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="252"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22823,7 +22823,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="291"/>
+      <c r="H9" s="293"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22850,8 +22850,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="293"/>
-      <c r="AD9" s="258" t="s">
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="252" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22894,8 +22894,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="293"/>
-      <c r="AD10" s="258"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="252"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22928,7 +22928,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="292" t="s">
+      <c r="H11" s="294" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22949,8 +22949,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="293"/>
-      <c r="AD11" s="258"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="252"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -22969,7 +22969,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="293"/>
+      <c r="H12" s="295"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -22988,8 +22988,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="293"/>
-      <c r="AD12" s="258"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="252"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23008,7 +23008,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="293"/>
+      <c r="H13" s="295"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23027,8 +23027,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="293"/>
-      <c r="AD13" s="258"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="252"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23047,7 +23047,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="293"/>
+      <c r="H14" s="295"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23066,8 +23066,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="293"/>
-      <c r="AD14" s="258"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="252"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23086,7 +23086,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="293"/>
+      <c r="H15" s="295"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23105,8 +23105,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="293"/>
-      <c r="AD15" s="258" t="s">
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="252" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23124,7 +23124,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="293"/>
+      <c r="H16" s="295"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23143,8 +23143,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="293"/>
-      <c r="AD16" s="258"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="252"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23163,7 +23163,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="293"/>
+      <c r="H17" s="295"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23182,8 +23182,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="293"/>
-      <c r="AD17" s="258"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="252"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23202,7 +23202,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="294"/>
+      <c r="H18" s="296"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23221,8 +23221,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="293"/>
-      <c r="AD18" s="258"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="252"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23241,8 +23241,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="258"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="252"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23261,8 +23261,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="293"/>
-      <c r="AD20" s="258" t="s">
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="252" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23283,8 +23283,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="258"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="252"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23303,8 +23303,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="293"/>
-      <c r="AD22" s="258"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="252"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23323,8 +23323,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="293"/>
-      <c r="AD23" s="258" t="s">
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="252" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23345,8 +23345,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="258"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="252"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23359,8 +23359,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="294"/>
-      <c r="AD25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="290"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23377,10 +23377,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="292" t="s">
+      <c r="AC27" s="294" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="295" t="s">
+      <c r="AD27" s="289" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23397,8 +23397,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="293"/>
-      <c r="AD28" s="258"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="252"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23413,8 +23413,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="293"/>
-      <c r="AD29" s="258"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="252"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23426,8 +23426,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="293"/>
-      <c r="AD30" s="258"/>
+      <c r="AC30" s="295"/>
+      <c r="AD30" s="252"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23441,8 +23441,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="293"/>
-      <c r="AD31" s="258"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="252"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23454,8 +23454,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="293"/>
-      <c r="AD32" s="258"/>
+      <c r="AC32" s="295"/>
+      <c r="AD32" s="252"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23468,8 +23468,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="293"/>
-      <c r="AD33" s="258"/>
+      <c r="AC33" s="295"/>
+      <c r="AD33" s="252"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23486,8 +23486,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="293"/>
-      <c r="AD34" s="258" t="s">
+      <c r="AC34" s="295"/>
+      <c r="AD34" s="252" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23506,8 +23506,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="293"/>
-      <c r="AD35" s="258"/>
+      <c r="AC35" s="295"/>
+      <c r="AD35" s="252"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23524,8 +23524,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="293"/>
-      <c r="AD36" s="258"/>
+      <c r="AC36" s="295"/>
+      <c r="AD36" s="252"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23542,8 +23542,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="293"/>
-      <c r="AD37" s="258"/>
+      <c r="AC37" s="295"/>
+      <c r="AD37" s="252"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23560,8 +23560,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="293"/>
-      <c r="AD38" s="258"/>
+      <c r="AC38" s="295"/>
+      <c r="AD38" s="252"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23578,8 +23578,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="293"/>
-      <c r="AD39" s="258"/>
+      <c r="AC39" s="295"/>
+      <c r="AD39" s="252"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23596,8 +23596,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="293"/>
-      <c r="AD40" s="258"/>
+      <c r="AC40" s="295"/>
+      <c r="AD40" s="252"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23614,8 +23614,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="293"/>
-      <c r="AD41" s="258" t="s">
+      <c r="AC41" s="295"/>
+      <c r="AD41" s="252" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23634,8 +23634,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="293"/>
-      <c r="AD42" s="258"/>
+      <c r="AC42" s="295"/>
+      <c r="AD42" s="252"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23652,8 +23652,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="293"/>
-      <c r="AD43" s="258"/>
+      <c r="AC43" s="295"/>
+      <c r="AD43" s="252"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23670,8 +23670,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="293"/>
-      <c r="AD44" s="258"/>
+      <c r="AC44" s="295"/>
+      <c r="AD44" s="252"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23688,8 +23688,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="293"/>
-      <c r="AD45" s="258"/>
+      <c r="AC45" s="295"/>
+      <c r="AD45" s="252"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23706,8 +23706,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="293"/>
-      <c r="AD46" s="258"/>
+      <c r="AC46" s="295"/>
+      <c r="AD46" s="252"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23724,8 +23724,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="293"/>
-      <c r="AD47" s="258"/>
+      <c r="AC47" s="295"/>
+      <c r="AD47" s="252"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23742,8 +23742,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="293"/>
-      <c r="AD48" s="258" t="s">
+      <c r="AC48" s="295"/>
+      <c r="AD48" s="252" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23762,8 +23762,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="293"/>
-      <c r="AD49" s="258"/>
+      <c r="AC49" s="295"/>
+      <c r="AD49" s="252"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23780,8 +23780,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="293"/>
-      <c r="AD50" s="258"/>
+      <c r="AC50" s="295"/>
+      <c r="AD50" s="252"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23798,8 +23798,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="293"/>
-      <c r="AD51" s="258" t="s">
+      <c r="AC51" s="295"/>
+      <c r="AD51" s="252" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23818,8 +23818,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="293"/>
-      <c r="AD52" s="258"/>
+      <c r="AC52" s="295"/>
+      <c r="AD52" s="252"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23836,8 +23836,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="293"/>
-      <c r="AD53" s="258"/>
+      <c r="AC53" s="295"/>
+      <c r="AD53" s="252"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23854,7 +23854,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="293"/>
+      <c r="AC54" s="295"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23874,7 +23874,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="294"/>
+      <c r="AC55" s="296"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24107,11 +24107,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24128,11 +24128,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24453,7 +24453,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24518,7 +24518,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24539,7 +24539,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24560,7 +24560,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24581,7 +24581,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24602,7 +24602,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24623,7 +24623,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24644,7 +24644,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="291"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24665,7 +24665,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="291" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24688,7 +24688,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24709,7 +24709,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24730,7 +24730,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24751,7 +24751,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24772,7 +24772,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24793,7 +24793,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24814,7 +24814,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="291"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25515,7 +25515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -25552,7 +25552,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25571,7 +25571,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25588,7 +25588,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="291"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25694,7 +25694,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25769,8 +25769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295B0C8-B8D2-4684-B32D-14EED3B83A5D}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25784,7 +25784,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="291" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25810,7 +25810,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="290"/>
+      <c r="A2" s="292"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25832,7 +25832,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25854,7 +25854,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -25876,7 +25876,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -25898,7 +25898,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -25920,7 +25920,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -25942,7 +25942,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -25966,7 +25966,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="290"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -25988,7 +25988,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="290"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26010,7 +26010,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26032,7 +26032,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26054,7 +26054,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26076,7 +26076,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26100,7 +26100,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26122,7 +26122,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26144,7 +26144,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="290"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26166,7 +26166,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="290"/>
+      <c r="A18" s="292"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26188,7 +26188,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="290"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26212,7 +26212,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="290"/>
+      <c r="A20" s="292"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26234,7 +26234,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="290"/>
+      <c r="A21" s="292"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26256,7 +26256,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="290"/>
+      <c r="A22" s="292"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26280,7 +26280,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="290"/>
+      <c r="A23" s="292"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26302,7 +26302,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="291"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26324,7 +26324,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="292" t="s">
+      <c r="A25" s="294" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26350,7 +26350,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="293"/>
+      <c r="A26" s="295"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26372,7 +26372,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="293"/>
+      <c r="A27" s="295"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26394,7 +26394,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="293"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26416,7 +26416,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="293"/>
+      <c r="A29" s="295"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26438,7 +26438,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="293"/>
+      <c r="A30" s="295"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26460,7 +26460,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="293"/>
+      <c r="A31" s="295"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26482,7 +26482,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="293"/>
+      <c r="A32" s="295"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26506,7 +26506,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="293"/>
+      <c r="A33" s="295"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26528,7 +26528,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="293"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26550,7 +26550,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="293"/>
+      <c r="A35" s="295"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26572,7 +26572,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="293"/>
+      <c r="A36" s="295"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26594,7 +26594,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="293"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26616,7 +26616,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="293"/>
+      <c r="A38" s="295"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26638,7 +26638,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="293"/>
+      <c r="A39" s="295"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26662,7 +26662,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="293"/>
+      <c r="A40" s="295"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26684,7 +26684,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="293"/>
+      <c r="A41" s="295"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26706,7 +26706,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="293"/>
+      <c r="A42" s="295"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26728,7 +26728,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="293"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26750,7 +26750,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="293"/>
+      <c r="A44" s="295"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26772,7 +26772,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="293"/>
+      <c r="A45" s="295"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26794,7 +26794,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="293"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26818,7 +26818,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="293"/>
+      <c r="A47" s="295"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26840,7 +26840,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="293"/>
+      <c r="A48" s="295"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -26862,7 +26862,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="293"/>
+      <c r="A49" s="295"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -26886,7 +26886,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="293"/>
+      <c r="A50" s="295"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -26908,7 +26908,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="293"/>
+      <c r="A51" s="295"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -26930,7 +26930,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="293"/>
+      <c r="A52" s="295"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -26954,7 +26954,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="294"/>
+      <c r="A53" s="296"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27101,50 +27101,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="265"/>
-      <c r="AM1" s="265"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="251"/>
+      <c r="AJ1" s="251"/>
+      <c r="AK1" s="251"/>
+      <c r="AL1" s="251"/>
+      <c r="AM1" s="251"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="261" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27181,33 +27181,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="250"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
+      <c r="A3" s="262"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27265,7 +27265,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="252"/>
+      <c r="A4" s="262"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27326,7 +27326,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="253"/>
+      <c r="A5" s="263"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27476,7 +27476,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="261" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27531,7 +27531,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="252"/>
+      <c r="A9" s="262"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27582,7 +27582,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="252"/>
+      <c r="A10" s="262"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27629,7 +27629,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="252"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27653,7 +27653,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="252"/>
+      <c r="A12" s="262"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27677,7 +27677,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="252"/>
+      <c r="A13" s="262"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27701,7 +27701,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="252"/>
+      <c r="A14" s="262"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27725,7 +27725,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="253"/>
+      <c r="A15" s="263"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27758,7 +27758,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="258" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27784,7 +27784,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="249"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -27808,7 +27808,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="249"/>
+      <c r="A19" s="259"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -27832,7 +27832,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="249"/>
+      <c r="A20" s="259"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -27856,7 +27856,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="249"/>
+      <c r="A21" s="259"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -27880,7 +27880,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="249"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -27904,7 +27904,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
+      <c r="A23" s="259"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -27928,7 +27928,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="250"/>
+      <c r="A24" s="260"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -27972,7 +27972,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="261" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -27995,7 +27995,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="252"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28016,7 +28016,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="253"/>
+      <c r="A29" s="263"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28066,10 +28066,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="248" t="s">
+      <c r="A34" s="258" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="260" t="str">
+      <c r="B34" s="254" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28090,8 +28090,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="249"/>
-      <c r="B35" s="261"/>
+      <c r="A35" s="259"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28106,8 +28106,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="261"/>
+      <c r="A36" s="259"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28122,8 +28122,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="249"/>
-      <c r="B37" s="261"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28138,8 +28138,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="249"/>
-      <c r="B38" s="261"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28154,8 +28154,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="249"/>
-      <c r="B39" s="261"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28167,8 +28167,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="249"/>
-      <c r="B40" s="261"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28180,8 +28180,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="249"/>
-      <c r="B41" s="261" t="str">
+      <c r="A41" s="259"/>
+      <c r="B41" s="255" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28196,8 +28196,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="249"/>
-      <c r="B42" s="261"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="255"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28209,8 +28209,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="249"/>
-      <c r="B43" s="261"/>
+      <c r="A43" s="259"/>
+      <c r="B43" s="255"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28222,8 +28222,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="249"/>
-      <c r="B44" s="261"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28235,8 +28235,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="249"/>
-      <c r="B45" s="261"/>
+      <c r="A45" s="259"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28248,8 +28248,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="249"/>
-      <c r="B46" s="261"/>
+      <c r="A46" s="259"/>
+      <c r="B46" s="255"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28261,8 +28261,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="249"/>
-      <c r="B47" s="261" t="str">
+      <c r="A47" s="259"/>
+      <c r="B47" s="255" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28277,8 +28277,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="249"/>
-      <c r="B48" s="261"/>
+      <c r="A48" s="259"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28290,8 +28290,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="249"/>
-      <c r="B49" s="261"/>
+      <c r="A49" s="259"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28303,8 +28303,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="249"/>
-      <c r="B50" s="261"/>
+      <c r="A50" s="259"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28316,8 +28316,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="249"/>
-      <c r="B51" s="261"/>
+      <c r="A51" s="259"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28329,8 +28329,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="249"/>
-      <c r="B52" s="261" t="str">
+      <c r="A52" s="259"/>
+      <c r="B52" s="255" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28345,8 +28345,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="249"/>
-      <c r="B53" s="261"/>
+      <c r="A53" s="259"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28358,8 +28358,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="249"/>
-      <c r="B54" s="261"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28371,8 +28371,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="249"/>
-      <c r="B55" s="261" t="str">
+      <c r="A55" s="259"/>
+      <c r="B55" s="255" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28387,8 +28387,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="249"/>
-      <c r="B56" s="261"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="255"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28400,8 +28400,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="250"/>
-      <c r="B57" s="262"/>
+      <c r="A57" s="260"/>
+      <c r="B57" s="256"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28416,10 +28416,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="254" t="s">
+      <c r="A59" s="264" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="263" t="s">
+      <c r="B59" s="257" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28436,8 +28436,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="255"/>
-      <c r="B60" s="258"/>
+      <c r="A60" s="265"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28455,8 +28455,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="255"/>
-      <c r="B61" s="258"/>
+      <c r="A61" s="265"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28471,8 +28471,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="255"/>
-      <c r="B62" s="258"/>
+      <c r="A62" s="265"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28487,8 +28487,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="255"/>
-      <c r="B63" s="258"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28503,8 +28503,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="255"/>
-      <c r="B64" s="258"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28519,8 +28519,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="255"/>
-      <c r="B65" s="258"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="252"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28533,8 +28533,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="255"/>
-      <c r="B66" s="258" t="str">
+      <c r="A66" s="265"/>
+      <c r="B66" s="252" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28550,8 +28550,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="255"/>
-      <c r="B67" s="258"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="252"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28563,8 +28563,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="255"/>
-      <c r="B68" s="258"/>
+      <c r="A68" s="265"/>
+      <c r="B68" s="252"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28576,8 +28576,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="255"/>
-      <c r="B69" s="258"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28589,8 +28589,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="255"/>
-      <c r="B70" s="258"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="252"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28602,8 +28602,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="255"/>
-      <c r="B71" s="258"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28615,8 +28615,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="255"/>
-      <c r="B72" s="258"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="252"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28628,8 +28628,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="255"/>
-      <c r="B73" s="258" t="str">
+      <c r="A73" s="265"/>
+      <c r="B73" s="252" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28644,8 +28644,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="255"/>
-      <c r="B74" s="258"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="252"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28657,8 +28657,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="255"/>
-      <c r="B75" s="258"/>
+      <c r="A75" s="265"/>
+      <c r="B75" s="252"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28670,8 +28670,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="255"/>
-      <c r="B76" s="258"/>
+      <c r="A76" s="265"/>
+      <c r="B76" s="252"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28683,8 +28683,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="255"/>
-      <c r="B77" s="258"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28696,8 +28696,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="255"/>
-      <c r="B78" s="258"/>
+      <c r="A78" s="265"/>
+      <c r="B78" s="252"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28709,8 +28709,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="255"/>
-      <c r="B79" s="258"/>
+      <c r="A79" s="265"/>
+      <c r="B79" s="252"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28722,8 +28722,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="255"/>
-      <c r="B80" s="258" t="str">
+      <c r="A80" s="265"/>
+      <c r="B80" s="252" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28738,8 +28738,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="255"/>
-      <c r="B81" s="258"/>
+      <c r="A81" s="265"/>
+      <c r="B81" s="252"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28751,8 +28751,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="255"/>
-      <c r="B82" s="258"/>
+      <c r="A82" s="265"/>
+      <c r="B82" s="252"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28764,8 +28764,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="255"/>
-      <c r="B83" s="258" t="str">
+      <c r="A83" s="265"/>
+      <c r="B83" s="252" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28780,8 +28780,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="255"/>
-      <c r="B84" s="258"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="252"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28793,8 +28793,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="256"/>
-      <c r="B85" s="259"/>
+      <c r="A85" s="266"/>
+      <c r="B85" s="253"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -28821,21 +28821,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -28848,13 +28840,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29573,12 +29573,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29803,17 +29802,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29838,11 +29840,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663715DE-C88F-4C00-A799-D03CA14A9239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFDE7C-87F0-4AC6-A0CD-5BBFC76D5B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="24" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <sheet name="Freight Flight" sheetId="8" r:id="rId22"/>
     <sheet name="Rail" sheetId="9" r:id="rId23"/>
     <sheet name="Ship" sheetId="10" r:id="rId24"/>
-    <sheet name="Saved Emissions" sheetId="23" r:id="rId25"/>
+    <sheet name="Usage " sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
@@ -5767,6 +5767,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5793,36 +5823,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5878,6 +5878,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5895,12 +5901,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22304,20 +22304,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22336,7 +22336,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="289" t="s">
+      <c r="H2" s="291" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22358,7 +22358,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="289" t="s">
+      <c r="P2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22389,10 +22389,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="292" t="s">
+      <c r="AC2" s="294" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="295" t="s">
+      <c r="AD2" s="289" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22404,26 +22404,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22444,7 +22444,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="290"/>
+      <c r="H3" s="292"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="290"/>
+      <c r="P3" s="292"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22485,8 +22485,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="293"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="295"/>
+      <c r="AD3" s="252"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22531,7 +22531,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="290"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="291"/>
+      <c r="P4" s="293"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22571,8 +22571,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="293"/>
-      <c r="AD4" s="258"/>
+      <c r="AC4" s="295"/>
+      <c r="AD4" s="252"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22620,7 +22620,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="290"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22645,8 +22645,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="293"/>
-      <c r="AD5" s="258"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="252"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22679,7 +22679,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="290"/>
+      <c r="H6" s="292"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22706,8 +22706,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="293"/>
-      <c r="AD6" s="258"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="252"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22745,7 +22745,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="290"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22772,8 +22772,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="258"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="252"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22808,7 +22808,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="290"/>
+      <c r="H8" s="292"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22835,8 +22835,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="293"/>
-      <c r="AD8" s="258"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="252"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22871,7 +22871,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="291"/>
+      <c r="H9" s="293"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22898,8 +22898,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="293"/>
-      <c r="AD9" s="258" t="s">
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="252" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22942,8 +22942,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="293"/>
-      <c r="AD10" s="258"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="252"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -22976,7 +22976,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="292" t="s">
+      <c r="H11" s="294" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -22997,8 +22997,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="293"/>
-      <c r="AD11" s="258"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="252"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23017,7 +23017,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="293"/>
+      <c r="H12" s="295"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23036,8 +23036,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="293"/>
-      <c r="AD12" s="258"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="252"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23056,7 +23056,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="293"/>
+      <c r="H13" s="295"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23075,8 +23075,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="293"/>
-      <c r="AD13" s="258"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="252"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23095,7 +23095,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="293"/>
+      <c r="H14" s="295"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23114,8 +23114,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="293"/>
-      <c r="AD14" s="258"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="252"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23134,7 +23134,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="293"/>
+      <c r="H15" s="295"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23153,8 +23153,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="293"/>
-      <c r="AD15" s="258" t="s">
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="252" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23172,7 +23172,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="293"/>
+      <c r="H16" s="295"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23191,8 +23191,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="293"/>
-      <c r="AD16" s="258"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="252"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23211,7 +23211,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="293"/>
+      <c r="H17" s="295"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23230,8 +23230,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="293"/>
-      <c r="AD17" s="258"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="252"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23250,7 +23250,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="294"/>
+      <c r="H18" s="296"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23269,8 +23269,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="293"/>
-      <c r="AD18" s="258"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="252"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23289,8 +23289,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="258"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="252"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23309,8 +23309,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="293"/>
-      <c r="AD20" s="258" t="s">
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="252" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23331,8 +23331,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="258"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="252"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23351,8 +23351,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="293"/>
-      <c r="AD22" s="258"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="252"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23371,8 +23371,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="293"/>
-      <c r="AD23" s="258" t="s">
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="252" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23393,8 +23393,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="258"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="252"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23407,8 +23407,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="294"/>
-      <c r="AD25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="290"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23425,10 +23425,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="292" t="s">
+      <c r="AC27" s="294" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="295" t="s">
+      <c r="AD27" s="289" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23445,8 +23445,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="293"/>
-      <c r="AD28" s="258"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="252"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23461,8 +23461,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="293"/>
-      <c r="AD29" s="258"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="252"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23474,8 +23474,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="293"/>
-      <c r="AD30" s="258"/>
+      <c r="AC30" s="295"/>
+      <c r="AD30" s="252"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23489,8 +23489,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="293"/>
-      <c r="AD31" s="258"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="252"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23502,8 +23502,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="293"/>
-      <c r="AD32" s="258"/>
+      <c r="AC32" s="295"/>
+      <c r="AD32" s="252"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23516,8 +23516,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="293"/>
-      <c r="AD33" s="258"/>
+      <c r="AC33" s="295"/>
+      <c r="AD33" s="252"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23534,8 +23534,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="293"/>
-      <c r="AD34" s="258" t="s">
+      <c r="AC34" s="295"/>
+      <c r="AD34" s="252" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23554,8 +23554,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="293"/>
-      <c r="AD35" s="258"/>
+      <c r="AC35" s="295"/>
+      <c r="AD35" s="252"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23572,8 +23572,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="293"/>
-      <c r="AD36" s="258"/>
+      <c r="AC36" s="295"/>
+      <c r="AD36" s="252"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23590,8 +23590,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="293"/>
-      <c r="AD37" s="258"/>
+      <c r="AC37" s="295"/>
+      <c r="AD37" s="252"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23608,8 +23608,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="293"/>
-      <c r="AD38" s="258"/>
+      <c r="AC38" s="295"/>
+      <c r="AD38" s="252"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23626,8 +23626,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="293"/>
-      <c r="AD39" s="258"/>
+      <c r="AC39" s="295"/>
+      <c r="AD39" s="252"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23644,8 +23644,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="293"/>
-      <c r="AD40" s="258"/>
+      <c r="AC40" s="295"/>
+      <c r="AD40" s="252"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23662,8 +23662,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="293"/>
-      <c r="AD41" s="258" t="s">
+      <c r="AC41" s="295"/>
+      <c r="AD41" s="252" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23682,8 +23682,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="293"/>
-      <c r="AD42" s="258"/>
+      <c r="AC42" s="295"/>
+      <c r="AD42" s="252"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23700,8 +23700,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="293"/>
-      <c r="AD43" s="258"/>
+      <c r="AC43" s="295"/>
+      <c r="AD43" s="252"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23718,8 +23718,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="293"/>
-      <c r="AD44" s="258"/>
+      <c r="AC44" s="295"/>
+      <c r="AD44" s="252"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23736,8 +23736,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="293"/>
-      <c r="AD45" s="258"/>
+      <c r="AC45" s="295"/>
+      <c r="AD45" s="252"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23754,8 +23754,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="293"/>
-      <c r="AD46" s="258"/>
+      <c r="AC46" s="295"/>
+      <c r="AD46" s="252"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23772,8 +23772,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="293"/>
-      <c r="AD47" s="258"/>
+      <c r="AC47" s="295"/>
+      <c r="AD47" s="252"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23790,8 +23790,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="293"/>
-      <c r="AD48" s="258" t="s">
+      <c r="AC48" s="295"/>
+      <c r="AD48" s="252" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23810,8 +23810,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="293"/>
-      <c r="AD49" s="258"/>
+      <c r="AC49" s="295"/>
+      <c r="AD49" s="252"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23828,8 +23828,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="293"/>
-      <c r="AD50" s="258"/>
+      <c r="AC50" s="295"/>
+      <c r="AD50" s="252"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23846,8 +23846,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="293"/>
-      <c r="AD51" s="258" t="s">
+      <c r="AC51" s="295"/>
+      <c r="AD51" s="252" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23866,8 +23866,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="293"/>
-      <c r="AD52" s="258"/>
+      <c r="AC52" s="295"/>
+      <c r="AD52" s="252"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23884,8 +23884,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="293"/>
-      <c r="AD53" s="258"/>
+      <c r="AC53" s="295"/>
+      <c r="AD53" s="252"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23902,7 +23902,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="293"/>
+      <c r="AC54" s="295"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23922,7 +23922,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="294"/>
+      <c r="AC55" s="296"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24155,11 +24155,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24176,11 +24176,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24566,7 +24566,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24587,7 +24587,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24608,7 +24608,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24629,7 +24629,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24650,7 +24650,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24671,7 +24671,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24692,7 +24692,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="291"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24713,7 +24713,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="291" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24736,7 +24736,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24757,7 +24757,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24778,7 +24778,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24799,7 +24799,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24820,7 +24820,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24841,7 +24841,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24862,7 +24862,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="291"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25600,7 +25600,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25619,7 +25619,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25636,7 +25636,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="291"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25832,7 +25832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="291" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25858,7 +25858,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="290"/>
+      <c r="A2" s="292"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25880,7 +25880,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25902,7 +25902,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -25924,7 +25924,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -25946,7 +25946,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -25968,7 +25968,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -25990,7 +25990,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -26014,7 +26014,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="290"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26036,7 +26036,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="290"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26058,7 +26058,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26080,7 +26080,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26102,7 +26102,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26124,7 +26124,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26148,7 +26148,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26170,7 +26170,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26192,7 +26192,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="290"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26214,7 +26214,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="290"/>
+      <c r="A18" s="292"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26236,7 +26236,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="290"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26260,7 +26260,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="290"/>
+      <c r="A20" s="292"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26282,7 +26282,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="290"/>
+      <c r="A21" s="292"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26304,7 +26304,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="290"/>
+      <c r="A22" s="292"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26328,7 +26328,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="290"/>
+      <c r="A23" s="292"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26350,7 +26350,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="291"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26372,7 +26372,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="292" t="s">
+      <c r="A25" s="294" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26398,7 +26398,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="293"/>
+      <c r="A26" s="295"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26420,7 +26420,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="293"/>
+      <c r="A27" s="295"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26442,7 +26442,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="293"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26464,7 +26464,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="293"/>
+      <c r="A29" s="295"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26486,7 +26486,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="293"/>
+      <c r="A30" s="295"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26508,7 +26508,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="293"/>
+      <c r="A31" s="295"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26530,7 +26530,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="293"/>
+      <c r="A32" s="295"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26554,7 +26554,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="293"/>
+      <c r="A33" s="295"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26576,7 +26576,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="293"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26598,7 +26598,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="293"/>
+      <c r="A35" s="295"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26620,7 +26620,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="293"/>
+      <c r="A36" s="295"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26642,7 +26642,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="293"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26664,7 +26664,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="293"/>
+      <c r="A38" s="295"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26686,7 +26686,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="293"/>
+      <c r="A39" s="295"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26710,7 +26710,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="293"/>
+      <c r="A40" s="295"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26732,7 +26732,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="293"/>
+      <c r="A41" s="295"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26754,7 +26754,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="293"/>
+      <c r="A42" s="295"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26776,7 +26776,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="293"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26798,7 +26798,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="293"/>
+      <c r="A44" s="295"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26820,7 +26820,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="293"/>
+      <c r="A45" s="295"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26842,7 +26842,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="293"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26866,7 +26866,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="293"/>
+      <c r="A47" s="295"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26888,7 +26888,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="293"/>
+      <c r="A48" s="295"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -26910,7 +26910,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="293"/>
+      <c r="A49" s="295"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -26934,7 +26934,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="293"/>
+      <c r="A50" s="295"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -26956,7 +26956,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="293"/>
+      <c r="A51" s="295"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -26978,7 +26978,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="293"/>
+      <c r="A52" s="295"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27002,7 +27002,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="294"/>
+      <c r="A53" s="296"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27060,7 +27060,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27305,50 +27305,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="265"/>
-      <c r="AM1" s="265"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="251"/>
+      <c r="AJ1" s="251"/>
+      <c r="AK1" s="251"/>
+      <c r="AL1" s="251"/>
+      <c r="AM1" s="251"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="261" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27385,33 +27385,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="250"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
+      <c r="A3" s="262"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27469,7 +27469,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="252"/>
+      <c r="A4" s="262"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27530,7 +27530,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="253"/>
+      <c r="A5" s="263"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27680,7 +27680,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="261" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27735,7 +27735,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="252"/>
+      <c r="A9" s="262"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27786,7 +27786,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="252"/>
+      <c r="A10" s="262"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27833,7 +27833,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="252"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27857,7 +27857,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="252"/>
+      <c r="A12" s="262"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27881,7 +27881,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="252"/>
+      <c r="A13" s="262"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -27905,7 +27905,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="252"/>
+      <c r="A14" s="262"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -27929,7 +27929,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="253"/>
+      <c r="A15" s="263"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -27962,7 +27962,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="258" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -27988,7 +27988,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="249"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28012,7 +28012,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="249"/>
+      <c r="A19" s="259"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28036,7 +28036,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="249"/>
+      <c r="A20" s="259"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28060,7 +28060,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="249"/>
+      <c r="A21" s="259"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28084,7 +28084,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="249"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28108,7 +28108,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
+      <c r="A23" s="259"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28132,7 +28132,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="250"/>
+      <c r="A24" s="260"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28176,7 +28176,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="261" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28199,7 +28199,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="252"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28220,7 +28220,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="253"/>
+      <c r="A29" s="263"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28270,10 +28270,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="248" t="s">
+      <c r="A34" s="258" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="260" t="str">
+      <c r="B34" s="254" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28294,8 +28294,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="249"/>
-      <c r="B35" s="261"/>
+      <c r="A35" s="259"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28310,8 +28310,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="261"/>
+      <c r="A36" s="259"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28326,8 +28326,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="249"/>
-      <c r="B37" s="261"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28342,8 +28342,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="249"/>
-      <c r="B38" s="261"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28358,8 +28358,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="249"/>
-      <c r="B39" s="261"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28371,8 +28371,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="249"/>
-      <c r="B40" s="261"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28384,8 +28384,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="249"/>
-      <c r="B41" s="261" t="str">
+      <c r="A41" s="259"/>
+      <c r="B41" s="255" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28400,8 +28400,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="249"/>
-      <c r="B42" s="261"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="255"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28413,8 +28413,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="249"/>
-      <c r="B43" s="261"/>
+      <c r="A43" s="259"/>
+      <c r="B43" s="255"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28426,8 +28426,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="249"/>
-      <c r="B44" s="261"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28439,8 +28439,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="249"/>
-      <c r="B45" s="261"/>
+      <c r="A45" s="259"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28452,8 +28452,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="249"/>
-      <c r="B46" s="261"/>
+      <c r="A46" s="259"/>
+      <c r="B46" s="255"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28465,8 +28465,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="249"/>
-      <c r="B47" s="261" t="str">
+      <c r="A47" s="259"/>
+      <c r="B47" s="255" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28481,8 +28481,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="249"/>
-      <c r="B48" s="261"/>
+      <c r="A48" s="259"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28494,8 +28494,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="249"/>
-      <c r="B49" s="261"/>
+      <c r="A49" s="259"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28507,8 +28507,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="249"/>
-      <c r="B50" s="261"/>
+      <c r="A50" s="259"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28520,8 +28520,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="249"/>
-      <c r="B51" s="261"/>
+      <c r="A51" s="259"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28533,8 +28533,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="249"/>
-      <c r="B52" s="261" t="str">
+      <c r="A52" s="259"/>
+      <c r="B52" s="255" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28549,8 +28549,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="249"/>
-      <c r="B53" s="261"/>
+      <c r="A53" s="259"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28562,8 +28562,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="249"/>
-      <c r="B54" s="261"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28575,8 +28575,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="249"/>
-      <c r="B55" s="261" t="str">
+      <c r="A55" s="259"/>
+      <c r="B55" s="255" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28591,8 +28591,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="249"/>
-      <c r="B56" s="261"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="255"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28604,8 +28604,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="250"/>
-      <c r="B57" s="262"/>
+      <c r="A57" s="260"/>
+      <c r="B57" s="256"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28620,10 +28620,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="254" t="s">
+      <c r="A59" s="264" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="263" t="s">
+      <c r="B59" s="257" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28640,8 +28640,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="255"/>
-      <c r="B60" s="258"/>
+      <c r="A60" s="265"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28659,8 +28659,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="255"/>
-      <c r="B61" s="258"/>
+      <c r="A61" s="265"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28675,8 +28675,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="255"/>
-      <c r="B62" s="258"/>
+      <c r="A62" s="265"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28691,8 +28691,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="255"/>
-      <c r="B63" s="258"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28707,8 +28707,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="255"/>
-      <c r="B64" s="258"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28723,8 +28723,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="255"/>
-      <c r="B65" s="258"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="252"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28737,8 +28737,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="255"/>
-      <c r="B66" s="258" t="str">
+      <c r="A66" s="265"/>
+      <c r="B66" s="252" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28754,8 +28754,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="255"/>
-      <c r="B67" s="258"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="252"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28767,8 +28767,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="255"/>
-      <c r="B68" s="258"/>
+      <c r="A68" s="265"/>
+      <c r="B68" s="252"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28780,8 +28780,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="255"/>
-      <c r="B69" s="258"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28793,8 +28793,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="255"/>
-      <c r="B70" s="258"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="252"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28806,8 +28806,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="255"/>
-      <c r="B71" s="258"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28819,8 +28819,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="255"/>
-      <c r="B72" s="258"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="252"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28832,8 +28832,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="255"/>
-      <c r="B73" s="258" t="str">
+      <c r="A73" s="265"/>
+      <c r="B73" s="252" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28848,8 +28848,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="255"/>
-      <c r="B74" s="258"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="252"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28861,8 +28861,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="255"/>
-      <c r="B75" s="258"/>
+      <c r="A75" s="265"/>
+      <c r="B75" s="252"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28874,8 +28874,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="255"/>
-      <c r="B76" s="258"/>
+      <c r="A76" s="265"/>
+      <c r="B76" s="252"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -28887,8 +28887,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="255"/>
-      <c r="B77" s="258"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -28900,8 +28900,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="255"/>
-      <c r="B78" s="258"/>
+      <c r="A78" s="265"/>
+      <c r="B78" s="252"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -28913,8 +28913,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="255"/>
-      <c r="B79" s="258"/>
+      <c r="A79" s="265"/>
+      <c r="B79" s="252"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -28926,8 +28926,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="255"/>
-      <c r="B80" s="258" t="str">
+      <c r="A80" s="265"/>
+      <c r="B80" s="252" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -28942,8 +28942,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="255"/>
-      <c r="B81" s="258"/>
+      <c r="A81" s="265"/>
+      <c r="B81" s="252"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -28955,8 +28955,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="255"/>
-      <c r="B82" s="258"/>
+      <c r="A82" s="265"/>
+      <c r="B82" s="252"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -28968,8 +28968,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="255"/>
-      <c r="B83" s="258" t="str">
+      <c r="A83" s="265"/>
+      <c r="B83" s="252" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -28984,8 +28984,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="255"/>
-      <c r="B84" s="258"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="252"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -28997,8 +28997,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="256"/>
-      <c r="B85" s="259"/>
+      <c r="A85" s="266"/>
+      <c r="B85" s="253"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29025,21 +29025,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29052,13 +29044,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29777,12 +29777,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30007,17 +30006,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30042,11 +30044,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992AA54-B39C-4CD6-82E8-4686E6B8C135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C056CF3-FD78-49E1-872E-EDA13741805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="19" activeTab="27" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,26 @@
     <sheet name="Facilities" sheetId="20" r:id="rId9"/>
     <sheet name="Process" sheetId="19" r:id="rId10"/>
     <sheet name="Machine_Process" sheetId="24" r:id="rId11"/>
-    <sheet name="YCM" sheetId="25" r:id="rId12"/>
-    <sheet name="Amada" sheetId="26" r:id="rId13"/>
-    <sheet name="Mazak" sheetId="27" r:id="rId14"/>
-    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId15"/>
-    <sheet name="Packaging" sheetId="16" r:id="rId16"/>
-    <sheet name="Manufacturing" sheetId="15" r:id="rId17"/>
-    <sheet name="Test Page" sheetId="3" r:id="rId18"/>
-    <sheet name="Transport Test Page" sheetId="5" r:id="rId19"/>
-    <sheet name="Van" sheetId="6" r:id="rId20"/>
-    <sheet name="HGV" sheetId="7" r:id="rId21"/>
-    <sheet name="Freight Flight" sheetId="8" r:id="rId22"/>
-    <sheet name="Rail" sheetId="9" r:id="rId23"/>
-    <sheet name="Ship" sheetId="10" r:id="rId24"/>
-    <sheet name="Usage" sheetId="23" r:id="rId25"/>
-    <sheet name="End-of-Life" sheetId="28" r:id="rId26"/>
-    <sheet name="Sheet2" sheetId="29" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="30" r:id="rId12"/>
+    <sheet name="YCM" sheetId="25" r:id="rId13"/>
+    <sheet name="Amada" sheetId="26" r:id="rId14"/>
+    <sheet name="Mazak" sheetId="27" r:id="rId15"/>
+    <sheet name="GWP of GHG_gases" sheetId="18" r:id="rId16"/>
+    <sheet name="Packaging" sheetId="16" r:id="rId17"/>
+    <sheet name="Manufacturing" sheetId="15" r:id="rId18"/>
+    <sheet name="Test Page" sheetId="3" r:id="rId19"/>
+    <sheet name="Transport Test Page" sheetId="5" r:id="rId20"/>
+    <sheet name="Van" sheetId="6" r:id="rId21"/>
+    <sheet name="HGV" sheetId="7" r:id="rId22"/>
+    <sheet name="Freight Flight" sheetId="8" r:id="rId23"/>
+    <sheet name="Rail" sheetId="9" r:id="rId24"/>
+    <sheet name="Ship" sheetId="10" r:id="rId25"/>
+    <sheet name="Usage" sheetId="23" r:id="rId26"/>
+    <sheet name="End-of-Life" sheetId="28" r:id="rId27"/>
+    <sheet name="Sheet5" sheetId="33" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
     <definedName name="wttTransport">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1203">
   <si>
     <t>Country</t>
   </si>
@@ -3828,6 +3829,18 @@
   </si>
   <si>
     <t>Mazak</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>Joining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riveting             </t>
   </si>
 </sst>
 </file>
@@ -5796,6 +5809,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5822,36 +5865,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5907,6 +5920,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5924,12 +5943,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8549,7 +8562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40758563-BC2E-44F0-BF67-4E97AC986071}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -8626,6 +8639,44 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F48FCBE-F0C2-4115-84CD-FF9218AB72F9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5ED27-5C55-4A47-B051-D3E221619D22}">
   <dimension ref="A1:E100"/>
   <sheetViews>
@@ -9752,13 +9803,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9920F0A-7BF3-44E3-9D30-DF809E59ED17}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10078,7 +10127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC407A-E4C2-4651-A59D-6A61F758042C}">
   <dimension ref="A1:E277"/>
   <sheetViews>
@@ -14807,7 +14856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A86444-194D-475C-A119-79201F84CD65}">
   <dimension ref="A1:C202"/>
   <sheetViews>
@@ -17054,12 +17103,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CF364-998B-474D-A19B-22FEFE188380}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17193,7 +17242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125FD3FB-F912-42B3-B605-31DC335FC9DA}">
   <dimension ref="A1:L258"/>
   <sheetViews>
@@ -21172,7 +21221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849DADDE-0FC9-4C51-8BB1-BFE5AFC7081B}">
   <dimension ref="A1:AS10"/>
   <sheetViews>
@@ -22189,7 +22238,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9393A-9557-43CE-B45F-3D30F980E3AF}">
   <dimension ref="A1:BA87"/>
   <sheetViews>
@@ -22350,20 +22448,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22382,7 +22480,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="289" t="s">
+      <c r="H2" s="291" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22404,7 +22502,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="289" t="s">
+      <c r="P2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22435,10 +22533,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="292" t="s">
+      <c r="AC2" s="294" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="295" t="s">
+      <c r="AD2" s="289" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22450,26 +22548,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22490,7 +22588,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="290"/>
+      <c r="H3" s="292"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22510,7 +22608,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="290"/>
+      <c r="P3" s="292"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22531,8 +22629,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="293"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="295"/>
+      <c r="AD3" s="252"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22577,7 +22675,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="290"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22597,7 +22695,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="291"/>
+      <c r="P4" s="293"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22617,8 +22715,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="293"/>
-      <c r="AD4" s="258"/>
+      <c r="AC4" s="295"/>
+      <c r="AD4" s="252"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22666,7 +22764,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="290"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22691,8 +22789,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="293"/>
-      <c r="AD5" s="258"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="252"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22725,7 +22823,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="290"/>
+      <c r="H6" s="292"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22752,8 +22850,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="293"/>
-      <c r="AD6" s="258"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="252"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22791,7 +22889,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="290"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22818,8 +22916,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="258"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="252"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22854,7 +22952,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="290"/>
+      <c r="H8" s="292"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22881,8 +22979,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="293"/>
-      <c r="AD8" s="258"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="252"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -22917,7 +23015,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="291"/>
+      <c r="H9" s="293"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -22944,8 +23042,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="293"/>
-      <c r="AD9" s="258" t="s">
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="252" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -22988,8 +23086,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="293"/>
-      <c r="AD10" s="258"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="252"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23022,7 +23120,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="292" t="s">
+      <c r="H11" s="294" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23043,8 +23141,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="293"/>
-      <c r="AD11" s="258"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="252"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23063,7 +23161,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="293"/>
+      <c r="H12" s="295"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23082,8 +23180,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="293"/>
-      <c r="AD12" s="258"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="252"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23102,7 +23200,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="293"/>
+      <c r="H13" s="295"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23121,8 +23219,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="293"/>
-      <c r="AD13" s="258"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="252"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23141,7 +23239,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="293"/>
+      <c r="H14" s="295"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23160,8 +23258,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="293"/>
-      <c r="AD14" s="258"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="252"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23180,7 +23278,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="293"/>
+      <c r="H15" s="295"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23199,8 +23297,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="293"/>
-      <c r="AD15" s="258" t="s">
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="252" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23218,7 +23316,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="293"/>
+      <c r="H16" s="295"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23237,8 +23335,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="293"/>
-      <c r="AD16" s="258"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="252"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23257,7 +23355,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="293"/>
+      <c r="H17" s="295"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23276,8 +23374,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="293"/>
-      <c r="AD17" s="258"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="252"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23296,7 +23394,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="294"/>
+      <c r="H18" s="296"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23315,8 +23413,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="293"/>
-      <c r="AD18" s="258"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="252"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23335,8 +23433,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="258"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="252"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23355,8 +23453,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="293"/>
-      <c r="AD20" s="258" t="s">
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="252" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23377,8 +23475,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="258"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="252"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23397,8 +23495,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="293"/>
-      <c r="AD22" s="258"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="252"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23417,8 +23515,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="293"/>
-      <c r="AD23" s="258" t="s">
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="252" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23439,8 +23537,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="258"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="252"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23453,8 +23551,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="294"/>
-      <c r="AD25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="290"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23471,10 +23569,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="292" t="s">
+      <c r="AC27" s="294" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="295" t="s">
+      <c r="AD27" s="289" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23491,8 +23589,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="293"/>
-      <c r="AD28" s="258"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="252"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23507,8 +23605,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="293"/>
-      <c r="AD29" s="258"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="252"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23520,8 +23618,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="293"/>
-      <c r="AD30" s="258"/>
+      <c r="AC30" s="295"/>
+      <c r="AD30" s="252"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23535,8 +23633,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="293"/>
-      <c r="AD31" s="258"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="252"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23548,8 +23646,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="293"/>
-      <c r="AD32" s="258"/>
+      <c r="AC32" s="295"/>
+      <c r="AD32" s="252"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23562,8 +23660,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="293"/>
-      <c r="AD33" s="258"/>
+      <c r="AC33" s="295"/>
+      <c r="AD33" s="252"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23580,8 +23678,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="293"/>
-      <c r="AD34" s="258" t="s">
+      <c r="AC34" s="295"/>
+      <c r="AD34" s="252" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23600,8 +23698,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="293"/>
-      <c r="AD35" s="258"/>
+      <c r="AC35" s="295"/>
+      <c r="AD35" s="252"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23618,8 +23716,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="293"/>
-      <c r="AD36" s="258"/>
+      <c r="AC36" s="295"/>
+      <c r="AD36" s="252"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23636,8 +23734,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="293"/>
-      <c r="AD37" s="258"/>
+      <c r="AC37" s="295"/>
+      <c r="AD37" s="252"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23654,8 +23752,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="293"/>
-      <c r="AD38" s="258"/>
+      <c r="AC38" s="295"/>
+      <c r="AD38" s="252"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23672,8 +23770,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="293"/>
-      <c r="AD39" s="258"/>
+      <c r="AC39" s="295"/>
+      <c r="AD39" s="252"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23690,8 +23788,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="293"/>
-      <c r="AD40" s="258"/>
+      <c r="AC40" s="295"/>
+      <c r="AD40" s="252"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23708,8 +23806,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="293"/>
-      <c r="AD41" s="258" t="s">
+      <c r="AC41" s="295"/>
+      <c r="AD41" s="252" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23728,8 +23826,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="293"/>
-      <c r="AD42" s="258"/>
+      <c r="AC42" s="295"/>
+      <c r="AD42" s="252"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23746,8 +23844,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="293"/>
-      <c r="AD43" s="258"/>
+      <c r="AC43" s="295"/>
+      <c r="AD43" s="252"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23764,8 +23862,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="293"/>
-      <c r="AD44" s="258"/>
+      <c r="AC44" s="295"/>
+      <c r="AD44" s="252"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23782,8 +23880,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="293"/>
-      <c r="AD45" s="258"/>
+      <c r="AC45" s="295"/>
+      <c r="AD45" s="252"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23800,8 +23898,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="293"/>
-      <c r="AD46" s="258"/>
+      <c r="AC46" s="295"/>
+      <c r="AD46" s="252"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23818,8 +23916,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="293"/>
-      <c r="AD47" s="258"/>
+      <c r="AC47" s="295"/>
+      <c r="AD47" s="252"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23836,8 +23934,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="293"/>
-      <c r="AD48" s="258" t="s">
+      <c r="AC48" s="295"/>
+      <c r="AD48" s="252" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23856,8 +23954,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="293"/>
-      <c r="AD49" s="258"/>
+      <c r="AC49" s="295"/>
+      <c r="AD49" s="252"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23874,8 +23972,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="293"/>
-      <c r="AD50" s="258"/>
+      <c r="AC50" s="295"/>
+      <c r="AD50" s="252"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23892,8 +23990,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="293"/>
-      <c r="AD51" s="258" t="s">
+      <c r="AC51" s="295"/>
+      <c r="AD51" s="252" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -23912,8 +24010,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="293"/>
-      <c r="AD52" s="258"/>
+      <c r="AC52" s="295"/>
+      <c r="AD52" s="252"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -23930,8 +24028,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="293"/>
-      <c r="AD53" s="258"/>
+      <c r="AC53" s="295"/>
+      <c r="AD53" s="252"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -23948,7 +24046,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="293"/>
+      <c r="AC54" s="295"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -23968,7 +24066,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="294"/>
+      <c r="AC55" s="296"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24201,11 +24299,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24222,66 +24320,17 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0106BF25-6E1B-4ABE-8D5A-6298F4CF417E}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A67C1-863C-4D0A-AB75-769F53F13581}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -24542,7 +24591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575608-A208-4FA3-B2A7-52252785E223}">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -24612,7 +24661,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24633,7 +24682,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24654,7 +24703,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24675,7 +24724,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24696,7 +24745,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24717,7 +24766,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24738,7 +24787,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="291"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24759,7 +24808,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="291" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24782,7 +24831,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24803,7 +24852,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24824,7 +24873,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24845,7 +24894,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24866,7 +24915,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24887,7 +24936,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24908,7 +24957,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="291"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25605,7 +25654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F21157-5890-4EBA-B0AE-602E13F3870B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -25646,7 +25695,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25665,7 +25714,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25682,7 +25731,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="291"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25783,7 +25832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B34E775-85CC-45C0-893B-9A87883C486D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -25859,7 +25908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B295B0C8-B8D2-4684-B32D-14EED3B83A5D}">
   <dimension ref="A1:N54"/>
   <sheetViews>
@@ -25878,7 +25927,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="291" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25904,7 +25953,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="290"/>
+      <c r="A2" s="292"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25926,7 +25975,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25948,7 +25997,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -25970,7 +26019,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -25992,7 +26041,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -26014,7 +26063,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -26036,7 +26085,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -26060,7 +26109,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="290"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26082,7 +26131,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="290"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26104,7 +26153,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26126,7 +26175,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26148,7 +26197,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26170,7 +26219,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26194,7 +26243,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26216,7 +26265,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26238,7 +26287,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="290"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26260,7 +26309,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="290"/>
+      <c r="A18" s="292"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26282,7 +26331,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="290"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26306,7 +26355,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="290"/>
+      <c r="A20" s="292"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26328,7 +26377,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="290"/>
+      <c r="A21" s="292"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26350,7 +26399,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="290"/>
+      <c r="A22" s="292"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26374,7 +26423,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="290"/>
+      <c r="A23" s="292"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26396,7 +26445,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="291"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26418,7 +26467,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="292" t="s">
+      <c r="A25" s="294" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26444,7 +26493,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="293"/>
+      <c r="A26" s="295"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26466,7 +26515,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="293"/>
+      <c r="A27" s="295"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26488,7 +26537,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="293"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26510,7 +26559,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="293"/>
+      <c r="A29" s="295"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26532,7 +26581,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="293"/>
+      <c r="A30" s="295"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26554,7 +26603,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="293"/>
+      <c r="A31" s="295"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26576,7 +26625,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="293"/>
+      <c r="A32" s="295"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26600,7 +26649,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="293"/>
+      <c r="A33" s="295"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26622,7 +26671,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="293"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26644,7 +26693,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="293"/>
+      <c r="A35" s="295"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26666,7 +26715,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="293"/>
+      <c r="A36" s="295"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26688,7 +26737,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="293"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26710,7 +26759,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="293"/>
+      <c r="A38" s="295"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26732,7 +26781,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="293"/>
+      <c r="A39" s="295"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26756,7 +26805,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="293"/>
+      <c r="A40" s="295"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26778,7 +26827,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="293"/>
+      <c r="A41" s="295"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26800,7 +26849,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="293"/>
+      <c r="A42" s="295"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26822,7 +26871,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="293"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26844,7 +26893,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="293"/>
+      <c r="A44" s="295"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26866,7 +26915,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="293"/>
+      <c r="A45" s="295"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26888,7 +26937,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="293"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26912,7 +26961,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="293"/>
+      <c r="A47" s="295"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26934,7 +26983,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="293"/>
+      <c r="A48" s="295"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -26956,7 +27005,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="293"/>
+      <c r="A49" s="295"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -26980,7 +27029,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="293"/>
+      <c r="A50" s="295"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -27002,7 +27051,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="293"/>
+      <c r="A51" s="295"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -27024,7 +27073,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="293"/>
+      <c r="A52" s="295"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27048,7 +27097,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="294"/>
+      <c r="A53" s="296"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27101,7 +27150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36372D-BEA7-49ED-9CF5-457AED3DBFA9}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -27271,12 +27320,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EA6866-CC52-4B36-986B-C6BF1DEA1D59}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27329,14 +27378,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5117A25-748F-47E0-A945-CAB73D9169A8}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC10D59-E4D1-471E-9848-DB3F19451A42}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="162" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1" s="162" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B2">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27421,50 +27505,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="265"/>
-      <c r="AM1" s="265"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="251"/>
+      <c r="AJ1" s="251"/>
+      <c r="AK1" s="251"/>
+      <c r="AL1" s="251"/>
+      <c r="AM1" s="251"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="261" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27501,33 +27585,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="250"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
+      <c r="A3" s="262"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27585,7 +27669,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="252"/>
+      <c r="A4" s="262"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27646,7 +27730,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="253"/>
+      <c r="A5" s="263"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27796,7 +27880,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="261" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27851,7 +27935,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="252"/>
+      <c r="A9" s="262"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27902,7 +27986,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="252"/>
+      <c r="A10" s="262"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -27949,7 +28033,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="252"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -27973,7 +28057,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="252"/>
+      <c r="A12" s="262"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -27997,7 +28081,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="252"/>
+      <c r="A13" s="262"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -28021,7 +28105,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="252"/>
+      <c r="A14" s="262"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28045,7 +28129,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="253"/>
+      <c r="A15" s="263"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28078,7 +28162,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="258" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28104,7 +28188,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="249"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28128,7 +28212,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="249"/>
+      <c r="A19" s="259"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28152,7 +28236,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="249"/>
+      <c r="A20" s="259"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28176,7 +28260,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="249"/>
+      <c r="A21" s="259"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28200,7 +28284,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="249"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28224,7 +28308,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
+      <c r="A23" s="259"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28248,7 +28332,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="250"/>
+      <c r="A24" s="260"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28292,7 +28376,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="261" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28315,7 +28399,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="252"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28336,7 +28420,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="253"/>
+      <c r="A29" s="263"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28386,10 +28470,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="248" t="s">
+      <c r="A34" s="258" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="260" t="str">
+      <c r="B34" s="254" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28410,8 +28494,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="249"/>
-      <c r="B35" s="261"/>
+      <c r="A35" s="259"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28426,8 +28510,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="261"/>
+      <c r="A36" s="259"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28442,8 +28526,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="249"/>
-      <c r="B37" s="261"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28458,8 +28542,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="249"/>
-      <c r="B38" s="261"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28474,8 +28558,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="249"/>
-      <c r="B39" s="261"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28487,8 +28571,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="249"/>
-      <c r="B40" s="261"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28500,8 +28584,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="249"/>
-      <c r="B41" s="261" t="str">
+      <c r="A41" s="259"/>
+      <c r="B41" s="255" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28516,8 +28600,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="249"/>
-      <c r="B42" s="261"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="255"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28529,8 +28613,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="249"/>
-      <c r="B43" s="261"/>
+      <c r="A43" s="259"/>
+      <c r="B43" s="255"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28542,8 +28626,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="249"/>
-      <c r="B44" s="261"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28555,8 +28639,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="249"/>
-      <c r="B45" s="261"/>
+      <c r="A45" s="259"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28568,8 +28652,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="249"/>
-      <c r="B46" s="261"/>
+      <c r="A46" s="259"/>
+      <c r="B46" s="255"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28581,8 +28665,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="249"/>
-      <c r="B47" s="261" t="str">
+      <c r="A47" s="259"/>
+      <c r="B47" s="255" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28597,8 +28681,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="249"/>
-      <c r="B48" s="261"/>
+      <c r="A48" s="259"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28610,8 +28694,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="249"/>
-      <c r="B49" s="261"/>
+      <c r="A49" s="259"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28623,8 +28707,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="249"/>
-      <c r="B50" s="261"/>
+      <c r="A50" s="259"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28636,8 +28720,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="249"/>
-      <c r="B51" s="261"/>
+      <c r="A51" s="259"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28649,8 +28733,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="249"/>
-      <c r="B52" s="261" t="str">
+      <c r="A52" s="259"/>
+      <c r="B52" s="255" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28665,8 +28749,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="249"/>
-      <c r="B53" s="261"/>
+      <c r="A53" s="259"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28678,8 +28762,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="249"/>
-      <c r="B54" s="261"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28691,8 +28775,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="249"/>
-      <c r="B55" s="261" t="str">
+      <c r="A55" s="259"/>
+      <c r="B55" s="255" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28707,8 +28791,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="249"/>
-      <c r="B56" s="261"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="255"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28720,8 +28804,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="250"/>
-      <c r="B57" s="262"/>
+      <c r="A57" s="260"/>
+      <c r="B57" s="256"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28736,10 +28820,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="254" t="s">
+      <c r="A59" s="264" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="263" t="s">
+      <c r="B59" s="257" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28756,8 +28840,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="255"/>
-      <c r="B60" s="258"/>
+      <c r="A60" s="265"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28775,8 +28859,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="255"/>
-      <c r="B61" s="258"/>
+      <c r="A61" s="265"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28791,8 +28875,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="255"/>
-      <c r="B62" s="258"/>
+      <c r="A62" s="265"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28807,8 +28891,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="255"/>
-      <c r="B63" s="258"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28823,8 +28907,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="255"/>
-      <c r="B64" s="258"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28839,8 +28923,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="255"/>
-      <c r="B65" s="258"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="252"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28853,8 +28937,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="255"/>
-      <c r="B66" s="258" t="str">
+      <c r="A66" s="265"/>
+      <c r="B66" s="252" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28870,8 +28954,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="255"/>
-      <c r="B67" s="258"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="252"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28883,8 +28967,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="255"/>
-      <c r="B68" s="258"/>
+      <c r="A68" s="265"/>
+      <c r="B68" s="252"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28896,8 +28980,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="255"/>
-      <c r="B69" s="258"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28909,8 +28993,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="255"/>
-      <c r="B70" s="258"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="252"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -28922,8 +29006,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="255"/>
-      <c r="B71" s="258"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -28935,8 +29019,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="255"/>
-      <c r="B72" s="258"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="252"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -28948,8 +29032,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="255"/>
-      <c r="B73" s="258" t="str">
+      <c r="A73" s="265"/>
+      <c r="B73" s="252" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -28964,8 +29048,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="255"/>
-      <c r="B74" s="258"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="252"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -28977,8 +29061,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="255"/>
-      <c r="B75" s="258"/>
+      <c r="A75" s="265"/>
+      <c r="B75" s="252"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -28990,8 +29074,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="255"/>
-      <c r="B76" s="258"/>
+      <c r="A76" s="265"/>
+      <c r="B76" s="252"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -29003,8 +29087,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="255"/>
-      <c r="B77" s="258"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -29016,8 +29100,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="255"/>
-      <c r="B78" s="258"/>
+      <c r="A78" s="265"/>
+      <c r="B78" s="252"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29029,8 +29113,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="255"/>
-      <c r="B79" s="258"/>
+      <c r="A79" s="265"/>
+      <c r="B79" s="252"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29042,8 +29126,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="255"/>
-      <c r="B80" s="258" t="str">
+      <c r="A80" s="265"/>
+      <c r="B80" s="252" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29058,8 +29142,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="255"/>
-      <c r="B81" s="258"/>
+      <c r="A81" s="265"/>
+      <c r="B81" s="252"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29071,8 +29155,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="255"/>
-      <c r="B82" s="258"/>
+      <c r="A82" s="265"/>
+      <c r="B82" s="252"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29084,8 +29168,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="255"/>
-      <c r="B83" s="258" t="str">
+      <c r="A83" s="265"/>
+      <c r="B83" s="252" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29100,8 +29184,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="255"/>
-      <c r="B84" s="258"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="252"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29113,8 +29197,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="256"/>
-      <c r="B85" s="259"/>
+      <c r="A85" s="266"/>
+      <c r="B85" s="253"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29141,21 +29225,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29168,13 +29244,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29770,7 +29854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCAC664-4044-450B-B778-DDDA7976179A}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29893,12 +29979,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30123,17 +30208,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30158,11 +30246,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SPHERE/Emission Data.xlsx
+++ b/SPHERE/Emission Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lohit\Documents\GitHub\fyp-eco-project\SPHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D82522-A5B7-45A2-AD90-EC92458CE091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1D062-E016-4D19-A8BB-2543F4EB68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="19" activeTab="27" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="28" xr2:uid="{5462503A-A9EB-4450-AC80-31FA53E589A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="Usage" sheetId="23" r:id="rId26"/>
     <sheet name="End-of-Life" sheetId="28" r:id="rId27"/>
     <sheet name="Assembly" sheetId="33" r:id="rId28"/>
+    <sheet name="Waste" sheetId="34" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'GWP of GHG_gases'!$A$1:$C$202</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1207">
   <si>
     <t>Country</t>
   </si>
@@ -3841,6 +3842,18 @@
   </si>
   <si>
     <t xml:space="preserve">Riveting             </t>
+  </si>
+  <si>
+    <t>WASTE</t>
+  </si>
+  <si>
+    <t>Coolant</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
@@ -5144,7 +5157,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5809,6 +5822,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5835,36 +5878,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5920,6 +5933,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5938,12 +5957,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5955,6 +5968,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -22448,20 +22467,20 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
@@ -22480,7 +22499,7 @@
       <c r="F2" s="29">
         <v>9.4299999999999991E-3</v>
       </c>
-      <c r="H2" s="289" t="s">
+      <c r="H2" s="291" t="s">
         <v>107</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -22502,7 +22521,7 @@
         <v>0.11851</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="289" t="s">
+      <c r="P2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -22533,10 +22552,10 @@
         <v>6.9100000000000003E-3</v>
       </c>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="292" t="s">
+      <c r="AC2" s="294" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="295" t="s">
+      <c r="AD2" s="289" t="s">
         <v>133</v>
       </c>
       <c r="AE2" s="9" t="s">
@@ -22548,26 +22567,26 @@
       <c r="AG2" s="10">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
@@ -22588,7 +22607,7 @@
       <c r="F3" s="31">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="H3" s="290"/>
+      <c r="H3" s="292"/>
       <c r="I3" s="25" t="s">
         <v>109</v>
       </c>
@@ -22608,7 +22627,7 @@
         <v>0.14452999999999999</v>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="290"/>
+      <c r="P3" s="292"/>
       <c r="Q3" s="5" t="s">
         <v>126</v>
       </c>
@@ -22629,8 +22648,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="293"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="295"/>
+      <c r="AD3" s="252"/>
       <c r="AE3" s="7" t="s">
         <v>135</v>
       </c>
@@ -22675,7 +22694,7 @@
       <c r="F4" s="31">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="H4" s="290"/>
+      <c r="H4" s="292"/>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
@@ -22695,7 +22714,7 @@
         <v>0.23755999999999999</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="P4" s="291"/>
+      <c r="P4" s="293"/>
       <c r="Q4" s="12" t="s">
         <v>127</v>
       </c>
@@ -22715,8 +22734,8 @@
       <c r="Y4" s="61"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="293"/>
-      <c r="AD4" s="258"/>
+      <c r="AC4" s="295"/>
+      <c r="AD4" s="252"/>
       <c r="AE4" s="7" t="s">
         <v>136</v>
       </c>
@@ -22764,7 +22783,7 @@
       <c r="F5" s="33">
         <v>1.7590000000000001E-2</v>
       </c>
-      <c r="H5" s="290"/>
+      <c r="H5" s="292"/>
       <c r="I5" s="25" t="s">
         <v>111</v>
       </c>
@@ -22789,8 +22808,8 @@
       <c r="Y5" s="61"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AC5" s="293"/>
-      <c r="AD5" s="258"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="252"/>
       <c r="AE5" s="7" t="s">
         <v>137</v>
       </c>
@@ -22823,7 +22842,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="290"/>
+      <c r="H6" s="292"/>
       <c r="I6" s="25" t="s">
         <v>112</v>
       </c>
@@ -22850,8 +22869,8 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="AC6" s="293"/>
-      <c r="AD6" s="258"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="252"/>
       <c r="AE6" s="7" t="s">
         <v>138</v>
       </c>
@@ -22889,7 +22908,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="290"/>
+      <c r="H7" s="292"/>
       <c r="I7" s="25" t="s">
         <v>113</v>
       </c>
@@ -22916,8 +22935,8 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="258"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="252"/>
       <c r="AE7" s="7" t="s">
         <v>139</v>
       </c>
@@ -22952,7 +22971,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="290"/>
+      <c r="H8" s="292"/>
       <c r="I8" s="25" t="s">
         <v>114</v>
       </c>
@@ -22979,8 +22998,8 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
-      <c r="AC8" s="293"/>
-      <c r="AD8" s="258"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="252"/>
       <c r="AE8" s="7" t="s">
         <v>140</v>
       </c>
@@ -23015,7 +23034,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="291"/>
+      <c r="H9" s="293"/>
       <c r="I9" s="26" t="s">
         <v>115</v>
       </c>
@@ -23042,8 +23061,8 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="AC9" s="293"/>
-      <c r="AD9" s="258" t="s">
+      <c r="AC9" s="295"/>
+      <c r="AD9" s="252" t="s">
         <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
@@ -23086,8 +23105,8 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="AC10" s="293"/>
-      <c r="AD10" s="258"/>
+      <c r="AC10" s="295"/>
+      <c r="AD10" s="252"/>
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
@@ -23120,7 +23139,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="292" t="s">
+      <c r="H11" s="294" t="s">
         <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
@@ -23141,8 +23160,8 @@
       <c r="N11" s="29">
         <v>0.14138000000000001</v>
       </c>
-      <c r="AC11" s="293"/>
-      <c r="AD11" s="258"/>
+      <c r="AC11" s="295"/>
+      <c r="AD11" s="252"/>
       <c r="AE11" s="7" t="s">
         <v>144</v>
       </c>
@@ -23161,7 +23180,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="293"/>
+      <c r="H12" s="295"/>
       <c r="I12" s="25" t="s">
         <v>109</v>
       </c>
@@ -23180,8 +23199,8 @@
       <c r="N12" s="31">
         <v>0.17241999999999999</v>
       </c>
-      <c r="AC12" s="293"/>
-      <c r="AD12" s="258"/>
+      <c r="AC12" s="295"/>
+      <c r="AD12" s="252"/>
       <c r="AE12" s="7" t="s">
         <v>145</v>
       </c>
@@ -23200,7 +23219,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="293"/>
+      <c r="H13" s="295"/>
       <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
@@ -23219,8 +23238,8 @@
       <c r="N13" s="31">
         <v>0.28339999999999999</v>
       </c>
-      <c r="AC13" s="293"/>
-      <c r="AD13" s="258"/>
+      <c r="AC13" s="295"/>
+      <c r="AD13" s="252"/>
       <c r="AE13" s="7" t="s">
         <v>146</v>
       </c>
@@ -23239,7 +23258,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="293"/>
+      <c r="H14" s="295"/>
       <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
@@ -23258,8 +23277,8 @@
       <c r="N14" s="31">
         <v>0.23977999999999999</v>
       </c>
-      <c r="AC14" s="293"/>
-      <c r="AD14" s="258"/>
+      <c r="AC14" s="295"/>
+      <c r="AD14" s="252"/>
       <c r="AE14" s="7" t="s">
         <v>140</v>
       </c>
@@ -23278,7 +23297,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="293"/>
+      <c r="H15" s="295"/>
       <c r="I15" s="25" t="s">
         <v>112</v>
       </c>
@@ -23297,8 +23316,8 @@
       <c r="N15" s="31">
         <v>0.21498999999999999</v>
       </c>
-      <c r="AC15" s="293"/>
-      <c r="AD15" s="258" t="s">
+      <c r="AC15" s="295"/>
+      <c r="AD15" s="252" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="7" t="s">
@@ -23316,7 +23335,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="293"/>
+      <c r="H16" s="295"/>
       <c r="I16" s="25" t="s">
         <v>113</v>
       </c>
@@ -23335,8 +23354,8 @@
       <c r="N16" s="31">
         <v>0.25580999999999998</v>
       </c>
-      <c r="AC16" s="293"/>
-      <c r="AD16" s="258"/>
+      <c r="AC16" s="295"/>
+      <c r="AD16" s="252"/>
       <c r="AE16" s="7" t="s">
         <v>144</v>
       </c>
@@ -23355,7 +23374,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="293"/>
+      <c r="H17" s="295"/>
       <c r="I17" s="25" t="s">
         <v>114</v>
       </c>
@@ -23374,8 +23393,8 @@
       <c r="N17" s="31">
         <v>0.25395000000000001</v>
       </c>
-      <c r="AC17" s="293"/>
-      <c r="AD17" s="258"/>
+      <c r="AC17" s="295"/>
+      <c r="AD17" s="252"/>
       <c r="AE17" s="7" t="s">
         <v>145</v>
       </c>
@@ -23394,7 +23413,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="294"/>
+      <c r="H18" s="296"/>
       <c r="I18" s="26" t="s">
         <v>115</v>
       </c>
@@ -23413,8 +23432,8 @@
       <c r="N18" s="33">
         <v>0.24823999999999999</v>
       </c>
-      <c r="AC18" s="293"/>
-      <c r="AD18" s="258"/>
+      <c r="AC18" s="295"/>
+      <c r="AD18" s="252"/>
       <c r="AE18" s="7" t="s">
         <v>146</v>
       </c>
@@ -23433,8 +23452,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="258"/>
+      <c r="AC19" s="295"/>
+      <c r="AD19" s="252"/>
       <c r="AE19" s="7" t="s">
         <v>140</v>
       </c>
@@ -23453,8 +23472,8 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="AC20" s="293"/>
-      <c r="AD20" s="258" t="s">
+      <c r="AC20" s="295"/>
+      <c r="AD20" s="252" t="s">
         <v>149</v>
       </c>
       <c r="AE20" s="7" t="s">
@@ -23475,8 +23494,8 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="258"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="252"/>
       <c r="AE21" s="7" t="s">
         <v>151</v>
       </c>
@@ -23495,8 +23514,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="AC22" s="293"/>
-      <c r="AD22" s="258"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="252"/>
       <c r="AE22" s="7" t="s">
         <v>140</v>
       </c>
@@ -23515,8 +23534,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="AC23" s="293"/>
-      <c r="AD23" s="258" t="s">
+      <c r="AC23" s="295"/>
+      <c r="AD23" s="252" t="s">
         <v>152</v>
       </c>
       <c r="AE23" s="7" t="s">
@@ -23537,8 +23556,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="258"/>
+      <c r="AC24" s="295"/>
+      <c r="AD24" s="252"/>
       <c r="AE24" s="7" t="s">
         <v>154</v>
       </c>
@@ -23551,8 +23570,8 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="AC25" s="294"/>
-      <c r="AD25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="290"/>
       <c r="AE25" s="13" t="s">
         <v>140</v>
       </c>
@@ -23569,10 +23588,10 @@
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="D27" s="6"/>
-      <c r="AC27" s="292" t="s">
+      <c r="AC27" s="294" t="s">
         <v>155</v>
       </c>
-      <c r="AD27" s="295" t="s">
+      <c r="AD27" s="289" t="s">
         <v>156</v>
       </c>
       <c r="AE27" s="9" t="s">
@@ -23589,8 +23608,8 @@
       <c r="A28" s="87"/>
       <c r="D28" s="88"/>
       <c r="E28" s="88"/>
-      <c r="AC28" s="293"/>
-      <c r="AD28" s="258"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="252"/>
       <c r="AE28" s="7" t="s">
         <v>157</v>
       </c>
@@ -23605,8 +23624,8 @@
       <c r="A29" s="87"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
-      <c r="AC29" s="293"/>
-      <c r="AD29" s="258"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="252"/>
       <c r="AE29" s="7" t="s">
         <v>158</v>
       </c>
@@ -23618,8 +23637,8 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC30" s="293"/>
-      <c r="AD30" s="258"/>
+      <c r="AC30" s="295"/>
+      <c r="AD30" s="252"/>
       <c r="AE30" s="7" t="s">
         <v>159</v>
       </c>
@@ -23633,8 +23652,8 @@
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="D31" s="6"/>
-      <c r="AC31" s="293"/>
-      <c r="AD31" s="258"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="252"/>
       <c r="AE31" s="7" t="s">
         <v>160</v>
       </c>
@@ -23646,8 +23665,8 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC32" s="293"/>
-      <c r="AD32" s="258"/>
+      <c r="AC32" s="295"/>
+      <c r="AD32" s="252"/>
       <c r="AE32" s="7" t="s">
         <v>139</v>
       </c>
@@ -23660,8 +23679,8 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="AC33" s="293"/>
-      <c r="AD33" s="258"/>
+      <c r="AC33" s="295"/>
+      <c r="AD33" s="252"/>
       <c r="AE33" s="7" t="s">
         <v>140</v>
       </c>
@@ -23678,8 +23697,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="AC34" s="293"/>
-      <c r="AD34" s="258" t="s">
+      <c r="AC34" s="295"/>
+      <c r="AD34" s="252" t="s">
         <v>161</v>
       </c>
       <c r="AE34" s="7" t="s">
@@ -23698,8 +23717,8 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="AC35" s="293"/>
-      <c r="AD35" s="258"/>
+      <c r="AC35" s="295"/>
+      <c r="AD35" s="252"/>
       <c r="AE35" s="7" t="s">
         <v>145</v>
       </c>
@@ -23716,8 +23735,8 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="AC36" s="293"/>
-      <c r="AD36" s="258"/>
+      <c r="AC36" s="295"/>
+      <c r="AD36" s="252"/>
       <c r="AE36" s="7" t="s">
         <v>146</v>
       </c>
@@ -23734,8 +23753,8 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="AC37" s="293"/>
-      <c r="AD37" s="258"/>
+      <c r="AC37" s="295"/>
+      <c r="AD37" s="252"/>
       <c r="AE37" s="7" t="s">
         <v>163</v>
       </c>
@@ -23752,8 +23771,8 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="AC38" s="293"/>
-      <c r="AD38" s="258"/>
+      <c r="AC38" s="295"/>
+      <c r="AD38" s="252"/>
       <c r="AE38" s="7" t="s">
         <v>164</v>
       </c>
@@ -23770,8 +23789,8 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="AC39" s="293"/>
-      <c r="AD39" s="258"/>
+      <c r="AC39" s="295"/>
+      <c r="AD39" s="252"/>
       <c r="AE39" s="7" t="s">
         <v>165</v>
       </c>
@@ -23788,8 +23807,8 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="AC40" s="293"/>
-      <c r="AD40" s="258"/>
+      <c r="AC40" s="295"/>
+      <c r="AD40" s="252"/>
       <c r="AE40" s="7" t="s">
         <v>140</v>
       </c>
@@ -23806,8 +23825,8 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="AC41" s="293"/>
-      <c r="AD41" s="258" t="s">
+      <c r="AC41" s="295"/>
+      <c r="AD41" s="252" t="s">
         <v>166</v>
       </c>
       <c r="AE41" s="7" t="s">
@@ -23826,8 +23845,8 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="AC42" s="293"/>
-      <c r="AD42" s="258"/>
+      <c r="AC42" s="295"/>
+      <c r="AD42" s="252"/>
       <c r="AE42" s="7" t="s">
         <v>168</v>
       </c>
@@ -23844,8 +23863,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="AC43" s="293"/>
-      <c r="AD43" s="258"/>
+      <c r="AC43" s="295"/>
+      <c r="AD43" s="252"/>
       <c r="AE43" s="7" t="s">
         <v>169</v>
       </c>
@@ -23862,8 +23881,8 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="AC44" s="293"/>
-      <c r="AD44" s="258"/>
+      <c r="AC44" s="295"/>
+      <c r="AD44" s="252"/>
       <c r="AE44" s="7" t="s">
         <v>170</v>
       </c>
@@ -23880,8 +23899,8 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="AC45" s="293"/>
-      <c r="AD45" s="258"/>
+      <c r="AC45" s="295"/>
+      <c r="AD45" s="252"/>
       <c r="AE45" s="7" t="s">
         <v>171</v>
       </c>
@@ -23898,8 +23917,8 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="AC46" s="293"/>
-      <c r="AD46" s="258"/>
+      <c r="AC46" s="295"/>
+      <c r="AD46" s="252"/>
       <c r="AE46" s="7" t="s">
         <v>172</v>
       </c>
@@ -23916,8 +23935,8 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="AC47" s="293"/>
-      <c r="AD47" s="258"/>
+      <c r="AC47" s="295"/>
+      <c r="AD47" s="252"/>
       <c r="AE47" s="7" t="s">
         <v>140</v>
       </c>
@@ -23934,8 +23953,8 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="AC48" s="293"/>
-      <c r="AD48" s="258" t="s">
+      <c r="AC48" s="295"/>
+      <c r="AD48" s="252" t="s">
         <v>173</v>
       </c>
       <c r="AE48" s="7" t="s">
@@ -23954,8 +23973,8 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="AC49" s="293"/>
-      <c r="AD49" s="258"/>
+      <c r="AC49" s="295"/>
+      <c r="AD49" s="252"/>
       <c r="AE49" s="7" t="s">
         <v>175</v>
       </c>
@@ -23972,8 +23991,8 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="AC50" s="293"/>
-      <c r="AD50" s="258"/>
+      <c r="AC50" s="295"/>
+      <c r="AD50" s="252"/>
       <c r="AE50" s="7" t="s">
         <v>140</v>
       </c>
@@ -23990,8 +24009,8 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AC51" s="293"/>
-      <c r="AD51" s="258" t="s">
+      <c r="AC51" s="295"/>
+      <c r="AD51" s="252" t="s">
         <v>176</v>
       </c>
       <c r="AE51" s="7" t="s">
@@ -24010,8 +24029,8 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="AC52" s="293"/>
-      <c r="AD52" s="258"/>
+      <c r="AC52" s="295"/>
+      <c r="AD52" s="252"/>
       <c r="AE52" s="7" t="s">
         <v>178</v>
       </c>
@@ -24028,8 +24047,8 @@
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="AC53" s="293"/>
-      <c r="AD53" s="258"/>
+      <c r="AC53" s="295"/>
+      <c r="AD53" s="252"/>
       <c r="AE53" s="7" t="s">
         <v>140</v>
       </c>
@@ -24046,7 +24065,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="AC54" s="293"/>
+      <c r="AC54" s="295"/>
       <c r="AD54" s="19" t="s">
         <v>179</v>
       </c>
@@ -24066,7 +24085,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="AC55" s="294"/>
+      <c r="AC55" s="296"/>
       <c r="AD55" s="20" t="s">
         <v>180</v>
       </c>
@@ -24299,11 +24318,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AD2:AD8"/>
-    <mergeCell ref="AD9:AD14"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AD23:AD25"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="AC2:AC25"/>
+    <mergeCell ref="AC27:AC55"/>
     <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="AD51:AD53"/>
@@ -24320,11 +24339,11 @@
     <mergeCell ref="AD41:AD47"/>
     <mergeCell ref="AD48:AD50"/>
     <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H11:H18"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="AC2:AC25"/>
-    <mergeCell ref="AC27:AC55"/>
+    <mergeCell ref="AD2:AD8"/>
+    <mergeCell ref="AD9:AD14"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AD23:AD25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24661,7 +24680,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="25" t="s">
         <v>109</v>
       </c>
@@ -24682,7 +24701,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="25" t="s">
         <v>110</v>
       </c>
@@ -24703,7 +24722,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="25" t="s">
         <v>111</v>
       </c>
@@ -24724,7 +24743,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="25" t="s">
         <v>112</v>
       </c>
@@ -24745,7 +24764,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
@@ -24766,7 +24785,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -24787,7 +24806,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="291"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="26" t="s">
         <v>115</v>
       </c>
@@ -24808,7 +24827,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="291" t="s">
         <v>116</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -24831,7 +24850,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="25" t="s">
         <v>109</v>
       </c>
@@ -24852,7 +24871,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="25" t="s">
         <v>110</v>
       </c>
@@ -24873,7 +24892,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="25" t="s">
         <v>111</v>
       </c>
@@ -24894,7 +24913,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="25" t="s">
         <v>112</v>
       </c>
@@ -24915,7 +24934,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="25" t="s">
         <v>113</v>
       </c>
@@ -24936,7 +24955,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -24957,7 +24976,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="291"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="26" t="s">
         <v>115</v>
       </c>
@@ -25695,7 +25714,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="291" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -25714,7 +25733,7 @@
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="5" t="s">
         <v>126</v>
       </c>
@@ -25731,7 +25750,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="291"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="12" t="s">
         <v>127</v>
       </c>
@@ -25927,7 +25946,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="291" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="299" t="s">
@@ -25953,7 +25972,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="290"/>
+      <c r="A2" s="292"/>
       <c r="B2" s="298"/>
       <c r="C2" s="7" t="s">
         <v>135</v>
@@ -25975,7 +25994,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="290"/>
+      <c r="A3" s="292"/>
       <c r="B3" s="298"/>
       <c r="C3" s="7" t="s">
         <v>136</v>
@@ -25997,7 +26016,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="290"/>
+      <c r="A4" s="292"/>
       <c r="B4" s="298"/>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -26019,7 +26038,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="290"/>
+      <c r="A5" s="292"/>
       <c r="B5" s="298"/>
       <c r="C5" s="7" t="s">
         <v>138</v>
@@ -26041,7 +26060,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="290"/>
+      <c r="A6" s="292"/>
       <c r="B6" s="298"/>
       <c r="C6" s="7" t="s">
         <v>139</v>
@@ -26063,7 +26082,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="290"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="298"/>
       <c r="C7" s="7" t="s">
         <v>140</v>
@@ -26085,7 +26104,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="290"/>
+      <c r="A8" s="292"/>
       <c r="B8" s="298" t="s">
         <v>141</v>
       </c>
@@ -26109,7 +26128,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="290"/>
+      <c r="A9" s="292"/>
       <c r="B9" s="298"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
@@ -26131,7 +26150,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="290"/>
+      <c r="A10" s="292"/>
       <c r="B10" s="298"/>
       <c r="C10" s="7" t="s">
         <v>144</v>
@@ -26153,7 +26172,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="290"/>
+      <c r="A11" s="292"/>
       <c r="B11" s="298"/>
       <c r="C11" s="7" t="s">
         <v>145</v>
@@ -26175,7 +26194,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="290"/>
+      <c r="A12" s="292"/>
       <c r="B12" s="298"/>
       <c r="C12" s="7" t="s">
         <v>146</v>
@@ -26197,7 +26216,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="290"/>
+      <c r="A13" s="292"/>
       <c r="B13" s="298"/>
       <c r="C13" s="7" t="s">
         <v>140</v>
@@ -26219,7 +26238,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="290"/>
+      <c r="A14" s="292"/>
       <c r="B14" s="298" t="s">
         <v>147</v>
       </c>
@@ -26243,7 +26262,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="290"/>
+      <c r="A15" s="292"/>
       <c r="B15" s="298"/>
       <c r="C15" s="7" t="s">
         <v>144</v>
@@ -26265,7 +26284,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="290"/>
+      <c r="A16" s="292"/>
       <c r="B16" s="298"/>
       <c r="C16" s="7" t="s">
         <v>145</v>
@@ -26287,7 +26306,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="290"/>
+      <c r="A17" s="292"/>
       <c r="B17" s="298"/>
       <c r="C17" s="7" t="s">
         <v>146</v>
@@ -26309,7 +26328,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="290"/>
+      <c r="A18" s="292"/>
       <c r="B18" s="298"/>
       <c r="C18" s="7" t="s">
         <v>140</v>
@@ -26331,7 +26350,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="290"/>
+      <c r="A19" s="292"/>
       <c r="B19" s="298" t="s">
         <v>149</v>
       </c>
@@ -26355,7 +26374,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="290"/>
+      <c r="A20" s="292"/>
       <c r="B20" s="298"/>
       <c r="C20" s="7" t="s">
         <v>151</v>
@@ -26377,7 +26396,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="290"/>
+      <c r="A21" s="292"/>
       <c r="B21" s="298"/>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -26399,7 +26418,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="290"/>
+      <c r="A22" s="292"/>
       <c r="B22" s="298" t="s">
         <v>152</v>
       </c>
@@ -26423,7 +26442,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="290"/>
+      <c r="A23" s="292"/>
       <c r="B23" s="298"/>
       <c r="C23" s="7" t="s">
         <v>154</v>
@@ -26445,7 +26464,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="291"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="300"/>
       <c r="C24" s="13" t="s">
         <v>140</v>
@@ -26467,7 +26486,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="292" t="s">
+      <c r="A25" s="294" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="299" t="s">
@@ -26493,7 +26512,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="293"/>
+      <c r="A26" s="295"/>
       <c r="B26" s="298"/>
       <c r="C26" s="7" t="s">
         <v>157</v>
@@ -26515,7 +26534,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="293"/>
+      <c r="A27" s="295"/>
       <c r="B27" s="298"/>
       <c r="C27" s="7" t="s">
         <v>158</v>
@@ -26537,7 +26556,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="293"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="298"/>
       <c r="C28" s="7" t="s">
         <v>159</v>
@@ -26559,7 +26578,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="293"/>
+      <c r="A29" s="295"/>
       <c r="B29" s="298"/>
       <c r="C29" s="7" t="s">
         <v>160</v>
@@ -26581,7 +26600,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="293"/>
+      <c r="A30" s="295"/>
       <c r="B30" s="298"/>
       <c r="C30" s="7" t="s">
         <v>139</v>
@@ -26603,7 +26622,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="293"/>
+      <c r="A31" s="295"/>
       <c r="B31" s="298"/>
       <c r="C31" s="7" t="s">
         <v>140</v>
@@ -26625,7 +26644,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="293"/>
+      <c r="A32" s="295"/>
       <c r="B32" s="298" t="s">
         <v>161</v>
       </c>
@@ -26649,7 +26668,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="293"/>
+      <c r="A33" s="295"/>
       <c r="B33" s="298"/>
       <c r="C33" s="7" t="s">
         <v>145</v>
@@ -26671,7 +26690,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="293"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="298"/>
       <c r="C34" s="7" t="s">
         <v>146</v>
@@ -26693,7 +26712,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="293"/>
+      <c r="A35" s="295"/>
       <c r="B35" s="298"/>
       <c r="C35" s="7" t="s">
         <v>163</v>
@@ -26715,7 +26734,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="293"/>
+      <c r="A36" s="295"/>
       <c r="B36" s="298"/>
       <c r="C36" s="7" t="s">
         <v>164</v>
@@ -26737,7 +26756,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="293"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="298"/>
       <c r="C37" s="7" t="s">
         <v>165</v>
@@ -26759,7 +26778,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="293"/>
+      <c r="A38" s="295"/>
       <c r="B38" s="298"/>
       <c r="C38" s="7" t="s">
         <v>140</v>
@@ -26781,7 +26800,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="293"/>
+      <c r="A39" s="295"/>
       <c r="B39" s="298" t="s">
         <v>166</v>
       </c>
@@ -26805,7 +26824,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="293"/>
+      <c r="A40" s="295"/>
       <c r="B40" s="298"/>
       <c r="C40" s="7" t="s">
         <v>168</v>
@@ -26827,7 +26846,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="293"/>
+      <c r="A41" s="295"/>
       <c r="B41" s="298"/>
       <c r="C41" s="7" t="s">
         <v>169</v>
@@ -26849,7 +26868,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="293"/>
+      <c r="A42" s="295"/>
       <c r="B42" s="298"/>
       <c r="C42" s="7" t="s">
         <v>170</v>
@@ -26871,7 +26890,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="293"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="298"/>
       <c r="C43" s="7" t="s">
         <v>171</v>
@@ -26893,7 +26912,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="293"/>
+      <c r="A44" s="295"/>
       <c r="B44" s="298"/>
       <c r="C44" s="7" t="s">
         <v>172</v>
@@ -26915,7 +26934,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="293"/>
+      <c r="A45" s="295"/>
       <c r="B45" s="298"/>
       <c r="C45" s="7" t="s">
         <v>140</v>
@@ -26937,7 +26956,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="293"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="298" t="s">
         <v>173</v>
       </c>
@@ -26961,7 +26980,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="293"/>
+      <c r="A47" s="295"/>
       <c r="B47" s="298"/>
       <c r="C47" s="7" t="s">
         <v>175</v>
@@ -26983,7 +27002,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="293"/>
+      <c r="A48" s="295"/>
       <c r="B48" s="298"/>
       <c r="C48" s="7" t="s">
         <v>140</v>
@@ -27005,7 +27024,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="293"/>
+      <c r="A49" s="295"/>
       <c r="B49" s="298" t="s">
         <v>176</v>
       </c>
@@ -27029,7 +27048,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="293"/>
+      <c r="A50" s="295"/>
       <c r="B50" s="298"/>
       <c r="C50" s="7" t="s">
         <v>178</v>
@@ -27051,7 +27070,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="293"/>
+      <c r="A51" s="295"/>
       <c r="B51" s="298"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
@@ -27073,7 +27092,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="293"/>
+      <c r="A52" s="295"/>
       <c r="B52" s="246" t="s">
         <v>179</v>
       </c>
@@ -27097,7 +27116,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="294"/>
+      <c r="A53" s="296"/>
       <c r="B53" s="247" t="s">
         <v>180</v>
       </c>
@@ -27382,7 +27401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC10D59-E4D1-471E-9848-DB3F19451A42}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -27418,6 +27437,54 @@
       </c>
       <c r="B4">
         <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389994AC-BE2B-4FC6-980E-91DE903DEF34}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B2" s="302">
+        <v>1.3</v>
+      </c>
+      <c r="C2" s="301"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B4">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -27505,50 +27572,50 @@
       <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="265"/>
-      <c r="AM1" s="265"/>
-      <c r="AN1" s="266"/>
-      <c r="AO1" s="266"/>
-      <c r="AP1" s="266"/>
-      <c r="AQ1" s="266"/>
-      <c r="AR1" s="266"/>
-      <c r="AS1" s="266"/>
-      <c r="AT1" s="266"/>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="266"/>
-      <c r="BA1" s="266"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="251"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="251"/>
+      <c r="AJ1" s="251"/>
+      <c r="AK1" s="251"/>
+      <c r="AL1" s="251"/>
+      <c r="AM1" s="251"/>
+      <c r="AN1" s="248"/>
+      <c r="AO1" s="248"/>
+      <c r="AP1" s="248"/>
+      <c r="AQ1" s="248"/>
+      <c r="AR1" s="248"/>
+      <c r="AS1" s="248"/>
+      <c r="AT1" s="248"/>
+      <c r="AU1" s="248"/>
+      <c r="AV1" s="248"/>
+      <c r="AW1" s="248"/>
+      <c r="AX1" s="248"/>
+      <c r="AY1" s="248"/>
+      <c r="AZ1" s="248"/>
+      <c r="BA1" s="248"/>
     </row>
     <row r="2" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="261" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -27585,33 +27652,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
-      <c r="AX2" s="266"/>
-      <c r="AY2" s="266"/>
-      <c r="AZ2" s="266"/>
-      <c r="BA2" s="266"/>
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="250"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
+      <c r="AN2" s="248"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="248"/>
+      <c r="AQ2" s="248"/>
+      <c r="AR2" s="248"/>
+      <c r="AS2" s="248"/>
+      <c r="AT2" s="248"/>
+      <c r="AU2" s="248"/>
+      <c r="AV2" s="248"/>
+      <c r="AW2" s="248"/>
+      <c r="AX2" s="248"/>
+      <c r="AY2" s="248"/>
+      <c r="AZ2" s="248"/>
+      <c r="BA2" s="248"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
+      <c r="A3" s="262"/>
       <c r="B3" s="25" t="s">
         <v>100</v>
       </c>
@@ -27669,7 +27736,7 @@
       <c r="BA3" s="5"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="252"/>
+      <c r="A4" s="262"/>
       <c r="B4" s="25" t="s">
         <v>237</v>
       </c>
@@ -27730,7 +27797,7 @@
       <c r="BA4" s="7"/>
     </row>
     <row r="5" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="253"/>
+      <c r="A5" s="263"/>
       <c r="B5" s="26" t="s">
         <v>102</v>
       </c>
@@ -27880,7 +27947,7 @@
       <c r="BA7" s="5"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="261" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -27935,7 +28002,7 @@
       <c r="BA8" s="5"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="252"/>
+      <c r="A9" s="262"/>
       <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
@@ -27986,7 +28053,7 @@
       <c r="BA9" s="5"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="252"/>
+      <c r="A10" s="262"/>
       <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
@@ -28033,7 +28100,7 @@
       <c r="BA10" s="5"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="252"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="25" t="s">
         <v>111</v>
       </c>
@@ -28057,7 +28124,7 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="252"/>
+      <c r="A12" s="262"/>
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
@@ -28081,7 +28148,7 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="252"/>
+      <c r="A13" s="262"/>
       <c r="B13" s="25" t="s">
         <v>113</v>
       </c>
@@ -28105,7 +28172,7 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="252"/>
+      <c r="A14" s="262"/>
       <c r="B14" s="25" t="s">
         <v>114</v>
       </c>
@@ -28129,7 +28196,7 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A15" s="253"/>
+      <c r="A15" s="263"/>
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
@@ -28162,7 +28229,7 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="258" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -28188,7 +28255,7 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="249"/>
+      <c r="A18" s="259"/>
       <c r="B18" s="25" t="s">
         <v>109</v>
       </c>
@@ -28212,7 +28279,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="249"/>
+      <c r="A19" s="259"/>
       <c r="B19" s="25" t="s">
         <v>110</v>
       </c>
@@ -28236,7 +28303,7 @@
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="249"/>
+      <c r="A20" s="259"/>
       <c r="B20" s="25" t="s">
         <v>111</v>
       </c>
@@ -28260,7 +28327,7 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="249"/>
+      <c r="A21" s="259"/>
       <c r="B21" s="25" t="s">
         <v>112</v>
       </c>
@@ -28284,7 +28351,7 @@
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="249"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="25" t="s">
         <v>113</v>
       </c>
@@ -28308,7 +28375,7 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="249"/>
+      <c r="A23" s="259"/>
       <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
@@ -28332,7 +28399,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="250"/>
+      <c r="A24" s="260"/>
       <c r="B24" s="26" t="s">
         <v>115</v>
       </c>
@@ -28376,7 +28443,7 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="261" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -28399,7 +28466,7 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="252"/>
+      <c r="A28" s="262"/>
       <c r="B28" s="5" t="s">
         <v>126</v>
       </c>
@@ -28420,7 +28487,7 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="253"/>
+      <c r="A29" s="263"/>
       <c r="B29" s="12" t="s">
         <v>127</v>
       </c>
@@ -28470,10 +28537,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="248" t="s">
+      <c r="A34" s="258" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="260" t="str">
+      <c r="B34" s="254" t="str">
         <f>G34</f>
         <v>Crude Tanker</v>
       </c>
@@ -28494,8 +28561,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="249"/>
-      <c r="B35" s="261"/>
+      <c r="A35" s="259"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
@@ -28510,8 +28577,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="261"/>
+      <c r="A36" s="259"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -28526,8 +28593,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="249"/>
-      <c r="B37" s="261"/>
+      <c r="A37" s="259"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="7" t="s">
         <v>137</v>
       </c>
@@ -28542,8 +28609,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="249"/>
-      <c r="B38" s="261"/>
+      <c r="A38" s="259"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="7" t="s">
         <v>138</v>
       </c>
@@ -28558,8 +28625,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="249"/>
-      <c r="B39" s="261"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
@@ -28571,8 +28638,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="249"/>
-      <c r="B40" s="261"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
@@ -28584,8 +28651,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="249"/>
-      <c r="B41" s="261" t="str">
+      <c r="A41" s="259"/>
+      <c r="B41" s="255" t="str">
         <f>G35</f>
         <v>Products Tanker</v>
       </c>
@@ -28600,8 +28667,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="249"/>
-      <c r="B42" s="261"/>
+      <c r="A42" s="259"/>
+      <c r="B42" s="255"/>
       <c r="C42" s="7" t="s">
         <v>143</v>
       </c>
@@ -28613,8 +28680,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="249"/>
-      <c r="B43" s="261"/>
+      <c r="A43" s="259"/>
+      <c r="B43" s="255"/>
       <c r="C43" s="7" t="s">
         <v>144</v>
       </c>
@@ -28626,8 +28693,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="249"/>
-      <c r="B44" s="261"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="7" t="s">
         <v>145</v>
       </c>
@@ -28639,8 +28706,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="249"/>
-      <c r="B45" s="261"/>
+      <c r="A45" s="259"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="7" t="s">
         <v>146</v>
       </c>
@@ -28652,8 +28719,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="249"/>
-      <c r="B46" s="261"/>
+      <c r="A46" s="259"/>
+      <c r="B46" s="255"/>
       <c r="C46" s="7" t="s">
         <v>140</v>
       </c>
@@ -28665,8 +28732,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="249"/>
-      <c r="B47" s="261" t="str">
+      <c r="A47" s="259"/>
+      <c r="B47" s="255" t="str">
         <f>G36</f>
         <v>Chemical Tanker</v>
       </c>
@@ -28681,8 +28748,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="249"/>
-      <c r="B48" s="261"/>
+      <c r="A48" s="259"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="7" t="s">
         <v>144</v>
       </c>
@@ -28694,8 +28761,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="249"/>
-      <c r="B49" s="261"/>
+      <c r="A49" s="259"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="7" t="s">
         <v>145</v>
       </c>
@@ -28707,8 +28774,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="249"/>
-      <c r="B50" s="261"/>
+      <c r="A50" s="259"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="7" t="s">
         <v>146</v>
       </c>
@@ -28720,8 +28787,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="249"/>
-      <c r="B51" s="261"/>
+      <c r="A51" s="259"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="7" t="s">
         <v>140</v>
       </c>
@@ -28733,8 +28800,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="249"/>
-      <c r="B52" s="261" t="str">
+      <c r="A52" s="259"/>
+      <c r="B52" s="255" t="str">
         <f>G37</f>
         <v>LNG Tanker</v>
       </c>
@@ -28749,8 +28816,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="249"/>
-      <c r="B53" s="261"/>
+      <c r="A53" s="259"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="7" t="s">
         <v>151</v>
       </c>
@@ -28762,8 +28829,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="249"/>
-      <c r="B54" s="261"/>
+      <c r="A54" s="259"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="7" t="s">
         <v>140</v>
       </c>
@@ -28775,8 +28842,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="249"/>
-      <c r="B55" s="261" t="str">
+      <c r="A55" s="259"/>
+      <c r="B55" s="255" t="str">
         <f>G38</f>
         <v>LPG Tanker</v>
       </c>
@@ -28791,8 +28858,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="249"/>
-      <c r="B56" s="261"/>
+      <c r="A56" s="259"/>
+      <c r="B56" s="255"/>
       <c r="C56" s="7" t="s">
         <v>154</v>
       </c>
@@ -28804,8 +28871,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="250"/>
-      <c r="B57" s="262"/>
+      <c r="A57" s="260"/>
+      <c r="B57" s="256"/>
       <c r="C57" s="13" t="s">
         <v>140</v>
       </c>
@@ -28820,10 +28887,10 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="254" t="s">
+      <c r="A59" s="264" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="263" t="s">
+      <c r="B59" s="257" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="106" t="s">
@@ -28840,8 +28907,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="255"/>
-      <c r="B60" s="258"/>
+      <c r="A60" s="265"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="7" t="s">
         <v>157</v>
       </c>
@@ -28859,8 +28926,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="255"/>
-      <c r="B61" s="258"/>
+      <c r="A61" s="265"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
@@ -28875,8 +28942,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="255"/>
-      <c r="B62" s="258"/>
+      <c r="A62" s="265"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="7" t="s">
         <v>159</v>
       </c>
@@ -28891,8 +28958,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="255"/>
-      <c r="B63" s="258"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
@@ -28907,8 +28974,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="255"/>
-      <c r="B64" s="258"/>
+      <c r="A64" s="265"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="7" t="s">
         <v>139</v>
       </c>
@@ -28923,8 +28990,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="255"/>
-      <c r="B65" s="258"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="252"/>
       <c r="C65" s="7" t="s">
         <v>140</v>
       </c>
@@ -28937,8 +29004,8 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="255"/>
-      <c r="B66" s="258" t="str">
+      <c r="A66" s="265"/>
+      <c r="B66" s="252" t="str">
         <f>G61</f>
         <v>General Cargo</v>
       </c>
@@ -28954,8 +29021,8 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="255"/>
-      <c r="B67" s="258"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="252"/>
       <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
@@ -28967,8 +29034,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="255"/>
-      <c r="B68" s="258"/>
+      <c r="A68" s="265"/>
+      <c r="B68" s="252"/>
       <c r="C68" s="7" t="s">
         <v>146</v>
       </c>
@@ -28980,8 +29047,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="255"/>
-      <c r="B69" s="258"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="7" t="s">
         <v>163</v>
       </c>
@@ -28993,8 +29060,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="255"/>
-      <c r="B70" s="258"/>
+      <c r="A70" s="265"/>
+      <c r="B70" s="252"/>
       <c r="C70" s="7" t="s">
         <v>164</v>
       </c>
@@ -29006,8 +29073,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="255"/>
-      <c r="B71" s="258"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="7" t="s">
         <v>165</v>
       </c>
@@ -29019,8 +29086,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="255"/>
-      <c r="B72" s="258"/>
+      <c r="A72" s="265"/>
+      <c r="B72" s="252"/>
       <c r="C72" s="7" t="s">
         <v>140</v>
       </c>
@@ -29032,8 +29099,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="255"/>
-      <c r="B73" s="258" t="str">
+      <c r="A73" s="265"/>
+      <c r="B73" s="252" t="str">
         <f>G62</f>
         <v>Container Ship</v>
       </c>
@@ -29048,8 +29115,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="255"/>
-      <c r="B74" s="258"/>
+      <c r="A74" s="265"/>
+      <c r="B74" s="252"/>
       <c r="C74" s="7" t="s">
         <v>168</v>
       </c>
@@ -29061,8 +29128,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="255"/>
-      <c r="B75" s="258"/>
+      <c r="A75" s="265"/>
+      <c r="B75" s="252"/>
       <c r="C75" s="7" t="s">
         <v>169</v>
       </c>
@@ -29074,8 +29141,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="255"/>
-      <c r="B76" s="258"/>
+      <c r="A76" s="265"/>
+      <c r="B76" s="252"/>
       <c r="C76" s="7" t="s">
         <v>170</v>
       </c>
@@ -29087,8 +29154,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="255"/>
-      <c r="B77" s="258"/>
+      <c r="A77" s="265"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
@@ -29100,8 +29167,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="255"/>
-      <c r="B78" s="258"/>
+      <c r="A78" s="265"/>
+      <c r="B78" s="252"/>
       <c r="C78" s="7" t="s">
         <v>172</v>
       </c>
@@ -29113,8 +29180,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="255"/>
-      <c r="B79" s="258"/>
+      <c r="A79" s="265"/>
+      <c r="B79" s="252"/>
       <c r="C79" s="7" t="s">
         <v>140</v>
       </c>
@@ -29126,8 +29193,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="255"/>
-      <c r="B80" s="258" t="str">
+      <c r="A80" s="265"/>
+      <c r="B80" s="252" t="str">
         <f>G63</f>
         <v>Vehicle Transport</v>
       </c>
@@ -29142,8 +29209,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="255"/>
-      <c r="B81" s="258"/>
+      <c r="A81" s="265"/>
+      <c r="B81" s="252"/>
       <c r="C81" s="7" t="s">
         <v>175</v>
       </c>
@@ -29155,8 +29222,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="255"/>
-      <c r="B82" s="258"/>
+      <c r="A82" s="265"/>
+      <c r="B82" s="252"/>
       <c r="C82" s="7" t="s">
         <v>140</v>
       </c>
@@ -29168,8 +29235,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="255"/>
-      <c r="B83" s="258" t="str">
+      <c r="A83" s="265"/>
+      <c r="B83" s="252" t="str">
         <f>G64</f>
         <v>RoRo-Ferry</v>
       </c>
@@ -29184,8 +29251,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="255"/>
-      <c r="B84" s="258"/>
+      <c r="A84" s="265"/>
+      <c r="B84" s="252"/>
       <c r="C84" s="7" t="s">
         <v>178</v>
       </c>
@@ -29197,8 +29264,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="256"/>
-      <c r="B85" s="259"/>
+      <c r="A85" s="266"/>
+      <c r="B85" s="253"/>
       <c r="C85" s="109" t="s">
         <v>140</v>
       </c>
@@ -29225,21 +29292,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:BA1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A34:A57"/>
+    <mergeCell ref="A59:A85"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="B83:B85"/>
@@ -29252,13 +29311,21 @@
     <mergeCell ref="B66:B72"/>
     <mergeCell ref="B73:B79"/>
     <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A34:A57"/>
-    <mergeCell ref="A59:A85"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD1:AM1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN1:BA1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -29979,6 +30046,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002421F11EEDDE384FB7C085565B41D8A3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f2110d999b2198ca905f709498fe5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xmlns:ns4="c4b714d6-5279-4714-9d1b-8fd92f2c755f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb26693b7426f3e8708c7b5214bebf03" ns3:_="" ns4:_="">
     <xsd:import namespace="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
@@ -30199,14 +30274,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -30217,6 +30284,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D040ECB6-93F9-4808-A03A-B1CAE005DE43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30235,16 +30312,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72BDBB37-AD8B-40CA-8F27-3DEEC02D132C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1cd42d2d-1c72-4cb3-961a-8eacd8eb79ad"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF9F8EA-6182-46F4-95C0-EF389A4E8541}">
   <ds:schemaRefs>
